--- a/linreg/rifdid_coefs.xlsx
+++ b/linreg/rifdid_coefs.xlsx
@@ -582,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.10264532924406156</v>
+        <v>-0.096230629600052561</v>
       </c>
       <c r="C2">
-        <v>0.0050050017236040988</v>
+        <v>0.0060584999520677061</v>
       </c>
       <c r="D2">
-        <v>-0.11245496346602593</v>
+        <v>-0.10810509418046191</v>
       </c>
       <c r="E2">
-        <v>-0.092835695022097181</v>
+        <v>-0.084356165019643214</v>
       </c>
     </row>
     <row r="3">
@@ -599,16 +599,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.005108220891951302</v>
+        <v>-0.016450249925729826</v>
       </c>
       <c r="C3">
-        <v>0.0063885554006920487</v>
+        <v>0.0074695073903815745</v>
       </c>
       <c r="D3">
-        <v>-0.017629573560420685</v>
+        <v>-0.031090243594446558</v>
       </c>
       <c r="E3">
-        <v>0.0074131317765180815</v>
+        <v>-0.0018102562570130962</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.11909952263933588</v>
+        <v>-0.092744919408887516</v>
       </c>
       <c r="C4">
-        <v>0.0073296915148462699</v>
+        <v>0.0087744854461983633</v>
       </c>
       <c r="D4">
-        <v>-0.13346547028354599</v>
+        <v>-0.10994262799459774</v>
       </c>
       <c r="E4">
-        <v>-0.10473357499512576</v>
+        <v>-0.075547210823177294</v>
       </c>
     </row>
     <row r="5">
@@ -633,16 +633,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.036101912770437825</v>
+        <v>-0.03403305168786816</v>
       </c>
       <c r="C5">
-        <v>0.0029348345245978993</v>
+        <v>0.0038915456830830876</v>
       </c>
       <c r="D5">
-        <v>-0.041854089182123647</v>
+        <v>-0.041660355305894479</v>
       </c>
       <c r="E5">
-        <v>-0.030349736358752002</v>
+        <v>-0.026405748069841844</v>
       </c>
     </row>
     <row r="6">
@@ -650,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.015429912400247811</v>
+        <v>0.0037022922188086668</v>
       </c>
       <c r="C6">
-        <v>0.0045395857326254009</v>
+        <v>0.0063260405797551092</v>
       </c>
       <c r="D6">
-        <v>0.0065324778937449306</v>
+        <v>-0.0086965426224466843</v>
       </c>
       <c r="E6">
-        <v>0.024327346906750692</v>
+        <v>0.016101127060064016</v>
       </c>
     </row>
     <row r="7">
@@ -667,16 +667,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.078687165816703888</v>
+        <v>-0.074450386795289508</v>
       </c>
       <c r="C7">
-        <v>0.0043526457400397851</v>
+        <v>0.0058502020538126476</v>
       </c>
       <c r="D7">
-        <v>-0.087218204260076426</v>
+        <v>-0.085916593522658277</v>
       </c>
       <c r="E7">
-        <v>-0.070156127373331351</v>
+        <v>-0.062984180067920739</v>
       </c>
     </row>
     <row r="8">
@@ -684,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.10880478736421459</v>
+        <v>-0.1022722137770402</v>
       </c>
       <c r="C8">
-        <v>0.0058680619813048914</v>
+        <v>0.0069355137335835957</v>
       </c>
       <c r="D8">
-        <v>-0.12030599334838987</v>
+        <v>-0.11586560184407214</v>
       </c>
       <c r="E8">
-        <v>-0.097303581380039306</v>
+        <v>-0.088678825710008249</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-4.6010491717232139e-05</v>
+        <v>-0.015551599081443424</v>
       </c>
       <c r="C9">
-        <v>0.0064741565217924374</v>
+        <v>0.0076817945026165504</v>
       </c>
       <c r="D9">
-        <v>-0.012735141582723311</v>
+        <v>-0.030607673906819698</v>
       </c>
       <c r="E9">
-        <v>0.012643120599288847</v>
+        <v>-0.00049552425606714905</v>
       </c>
     </row>
     <row r="10">
@@ -718,16 +718,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.089955560027135992</v>
+        <v>-0.066518940939715776</v>
       </c>
       <c r="C10">
-        <v>0.0074519963473131086</v>
+        <v>0.0093412053589264857</v>
       </c>
       <c r="D10">
-        <v>-0.10456122459864603</v>
+        <v>-0.084827408680592992</v>
       </c>
       <c r="E10">
-        <v>-0.075349895455625954</v>
+        <v>-0.04821047319883856</v>
       </c>
     </row>
     <row r="11">
@@ -735,16 +735,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.041164937760013669</v>
+        <v>-0.042572030797728991</v>
       </c>
       <c r="C11">
-        <v>0.0030908119935197454</v>
+        <v>0.004380201709647767</v>
       </c>
       <c r="D11">
-        <v>-0.047222825884073727</v>
+        <v>-0.051157086962864404</v>
       </c>
       <c r="E11">
-        <v>-0.035107049635953611</v>
+        <v>-0.033986974632593578</v>
       </c>
     </row>
     <row r="12">
@@ -752,16 +752,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.018659213814639773</v>
+        <v>0.0065394349344677473</v>
       </c>
       <c r="C12">
-        <v>0.0051333201568942851</v>
+        <v>0.0064318040973285863</v>
       </c>
       <c r="D12">
-        <v>0.0085980780093411289</v>
+        <v>-0.0060666967185775888</v>
       </c>
       <c r="E12">
-        <v>0.028720349619938419</v>
+        <v>0.019145566587513083</v>
       </c>
     </row>
     <row r="13">
@@ -769,16 +769,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.066137830476433027</v>
+        <v>-0.059674821632196638</v>
       </c>
       <c r="C13">
-        <v>0.0045395982944065119</v>
+        <v>0.0061430620955588971</v>
       </c>
       <c r="D13">
-        <v>-0.075035291290402401</v>
+        <v>-0.071715028136871181</v>
       </c>
       <c r="E13">
-        <v>-0.057240369662463653</v>
+        <v>-0.047634615127522095</v>
       </c>
     </row>
     <row r="14">
@@ -786,16 +786,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.22526599451874874</v>
+        <v>-0.20523053049203391</v>
       </c>
       <c r="C14">
-        <v>0.0099598359955906726</v>
+        <v>0.013769389276064579</v>
       </c>
       <c r="D14">
-        <v>-0.24478703924353828</v>
+        <v>-0.23221837655981833</v>
       </c>
       <c r="E14">
-        <v>-0.20574494979395919</v>
+        <v>-0.17824268442424948</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.033808179226199137</v>
+        <v>-0.048887242948642044</v>
       </c>
       <c r="C15">
-        <v>0.020191255400881111</v>
+        <v>0.021554675475050654</v>
       </c>
       <c r="D15">
-        <v>-0.073382565782839748</v>
+        <v>-0.091134161246820528</v>
       </c>
       <c r="E15">
-        <v>0.0057662073304414752</v>
+        <v>-0.006640324650463568</v>
       </c>
     </row>
     <row r="16">
@@ -820,16 +820,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.067678669825953663</v>
+        <v>-0.075206411090617334</v>
       </c>
       <c r="C16">
-        <v>0.018152582416755578</v>
+        <v>0.026226187768748646</v>
       </c>
       <c r="D16">
-        <v>-0.10325730519553122</v>
+        <v>-0.12660944024879156</v>
       </c>
       <c r="E16">
-        <v>-0.032100034456376096</v>
+        <v>-0.023803381932443107</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.060905114476902202</v>
+        <v>-0.040559661012148203</v>
       </c>
       <c r="C17">
-        <v>0.0079542110716643803</v>
+        <v>0.011828710473158055</v>
       </c>
       <c r="D17">
-        <v>-0.076495203715889609</v>
+        <v>-0.063743823421833407</v>
       </c>
       <c r="E17">
-        <v>-0.045315025237914794</v>
+        <v>-0.017375498602463006</v>
       </c>
     </row>
     <row r="18">
@@ -854,16 +854,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.023912422548971746</v>
+        <v>0.049059811339027544</v>
       </c>
       <c r="C18">
-        <v>0.021142400229433689</v>
+        <v>0.024517941672940101</v>
       </c>
       <c r="D18">
-        <v>-0.017526244759901839</v>
+        <v>0.0010048739063699408</v>
       </c>
       <c r="E18">
-        <v>0.065351089857845324</v>
+        <v>0.097114748771685147</v>
       </c>
     </row>
     <row r="19">
@@ -871,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.086962540556013462</v>
+        <v>-0.086035231633252773</v>
       </c>
       <c r="C19">
-        <v>0.016714528438973478</v>
+        <v>0.022414565021965562</v>
       </c>
       <c r="D19">
-        <v>-0.11972267070637721</v>
+        <v>-0.12996757041108725</v>
       </c>
       <c r="E19">
-        <v>-0.054202410405649715</v>
+        <v>-0.042102892855418281</v>
       </c>
     </row>
     <row r="20">
@@ -888,16 +888,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.16371960027870902</v>
+        <v>-0.16209551779232079</v>
       </c>
       <c r="C20">
-        <v>0.0044119799776186778</v>
+        <v>0.0060574416242696405</v>
       </c>
       <c r="D20">
-        <v>-0.17236693192116526</v>
+        <v>-0.17396790808436635</v>
       </c>
       <c r="E20">
-        <v>-0.15507226863625279</v>
+        <v>-0.15022312750027522</v>
       </c>
     </row>
     <row r="21">
@@ -905,16 +905,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.017511491390398162</v>
+        <v>-0.022110569797575117</v>
       </c>
       <c r="C21">
-        <v>0.0058584142454591809</v>
+        <v>0.0076600676008701735</v>
       </c>
       <c r="D21">
-        <v>-0.02899378531203075</v>
+        <v>-0.037124055335200745</v>
       </c>
       <c r="E21">
-        <v>-0.0060291974687655733</v>
+        <v>-0.0070970842599494908</v>
       </c>
     </row>
     <row r="22">
@@ -922,16 +922,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.12114052101590637</v>
+        <v>-0.10403823482689882</v>
       </c>
       <c r="C22">
-        <v>0.0065757340119140268</v>
+        <v>0.0086343202442496075</v>
       </c>
       <c r="D22">
-        <v>-0.13402873743621094</v>
+        <v>-0.12096122413570645</v>
       </c>
       <c r="E22">
-        <v>-0.10825230459560183</v>
+        <v>-0.087115245518091189</v>
       </c>
     </row>
     <row r="23">
@@ -939,16 +939,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.054353840322670786</v>
+        <v>-0.060543757714499984</v>
       </c>
       <c r="C23">
-        <v>0.0026752937442715628</v>
+        <v>0.0039489228281133848</v>
       </c>
       <c r="D23">
-        <v>-0.059597325582623539</v>
+        <v>-0.06828351868020284</v>
       </c>
       <c r="E23">
-        <v>-0.049110355062718034</v>
+        <v>-0.052803996748797127</v>
       </c>
     </row>
     <row r="24">
@@ -956,16 +956,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0023708020444142236</v>
+        <v>-0.019232451711013624</v>
       </c>
       <c r="C24">
-        <v>0.0051310415865546142</v>
+        <v>0.0063181566991685756</v>
       </c>
       <c r="D24">
-        <v>-0.012427470021496249</v>
+        <v>-0.031615834401422294</v>
       </c>
       <c r="E24">
-        <v>0.0076858659326678007</v>
+        <v>-0.0068490690206049545</v>
       </c>
     </row>
     <row r="25">
@@ -973,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09332836216163011</v>
+        <v>-0.088404668188360291</v>
       </c>
       <c r="C25">
-        <v>0.0041732732611882263</v>
+        <v>0.0057082410987553973</v>
       </c>
       <c r="D25">
-        <v>-0.10150783661285664</v>
+        <v>-0.099592636037323087</v>
       </c>
       <c r="E25">
-        <v>-0.085148887710403576</v>
+        <v>-0.077216700339397495</v>
       </c>
     </row>
     <row r="26">
@@ -990,16 +990,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.17285366828262969</v>
+        <v>-0.17477589458865286</v>
       </c>
       <c r="C26">
-        <v>0.0051497503351518635</v>
+        <v>0.0070308012111219217</v>
       </c>
       <c r="D26">
-        <v>-0.18294700737147254</v>
+        <v>-0.18855604310485455</v>
       </c>
       <c r="E26">
-        <v>-0.16276032919378683</v>
+        <v>-0.16099574607245118</v>
       </c>
     </row>
     <row r="27">
@@ -1007,16 +1007,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.0045949582376737666</v>
+        <v>-0.012483844008956229</v>
       </c>
       <c r="C27">
-        <v>0.0063552138178337124</v>
+        <v>0.0080059464071029172</v>
       </c>
       <c r="D27">
-        <v>-0.017050965591592141</v>
+        <v>-0.028175246338481775</v>
       </c>
       <c r="E27">
-        <v>0.0078610491162446061</v>
+        <v>0.0032075583205693169</v>
       </c>
     </row>
     <row r="28">
@@ -1024,16 +1024,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.083098626184292618</v>
+        <v>-0.073156702488253303</v>
       </c>
       <c r="C28">
-        <v>0.0065923315366970452</v>
+        <v>0.0094163166639254468</v>
       </c>
       <c r="D28">
-        <v>-0.096019376367416504</v>
+        <v>-0.091612386016784148</v>
       </c>
       <c r="E28">
-        <v>-0.070177876001168732</v>
+        <v>-0.054701018959722458</v>
       </c>
     </row>
     <row r="29">
@@ -1041,16 +1041,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.063692302581166121</v>
+        <v>-0.067378506761092638</v>
       </c>
       <c r="C29">
-        <v>0.0029119500462373954</v>
+        <v>0.0043108027564700791</v>
       </c>
       <c r="D29">
-        <v>-0.069399627271228975</v>
+        <v>-0.075827543183228596</v>
       </c>
       <c r="E29">
-        <v>-0.057984977891103261</v>
+        <v>-0.058929470338956673</v>
       </c>
     </row>
     <row r="30">
@@ -1058,16 +1058,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0033112741018108847</v>
+        <v>-0.019007153156826228</v>
       </c>
       <c r="C30">
-        <v>0.0050812764982185819</v>
+        <v>0.0062752524914340274</v>
       </c>
       <c r="D30">
-        <v>-0.0066478578732692964</v>
+        <v>-0.031306448636919379</v>
       </c>
       <c r="E30">
-        <v>0.013270406076891065</v>
+        <v>-0.0067078576767330752</v>
       </c>
     </row>
     <row r="31">
@@ -1075,16 +1075,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.075286034792301379</v>
+        <v>-0.070562357658617042</v>
       </c>
       <c r="C31">
-        <v>0.0039830003197819158</v>
+        <v>0.0058915229198202128</v>
       </c>
       <c r="D31">
-        <v>-0.083092582193412381</v>
+        <v>-0.082109555371780441</v>
       </c>
       <c r="E31">
-        <v>-0.067479487391190376</v>
+        <v>-0.059015159945453637</v>
       </c>
     </row>
     <row r="32">
@@ -1092,16 +1092,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.18426120749538347</v>
+        <v>-0.18371156936993338</v>
       </c>
       <c r="C32">
-        <v>0.0067366892722677246</v>
+        <v>0.0096919523640901385</v>
       </c>
       <c r="D32">
-        <v>-0.19746496031211336</v>
+        <v>-0.20270768555593183</v>
       </c>
       <c r="E32">
-        <v>-0.17105745467865358</v>
+        <v>-0.16471545318393493</v>
       </c>
     </row>
     <row r="33">
@@ -1109,16 +1109,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.04262456452647391</v>
+        <v>-0.035654335361604686</v>
       </c>
       <c r="C33">
-        <v>0.01418057576331606</v>
+        <v>0.017150051678373586</v>
       </c>
       <c r="D33">
-        <v>-0.070418160105910219</v>
+        <v>-0.069268241212538634</v>
       </c>
       <c r="E33">
-        <v>-0.014830968947037598</v>
+        <v>-0.0020404295106707451</v>
       </c>
     </row>
     <row r="34">
@@ -1126,16 +1126,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.065982555842384535</v>
+        <v>-0.056481389999193679</v>
       </c>
       <c r="C34">
-        <v>0.013868231389947076</v>
+        <v>0.018248324652956095</v>
       </c>
       <c r="D34">
-        <v>-0.093163963782910766</v>
+        <v>-0.092247898364602537</v>
       </c>
       <c r="E34">
-        <v>-0.038801147901858304</v>
+        <v>-0.020714881633784828</v>
       </c>
     </row>
     <row r="35">
@@ -1143,16 +1143,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.052288458687045174</v>
+        <v>-0.053062633575798192</v>
       </c>
       <c r="C35">
-        <v>0.0060663923129378452</v>
+        <v>0.0087418726019109563</v>
       </c>
       <c r="D35">
-        <v>-0.064178462191518279</v>
+        <v>-0.070196622494318989</v>
       </c>
       <c r="E35">
-        <v>-0.040398455182572068</v>
+        <v>-0.035928644657277402</v>
       </c>
     </row>
     <row r="36">
@@ -1160,16 +1160,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.005790022704709733</v>
+        <v>0.0099297612965005364</v>
       </c>
       <c r="C36">
-        <v>0.015871591638739791</v>
+        <v>0.019235265588138751</v>
       </c>
       <c r="D36">
-        <v>-0.025317968745779171</v>
+        <v>-0.027771180188271134</v>
       </c>
       <c r="E36">
-        <v>0.036898014155198638</v>
+        <v>0.047630702781272204</v>
       </c>
     </row>
     <row r="37">
@@ -1177,16 +1177,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.077798956475988057</v>
+        <v>-0.071171235753681991</v>
       </c>
       <c r="C37">
-        <v>0.012402347971729254</v>
+        <v>0.01627090315103219</v>
       </c>
       <c r="D37">
-        <v>-0.1021073020693085</v>
+        <v>-0.10306205445803701</v>
       </c>
       <c r="E37">
-        <v>-0.053490610882667614</v>
+        <v>-0.039280417049326978</v>
       </c>
     </row>
     <row r="38">
@@ -1194,16 +1194,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.18429052232930151</v>
+        <v>-0.18805656295856696</v>
       </c>
       <c r="C38">
-        <v>0.0039876827924086077</v>
+        <v>0.005338084382884186</v>
       </c>
       <c r="D38">
-        <v>-0.19210624582890928</v>
+        <v>-0.19851903624952758</v>
       </c>
       <c r="E38">
-        <v>-0.17647479882969375</v>
+        <v>-0.17759408966760634</v>
       </c>
     </row>
     <row r="39">
@@ -1211,16 +1211,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.026763455524765761</v>
+        <v>-0.02384220259384133</v>
       </c>
       <c r="C39">
-        <v>0.0054633455315744855</v>
+        <v>0.0070578179707198874</v>
       </c>
       <c r="D39">
-        <v>-0.037471428119499779</v>
+        <v>-0.037675298272861195</v>
       </c>
       <c r="E39">
-        <v>-0.016055482930031742</v>
+        <v>-0.010009106914821464</v>
       </c>
     </row>
     <row r="40">
@@ -1228,16 +1228,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.093954763333900404</v>
+        <v>-0.079572187261448171</v>
       </c>
       <c r="C40">
-        <v>0.0058122195269298899</v>
+        <v>0.0074407913862621997</v>
       </c>
       <c r="D40">
-        <v>-0.10534651716847931</v>
+        <v>-0.094155898487893033</v>
       </c>
       <c r="E40">
-        <v>-0.082563009499321494</v>
+        <v>-0.064988476035003309</v>
       </c>
     </row>
     <row r="41">
@@ -1245,16 +1245,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.070993607262574088</v>
+        <v>-0.084337151400070823</v>
       </c>
       <c r="C41">
-        <v>0.0030117870064904689</v>
+        <v>0.004004842491271257</v>
       </c>
       <c r="D41">
-        <v>-0.076896607936225325</v>
+        <v>-0.092186513096140787</v>
       </c>
       <c r="E41">
-        <v>-0.06509060658892285</v>
+        <v>-0.076487789704000858</v>
       </c>
     </row>
     <row r="42">
@@ -1262,16 +1262,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.00041558341918525191</v>
+        <v>-0.016448827262993251</v>
       </c>
       <c r="C42">
-        <v>0.0050226846402854882</v>
+        <v>0.0064048032301471935</v>
       </c>
       <c r="D42">
-        <v>-0.010259875446227308</v>
+        <v>-0.029002034350452056</v>
       </c>
       <c r="E42">
-        <v>0.0094287086078568057</v>
+        <v>-0.003895620175534447</v>
       </c>
     </row>
     <row r="43">
@@ -1279,16 +1279,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.086705894644785286</v>
+        <v>-0.073948548480878479</v>
       </c>
       <c r="C43">
-        <v>0.0044680245553605641</v>
+        <v>0.0056134829344718952</v>
       </c>
       <c r="D43">
-        <v>-0.095463071664058402</v>
+        <v>-0.084950793393986007</v>
       </c>
       <c r="E43">
-        <v>-0.077948717625512171</v>
+        <v>-0.06294630356777095</v>
       </c>
     </row>
     <row r="44">
@@ -1296,16 +1296,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.19895514786251803</v>
+        <v>-0.208898916445759</v>
       </c>
       <c r="C44">
-        <v>0.0044850460571827355</v>
+        <v>0.0062606166181625516</v>
       </c>
       <c r="D44">
-        <v>-0.20774568871169652</v>
+        <v>-0.22116952746300803</v>
       </c>
       <c r="E44">
-        <v>-0.19016460701333954</v>
+        <v>-0.19662830542850998</v>
       </c>
     </row>
     <row r="45">
@@ -1313,16 +1313,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.0077069686399842277</v>
+        <v>-0.014870219837446345</v>
       </c>
       <c r="C45">
-        <v>0.0060983839822717932</v>
+        <v>0.007538488429631964</v>
       </c>
       <c r="D45">
-        <v>-0.019659598072692804</v>
+        <v>-0.029645419281809519</v>
       </c>
       <c r="E45">
-        <v>0.0042456607927243489</v>
+        <v>-9.502039308316966e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1330,16 +1330,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.067895791563812133</v>
+        <v>-0.04829621531353543</v>
       </c>
       <c r="C46">
-        <v>0.0064173997985364391</v>
+        <v>0.0082915730349090999</v>
       </c>
       <c r="D46">
-        <v>-0.080473681368132127</v>
+        <v>-0.064547436820585835</v>
       </c>
       <c r="E46">
-        <v>-0.055317901759492139</v>
+        <v>-0.032044993806485025</v>
       </c>
     </row>
     <row r="47">
@@ -1347,16 +1347,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.088172922520127567</v>
+        <v>-0.099236520273736459</v>
       </c>
       <c r="C47">
-        <v>0.0031842380956024732</v>
+        <v>0.0044719456568046816</v>
       </c>
       <c r="D47">
-        <v>-0.094413922679300336</v>
+        <v>-0.10800139166003361</v>
       </c>
       <c r="E47">
-        <v>-0.081931922360954798</v>
+        <v>-0.090471648887439304</v>
       </c>
     </row>
     <row r="48">
@@ -1364,16 +1364,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0010054150853926953</v>
+        <v>-0.015764020095112664</v>
       </c>
       <c r="C48">
-        <v>0.0049660768042698328</v>
+        <v>0.0065602073203329088</v>
       </c>
       <c r="D48">
-        <v>-0.0087279293428128638</v>
+        <v>-0.028621817985091454</v>
       </c>
       <c r="E48">
-        <v>0.010738759513598255</v>
+        <v>-0.0029062222051338769</v>
       </c>
     </row>
     <row r="49">
@@ -1381,16 +1381,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.068636193260360384</v>
+        <v>-0.06166051438865762</v>
       </c>
       <c r="C49">
-        <v>0.0046930569395792158</v>
+        <v>0.0059812970367568372</v>
       </c>
       <c r="D49">
-        <v>-0.077834427885896146</v>
+        <v>-0.073383666518344534</v>
       </c>
       <c r="E49">
-        <v>-0.059437958634824616</v>
+        <v>-0.049937362258970705</v>
       </c>
     </row>
     <row r="50">
@@ -1398,16 +1398,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.16222107070416164</v>
+        <v>-0.16504874490108565</v>
       </c>
       <c r="C50">
-        <v>0.0057573874598217502</v>
+        <v>0.0081199788634559907</v>
       </c>
       <c r="D50">
-        <v>-0.17350541495951677</v>
+        <v>-0.18096381093974773</v>
       </c>
       <c r="E50">
-        <v>-0.15093672644880651</v>
+        <v>-0.14913367886242357</v>
       </c>
     </row>
     <row r="51">
@@ -1415,16 +1415,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.045576728289513091</v>
+        <v>-0.040085656931958327</v>
       </c>
       <c r="C51">
-        <v>0.011661976021932958</v>
+        <v>0.014871991782758746</v>
       </c>
       <c r="D51">
-        <v>-0.068433927504877839</v>
+        <v>-0.069234591347817995</v>
       </c>
       <c r="E51">
-        <v>-0.022719529074148349</v>
+        <v>-0.010936722516098656</v>
       </c>
     </row>
     <row r="52">
@@ -1432,16 +1432,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.044737336392841463</v>
+        <v>-0.032552360777065102</v>
       </c>
       <c r="C52">
-        <v>0.010820102902184214</v>
+        <v>0.014919239122117898</v>
       </c>
       <c r="D52">
-        <v>-0.065944484058111513</v>
+        <v>-0.061793899439647151</v>
       </c>
       <c r="E52">
-        <v>-0.023530188727571417</v>
+        <v>-0.003310822114483053</v>
       </c>
     </row>
     <row r="53">
@@ -1449,16 +1449,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.053859706061445516</v>
+        <v>-0.062779713555566274</v>
       </c>
       <c r="C53">
-        <v>0.005717144187781715</v>
+        <v>0.0077015141078564447</v>
       </c>
       <c r="D53">
-        <v>-0.065065190461675915</v>
+        <v>-0.077874609510810253</v>
       </c>
       <c r="E53">
-        <v>-0.042654221661215116</v>
+        <v>-0.047684817600322296</v>
       </c>
     </row>
     <row r="54">
@@ -1466,16 +1466,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.014860107965759897</v>
+        <v>-0.023338743328945352</v>
       </c>
       <c r="C54">
-        <v>0.014614667887908625</v>
+        <v>0.017189361763643524</v>
       </c>
       <c r="D54">
-        <v>-0.043504554852807846</v>
+        <v>-0.057029732363758225</v>
       </c>
       <c r="E54">
-        <v>0.013784338921288053</v>
+        <v>0.01035224570586752</v>
       </c>
     </row>
     <row r="55">
@@ -1483,16 +1483,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.046403549413605236</v>
+        <v>-0.026400952493695957</v>
       </c>
       <c r="C55">
-        <v>0.010287495945571273</v>
+        <v>0.014273407115673636</v>
       </c>
       <c r="D55">
-        <v>-0.066566828762391478</v>
+        <v>-0.054376697564154593</v>
       </c>
       <c r="E55">
-        <v>-0.026240270064818993</v>
+        <v>0.0015747925767626778</v>
       </c>
     </row>
     <row r="56">
@@ -1500,16 +1500,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.18709870440279586</v>
+        <v>-0.1930479574395968</v>
       </c>
       <c r="C56">
-        <v>0.0041333464648109601</v>
+        <v>0.0048911470346848533</v>
       </c>
       <c r="D56">
-        <v>-0.19519992377725143</v>
+        <v>-0.20263444793731766</v>
       </c>
       <c r="E56">
-        <v>-0.17899748502834029</v>
+        <v>-0.18346146694187593</v>
       </c>
     </row>
     <row r="57">
@@ -1517,16 +1517,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.039774504196961123</v>
+        <v>-0.032447356752610755</v>
       </c>
       <c r="C57">
-        <v>0.0057104063249557415</v>
+        <v>0.0067404512176433935</v>
       </c>
       <c r="D57">
-        <v>-0.050966707596697386</v>
+        <v>-0.045658423827484113</v>
       </c>
       <c r="E57">
-        <v>-0.028582300797224861</v>
+        <v>-0.019236289677737394</v>
       </c>
     </row>
     <row r="58">
@@ -1534,16 +1534,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.053655471052628079</v>
+        <v>-0.048460202689778908</v>
       </c>
       <c r="C58">
-        <v>0.0055207279404237896</v>
+        <v>0.0066772095533564326</v>
       </c>
       <c r="D58">
-        <v>-0.064475911229327595</v>
+        <v>-0.061547318141556957</v>
       </c>
       <c r="E58">
-        <v>-0.042835030875928562</v>
+        <v>-0.03537308723800086</v>
       </c>
     </row>
     <row r="59">
@@ -1551,16 +1551,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.07971642029023307</v>
+        <v>-0.094481639590762681</v>
       </c>
       <c r="C59">
-        <v>0.0027729276769984041</v>
+        <v>0.0038280014601334835</v>
       </c>
       <c r="D59">
-        <v>-0.085151264756336775</v>
+        <v>-0.10198439858794205</v>
       </c>
       <c r="E59">
-        <v>-0.074281575824129364</v>
+        <v>-0.086978880593583316</v>
       </c>
     </row>
     <row r="60">
@@ -1568,16 +1568,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.010204388946507274</v>
+        <v>-0.020339196969260988</v>
       </c>
       <c r="C60">
-        <v>0.0048325508850108768</v>
+        <v>0.0061833254398118388</v>
       </c>
       <c r="D60">
-        <v>-0.019676025243562066</v>
+        <v>-0.032458314754137331</v>
       </c>
       <c r="E60">
-        <v>-0.00073275264945248282</v>
+        <v>-0.0082200791843846446</v>
       </c>
     </row>
     <row r="61">
@@ -1585,16 +1585,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.069185437385443888</v>
+        <v>-0.057995913270445329</v>
       </c>
       <c r="C61">
-        <v>0.0038830610247670302</v>
+        <v>0.0052714581410322004</v>
       </c>
       <c r="D61">
-        <v>-0.076796105668304485</v>
+        <v>-0.068327800655489476</v>
       </c>
       <c r="E61">
-        <v>-0.061574769102583291</v>
+        <v>-0.047664025885401175</v>
       </c>
     </row>
     <row r="62">
@@ -1602,16 +1602,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.20661072995701468</v>
+        <v>-0.22094656641135108</v>
       </c>
       <c r="C62">
-        <v>0.004242312007014741</v>
+        <v>0.0058177952725946046</v>
       </c>
       <c r="D62">
-        <v>-0.21492552015474309</v>
+        <v>-0.23234926156455635</v>
       </c>
       <c r="E62">
-        <v>-0.19829593975928628</v>
+        <v>-0.2095438712581458</v>
       </c>
     </row>
     <row r="63">
@@ -1619,16 +1619,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.024820098005346899</v>
+        <v>-0.026959703248176307</v>
       </c>
       <c r="C63">
-        <v>0.0060672813175793976</v>
+        <v>0.007429461060728287</v>
       </c>
       <c r="D63">
-        <v>-0.036711767251468554</v>
+        <v>-0.041521212489857212</v>
       </c>
       <c r="E63">
-        <v>-0.012928428759225246</v>
+        <v>-0.012398194006495401</v>
       </c>
     </row>
     <row r="64">
@@ -1636,16 +1636,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.037720670369268836</v>
+        <v>-0.022134761603659747</v>
       </c>
       <c r="C64">
-        <v>0.005981857711456354</v>
+        <v>0.0076224461251837962</v>
       </c>
       <c r="D64">
-        <v>-0.049444912193345146</v>
+        <v>-0.037074515482011489</v>
       </c>
       <c r="E64">
-        <v>-0.025996428545192525</v>
+        <v>-0.0071950077253080044</v>
       </c>
     </row>
     <row r="65">
@@ -1653,16 +1653,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1047260900971886</v>
+        <v>-0.11827111975234035</v>
       </c>
       <c r="C65">
-        <v>0.0032129011971021677</v>
+        <v>0.004322221568008348</v>
       </c>
       <c r="D65">
-        <v>-0.11102326897656103</v>
+        <v>-0.12674253668224592</v>
       </c>
       <c r="E65">
-        <v>-0.098428911217816162</v>
+        <v>-0.1097997028224348</v>
       </c>
     </row>
     <row r="66">
@@ -1670,16 +1670,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0029901894725411818</v>
+        <v>-0.019194210877435662</v>
       </c>
       <c r="C66">
-        <v>0.0051489287282212642</v>
+        <v>0.0064819900041010086</v>
       </c>
       <c r="D66">
-        <v>-0.013081917555556329</v>
+        <v>-0.031898705313042022</v>
       </c>
       <c r="E66">
-        <v>0.007101538610473964</v>
+        <v>-0.0064897164418293036</v>
       </c>
     </row>
     <row r="67">
@@ -1687,16 +1687,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.046343380356880022</v>
+        <v>-0.038831117428064853</v>
       </c>
       <c r="C67">
-        <v>0.0043808020312230012</v>
+        <v>0.005720969085501632</v>
       </c>
       <c r="D67">
-        <v>-0.054929605806517498</v>
+        <v>-0.050044035045501353</v>
       </c>
       <c r="E67">
-        <v>-0.037757154907242546</v>
+        <v>-0.027618199810628352</v>
       </c>
     </row>
     <row r="68">
@@ -1704,16 +1704,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.14169137179239194</v>
+        <v>-0.14941618365292483</v>
       </c>
       <c r="C68">
-        <v>0.0051335341723198437</v>
+        <v>0.0071166629990078584</v>
       </c>
       <c r="D68">
-        <v>-0.15175297825041556</v>
+        <v>-0.1633647620308625</v>
       </c>
       <c r="E68">
-        <v>-0.13162976533436832</v>
+        <v>-0.13546760527498716</v>
       </c>
     </row>
     <row r="69">
@@ -1721,16 +1721,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.045437563121332188</v>
+        <v>-0.043875222356360731</v>
       </c>
       <c r="C69">
-        <v>0.01085327608591392</v>
+        <v>0.013278524652985669</v>
       </c>
       <c r="D69">
-        <v>-0.06670972944790729</v>
+        <v>-0.06990097935670897</v>
       </c>
       <c r="E69">
-        <v>-0.024165396794757082</v>
+        <v>-0.017849465356012485</v>
       </c>
     </row>
     <row r="70">
@@ -1738,16 +1738,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.036172535581681521</v>
+        <v>-0.017750133857604215</v>
       </c>
       <c r="C70">
-        <v>0.0096180901460678116</v>
+        <v>0.012785040119354548</v>
       </c>
       <c r="D70">
-        <v>-0.055023766464556367</v>
+        <v>-0.042808666795689954</v>
       </c>
       <c r="E70">
-        <v>-0.017321304698806675</v>
+        <v>0.0073083990804815209</v>
       </c>
     </row>
     <row r="71">
@@ -1755,16 +1755,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.053944794388841678</v>
+        <v>-0.06576507801533539</v>
       </c>
       <c r="C71">
-        <v>0.0049196801827235846</v>
+        <v>0.0069316783207947529</v>
       </c>
       <c r="D71">
-        <v>-0.06358726582754462</v>
+        <v>-0.07935110299461566</v>
       </c>
       <c r="E71">
-        <v>-0.04430232295013873</v>
+        <v>-0.05217905303605512</v>
       </c>
     </row>
     <row r="72">
@@ -1772,16 +1772,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.0473001552740435</v>
+        <v>-0.036497590048388588</v>
       </c>
       <c r="C72">
-        <v>0.012428123811191717</v>
+        <v>0.015275453316505306</v>
       </c>
       <c r="D72">
-        <v>-0.071659020979768451</v>
+        <v>-0.066437336344070133</v>
       </c>
       <c r="E72">
-        <v>-0.022941289568318552</v>
+        <v>-0.0065578437527070432</v>
       </c>
     </row>
     <row r="73">
@@ -1789,16 +1789,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.013957367338916806</v>
+        <v>0.009281143814386484</v>
       </c>
       <c r="C73">
-        <v>0.009685479650497401</v>
+        <v>0.012834900659709927</v>
       </c>
       <c r="D73">
-        <v>-0.032940707196662818</v>
+        <v>-0.015875141993955368</v>
       </c>
       <c r="E73">
-        <v>0.0050259725188292054</v>
+        <v>0.034437429622728333</v>
       </c>
     </row>
     <row r="74">
@@ -1806,16 +1806,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.17945508945981734</v>
+        <v>-0.19216861456401232</v>
       </c>
       <c r="C74">
-        <v>0.0035292665144294314</v>
+        <v>0.0047366958018826844</v>
       </c>
       <c r="D74">
-        <v>-0.18637233254788754</v>
+        <v>-0.20145238562493864</v>
       </c>
       <c r="E74">
-        <v>-0.17253784637174713</v>
+        <v>-0.18288484350308601</v>
       </c>
     </row>
     <row r="75">
@@ -1823,16 +1823,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.047404071780431947</v>
+        <v>-0.033788148196011815</v>
       </c>
       <c r="C75">
-        <v>0.0059782651671384497</v>
+        <v>0.0066730068865615329</v>
       </c>
       <c r="D75">
-        <v>-0.05912126945790027</v>
+        <v>-0.046867026556365564</v>
       </c>
       <c r="E75">
-        <v>-0.035686874102963624</v>
+        <v>-0.020709269835658066</v>
       </c>
     </row>
     <row r="76">
@@ -1840,16 +1840,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.026431929130310776</v>
+        <v>-0.019876500016158677</v>
       </c>
       <c r="C76">
-        <v>0.005202452516699453</v>
+        <v>0.0063332767066470418</v>
       </c>
       <c r="D76">
-        <v>-0.036628560233408575</v>
+        <v>-0.032289518176758868</v>
       </c>
       <c r="E76">
-        <v>-0.016235298027212977</v>
+        <v>-0.0074634818555584844</v>
       </c>
     </row>
     <row r="77">
@@ -1857,16 +1857,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.083675840297889645</v>
+        <v>-0.10146889932996572</v>
       </c>
       <c r="C77">
-        <v>0.003166772570973685</v>
+        <v>0.003955244831894301</v>
       </c>
       <c r="D77">
-        <v>-0.089882607436293893</v>
+        <v>-0.10922105121851473</v>
       </c>
       <c r="E77">
-        <v>-0.077469073159485397</v>
+        <v>-0.093716747441416712</v>
       </c>
     </row>
     <row r="78">
@@ -1874,16 +1874,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.027345037493953506</v>
+        <v>-0.031346314473694591</v>
       </c>
       <c r="C78">
-        <v>0.0051430719469784305</v>
+        <v>0.0063466550977532704</v>
       </c>
       <c r="D78">
-        <v>-0.03742528457059769</v>
+        <v>-0.043785553103191398</v>
       </c>
       <c r="E78">
-        <v>-0.017264790417309321</v>
+        <v>-0.018907075844197783</v>
       </c>
     </row>
     <row r="79">
@@ -1891,16 +1891,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.054784699133460069</v>
+        <v>-0.045224968999124641</v>
       </c>
       <c r="C79">
-        <v>0.0041374355910967419</v>
+        <v>0.0053426779138432377</v>
       </c>
       <c r="D79">
-        <v>-0.062893932963342447</v>
+        <v>-0.055696444834382304</v>
       </c>
       <c r="E79">
-        <v>-0.04667546530357769</v>
+        <v>-0.034753493163866979</v>
       </c>
     </row>
     <row r="80">
@@ -1908,16 +1908,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.20854388373797736</v>
+        <v>-0.21064301185786727</v>
       </c>
       <c r="C80">
-        <v>0.0046271766600612402</v>
+        <v>0.0054477694438792379</v>
       </c>
       <c r="D80">
-        <v>-0.21761299583360288</v>
+        <v>-0.22132046806299047</v>
       </c>
       <c r="E80">
-        <v>-0.19947477164235183</v>
+        <v>-0.19996555565274407</v>
       </c>
     </row>
     <row r="81">
@@ -1925,16 +1925,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.02938069039151614</v>
+        <v>-0.027240063567160151</v>
       </c>
       <c r="C81">
-        <v>0.0061550635268878134</v>
+        <v>0.0072743101124160044</v>
       </c>
       <c r="D81">
-        <v>-0.041444409843347713</v>
+        <v>-0.041497481845951832</v>
       </c>
       <c r="E81">
-        <v>-0.017316970939684564</v>
+        <v>-0.012982645288368467</v>
       </c>
     </row>
     <row r="82">
@@ -1942,16 +1942,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.013099053272733511</v>
+        <v>-0.0066917558216110186</v>
       </c>
       <c r="C82">
-        <v>0.0060311187756603695</v>
+        <v>0.0070702120842819896</v>
       </c>
       <c r="D82">
-        <v>-0.024919845141477902</v>
+        <v>-0.020549148405592615</v>
       </c>
       <c r="E82">
-        <v>-0.0012782614039891192</v>
+        <v>0.0071656367623705785</v>
       </c>
     </row>
     <row r="83">
@@ -1959,16 +1959,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.1146850522978671</v>
+        <v>-0.12437306486036999</v>
       </c>
       <c r="C83">
-        <v>0.0033308201683149305</v>
+        <v>0.0043682463360932618</v>
       </c>
       <c r="D83">
-        <v>-0.12121334841659569</v>
+        <v>-0.13293468887323384</v>
       </c>
       <c r="E83">
-        <v>-0.10815675617913852</v>
+        <v>-0.11581144084750614</v>
       </c>
     </row>
     <row r="84">
@@ -1976,16 +1976,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.019387508348904244</v>
+        <v>-0.028970313346106356</v>
       </c>
       <c r="C84">
-        <v>0.0053700646403444701</v>
+        <v>0.0065755448531309652</v>
       </c>
       <c r="D84">
-        <v>-0.029912655423001026</v>
+        <v>-0.041858172313002193</v>
       </c>
       <c r="E84">
-        <v>-0.0088623612748074589</v>
+        <v>-0.01608245437921052</v>
       </c>
     </row>
     <row r="85">
@@ -1993,16 +1993,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.035207549537665035</v>
+        <v>-0.030010174317494216</v>
       </c>
       <c r="C85">
-        <v>0.00431105088025321</v>
+        <v>0.0057051769161376668</v>
       </c>
       <c r="D85">
-        <v>-0.043657065064477918</v>
+        <v>-0.041192139784791061</v>
       </c>
       <c r="E85">
-        <v>-0.026758034010852152</v>
+        <v>-0.01882820885019737</v>
       </c>
     </row>
     <row r="86">
@@ -2010,16 +2010,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.12488482075179737</v>
+        <v>-0.13162406223811113</v>
       </c>
       <c r="C86">
-        <v>0.0042440204075024661</v>
+        <v>0.0065795484241408008</v>
       </c>
       <c r="D86">
-        <v>-0.13320300111384878</v>
+        <v>-0.14451990217016336</v>
       </c>
       <c r="E86">
-        <v>-0.11656664038974594</v>
+        <v>-0.11872822230605888</v>
       </c>
     </row>
     <row r="87">
@@ -2027,16 +2027,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.058887345112740089</v>
+        <v>-0.052422586829301024</v>
       </c>
       <c r="C87">
-        <v>0.009255981911149248</v>
+        <v>0.012235162529242475</v>
       </c>
       <c r="D87">
-        <v>-0.077028852356371344</v>
+        <v>-0.076403365957065969</v>
       </c>
       <c r="E87">
-        <v>-0.040745837869108834</v>
+        <v>-0.028441807701536082</v>
       </c>
     </row>
     <row r="88">
@@ -2044,16 +2044,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.019142562266498724</v>
+        <v>-0.01573535915653998</v>
       </c>
       <c r="C88">
-        <v>0.0075616568253812442</v>
+        <v>0.011439089652819999</v>
       </c>
       <c r="D88">
-        <v>-0.033963232119609423</v>
+        <v>-0.038155844518409691</v>
       </c>
       <c r="E88">
-        <v>-0.004321892413388026</v>
+        <v>0.006685126205329732</v>
       </c>
     </row>
     <row r="89">
@@ -2061,16 +2061,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.058469396924694134</v>
+        <v>-0.073389872186703342</v>
       </c>
       <c r="C89">
-        <v>0.0048747789491745694</v>
+        <v>0.0068347181597374403</v>
       </c>
       <c r="D89">
-        <v>-0.068023862874020083</v>
+        <v>-0.086785856152948163</v>
       </c>
       <c r="E89">
-        <v>-0.048914930975368184</v>
+        <v>-0.059993888220458515</v>
       </c>
     </row>
     <row r="90">
@@ -2078,16 +2078,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.071965756940239628</v>
+        <v>-0.056121709454202896</v>
       </c>
       <c r="C90">
-        <v>0.012103005984231915</v>
+        <v>0.015002391146914812</v>
       </c>
       <c r="D90">
-        <v>-0.095687398427268006</v>
+        <v>-0.085526256439520665</v>
       </c>
       <c r="E90">
-        <v>-0.04824411545321125</v>
+        <v>-0.026717162468885131</v>
       </c>
     </row>
     <row r="91">
@@ -2095,16 +2095,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.015567369948830803</v>
+        <v>0.035850035039657634</v>
       </c>
       <c r="C91">
-        <v>0.0095609791665183207</v>
+        <v>0.012542513173329181</v>
       </c>
       <c r="D91">
-        <v>-0.0031719515344914538</v>
+        <v>0.011266825982682156</v>
       </c>
       <c r="E91">
-        <v>0.034306691432153064</v>
+        <v>0.060433244096633115</v>
       </c>
     </row>
     <row r="92">
@@ -2112,16 +2112,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.17129608785499048</v>
+        <v>-0.18077088156001245</v>
       </c>
       <c r="C92">
-        <v>0.0033388415214914658</v>
+        <v>0.0045427738328187306</v>
       </c>
       <c r="D92">
-        <v>-0.17784010439278161</v>
+        <v>-0.18967457181360503</v>
       </c>
       <c r="E92">
-        <v>-0.16475207131719935</v>
+        <v>-0.17186719130641986</v>
       </c>
     </row>
     <row r="93">
@@ -2129,16 +2129,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.053761031366396497</v>
+        <v>-0.037996388240570403</v>
       </c>
       <c r="C93">
-        <v>0.0052441345963202554</v>
+        <v>0.0064448215908199241</v>
       </c>
       <c r="D93">
-        <v>-0.064039357936803029</v>
+        <v>-0.050628030777949654</v>
       </c>
       <c r="E93">
-        <v>-0.043482704795989965</v>
+        <v>-0.025364745703191152</v>
       </c>
     </row>
     <row r="94">
@@ -2146,16 +2146,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.0005671523574389759</v>
+        <v>0.0017724867841721727</v>
       </c>
       <c r="C94">
-        <v>0.004449215859313755</v>
+        <v>0.0059481475179637327</v>
       </c>
       <c r="D94">
-        <v>-0.0092874650695396969</v>
+        <v>-0.0098856905831486604</v>
       </c>
       <c r="E94">
-        <v>0.0081531603546617457</v>
+        <v>0.013430664151493008</v>
       </c>
     </row>
     <row r="95">
@@ -2163,16 +2163,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.085821653649678309</v>
+        <v>-0.099755959046832959</v>
       </c>
       <c r="C95">
-        <v>0.0032589895041101971</v>
+        <v>0.0039269603133101948</v>
       </c>
       <c r="D95">
-        <v>-0.092209162858240171</v>
+        <v>-0.10745267419417436</v>
       </c>
       <c r="E95">
-        <v>-0.079434144441116447</v>
+        <v>-0.092059243899491564</v>
       </c>
     </row>
     <row r="96">
@@ -2180,16 +2180,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.041879080468009505</v>
+        <v>-0.031072672073093791</v>
       </c>
       <c r="C96">
-        <v>0.0051828133029905993</v>
+        <v>0.0062412691077252903</v>
       </c>
       <c r="D96">
-        <v>-0.052037219258379161</v>
+        <v>-0.043305357572166372</v>
       </c>
       <c r="E96">
-        <v>-0.03172094167763985</v>
+        <v>-0.018839986574021209</v>
       </c>
     </row>
     <row r="97">
@@ -2197,16 +2197,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.035220655569532626</v>
+        <v>-0.021184452457021823</v>
       </c>
       <c r="C97">
-        <v>0.0041636839604339239</v>
+        <v>0.0052167082718830859</v>
       </c>
       <c r="D97">
-        <v>-0.043381335315592254</v>
+        <v>-0.031409031870104388</v>
       </c>
       <c r="E97">
-        <v>-0.027059975823472998</v>
+        <v>-0.010959873043939255</v>
       </c>
     </row>
     <row r="98">
@@ -2214,16 +2214,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.20541280157065916</v>
+        <v>-0.20424173413731866</v>
       </c>
       <c r="C98">
-        <v>0.0042183587829326729</v>
+        <v>0.0054141764979076723</v>
       </c>
       <c r="D98">
-        <v>-0.21368064424720754</v>
+        <v>-0.21485334922836619</v>
       </c>
       <c r="E98">
-        <v>-0.19714495889411079</v>
+        <v>-0.19363011904627114</v>
       </c>
     </row>
     <row r="99">
@@ -2231,16 +2231,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.03544003505241379</v>
+        <v>-0.023389492813110247</v>
       </c>
       <c r="C99">
-        <v>0.0067595331452798254</v>
+        <v>0.0073417840505266233</v>
       </c>
       <c r="D99">
-        <v>-0.048688494817904493</v>
+        <v>-0.037779157881452245</v>
       </c>
       <c r="E99">
-        <v>-0.022191575286923088</v>
+        <v>-0.0089998277447682507</v>
       </c>
     </row>
     <row r="100">
@@ -2248,16 +2248,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.017336361775391794</v>
+        <v>0.014662601884335134</v>
       </c>
       <c r="C100">
-        <v>0.0056377587401481508</v>
+        <v>0.0069270468839173508</v>
       </c>
       <c r="D100">
-        <v>0.0062865424711468828</v>
+        <v>0.0010858085754767884</v>
       </c>
       <c r="E100">
-        <v>0.028386181079636703</v>
+        <v>0.028239395193193479</v>
       </c>
     </row>
     <row r="101">
@@ -2265,16 +2265,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.11852633250860638</v>
+        <v>-0.12347446503842198</v>
       </c>
       <c r="C101">
-        <v>0.0037404884621364009</v>
+        <v>0.0044203293821019939</v>
       </c>
       <c r="D101">
-        <v>-0.1258575647804068</v>
+        <v>-0.13213817016646631</v>
       </c>
       <c r="E101">
-        <v>-0.11119510023680595</v>
+        <v>-0.11481075991037763</v>
       </c>
     </row>
     <row r="102">
@@ -2282,16 +2282,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.029677994614811052</v>
+        <v>-0.029319837397206158</v>
       </c>
       <c r="C102">
-        <v>0.0054934896650897973</v>
+        <v>0.0066861846719980678</v>
       </c>
       <c r="D102">
-        <v>-0.040445050609018207</v>
+        <v>-0.042424546893378393</v>
       </c>
       <c r="E102">
-        <v>-0.018910938620603897</v>
+        <v>-0.016215127901033924</v>
       </c>
     </row>
     <row r="103">
@@ -2299,16 +2299,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>-0.021304872386257265</v>
+        <v>-0.014411996228416598</v>
       </c>
       <c r="C103">
-        <v>0.0045418340273805976</v>
+        <v>0.0057017834910291134</v>
       </c>
       <c r="D103">
-        <v>-0.030206715162073777</v>
+        <v>-0.025587310690330531</v>
       </c>
       <c r="E103">
-        <v>-0.012403029610440753</v>
+        <v>-0.0032366817665026634</v>
       </c>
     </row>
     <row r="104">
@@ -2316,16 +2316,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>-0.11489497352084951</v>
+        <v>-0.12640464640783272</v>
       </c>
       <c r="C104">
-        <v>0.0042672384535733547</v>
+        <v>0.0065219264729756187</v>
       </c>
       <c r="D104">
-        <v>-0.12325866070811098</v>
+        <v>-0.13918754797224983</v>
       </c>
       <c r="E104">
-        <v>-0.10653128633358805</v>
+        <v>-0.11362174484341561</v>
       </c>
     </row>
     <row r="105">
@@ -2333,16 +2333,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>-0.062898161283527002</v>
+        <v>-0.069568958483982063</v>
       </c>
       <c r="C105">
-        <v>0.0092790991258330097</v>
+        <v>0.011875256605346742</v>
       </c>
       <c r="D105">
-        <v>-0.08108497772521675</v>
+        <v>-0.092844326102329802</v>
       </c>
       <c r="E105">
-        <v>-0.044711344841837253</v>
+        <v>-0.046293590865634324</v>
       </c>
     </row>
     <row r="106">
@@ -2350,16 +2350,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>0.00051739118415689565</v>
+        <v>-0.0058822089795355212</v>
       </c>
       <c r="C106">
-        <v>0.0075404985120999463</v>
+        <v>0.010997024638054385</v>
       </c>
       <c r="D106">
-        <v>-0.014261808871655113</v>
+        <v>-0.027436251950152202</v>
       </c>
       <c r="E106">
-        <v>0.015296591239968904</v>
+        <v>0.015671833991081158</v>
       </c>
     </row>
     <row r="107">
@@ -2367,16 +2367,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>-0.067456246998048211</v>
+        <v>-0.078294973095662343</v>
       </c>
       <c r="C107">
-        <v>0.0051051367238749154</v>
+        <v>0.0067977313892292656</v>
       </c>
       <c r="D107">
-        <v>-0.077462209422903508</v>
+        <v>-0.091618463336034239</v>
       </c>
       <c r="E107">
-        <v>-0.057450284573192914</v>
+        <v>-0.064971482855290447</v>
       </c>
     </row>
     <row r="108">
@@ -2384,16 +2384,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>-0.07959525902568329</v>
+        <v>-0.075467540039938552</v>
       </c>
       <c r="C108">
-        <v>0.013662057652121782</v>
+        <v>0.014589280114758517</v>
       </c>
       <c r="D108">
-        <v>-0.10637260954678301</v>
+        <v>-0.10406239324802861</v>
       </c>
       <c r="E108">
-        <v>-0.052817908504583566</v>
+        <v>-0.04687268683184849</v>
       </c>
     </row>
     <row r="109">
@@ -2401,16 +2401,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0.043115568061929184</v>
+        <v>0.074492666262524529</v>
       </c>
       <c r="C109">
-        <v>0.0090563929982492245</v>
+        <v>0.012178344761541247</v>
       </c>
       <c r="D109">
-        <v>0.025365225035577633</v>
+        <v>0.050623223902479156</v>
       </c>
       <c r="E109">
-        <v>0.060865911088280739</v>
+        <v>0.098362108622569902</v>
       </c>
     </row>
     <row r="110">
@@ -2418,16 +2418,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>-0.16833933374296389</v>
+        <v>-0.18267493037322821</v>
       </c>
       <c r="C110">
-        <v>0.0035081876325974409</v>
+        <v>0.0047493738628624129</v>
       </c>
       <c r="D110">
-        <v>-0.17521526293505585</v>
+        <v>-0.19198355002493492</v>
       </c>
       <c r="E110">
-        <v>-0.16146340455087194</v>
+        <v>-0.1733663107215215</v>
       </c>
     </row>
     <row r="111">
@@ -2435,16 +2435,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>-0.062780288574749391</v>
+        <v>-0.044615853622549904</v>
       </c>
       <c r="C111">
-        <v>0.0055315039916505934</v>
+        <v>0.0067233114934487151</v>
       </c>
       <c r="D111">
-        <v>-0.073621849447650378</v>
+        <v>-0.057793327390585285</v>
       </c>
       <c r="E111">
-        <v>-0.051938727701848403</v>
+        <v>-0.031438379854514524</v>
       </c>
     </row>
     <row r="112">
@@ -2452,16 +2452,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0.026051620161948539</v>
+        <v>0.029848286824122095</v>
       </c>
       <c r="C112">
-        <v>0.0045639628080475286</v>
+        <v>0.0061190126055906454</v>
       </c>
       <c r="D112">
-        <v>0.017106407308483979</v>
+        <v>0.017855219393731796</v>
       </c>
       <c r="E112">
-        <v>0.034996833015413099</v>
+        <v>0.041841354254512395</v>
       </c>
     </row>
     <row r="113">
@@ -2469,16 +2469,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>-0.093050549475732644</v>
+        <v>-0.10597990883778588</v>
       </c>
       <c r="C113">
-        <v>0.0032117928040241101</v>
+        <v>0.0042350981194045588</v>
       </c>
       <c r="D113">
-        <v>-0.09934555474832496</v>
+        <v>-0.1142805641144931</v>
       </c>
       <c r="E113">
-        <v>-0.086755544203140328</v>
+        <v>-0.097679253561078663</v>
       </c>
     </row>
     <row r="114">
@@ -2486,16 +2486,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>-0.051754345152777187</v>
+        <v>-0.036990325284355384</v>
       </c>
       <c r="C114">
-        <v>0.0059157765632211054</v>
+        <v>0.0066536940652216344</v>
       </c>
       <c r="D114">
-        <v>-0.06334906714427567</v>
+        <v>-0.05003135035506677</v>
       </c>
       <c r="E114">
-        <v>-0.040159623161278704</v>
+        <v>-0.023949300213643998</v>
       </c>
     </row>
     <row r="115">
@@ -2503,16 +2503,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>-0.011895421897097485</v>
+        <v>0.00031830769003438557</v>
       </c>
       <c r="C115">
-        <v>0.0045227621060128578</v>
+        <v>0.0055271534461004352</v>
       </c>
       <c r="D115">
-        <v>-0.020759882664417254</v>
+        <v>-0.010514734219274322</v>
       </c>
       <c r="E115">
-        <v>-0.003030961129777715</v>
+        <v>0.011151349599343094</v>
       </c>
     </row>
     <row r="116">
@@ -2520,16 +2520,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>-0.19675886144918239</v>
+        <v>-0.20697300060836446</v>
       </c>
       <c r="C116">
-        <v>0.0047511780742041567</v>
+        <v>0.0057855737005392998</v>
       </c>
       <c r="D116">
-        <v>-0.20607101218532167</v>
+        <v>-0.21831254249709611</v>
       </c>
       <c r="E116">
-        <v>-0.18744671071304311</v>
+        <v>-0.19563345871963281</v>
       </c>
     </row>
     <row r="117">
@@ -2537,16 +2537,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>-0.055914642939830228</v>
+        <v>-0.031888508393979921</v>
       </c>
       <c r="C117">
-        <v>0.0067045409741554899</v>
+        <v>0.0079563858852960585</v>
       </c>
       <c r="D117">
-        <v>-0.069055319882025429</v>
+        <v>-0.047482773664650979</v>
       </c>
       <c r="E117">
-        <v>-0.04277396599763502</v>
+        <v>-0.016294243123308863</v>
       </c>
     </row>
     <row r="118">
@@ -2554,16 +2554,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>0.039381593678517117</v>
+        <v>0.044291654679563093</v>
       </c>
       <c r="C118">
-        <v>0.0058122018958013562</v>
+        <v>0.0073394865611155664</v>
       </c>
       <c r="D118">
-        <v>0.027989871600905297</v>
+        <v>0.029906492617969273</v>
       </c>
       <c r="E118">
-        <v>0.050773315756128937</v>
+        <v>0.058676816741156913</v>
       </c>
     </row>
     <row r="119">
@@ -2571,16 +2571,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>-0.11917709375452926</v>
+        <v>-0.12973727220609915</v>
       </c>
       <c r="C119">
-        <v>0.0034443021284875108</v>
+        <v>0.0049312251690260536</v>
       </c>
       <c r="D119">
-        <v>-0.12592781071938691</v>
+        <v>-0.13940231684223359</v>
       </c>
       <c r="E119">
-        <v>-0.1124263767896716</v>
+        <v>-0.12007222756996472</v>
       </c>
     </row>
     <row r="120">
@@ -2588,16 +2588,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>-0.043516635149026893</v>
+        <v>-0.028308135089085341</v>
       </c>
       <c r="C120">
-        <v>0.0064056594095168876</v>
+        <v>0.0074464776003906278</v>
       </c>
       <c r="D120">
-        <v>-0.056071513331538383</v>
+        <v>-0.042902994565754769</v>
       </c>
       <c r="E120">
-        <v>-0.030961756966515402</v>
+        <v>-0.013713275612415914</v>
       </c>
     </row>
     <row r="121">
@@ -2605,16 +2605,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>-0.0023707630446348589</v>
+        <v>0.003263927099746418</v>
       </c>
       <c r="C121">
-        <v>0.0047922647482077363</v>
+        <v>0.0062913244014474543</v>
       </c>
       <c r="D121">
-        <v>-0.011763441656723283</v>
+        <v>-0.0090668688132702607</v>
       </c>
       <c r="E121">
-        <v>0.007021915567453566</v>
+        <v>0.015594723012763096</v>
       </c>
     </row>
     <row r="122">
@@ -2622,16 +2622,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>-0.11950252170747017</v>
+        <v>-0.12538890473117439</v>
       </c>
       <c r="C122">
-        <v>0.0046289486690358778</v>
+        <v>0.0066294523941429935</v>
       </c>
       <c r="D122">
-        <v>-0.12857515242518566</v>
+        <v>-0.13838255587573492</v>
       </c>
       <c r="E122">
-        <v>-0.11042989098975467</v>
+        <v>-0.11239525358661387</v>
       </c>
     </row>
     <row r="123">
@@ -2639,16 +2639,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>-0.07535770590659073</v>
+        <v>-0.068421513503536438</v>
       </c>
       <c r="C123">
-        <v>0.010954583070192918</v>
+        <v>0.011846882433903153</v>
       </c>
       <c r="D123">
-        <v>-0.096828431543973706</v>
+        <v>-0.091641268069201323</v>
       </c>
       <c r="E123">
-        <v>-0.053886980269207754</v>
+        <v>-0.045201758937871553</v>
       </c>
     </row>
     <row r="124">
@@ -2656,16 +2656,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0.023662018160284667</v>
+        <v>0.021472322387155698</v>
       </c>
       <c r="C124">
-        <v>0.007774362518637298</v>
+        <v>0.010859199607261338</v>
       </c>
       <c r="D124">
-        <v>0.0084244501420729541</v>
+        <v>0.00018841490626594209</v>
       </c>
       <c r="E124">
-        <v>0.038899586178496384</v>
+        <v>0.042756229868045455</v>
       </c>
     </row>
     <row r="125">
@@ -2673,16 +2673,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>-0.071467652319944563</v>
+        <v>-0.091899972028656018</v>
       </c>
       <c r="C125">
-        <v>0.0051055246904547777</v>
+        <v>0.007309597104717222</v>
       </c>
       <c r="D125">
-        <v>-0.081474375151274786</v>
+        <v>-0.10622671430624295</v>
       </c>
       <c r="E125">
-        <v>-0.061460929488614348</v>
+        <v>-0.077573229751069089</v>
       </c>
     </row>
     <row r="126">
@@ -2690,16 +2690,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>-0.091751629331358164</v>
+        <v>-0.086166796136866064</v>
       </c>
       <c r="C126">
-        <v>0.013310459349777108</v>
+        <v>0.015293324397220701</v>
       </c>
       <c r="D126">
-        <v>-0.11783985444951796</v>
+        <v>-0.11614156958438149</v>
       </c>
       <c r="E126">
-        <v>-0.06566340421319837</v>
+        <v>-0.05619202268935064</v>
       </c>
     </row>
     <row r="127">
@@ -2707,16 +2707,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0.07564278897195606</v>
+        <v>0.10034342776062877</v>
       </c>
       <c r="C127">
-        <v>0.0094609036801917828</v>
+        <v>0.012583392676954056</v>
       </c>
       <c r="D127">
-        <v>0.057099613372670457</v>
+        <v>0.075680095257110488</v>
       </c>
       <c r="E127">
-        <v>0.094185964571241662</v>
+        <v>0.12500676026414706</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>-0.1678102834632377</v>
+        <v>-0.17922925645424539</v>
       </c>
       <c r="C128">
-        <v>0.0034366857435690519</v>
+        <v>0.0049871830957619557</v>
       </c>
       <c r="D128">
-        <v>-0.17454607136941561</v>
+        <v>-0.18900397453548104</v>
       </c>
       <c r="E128">
-        <v>-0.1610744955570598</v>
+        <v>-0.16945453837300975</v>
       </c>
     </row>
     <row r="129">
@@ -2741,16 +2741,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>-0.06804986748805418</v>
+        <v>-0.043607715354031774</v>
       </c>
       <c r="C129">
-        <v>0.0058898680480403082</v>
+        <v>0.0071075090492879545</v>
       </c>
       <c r="D129">
-        <v>-0.079593809799687429</v>
+        <v>-0.057538203945007922</v>
       </c>
       <c r="E129">
-        <v>-0.056505925176420932</v>
+        <v>-0.029677226763055627</v>
       </c>
     </row>
     <row r="130">
@@ -2758,16 +2758,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0.052291231152078066</v>
+        <v>0.058427523266053397</v>
       </c>
       <c r="C130">
-        <v>0.0040106584015881831</v>
+        <v>0.0063745415663229235</v>
       </c>
       <c r="D130">
-        <v>0.044430476234995353</v>
+        <v>0.045933627310864859</v>
       </c>
       <c r="E130">
-        <v>0.060151986069160779</v>
+        <v>0.070921419221241927</v>
       </c>
     </row>
     <row r="131">
@@ -2775,16 +2775,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>-0.093754193866201277</v>
+        <v>-0.11101824164294564</v>
       </c>
       <c r="C131">
-        <v>0.0034710413989749657</v>
+        <v>0.0047570374174150405</v>
       </c>
       <c r="D131">
-        <v>-0.10055731761707247</v>
+        <v>-0.12034188105508553</v>
       </c>
       <c r="E131">
-        <v>-0.086951070115330084</v>
+        <v>-0.10169460223080576</v>
       </c>
     </row>
     <row r="132">
@@ -2792,16 +2792,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>-0.069888025910649895</v>
+        <v>-0.045525095479656698</v>
       </c>
       <c r="C132">
-        <v>0.0061706552864922203</v>
+        <v>0.0073411687232049225</v>
       </c>
       <c r="D132">
-        <v>-0.081982301579724651</v>
+        <v>-0.059913548635031628</v>
       </c>
       <c r="E132">
-        <v>-0.05779375024157514</v>
+        <v>-0.031136642324281767</v>
       </c>
     </row>
     <row r="133">
@@ -2809,16 +2809,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0.013024198452484073</v>
+        <v>0.024080054530001775</v>
       </c>
       <c r="C133">
-        <v>0.0047503856608840126</v>
+        <v>0.0060721617265666068</v>
       </c>
       <c r="D133">
-        <v>0.0037136032158782296</v>
+        <v>0.012178814026102604</v>
       </c>
       <c r="E133">
-        <v>0.022334793689089916</v>
+        <v>0.035981295033900948</v>
       </c>
     </row>
     <row r="134">
@@ -2826,16 +2826,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>-0.1853880022269121</v>
+        <v>-0.20009145815180684</v>
       </c>
       <c r="C134">
-        <v>0.0048192981753223197</v>
+        <v>0.006094471200048965</v>
       </c>
       <c r="D134">
-        <v>-0.19483366609176728</v>
+        <v>-0.21203642939228762</v>
       </c>
       <c r="E134">
-        <v>-0.17594233836205692</v>
+        <v>-0.18814648691132607</v>
       </c>
     </row>
     <row r="135">
@@ -2843,16 +2843,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>-0.067542558391062477</v>
+        <v>-0.037472498273489252</v>
       </c>
       <c r="C135">
-        <v>0.0070570853962001788</v>
+        <v>0.00842024136113299</v>
       </c>
       <c r="D135">
-        <v>-0.081374210655165646</v>
+        <v>-0.053975905639797275</v>
       </c>
       <c r="E135">
-        <v>-0.053710906126959307</v>
+        <v>-0.020969090907181225</v>
       </c>
     </row>
     <row r="136">
@@ -2860,16 +2860,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0.065488390001040092</v>
+        <v>0.074828441885253838</v>
       </c>
       <c r="C136">
-        <v>0.0061464960628870597</v>
+        <v>0.0076285430525930608</v>
       </c>
       <c r="D136">
-        <v>0.053441462493218073</v>
+        <v>0.059876738221569061</v>
       </c>
       <c r="E136">
-        <v>0.077535317508862112</v>
+        <v>0.089780145548938622</v>
       </c>
     </row>
     <row r="137">
@@ -2877,16 +2877,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>-0.11576669336693306</v>
+        <v>-0.12242651842613297</v>
       </c>
       <c r="C137">
-        <v>0.004046601531612657</v>
+        <v>0.0055656558555464844</v>
       </c>
       <c r="D137">
-        <v>-0.12369789701586278</v>
+        <v>-0.13333502704810776</v>
       </c>
       <c r="E137">
-        <v>-0.10783548971800333</v>
+        <v>-0.11151800980415819</v>
       </c>
     </row>
     <row r="138">
@@ -2894,16 +2894,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>-0.061693896842216961</v>
+        <v>-0.037454395270240047</v>
       </c>
       <c r="C138">
-        <v>0.007234096532659706</v>
+        <v>0.0082873318066447495</v>
       </c>
       <c r="D138">
-        <v>-0.075872484076051988</v>
+        <v>-0.053697302272091255</v>
       </c>
       <c r="E138">
-        <v>-0.047515309608381934</v>
+        <v>-0.021211488268388839</v>
       </c>
     </row>
     <row r="139">
@@ -2911,16 +2911,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0.014719373864639989</v>
+        <v>0.018506899897803738</v>
       </c>
       <c r="C139">
-        <v>0.004611417170912663</v>
+        <v>0.0069701073608765879</v>
       </c>
       <c r="D139">
-        <v>0.0056811504549572171</v>
+        <v>0.0048457109533883852</v>
       </c>
       <c r="E139">
-        <v>0.023757597274322761</v>
+        <v>0.032168088842219091</v>
       </c>
     </row>
     <row r="140">
@@ -2928,16 +2928,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>-0.11514937994677556</v>
+        <v>-0.11951360740113488</v>
       </c>
       <c r="C140">
-        <v>0.0050335421450114787</v>
+        <v>0.0072185466818314023</v>
       </c>
       <c r="D140">
-        <v>-0.12501500437878257</v>
+        <v>-0.13366187663635992</v>
       </c>
       <c r="E140">
-        <v>-0.10528375551476854</v>
+        <v>-0.10536533816590986</v>
       </c>
     </row>
     <row r="141">
@@ -2945,16 +2945,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>-0.07398601802744062</v>
+        <v>-0.058748964926760891</v>
       </c>
       <c r="C141">
-        <v>0.012350674689461067</v>
+        <v>0.012690396874412726</v>
       </c>
       <c r="D141">
-        <v>-0.098193050462616518</v>
+        <v>-0.083621998183296797</v>
       </c>
       <c r="E141">
-        <v>-0.049778985592264721</v>
+        <v>-0.033875931670224978</v>
       </c>
     </row>
     <row r="142">
@@ -2962,16 +2962,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>0.034075043726669037</v>
+        <v>0.03928518867451819</v>
       </c>
       <c r="C142">
-        <v>0.0079426247826803135</v>
+        <v>0.011502687988613513</v>
       </c>
       <c r="D142">
-        <v>0.018507685621217712</v>
+        <v>0.016740051299247546</v>
       </c>
       <c r="E142">
-        <v>0.049642401832120361</v>
+        <v>0.061830326049788831</v>
       </c>
     </row>
     <row r="143">
@@ -2979,16 +2979,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>-0.075455464885034754</v>
+        <v>-0.086952508384541702</v>
       </c>
       <c r="C143">
-        <v>0.0058691161461937608</v>
+        <v>0.0082157460532521227</v>
       </c>
       <c r="D143">
-        <v>-0.086958811181576598</v>
+        <v>-0.10305529416559175</v>
       </c>
       <c r="E143">
-        <v>-0.063952118588492909</v>
+        <v>-0.070849722603491649</v>
       </c>
     </row>
     <row r="144">
@@ -2996,16 +2996,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>-0.11542510563437254</v>
+        <v>-0.082260562776086746</v>
       </c>
       <c r="C144">
-        <v>0.014111806326884408</v>
+        <v>0.015969336716361089</v>
       </c>
       <c r="D144">
-        <v>-0.14308395425899173</v>
+        <v>-0.11356031407587641</v>
       </c>
       <c r="E144">
-        <v>-0.087766257009753351</v>
+        <v>-0.050960811476297087</v>
       </c>
     </row>
     <row r="145">
@@ -3013,16 +3013,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0.081842011060376543</v>
+        <v>0.089361972717976607</v>
       </c>
       <c r="C145">
-        <v>0.0092150632935016682</v>
+        <v>0.013099570195236776</v>
       </c>
       <c r="D145">
-        <v>0.063780677536001348</v>
+        <v>0.063686937083905687</v>
       </c>
       <c r="E145">
-        <v>0.099903344584751738</v>
+        <v>0.11503700835204753</v>
       </c>
     </row>
     <row r="146">
@@ -3030,16 +3030,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>-0.15554083473621652</v>
+        <v>-0.14943134475776654</v>
       </c>
       <c r="C146">
-        <v>0.0041053714738036075</v>
+        <v>0.0052584794175212658</v>
       </c>
       <c r="D146">
-        <v>-0.16358722407378107</v>
+        <v>-0.15973779488307471</v>
       </c>
       <c r="E146">
-        <v>-0.14749444539865197</v>
+        <v>-0.13912489463245836</v>
       </c>
     </row>
     <row r="147">
@@ -3047,16 +3047,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>-0.076289358686811179</v>
+        <v>-0.029229117315318635</v>
       </c>
       <c r="C147">
-        <v>0.0067223997403216447</v>
+        <v>0.0074858432829302988</v>
       </c>
       <c r="D147">
-        <v>-0.089465034977866911</v>
+        <v>-0.043901128806762751</v>
       </c>
       <c r="E147">
-        <v>-0.063113682395755447</v>
+        <v>-0.014557105823874514</v>
       </c>
     </row>
     <row r="148">
@@ -3064,16 +3064,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0.07062579697683706</v>
+        <v>0.066942331815350919</v>
       </c>
       <c r="C148">
-        <v>0.0052983371167602067</v>
+        <v>0.0066793554134627038</v>
       </c>
       <c r="D148">
-        <v>0.060241235298275242</v>
+        <v>0.053851010546946965</v>
       </c>
       <c r="E148">
-        <v>0.081010358655398879</v>
+        <v>0.080033653083754874</v>
       </c>
     </row>
     <row r="149">
@@ -3081,16 +3081,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>-0.090542056948197724</v>
+        <v>-0.10872749551982962</v>
       </c>
       <c r="C149">
-        <v>0.0044336645886587202</v>
+        <v>0.0059195812784394349</v>
       </c>
       <c r="D149">
-        <v>-0.099231889594794245</v>
+        <v>-0.12032968328252637</v>
       </c>
       <c r="E149">
-        <v>-0.081852224301601204</v>
+        <v>-0.097125307757132864</v>
       </c>
     </row>
     <row r="150">
@@ -3098,16 +3098,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>-0.094489693294635677</v>
+        <v>-0.056697703952124381</v>
       </c>
       <c r="C150">
-        <v>0.0081199390483538154</v>
+        <v>0.0086309812520962408</v>
       </c>
       <c r="D150">
-        <v>-0.11040449921190176</v>
+        <v>-0.073614147928975276</v>
       </c>
       <c r="E150">
-        <v>-0.07857488737736959</v>
+        <v>-0.039781259975273493</v>
       </c>
     </row>
     <row r="151">
@@ -3115,16 +3115,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0.030647873159924222</v>
+        <v>0.047132497943722367</v>
       </c>
       <c r="C151">
-        <v>0.0056443928929357087</v>
+        <v>0.0073027848518367813</v>
       </c>
       <c r="D151">
-        <v>0.019585053983950326</v>
+        <v>0.032819275934221619</v>
       </c>
       <c r="E151">
-        <v>0.041710692335898122</v>
+        <v>0.061445719953223114</v>
       </c>
     </row>
     <row r="152">
@@ -3132,16 +3132,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>-0.16457528485272843</v>
+        <v>-0.1604055052210851</v>
       </c>
       <c r="C152">
-        <v>0.0049727652890515228</v>
+        <v>0.0060587131552550339</v>
       </c>
       <c r="D152">
-        <v>-0.17432173914761309</v>
+        <v>-0.17228039182211824</v>
       </c>
       <c r="E152">
-        <v>-0.15482883055784377</v>
+        <v>-0.14853061862005196</v>
       </c>
     </row>
     <row r="153">
@@ -3149,16 +3149,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>-0.066850887912107679</v>
+        <v>-0.022215854478820001</v>
       </c>
       <c r="C153">
-        <v>0.0081038185112286935</v>
+        <v>0.0082795884051694701</v>
       </c>
       <c r="D153">
-        <v>-0.082734102208915097</v>
+        <v>-0.038443586489756862</v>
       </c>
       <c r="E153">
-        <v>-0.05096767361530026</v>
+        <v>-0.0059881224678831439</v>
       </c>
     </row>
     <row r="154">
@@ -3166,16 +3166,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0.089703404289235886</v>
+        <v>0.082796617868243078</v>
       </c>
       <c r="C154">
-        <v>0.0059915178812696701</v>
+        <v>0.0074428971785316274</v>
       </c>
       <c r="D154">
-        <v>0.077960228854161762</v>
+        <v>0.068208774259645596</v>
       </c>
       <c r="E154">
-        <v>0.10144657972431001</v>
+        <v>0.097384461476840559</v>
       </c>
     </row>
     <row r="155">
@@ -3183,16 +3183,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>-0.10726551926635033</v>
+        <v>-0.11569384366322789</v>
       </c>
       <c r="C155">
-        <v>0.0053330119872040584</v>
+        <v>0.0069130637027892405</v>
       </c>
       <c r="D155">
-        <v>-0.11771804437965014</v>
+        <v>-0.12924322885041764</v>
       </c>
       <c r="E155">
-        <v>-0.09681299415305053</v>
+        <v>-0.10214445847603815</v>
       </c>
     </row>
     <row r="156">
@@ -3200,16 +3200,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>-0.089522403147871549</v>
+        <v>-0.054761474725207857</v>
       </c>
       <c r="C156">
-        <v>0.0090931440422947572</v>
+        <v>0.0098463667445633819</v>
       </c>
       <c r="D156">
-        <v>-0.10734466131811213</v>
+        <v>-0.074060040665312882</v>
       </c>
       <c r="E156">
-        <v>-0.07170014497763097</v>
+        <v>-0.035462908785102831</v>
       </c>
     </row>
     <row r="157">
@@ -3217,16 +3217,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0.033848552650581558</v>
+        <v>0.043787948293691467</v>
       </c>
       <c r="C157">
-        <v>0.0063500657849372239</v>
+        <v>0.0084393771315502825</v>
       </c>
       <c r="D157">
-        <v>0.02140263611271901</v>
+        <v>0.027247037286434485</v>
       </c>
       <c r="E157">
-        <v>0.046294469188444105</v>
+        <v>0.060328859300948445</v>
       </c>
     </row>
     <row r="158">
@@ -3234,16 +3234,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>-0.1171313126706076</v>
+        <v>-0.1228533372510533</v>
       </c>
       <c r="C158">
-        <v>0.0065643161788411586</v>
+        <v>0.0093874452994774267</v>
       </c>
       <c r="D158">
-        <v>-0.12999721827101587</v>
+        <v>-0.14125262306051456</v>
       </c>
       <c r="E158">
-        <v>-0.10426540707019932</v>
+        <v>-0.10445405144159202</v>
       </c>
     </row>
     <row r="159">
@@ -3251,16 +3251,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>-0.082473589029393002</v>
+        <v>-0.046950936311578637</v>
       </c>
       <c r="C159">
-        <v>0.014219263755131715</v>
+        <v>0.015747005619895928</v>
       </c>
       <c r="D159">
-        <v>-0.11034301216451196</v>
+        <v>-0.077814887876738403</v>
       </c>
       <c r="E159">
-        <v>-0.05460416589427404</v>
+        <v>-0.016086984746418866</v>
       </c>
     </row>
     <row r="160">
@@ -3268,16 +3268,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0.042060205666963182</v>
+        <v>0.044628433442431337</v>
       </c>
       <c r="C160">
-        <v>0.010725202423355598</v>
+        <v>0.014828368224713057</v>
       </c>
       <c r="D160">
-        <v>0.021039060712223463</v>
+        <v>0.015565000703215572</v>
       </c>
       <c r="E160">
-        <v>0.063081350621702906</v>
+        <v>0.073691866181647109</v>
       </c>
     </row>
     <row r="161">
@@ -3285,16 +3285,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>-0.080421884819213293</v>
+        <v>-0.088622726985119402</v>
       </c>
       <c r="C161">
-        <v>0.0076174263085306924</v>
+        <v>0.010807867844891286</v>
       </c>
       <c r="D161">
-        <v>-0.095351882885829187</v>
+        <v>-0.10980604734679157</v>
       </c>
       <c r="E161">
-        <v>-0.0654918867525974</v>
+        <v>-0.067439406623447232</v>
       </c>
     </row>
     <row r="162">
@@ -3302,16 +3302,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>-0.13462584959916685</v>
+        <v>-0.096857891285891243</v>
       </c>
       <c r="C162">
-        <v>0.018519538127312361</v>
+        <v>0.018768403829266395</v>
       </c>
       <c r="D162">
-        <v>-0.17092376141824761</v>
+        <v>-0.13364378806945651</v>
       </c>
       <c r="E162">
-        <v>-0.098327937780086097</v>
+        <v>-0.060071994502325983</v>
       </c>
     </row>
     <row r="163">
@@ -3319,16 +3319,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>0.087071458146629102</v>
+        <v>0.09445641664193534</v>
       </c>
       <c r="C163">
-        <v>0.012047619001572875</v>
+        <v>0.015623448440812723</v>
       </c>
       <c r="D163">
-        <v>0.063458374000429751</v>
+        <v>0.063834603142222571</v>
       </c>
       <c r="E163">
-        <v>0.11068454229282845</v>
+        <v>0.12507823014164809</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs.xlsx
+++ b/linreg/rifdid_coefs.xlsx
@@ -582,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.096230629600052561</v>
+        <v>-0.097464401122266106</v>
       </c>
       <c r="C2">
-        <v>0.0060584999520677061</v>
+        <v>0.0047164201965143402</v>
       </c>
       <c r="D2">
-        <v>-0.10810509418046191</v>
+        <v>-0.106708425304523</v>
       </c>
       <c r="E2">
-        <v>-0.084356165019643214</v>
+        <v>-0.088220376940009212</v>
       </c>
     </row>
     <row r="3">
@@ -599,16 +599,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.016450249925729826</v>
+        <v>-0.0056578454894290857</v>
       </c>
       <c r="C3">
-        <v>0.0074695073903815745</v>
+        <v>0.0065966016823923897</v>
       </c>
       <c r="D3">
-        <v>-0.031090243594446558</v>
+        <v>-0.018586961838692934</v>
       </c>
       <c r="E3">
-        <v>-0.0018102562570130962</v>
+        <v>0.007271270859834764</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.092744919408887516</v>
+        <v>-0.1159027882769664</v>
       </c>
       <c r="C4">
-        <v>0.0087744854461983633</v>
+        <v>0.0070461324870134999</v>
       </c>
       <c r="D4">
-        <v>-0.10994262799459774</v>
+        <v>-0.12971296981029889</v>
       </c>
       <c r="E4">
-        <v>-0.075547210823177294</v>
+        <v>-0.10209260674363391</v>
       </c>
     </row>
     <row r="5">
@@ -633,16 +633,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.03403305168786816</v>
+        <v>-0.031155157048010716</v>
       </c>
       <c r="C5">
-        <v>0.0038915456830830876</v>
+        <v>0.0027774659485927718</v>
       </c>
       <c r="D5">
-        <v>-0.041660355305894479</v>
+        <v>-0.036598896372993878</v>
       </c>
       <c r="E5">
-        <v>-0.026405748069841844</v>
+        <v>-0.025711417723027555</v>
       </c>
     </row>
     <row r="6">
@@ -650,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0037022922188086668</v>
+        <v>0.014602432614965579</v>
       </c>
       <c r="C6">
-        <v>0.0063260405797551092</v>
+        <v>0.0051147795200176989</v>
       </c>
       <c r="D6">
-        <v>-0.0086965426224466843</v>
+        <v>0.0045776377382377373</v>
       </c>
       <c r="E6">
-        <v>0.016101127060064016</v>
+        <v>0.02462722749169342</v>
       </c>
     </row>
     <row r="7">
@@ -667,16 +667,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.074450386795289508</v>
+        <v>-0.078462762060216101</v>
       </c>
       <c r="C7">
-        <v>0.0058502020538126476</v>
+        <v>0.004337988310416434</v>
       </c>
       <c r="D7">
-        <v>-0.085916593522658277</v>
+        <v>-0.086965072437304933</v>
       </c>
       <c r="E7">
-        <v>-0.062984180067920739</v>
+        <v>-0.06996045168312727</v>
       </c>
     </row>
     <row r="8">
@@ -684,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.1022722137770402</v>
+        <v>-0.10372393444060574</v>
       </c>
       <c r="C8">
-        <v>0.0069355137335835957</v>
+        <v>0.005633047677665497</v>
       </c>
       <c r="D8">
-        <v>-0.11586560184407214</v>
+        <v>-0.1147645202194586</v>
       </c>
       <c r="E8">
-        <v>-0.088678825710008249</v>
+        <v>-0.092683348661752873</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.015551599081443424</v>
+        <v>-0.00053886194556027013</v>
       </c>
       <c r="C9">
-        <v>0.0076817945026165504</v>
+        <v>0.006739010146725781</v>
       </c>
       <c r="D9">
-        <v>-0.030607673906819698</v>
+        <v>-0.013747097317770088</v>
       </c>
       <c r="E9">
-        <v>-0.00049552425606714905</v>
+        <v>0.012669373426649547</v>
       </c>
     </row>
     <row r="10">
@@ -718,16 +718,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.066518940939715776</v>
+        <v>-0.086265248758539123</v>
       </c>
       <c r="C10">
-        <v>0.0093412053589264857</v>
+        <v>0.0076870491642685159</v>
       </c>
       <c r="D10">
-        <v>-0.084827408680592992</v>
+        <v>-0.10133160902047431</v>
       </c>
       <c r="E10">
-        <v>-0.04821047319883856</v>
+        <v>-0.07119888849660394</v>
       </c>
     </row>
     <row r="11">
@@ -735,16 +735,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.042572030797728991</v>
+        <v>-0.03612250513490968</v>
       </c>
       <c r="C11">
-        <v>0.004380201709647767</v>
+        <v>0.0031748758867286659</v>
       </c>
       <c r="D11">
-        <v>-0.051157086962864404</v>
+        <v>-0.042345155677904006</v>
       </c>
       <c r="E11">
-        <v>-0.033986974632593578</v>
+        <v>-0.029899854591915354</v>
       </c>
     </row>
     <row r="12">
@@ -752,16 +752,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0065394349344677473</v>
+        <v>0.017930200045447608</v>
       </c>
       <c r="C12">
-        <v>0.0064318040973285863</v>
+        <v>0.0051265806894197716</v>
       </c>
       <c r="D12">
-        <v>-0.0060666967185775888</v>
+        <v>0.0078822733708737887</v>
       </c>
       <c r="E12">
-        <v>0.019145566587513083</v>
+        <v>0.027978126720021427</v>
       </c>
     </row>
     <row r="13">
@@ -769,16 +769,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.059674821632196638</v>
+        <v>-0.066068778449608373</v>
       </c>
       <c r="C13">
-        <v>0.0061430620955588971</v>
+        <v>0.0045830061966044468</v>
       </c>
       <c r="D13">
-        <v>-0.071715028136871181</v>
+        <v>-0.075051317300042594</v>
       </c>
       <c r="E13">
-        <v>-0.047634615127522095</v>
+        <v>-0.057086239599174159</v>
       </c>
     </row>
     <row r="14">
@@ -786,16 +786,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.20523053049203391</v>
+        <v>-0.21793794935324368</v>
       </c>
       <c r="C14">
-        <v>0.013769389276064579</v>
+        <v>0.0095995470310456278</v>
       </c>
       <c r="D14">
-        <v>-0.23221837655981833</v>
+        <v>-0.23675283617110043</v>
       </c>
       <c r="E14">
-        <v>-0.17824268442424948</v>
+        <v>-0.19912306253538692</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.048887242948642044</v>
+        <v>-0.03490404981463039</v>
       </c>
       <c r="C15">
-        <v>0.021554675475050654</v>
+        <v>0.0188070857568692</v>
       </c>
       <c r="D15">
-        <v>-0.091134161246820528</v>
+        <v>-0.071765496375060106</v>
       </c>
       <c r="E15">
-        <v>-0.006640324650463568</v>
+        <v>0.0019573967457993252</v>
       </c>
     </row>
     <row r="16">
@@ -820,16 +820,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.075206411090617334</v>
+        <v>-0.063714627108222704</v>
       </c>
       <c r="C16">
-        <v>0.026226187768748646</v>
+        <v>0.018957944579531049</v>
       </c>
       <c r="D16">
-        <v>-0.12660944024879156</v>
+        <v>-0.10087175341944465</v>
       </c>
       <c r="E16">
-        <v>-0.023803381932443107</v>
+        <v>-0.026557500797000762</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.040559661012148203</v>
+        <v>-0.055731005675693106</v>
       </c>
       <c r="C17">
-        <v>0.011828710473158055</v>
+        <v>0.0081941477678990921</v>
       </c>
       <c r="D17">
-        <v>-0.063743823421833407</v>
+        <v>-0.071791365884865524</v>
       </c>
       <c r="E17">
-        <v>-0.017375498602463006</v>
+        <v>-0.039670645466520688</v>
       </c>
     </row>
     <row r="18">
@@ -854,16 +854,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.049059811339027544</v>
+        <v>0.023934697202849489</v>
       </c>
       <c r="C18">
-        <v>0.024517941672940101</v>
+        <v>0.020254325493546655</v>
       </c>
       <c r="D18">
-        <v>0.0010048739063699408</v>
+        <v>-0.015763362001614326</v>
       </c>
       <c r="E18">
-        <v>0.097114748771685147</v>
+        <v>0.063632756407313307</v>
       </c>
     </row>
     <row r="19">
@@ -871,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.086035231633252773</v>
+        <v>-0.091972688539959588</v>
       </c>
       <c r="C19">
-        <v>0.022414565021965562</v>
+        <v>0.01636262857585935</v>
       </c>
       <c r="D19">
-        <v>-0.12996757041108725</v>
+        <v>-0.12404310224749468</v>
       </c>
       <c r="E19">
-        <v>-0.042102892855418281</v>
+        <v>-0.059902274832424503</v>
       </c>
     </row>
     <row r="20">
@@ -888,16 +888,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.16209551779232079</v>
+        <v>-0.1518914441128231</v>
       </c>
       <c r="C20">
-        <v>0.0060574416242696405</v>
+        <v>0.0045922904917993605</v>
       </c>
       <c r="D20">
-        <v>-0.17396790808436635</v>
+        <v>-0.16089217826910443</v>
       </c>
       <c r="E20">
-        <v>-0.15022312750027522</v>
+        <v>-0.14289070995654177</v>
       </c>
     </row>
     <row r="21">
@@ -905,16 +905,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.022110569797575117</v>
+        <v>-0.018536542205195201</v>
       </c>
       <c r="C21">
-        <v>0.0076600676008701735</v>
+        <v>0.0065255551375708364</v>
       </c>
       <c r="D21">
-        <v>-0.037124055335200745</v>
+        <v>-0.031326409727799882</v>
       </c>
       <c r="E21">
-        <v>-0.0070970842599494908</v>
+        <v>-0.0057466746825905208</v>
       </c>
     </row>
     <row r="22">
@@ -922,16 +922,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.10403823482689882</v>
+        <v>-0.11582145936915912</v>
       </c>
       <c r="C22">
-        <v>0.0086343202442496075</v>
+        <v>0.0067180479111650857</v>
       </c>
       <c r="D22">
-        <v>-0.12096122413570645</v>
+        <v>-0.12898860622224628</v>
       </c>
       <c r="E22">
-        <v>-0.087115245518091189</v>
+        <v>-0.10265431251607197</v>
       </c>
     </row>
     <row r="23">
@@ -939,16 +939,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.060543757714499984</v>
+        <v>-0.046717381656622731</v>
       </c>
       <c r="C23">
-        <v>0.0039489228281133848</v>
+        <v>0.0028167454695602616</v>
       </c>
       <c r="D23">
-        <v>-0.06828351868020284</v>
+        <v>-0.052238107514263679</v>
       </c>
       <c r="E23">
-        <v>-0.052803996748797127</v>
+        <v>-0.041196655798981782</v>
       </c>
     </row>
     <row r="24">
@@ -956,16 +956,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.019232451711013624</v>
+        <v>-0.0034584116232918723</v>
       </c>
       <c r="C24">
-        <v>0.0063181566991685756</v>
+        <v>0.0050916624774513617</v>
       </c>
       <c r="D24">
-        <v>-0.031615834401422294</v>
+        <v>-0.013437897878411072</v>
       </c>
       <c r="E24">
-        <v>-0.0068490690206049545</v>
+        <v>0.0065210746318273265</v>
       </c>
     </row>
     <row r="25">
@@ -973,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.088404668188360291</v>
+        <v>-0.093252739145536945</v>
       </c>
       <c r="C25">
-        <v>0.0057082410987553973</v>
+        <v>0.0042102482783304774</v>
       </c>
       <c r="D25">
-        <v>-0.099592636037323087</v>
+        <v>-0.10150468337992176</v>
       </c>
       <c r="E25">
-        <v>-0.077216700339397495</v>
+        <v>-0.08500079491115213</v>
       </c>
     </row>
     <row r="26">
@@ -990,16 +990,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.17477589458865286</v>
+        <v>-0.16138422137269409</v>
       </c>
       <c r="C26">
-        <v>0.0070308012111219217</v>
+        <v>0.0053216936791763599</v>
       </c>
       <c r="D26">
-        <v>-0.18855604310485455</v>
+        <v>-0.17181456368750925</v>
       </c>
       <c r="E26">
-        <v>-0.16099574607245118</v>
+        <v>-0.15095387905787894</v>
       </c>
     </row>
     <row r="27">
@@ -1007,16 +1007,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.012483844008956229</v>
+        <v>-0.0053036443585133828</v>
       </c>
       <c r="C27">
-        <v>0.0080059464071029172</v>
+        <v>0.0065163525964822815</v>
       </c>
       <c r="D27">
-        <v>-0.028175246338481775</v>
+        <v>-0.018075478350255678</v>
       </c>
       <c r="E27">
-        <v>0.0032075583205693169</v>
+        <v>0.0074681896332289112</v>
       </c>
     </row>
     <row r="28">
@@ -1024,16 +1024,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.073156702488253303</v>
+        <v>-0.077952273634404337</v>
       </c>
       <c r="C28">
-        <v>0.0094163166639254468</v>
+        <v>0.007193270864007951</v>
       </c>
       <c r="D28">
-        <v>-0.091612386016784148</v>
+        <v>-0.092050844878437538</v>
       </c>
       <c r="E28">
-        <v>-0.054701018959722458</v>
+        <v>-0.063853702390371136</v>
       </c>
     </row>
     <row r="29">
@@ -1041,16 +1041,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.067378506761092638</v>
+        <v>-0.055444443251652917</v>
       </c>
       <c r="C29">
-        <v>0.0043108027564700791</v>
+        <v>0.00315632910421216</v>
       </c>
       <c r="D29">
-        <v>-0.075827543183228596</v>
+        <v>-0.061630742721277866</v>
       </c>
       <c r="E29">
-        <v>-0.058929470338956673</v>
+        <v>-0.049258143782027967</v>
       </c>
     </row>
     <row r="30">
@@ -1058,16 +1058,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.019007153156826228</v>
+        <v>0.0024240933039623527</v>
       </c>
       <c r="C30">
-        <v>0.0062752524914340274</v>
+        <v>0.0050776058121814131</v>
       </c>
       <c r="D30">
-        <v>-0.031306448636919379</v>
+        <v>-0.0075278442493628989</v>
       </c>
       <c r="E30">
-        <v>-0.0067078576767330752</v>
+        <v>0.012376030857287603</v>
       </c>
     </row>
     <row r="31">
@@ -1075,16 +1075,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.070562357658617042</v>
+        <v>-0.075627684242248611</v>
       </c>
       <c r="C31">
-        <v>0.0058915229198202128</v>
+        <v>0.0044160198464212276</v>
       </c>
       <c r="D31">
-        <v>-0.082109555371780441</v>
+        <v>-0.084282935431774952</v>
       </c>
       <c r="E31">
-        <v>-0.059015159945453637</v>
+        <v>-0.066972433052722269</v>
       </c>
     </row>
     <row r="32">
@@ -1092,16 +1092,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.18371156936993338</v>
+        <v>-0.17647299717056505</v>
       </c>
       <c r="C32">
-        <v>0.0096919523640901385</v>
+        <v>0.0065354713109747357</v>
       </c>
       <c r="D32">
-        <v>-0.20270768555593183</v>
+        <v>-0.18928236751060973</v>
       </c>
       <c r="E32">
-        <v>-0.16471545318393493</v>
+        <v>-0.16366362683052038</v>
       </c>
     </row>
     <row r="33">
@@ -1109,16 +1109,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.035654335361604686</v>
+        <v>-0.043925165953804989</v>
       </c>
       <c r="C33">
-        <v>0.017150051678373586</v>
+        <v>0.014198734369485076</v>
       </c>
       <c r="D33">
-        <v>-0.069268241212538634</v>
+        <v>-0.071754351982551978</v>
       </c>
       <c r="E33">
-        <v>-0.0020404295106707451</v>
+        <v>-0.016095979925057999</v>
       </c>
     </row>
     <row r="34">
@@ -1126,16 +1126,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.056481389999193679</v>
+        <v>-0.060598094666297224</v>
       </c>
       <c r="C34">
-        <v>0.018248324652956095</v>
+        <v>0.012684182232458216</v>
       </c>
       <c r="D34">
-        <v>-0.092247898364602537</v>
+        <v>-0.085458794062732824</v>
       </c>
       <c r="E34">
-        <v>-0.020714881633784828</v>
+        <v>-0.035737395269861624</v>
       </c>
     </row>
     <row r="35">
@@ -1143,16 +1143,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.053062633575798192</v>
+        <v>-0.04625215340262797</v>
       </c>
       <c r="C35">
-        <v>0.0087418726019109563</v>
+        <v>0.0060791090910996097</v>
       </c>
       <c r="D35">
-        <v>-0.070196622494318989</v>
+        <v>-0.058167081534189674</v>
       </c>
       <c r="E35">
-        <v>-0.035928644657277402</v>
+        <v>-0.034337225271066266</v>
       </c>
     </row>
     <row r="36">
@@ -1160,16 +1160,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0099297612965005364</v>
+        <v>0.0056337196904819387</v>
       </c>
       <c r="C36">
-        <v>0.019235265588138751</v>
+        <v>0.015932426772457493</v>
       </c>
       <c r="D36">
-        <v>-0.027771180188271134</v>
+        <v>-0.025593507376907791</v>
       </c>
       <c r="E36">
-        <v>0.047630702781272204</v>
+        <v>0.036860946757871667</v>
       </c>
     </row>
     <row r="37">
@@ -1177,16 +1177,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.071171235753681991</v>
+        <v>-0.083611813585319647</v>
       </c>
       <c r="C37">
-        <v>0.01627090315103219</v>
+        <v>0.011698069247767028</v>
       </c>
       <c r="D37">
-        <v>-0.10306205445803701</v>
+        <v>-0.10653978745064215</v>
       </c>
       <c r="E37">
-        <v>-0.039280417049326978</v>
+        <v>-0.060683839719997149</v>
       </c>
     </row>
     <row r="38">
@@ -1194,16 +1194,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.18805656295856696</v>
+        <v>-0.1689285355750734</v>
       </c>
       <c r="C38">
-        <v>0.005338084382884186</v>
+        <v>0.0040344313131793399</v>
       </c>
       <c r="D38">
-        <v>-0.19851903624952758</v>
+        <v>-0.17683588459546953</v>
       </c>
       <c r="E38">
-        <v>-0.17759408966760634</v>
+        <v>-0.16102118655467726</v>
       </c>
     </row>
     <row r="39">
@@ -1211,16 +1211,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.02384220259384133</v>
+        <v>-0.02796874346919705</v>
       </c>
       <c r="C39">
-        <v>0.0070578179707198874</v>
+        <v>0.0059487543699251761</v>
       </c>
       <c r="D39">
-        <v>-0.037675298272861195</v>
+        <v>-0.039628100981603444</v>
       </c>
       <c r="E39">
-        <v>-0.010009106914821464</v>
+        <v>-0.016309385956790656</v>
       </c>
     </row>
     <row r="40">
@@ -1228,16 +1228,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.079572187261448171</v>
+        <v>-0.087828573633573701</v>
       </c>
       <c r="C40">
-        <v>0.0074407913862621997</v>
+        <v>0.0057553798795320797</v>
       </c>
       <c r="D40">
-        <v>-0.094155898487893033</v>
+        <v>-0.099108923680371649</v>
       </c>
       <c r="E40">
-        <v>-0.064988476035003309</v>
+        <v>-0.076548223586775752</v>
       </c>
     </row>
     <row r="41">
@@ -1245,16 +1245,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.084337151400070823</v>
+        <v>-0.06265905050083645</v>
       </c>
       <c r="C41">
-        <v>0.004004842491271257</v>
+        <v>0.0029127658436635009</v>
       </c>
       <c r="D41">
-        <v>-0.092186513096140787</v>
+        <v>-0.068367973044298244</v>
       </c>
       <c r="E41">
-        <v>-0.076487789704000858</v>
+        <v>-0.056950127957374662</v>
       </c>
     </row>
     <row r="42">
@@ -1262,16 +1262,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.016448827262993251</v>
+        <v>-0.001441719185437004</v>
       </c>
       <c r="C42">
-        <v>0.0064048032301471935</v>
+        <v>0.0052142785293559394</v>
       </c>
       <c r="D42">
-        <v>-0.029002034350452056</v>
+        <v>-0.011661528755398394</v>
       </c>
       <c r="E42">
-        <v>-0.003895620175534447</v>
+        <v>0.0087780903845243868</v>
       </c>
     </row>
     <row r="43">
@@ -1279,16 +1279,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.073948548480878479</v>
+        <v>-0.086932951332555575</v>
       </c>
       <c r="C43">
-        <v>0.0056134829344718952</v>
+        <v>0.0042029447660548742</v>
       </c>
       <c r="D43">
-        <v>-0.084950793393986007</v>
+        <v>-0.095170580929885937</v>
       </c>
       <c r="E43">
-        <v>-0.06294630356777095</v>
+        <v>-0.078695321735225213</v>
       </c>
     </row>
     <row r="44">
@@ -1296,16 +1296,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.208898916445759</v>
+        <v>-0.182504756141942</v>
       </c>
       <c r="C44">
-        <v>0.0062606166181625516</v>
+        <v>0.0047709045476295462</v>
       </c>
       <c r="D44">
-        <v>-0.22116952746300803</v>
+        <v>-0.1918555701088944</v>
       </c>
       <c r="E44">
-        <v>-0.19662830542850998</v>
+        <v>-0.17315394217498961</v>
       </c>
     </row>
     <row r="45">
@@ -1313,16 +1313,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.014870219837446345</v>
+        <v>-0.0084503315535184153</v>
       </c>
       <c r="C45">
-        <v>0.007538488429631964</v>
+        <v>0.0061873988611498877</v>
       </c>
       <c r="D45">
-        <v>-0.029645419281809519</v>
+        <v>-0.020577427183359163</v>
       </c>
       <c r="E45">
-        <v>-9.502039308316966e-05</v>
+        <v>0.0036767640763223346</v>
       </c>
     </row>
     <row r="46">
@@ -1330,16 +1330,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04829621531353543</v>
+        <v>-0.062048066975736248</v>
       </c>
       <c r="C46">
-        <v>0.0082915730349090999</v>
+        <v>0.0063829091868396696</v>
       </c>
       <c r="D46">
-        <v>-0.064547436820585835</v>
+        <v>-0.07455835633035017</v>
       </c>
       <c r="E46">
-        <v>-0.032044993806485025</v>
+        <v>-0.049537777621122325</v>
       </c>
     </row>
     <row r="47">
@@ -1347,16 +1347,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.099236520273736459</v>
+        <v>-0.078568813516409444</v>
       </c>
       <c r="C47">
-        <v>0.0044719456568046816</v>
+        <v>0.003285452402462976</v>
       </c>
       <c r="D47">
-        <v>-0.10800139166003361</v>
+        <v>-0.085008190331618938</v>
       </c>
       <c r="E47">
-        <v>-0.090471648887439304</v>
+        <v>-0.07212943670119995</v>
       </c>
     </row>
     <row r="48">
@@ -1364,16 +1364,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.015764020095112664</v>
+        <v>0.00027269526650030678</v>
       </c>
       <c r="C48">
-        <v>0.0065602073203329088</v>
+        <v>0.0052580906070533217</v>
       </c>
       <c r="D48">
-        <v>-0.028621817985091454</v>
+        <v>-0.010032986447819256</v>
       </c>
       <c r="E48">
-        <v>-0.0029062222051338769</v>
+        <v>0.010578376980819868</v>
       </c>
     </row>
     <row r="49">
@@ -1381,16 +1381,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.06166051438865762</v>
+        <v>-0.069518524702940163</v>
       </c>
       <c r="C49">
-        <v>0.0059812970367568372</v>
+        <v>0.0044814480265952823</v>
       </c>
       <c r="D49">
-        <v>-0.073383666518344534</v>
+        <v>-0.078302012937129906</v>
       </c>
       <c r="E49">
-        <v>-0.049937362258970705</v>
+        <v>-0.060735036468750413</v>
       </c>
     </row>
     <row r="50">
@@ -1398,16 +1398,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.16504874490108565</v>
+        <v>-0.15409006833229191</v>
       </c>
       <c r="C50">
-        <v>0.0081199788634559907</v>
+        <v>0.0055054226019856864</v>
       </c>
       <c r="D50">
-        <v>-0.18096381093974773</v>
+        <v>-0.1648805673845736</v>
       </c>
       <c r="E50">
-        <v>-0.14913367886242357</v>
+        <v>-0.14329956928001022</v>
       </c>
     </row>
     <row r="51">
@@ -1415,16 +1415,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.040085656931958327</v>
+        <v>-0.046967359615533798</v>
       </c>
       <c r="C51">
-        <v>0.014871991782758746</v>
+        <v>0.01237113719617973</v>
       </c>
       <c r="D51">
-        <v>-0.069234591347817995</v>
+        <v>-0.071214498090040143</v>
       </c>
       <c r="E51">
-        <v>-0.010936722516098656</v>
+        <v>-0.022720221141027456</v>
       </c>
     </row>
     <row r="52">
@@ -1432,16 +1432,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.032552360777065102</v>
+        <v>-0.038767680181503082</v>
       </c>
       <c r="C52">
-        <v>0.014919239122117898</v>
+        <v>0.010407272092574991</v>
       </c>
       <c r="D52">
-        <v>-0.061793899439647151</v>
+        <v>-0.059165689157465062</v>
       </c>
       <c r="E52">
-        <v>-0.003310822114483053</v>
+        <v>-0.018369671205541106</v>
       </c>
     </row>
     <row r="53">
@@ -1449,16 +1449,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.062779713555566274</v>
+        <v>-0.047403832827668635</v>
       </c>
       <c r="C53">
-        <v>0.0077015141078564447</v>
+        <v>0.0055064572313329417</v>
       </c>
       <c r="D53">
-        <v>-0.077874609510810253</v>
+        <v>-0.058196375153797983</v>
       </c>
       <c r="E53">
-        <v>-0.047684817600322296</v>
+        <v>-0.036611290501539287</v>
       </c>
     </row>
     <row r="54">
@@ -1466,16 +1466,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.023338743328945352</v>
+        <v>-0.015073418754080381</v>
       </c>
       <c r="C54">
-        <v>0.017189361763643524</v>
+        <v>0.014740268974442493</v>
       </c>
       <c r="D54">
-        <v>-0.057029732363758225</v>
+        <v>-0.043964041185500298</v>
       </c>
       <c r="E54">
-        <v>0.01035224570586752</v>
+        <v>0.013817203677339534</v>
       </c>
     </row>
     <row r="55">
@@ -1483,16 +1483,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.026400952493695957</v>
+        <v>-0.05302666632747368</v>
       </c>
       <c r="C55">
-        <v>0.014273407115673636</v>
+        <v>0.010407923284904074</v>
       </c>
       <c r="D55">
-        <v>-0.054376697564154593</v>
+        <v>-0.073425980779652456</v>
       </c>
       <c r="E55">
-        <v>0.0015747925767626778</v>
+        <v>-0.032627351875294898</v>
       </c>
     </row>
     <row r="56">
@@ -1500,16 +1500,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1930479574395968</v>
+        <v>-0.16984529737892404</v>
       </c>
       <c r="C56">
-        <v>0.0048911470346848533</v>
+        <v>0.0036618642533737806</v>
       </c>
       <c r="D56">
-        <v>-0.20263444793731766</v>
+        <v>-0.17702242755391276</v>
       </c>
       <c r="E56">
-        <v>-0.18346146694187593</v>
+        <v>-0.16266816720393532</v>
       </c>
     </row>
     <row r="57">
@@ -1517,16 +1517,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.032447356752610755</v>
+        <v>-0.041042283135822047</v>
       </c>
       <c r="C57">
-        <v>0.0067404512176433935</v>
+        <v>0.0056164824188114151</v>
       </c>
       <c r="D57">
-        <v>-0.045658423827484113</v>
+        <v>-0.052050398853985574</v>
       </c>
       <c r="E57">
-        <v>-0.019236289677737394</v>
+        <v>-0.030034167417658519</v>
       </c>
     </row>
     <row r="58">
@@ -1534,16 +1534,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.048460202689778908</v>
+        <v>-0.04740374953744024</v>
       </c>
       <c r="C58">
-        <v>0.0066772095533564326</v>
+        <v>0.0050933223052788464</v>
       </c>
       <c r="D58">
-        <v>-0.061547318141556957</v>
+        <v>-0.057386489114550548</v>
       </c>
       <c r="E58">
-        <v>-0.03537308723800086</v>
+        <v>-0.037421009960329932</v>
       </c>
     </row>
     <row r="59">
@@ -1551,16 +1551,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.094481639590762681</v>
+        <v>-0.072034393370609101</v>
       </c>
       <c r="C59">
-        <v>0.0038280014601334835</v>
+        <v>0.0028207215861316692</v>
       </c>
       <c r="D59">
-        <v>-0.10198439858794205</v>
+        <v>-0.077562912282257229</v>
       </c>
       <c r="E59">
-        <v>-0.086978880593583316</v>
+        <v>-0.066505874458960973</v>
       </c>
     </row>
     <row r="60">
@@ -1568,16 +1568,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.020339196969260988</v>
+        <v>-0.010920054360333026</v>
       </c>
       <c r="C60">
-        <v>0.0061833254398118388</v>
+        <v>0.005071012140768179</v>
       </c>
       <c r="D60">
-        <v>-0.032458314754137331</v>
+        <v>-0.020859066653950251</v>
       </c>
       <c r="E60">
-        <v>-0.0082200791843846446</v>
+        <v>-0.00098104206671579923</v>
       </c>
     </row>
     <row r="61">
@@ -1585,16 +1585,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.057995913270445329</v>
+        <v>-0.070044560373682466</v>
       </c>
       <c r="C61">
-        <v>0.0052714581410322004</v>
+        <v>0.0039769903389954486</v>
       </c>
       <c r="D61">
-        <v>-0.068327800655489476</v>
+        <v>-0.077839326935784395</v>
       </c>
       <c r="E61">
-        <v>-0.047664025885401175</v>
+        <v>-0.062249793811580537</v>
       </c>
     </row>
     <row r="62">
@@ -1602,16 +1602,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.22094656641135108</v>
+        <v>-0.18700037302294645</v>
       </c>
       <c r="C62">
-        <v>0.0058177952725946046</v>
+        <v>0.0043903812058257961</v>
       </c>
       <c r="D62">
-        <v>-0.23234926156455635</v>
+        <v>-0.19560537391739505</v>
       </c>
       <c r="E62">
-        <v>-0.2095438712581458</v>
+        <v>-0.17839537212849785</v>
       </c>
     </row>
     <row r="63">
@@ -1619,16 +1619,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.026959703248176307</v>
+        <v>-0.025503480936862995</v>
       </c>
       <c r="C63">
-        <v>0.007429461060728287</v>
+        <v>0.0060169957569033896</v>
       </c>
       <c r="D63">
-        <v>-0.041521212489857212</v>
+        <v>-0.03729659215949277</v>
       </c>
       <c r="E63">
-        <v>-0.012398194006495401</v>
+        <v>-0.013710369714233221</v>
       </c>
     </row>
     <row r="64">
@@ -1636,16 +1636,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.022134761603659747</v>
+        <v>-0.03225612251669463</v>
       </c>
       <c r="C64">
-        <v>0.0076224461251837962</v>
+        <v>0.0057984864412830911</v>
       </c>
       <c r="D64">
-        <v>-0.037074515482011489</v>
+        <v>-0.043620962760516691</v>
       </c>
       <c r="E64">
-        <v>-0.0071950077253080044</v>
+        <v>-0.020891282272872572</v>
       </c>
     </row>
     <row r="65">
@@ -1653,16 +1653,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.11827111975234035</v>
+        <v>-0.095310901832793962</v>
       </c>
       <c r="C65">
-        <v>0.004322221568008348</v>
+        <v>0.003245014334796935</v>
       </c>
       <c r="D65">
-        <v>-0.12674253668224592</v>
+        <v>-0.10167102138797274</v>
       </c>
       <c r="E65">
-        <v>-0.1097997028224348</v>
+        <v>-0.088950782277615187</v>
       </c>
     </row>
     <row r="66">
@@ -1670,16 +1670,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.019194210877435662</v>
+        <v>-0.0032849139735790897</v>
       </c>
       <c r="C66">
-        <v>0.0064819900041010086</v>
+        <v>0.0052515324388209489</v>
       </c>
       <c r="D66">
-        <v>-0.031898705313042022</v>
+        <v>-0.013577741897524417</v>
       </c>
       <c r="E66">
-        <v>-0.0064897164418293036</v>
+        <v>0.0070079139503662381</v>
       </c>
     </row>
     <row r="67">
@@ -1687,16 +1687,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.038831117428064853</v>
+        <v>-0.048212500962544161</v>
       </c>
       <c r="C67">
-        <v>0.005720969085501632</v>
+        <v>0.0043556227242508476</v>
       </c>
       <c r="D67">
-        <v>-0.050044035045501353</v>
+        <v>-0.056749375812812697</v>
       </c>
       <c r="E67">
-        <v>-0.027618199810628352</v>
+        <v>-0.039675626112275625</v>
       </c>
     </row>
     <row r="68">
@@ -1704,16 +1704,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.14941618365292483</v>
+        <v>-0.13387785084215059</v>
       </c>
       <c r="C68">
-        <v>0.0071166629990078584</v>
+        <v>0.0049186565356400744</v>
       </c>
       <c r="D68">
-        <v>-0.1633647620308625</v>
+        <v>-0.14351830217956116</v>
       </c>
       <c r="E68">
-        <v>-0.13546760527498716</v>
+        <v>-0.12423739950474003</v>
       </c>
     </row>
     <row r="69">
@@ -1721,16 +1721,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.043875222356360731</v>
+        <v>-0.046719681680247357</v>
       </c>
       <c r="C69">
-        <v>0.013278524652985669</v>
+        <v>0.011266615859847067</v>
       </c>
       <c r="D69">
-        <v>-0.06990097935670897</v>
+        <v>-0.068801984265747865</v>
       </c>
       <c r="E69">
-        <v>-0.017849465356012485</v>
+        <v>-0.024637379094746847</v>
       </c>
     </row>
     <row r="70">
@@ -1738,16 +1738,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.017750133857604215</v>
+        <v>-0.030370289682911764</v>
       </c>
       <c r="C70">
-        <v>0.012785040119354548</v>
+        <v>0.009055046719176443</v>
       </c>
       <c r="D70">
-        <v>-0.042808666795689954</v>
+        <v>-0.048117968672422642</v>
       </c>
       <c r="E70">
-        <v>0.0073083990804815209</v>
+        <v>-0.012622610693400881</v>
       </c>
     </row>
     <row r="71">
@@ -1755,16 +1755,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.06576507801533539</v>
+        <v>-0.046895695285811279</v>
       </c>
       <c r="C71">
-        <v>0.0069316783207947529</v>
+        <v>0.0050075186225841135</v>
       </c>
       <c r="D71">
-        <v>-0.07935110299461566</v>
+        <v>-0.056710328254464634</v>
       </c>
       <c r="E71">
-        <v>-0.05217905303605512</v>
+        <v>-0.037081062317157923</v>
       </c>
     </row>
     <row r="72">
@@ -1772,16 +1772,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.036497590048388588</v>
+        <v>-0.047338143886766701</v>
       </c>
       <c r="C72">
-        <v>0.015275453316505306</v>
+        <v>0.013468500755953251</v>
       </c>
       <c r="D72">
-        <v>-0.066437336344070133</v>
+        <v>-0.073736126904051236</v>
       </c>
       <c r="E72">
-        <v>-0.0065578437527070432</v>
+        <v>-0.020940160869482166</v>
       </c>
     </row>
     <row r="73">
@@ -1789,16 +1789,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.009281143814386484</v>
+        <v>-0.021536995637974926</v>
       </c>
       <c r="C73">
-        <v>0.012834900659709927</v>
+        <v>0.0094992381084423889</v>
       </c>
       <c r="D73">
-        <v>-0.015875141993955368</v>
+        <v>-0.040155305931566049</v>
       </c>
       <c r="E73">
-        <v>0.034437429622728333</v>
+        <v>-0.0029186853443838</v>
       </c>
     </row>
     <row r="74">
@@ -1806,16 +1806,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.19216861456401232</v>
+        <v>-0.16132455495823389</v>
       </c>
       <c r="C74">
-        <v>0.0047366958018826844</v>
+        <v>0.0034825248211786505</v>
       </c>
       <c r="D74">
-        <v>-0.20145238562493864</v>
+        <v>-0.16815018590733319</v>
       </c>
       <c r="E74">
-        <v>-0.18288484350308601</v>
+        <v>-0.15449892400913459</v>
       </c>
     </row>
     <row r="75">
@@ -1823,16 +1823,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.033788148196011815</v>
+        <v>-0.048651046734607802</v>
       </c>
       <c r="C75">
-        <v>0.0066730068865615329</v>
+        <v>0.0054513335657894839</v>
       </c>
       <c r="D75">
-        <v>-0.046867026556365564</v>
+        <v>-0.059335476282456188</v>
       </c>
       <c r="E75">
-        <v>-0.020709269835658066</v>
+        <v>-0.037966617186759415</v>
       </c>
     </row>
     <row r="76">
@@ -1840,16 +1840,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.019876500016158677</v>
+        <v>-0.020900014724883054</v>
       </c>
       <c r="C76">
-        <v>0.0063332767066470418</v>
+        <v>0.0047244269601169524</v>
       </c>
       <c r="D76">
-        <v>-0.032289518176758868</v>
+        <v>-0.030159731893192987</v>
       </c>
       <c r="E76">
-        <v>-0.0074634818555584844</v>
+        <v>-0.011640297556573122</v>
       </c>
     </row>
     <row r="77">
@@ -1857,16 +1857,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.10146889932996572</v>
+        <v>-0.076284748435595615</v>
       </c>
       <c r="C77">
-        <v>0.003955244831894301</v>
+        <v>0.0028741810673170187</v>
       </c>
       <c r="D77">
-        <v>-0.10922105121851473</v>
+        <v>-0.081918046122360436</v>
       </c>
       <c r="E77">
-        <v>-0.093716747441416712</v>
+        <v>-0.070651450748830794</v>
       </c>
     </row>
     <row r="78">
@@ -1874,16 +1874,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.031346314473694591</v>
+        <v>-0.027656639201852521</v>
       </c>
       <c r="C78">
-        <v>0.0063466550977532704</v>
+        <v>0.0051339522989187168</v>
       </c>
       <c r="D78">
-        <v>-0.043785553103191398</v>
+        <v>-0.037719012076800493</v>
       </c>
       <c r="E78">
-        <v>-0.018907075844197783</v>
+        <v>-0.017594266326904553</v>
       </c>
     </row>
     <row r="79">
@@ -1891,16 +1891,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.045224968999124641</v>
+        <v>-0.056593316699201243</v>
       </c>
       <c r="C79">
-        <v>0.0053426779138432377</v>
+        <v>0.0039676874044034839</v>
       </c>
       <c r="D79">
-        <v>-0.055696444834382304</v>
+        <v>-0.064369849824129369</v>
       </c>
       <c r="E79">
-        <v>-0.034753493163866979</v>
+        <v>-0.048816783574273111</v>
       </c>
     </row>
     <row r="80">
@@ -1908,16 +1908,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.21064301185786727</v>
+        <v>-0.1864259614496119</v>
       </c>
       <c r="C80">
-        <v>0.0054477694438792379</v>
+        <v>0.0042484230904590858</v>
       </c>
       <c r="D80">
-        <v>-0.22132046806299047</v>
+        <v>-0.19475272916738695</v>
       </c>
       <c r="E80">
-        <v>-0.19996555565274407</v>
+        <v>-0.17809919373183686</v>
       </c>
     </row>
     <row r="81">
@@ -1925,16 +1925,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.027240063567160151</v>
+        <v>-0.029912055224092855</v>
       </c>
       <c r="C81">
-        <v>0.0072743101124160044</v>
+        <v>0.0061136704105074638</v>
       </c>
       <c r="D81">
-        <v>-0.041497481845951832</v>
+        <v>-0.041894645546995221</v>
       </c>
       <c r="E81">
-        <v>-0.012982645288368467</v>
+        <v>-0.017929464901190489</v>
       </c>
     </row>
     <row r="82">
@@ -1942,16 +1942,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0066917558216110186</v>
+        <v>-0.0090248630092466808</v>
       </c>
       <c r="C82">
-        <v>0.0070702120842819896</v>
+        <v>0.0055420351937933649</v>
       </c>
       <c r="D82">
-        <v>-0.020549148405592615</v>
+        <v>-0.019887067351861961</v>
       </c>
       <c r="E82">
-        <v>0.0071656367623705785</v>
+        <v>0.0018373413333685994</v>
       </c>
     </row>
     <row r="83">
@@ -1959,16 +1959,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.12437306486036999</v>
+        <v>-0.10523665291054156</v>
       </c>
       <c r="C83">
-        <v>0.0043682463360932618</v>
+        <v>0.0033222608675551857</v>
       </c>
       <c r="D83">
-        <v>-0.13293468887323384</v>
+        <v>-0.111748173086142</v>
       </c>
       <c r="E83">
-        <v>-0.11581144084750614</v>
+        <v>-0.098725132734941115</v>
       </c>
     </row>
     <row r="84">
@@ -1976,16 +1976,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.028970313346106356</v>
+        <v>-0.01909554944164648</v>
       </c>
       <c r="C84">
-        <v>0.0065755448531309652</v>
+        <v>0.0054597057405839436</v>
       </c>
       <c r="D84">
-        <v>-0.041858172313002193</v>
+        <v>-0.029796390073952246</v>
       </c>
       <c r="E84">
-        <v>-0.01608245437921052</v>
+        <v>-0.0083947088093407115</v>
       </c>
     </row>
     <row r="85">
@@ -1993,16 +1993,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.030010174317494216</v>
+        <v>-0.038424556586530621</v>
       </c>
       <c r="C85">
-        <v>0.0057051769161376668</v>
+        <v>0.0044117204117669478</v>
       </c>
       <c r="D85">
-        <v>-0.041192139784791061</v>
+        <v>-0.047071381027944427</v>
       </c>
       <c r="E85">
-        <v>-0.01882820885019737</v>
+        <v>-0.029777732145116816</v>
       </c>
     </row>
     <row r="86">
@@ -2010,16 +2010,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.13162406223811113</v>
+        <v>-0.11787290418496947</v>
       </c>
       <c r="C86">
-        <v>0.0065795484241408008</v>
+        <v>0.0043647094039408769</v>
       </c>
       <c r="D86">
-        <v>-0.14451990217016336</v>
+        <v>-0.12642763214894484</v>
       </c>
       <c r="E86">
-        <v>-0.11872822230605888</v>
+        <v>-0.10931817622099411</v>
       </c>
     </row>
     <row r="87">
@@ -2027,16 +2027,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.052422586829301024</v>
+        <v>-0.059952633936656827</v>
       </c>
       <c r="C87">
-        <v>0.012235162529242475</v>
+        <v>0.010093456089698548</v>
       </c>
       <c r="D87">
-        <v>-0.076403365957065969</v>
+        <v>-0.079735570914257092</v>
       </c>
       <c r="E87">
-        <v>-0.028441807701536082</v>
+        <v>-0.040169696959056561</v>
       </c>
     </row>
     <row r="88">
@@ -2044,16 +2044,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01573535915653998</v>
+        <v>-0.014078076745719944</v>
       </c>
       <c r="C88">
-        <v>0.011439089652819999</v>
+        <v>0.0078721743345668803</v>
       </c>
       <c r="D88">
-        <v>-0.038155844518409691</v>
+        <v>-0.029507353631004346</v>
       </c>
       <c r="E88">
-        <v>0.006685126205329732</v>
+        <v>0.0013512001395644558</v>
       </c>
     </row>
     <row r="89">
@@ -2061,16 +2061,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.073389872186703342</v>
+        <v>-0.050234894485538639</v>
       </c>
       <c r="C89">
-        <v>0.0068347181597374403</v>
+        <v>0.0048095076353764686</v>
       </c>
       <c r="D89">
-        <v>-0.086785856152948163</v>
+        <v>-0.059661430013188202</v>
       </c>
       <c r="E89">
-        <v>-0.059993888220458515</v>
+        <v>-0.040808358957889077</v>
       </c>
     </row>
     <row r="90">
@@ -2078,16 +2078,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.056121709454202896</v>
+        <v>-0.071839226799532321</v>
       </c>
       <c r="C90">
-        <v>0.015002391146914812</v>
+        <v>0.012740333458071809</v>
       </c>
       <c r="D90">
-        <v>-0.085526256439520665</v>
+        <v>-0.096810016967997375</v>
       </c>
       <c r="E90">
-        <v>-0.026717162468885131</v>
+        <v>-0.046868436631067267</v>
       </c>
     </row>
     <row r="91">
@@ -2095,16 +2095,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.035850035039657634</v>
+        <v>0.0066441295074750719</v>
       </c>
       <c r="C91">
-        <v>0.012542513173329181</v>
+        <v>0.0091113710322559723</v>
       </c>
       <c r="D91">
-        <v>0.011266825982682156</v>
+        <v>-0.011213969336032636</v>
       </c>
       <c r="E91">
-        <v>0.060433244096633115</v>
+        <v>0.024502228350982778</v>
       </c>
     </row>
     <row r="92">
@@ -2112,16 +2112,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.18077088156001245</v>
+        <v>-0.15303979342959115</v>
       </c>
       <c r="C92">
-        <v>0.0045427738328187306</v>
+        <v>0.0033607080662541623</v>
       </c>
       <c r="D92">
-        <v>-0.18967457181360503</v>
+        <v>-0.15962666765613248</v>
       </c>
       <c r="E92">
-        <v>-0.17186719130641986</v>
+        <v>-0.14645291920304981</v>
       </c>
     </row>
     <row r="93">
@@ -2129,16 +2129,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.037996388240570403</v>
+        <v>-0.054899127714996422</v>
       </c>
       <c r="C93">
-        <v>0.0064448215908199241</v>
+        <v>0.0053199625082072525</v>
       </c>
       <c r="D93">
-        <v>-0.050628030777949654</v>
+        <v>-0.065326074429988584</v>
       </c>
       <c r="E93">
-        <v>-0.025364745703191152</v>
+        <v>-0.04447218100000426</v>
       </c>
     </row>
     <row r="94">
@@ -2146,16 +2146,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.0017724867841721727</v>
+        <v>0.0038543815264766952</v>
       </c>
       <c r="C94">
-        <v>0.0059481475179637327</v>
+        <v>0.0044541030007478749</v>
       </c>
       <c r="D94">
-        <v>-0.0098856905831486604</v>
+        <v>-0.004875509817726646</v>
       </c>
       <c r="E94">
-        <v>0.013430664151493008</v>
+        <v>0.012584272870680036</v>
       </c>
     </row>
     <row r="95">
@@ -2163,16 +2163,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.099755959046832959</v>
+        <v>-0.078162960113853083</v>
       </c>
       <c r="C95">
-        <v>0.0039269603133101948</v>
+        <v>0.0029519971394014696</v>
       </c>
       <c r="D95">
-        <v>-0.10745267419417436</v>
+        <v>-0.083948774670153783</v>
       </c>
       <c r="E95">
-        <v>-0.092059243899491564</v>
+        <v>-0.072377145557552383</v>
       </c>
     </row>
     <row r="96">
@@ -2180,16 +2180,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.031072672073093791</v>
+        <v>-0.041691219687175464</v>
       </c>
       <c r="C96">
-        <v>0.0062412691077252903</v>
+        <v>0.0052365874965161529</v>
       </c>
       <c r="D96">
-        <v>-0.043305357572166372</v>
+        <v>-0.051954754078278709</v>
       </c>
       <c r="E96">
-        <v>-0.018839986574021209</v>
+        <v>-0.031427685296072219</v>
       </c>
     </row>
     <row r="97">
@@ -2197,16 +2197,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.021184452457021823</v>
+        <v>-0.038160711825125572</v>
       </c>
       <c r="C97">
-        <v>0.0052167082718830859</v>
+        <v>0.0039967230668183119</v>
       </c>
       <c r="D97">
-        <v>-0.031409031870104388</v>
+        <v>-0.045994153866396895</v>
       </c>
       <c r="E97">
-        <v>-0.010959873043939255</v>
+        <v>-0.030327269783854249</v>
       </c>
     </row>
     <row r="98">
@@ -2214,16 +2214,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.20424173413731866</v>
+        <v>-0.18216586685961245</v>
       </c>
       <c r="C98">
-        <v>0.0054141764979076723</v>
+        <v>0.004232070862710012</v>
       </c>
       <c r="D98">
-        <v>-0.21485334922836619</v>
+        <v>-0.19046058475578651</v>
       </c>
       <c r="E98">
-        <v>-0.19363011904627114</v>
+        <v>-0.17387114896343839</v>
       </c>
     </row>
     <row r="99">
@@ -2231,16 +2231,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.023389492813110247</v>
+        <v>-0.035737588267795106</v>
       </c>
       <c r="C99">
-        <v>0.0073417840505266233</v>
+        <v>0.0062462736763871712</v>
       </c>
       <c r="D99">
-        <v>-0.037779157881452245</v>
+        <v>-0.047980076574040596</v>
       </c>
       <c r="E99">
-        <v>-0.0089998277447682507</v>
+        <v>-0.023495099961549616</v>
       </c>
     </row>
     <row r="100">
@@ -2248,16 +2248,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.014662601884335134</v>
+        <v>0.019076892869721866</v>
       </c>
       <c r="C100">
-        <v>0.0069270468839173508</v>
+        <v>0.0054392912765237828</v>
       </c>
       <c r="D100">
-        <v>0.0010858085754767884</v>
+        <v>0.0084160631819613259</v>
       </c>
       <c r="E100">
-        <v>0.028239395193193479</v>
+        <v>0.029737722557482405</v>
       </c>
     </row>
     <row r="101">
@@ -2265,16 +2265,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.12347446503842198</v>
+        <v>-0.10865622928789338</v>
       </c>
       <c r="C101">
-        <v>0.0044203293821019939</v>
+        <v>0.0034496661360710582</v>
       </c>
       <c r="D101">
-        <v>-0.13213817016646631</v>
+        <v>-0.11541745952826349</v>
       </c>
       <c r="E101">
-        <v>-0.11481075991037763</v>
+        <v>-0.10189499904752328</v>
       </c>
     </row>
     <row r="102">
@@ -2282,16 +2282,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.029319837397206158</v>
+        <v>-0.028633611948908202</v>
       </c>
       <c r="C102">
-        <v>0.0066861846719980678</v>
+        <v>0.0056818351595819558</v>
       </c>
       <c r="D102">
-        <v>-0.042424546893378393</v>
+        <v>-0.039769818812543163</v>
       </c>
       <c r="E102">
-        <v>-0.016215127901033924</v>
+        <v>-0.01749740508527324</v>
       </c>
     </row>
     <row r="103">
@@ -2299,16 +2299,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>-0.014411996228416598</v>
+        <v>-0.026202341574021709</v>
       </c>
       <c r="C103">
-        <v>0.0057017834910291134</v>
+        <v>0.0045087356811034946</v>
       </c>
       <c r="D103">
-        <v>-0.025587310690330531</v>
+        <v>-0.035039312698315089</v>
       </c>
       <c r="E103">
-        <v>-0.0032366817665026634</v>
+        <v>-0.017365370449728329</v>
       </c>
     </row>
     <row r="104">
@@ -2316,16 +2316,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>-0.12640464640783272</v>
+        <v>-0.10841170586297924</v>
       </c>
       <c r="C104">
-        <v>0.0065219264729756187</v>
+        <v>0.0041077707013431114</v>
       </c>
       <c r="D104">
-        <v>-0.13918754797224983</v>
+        <v>-0.11646284000186374</v>
       </c>
       <c r="E104">
-        <v>-0.11362174484341561</v>
+        <v>-0.10036057172409474</v>
       </c>
     </row>
     <row r="105">
@@ -2333,16 +2333,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>-0.069568958483982063</v>
+        <v>-0.063769333156231747</v>
       </c>
       <c r="C105">
-        <v>0.011875256605346742</v>
+        <v>0.0095587325689828855</v>
       </c>
       <c r="D105">
-        <v>-0.092844326102329802</v>
+        <v>-0.082504224586622973</v>
       </c>
       <c r="E105">
-        <v>-0.046293590865634324</v>
+        <v>-0.045034441725840521</v>
       </c>
     </row>
     <row r="106">
@@ -2350,16 +2350,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>-0.0058822089795355212</v>
+        <v>0.0049746140206533267</v>
       </c>
       <c r="C106">
-        <v>0.010997024638054385</v>
+        <v>0.0072736362732398465</v>
       </c>
       <c r="D106">
-        <v>-0.027436251950152202</v>
+        <v>-0.0092815423159606746</v>
       </c>
       <c r="E106">
-        <v>0.015671833991081158</v>
+        <v>0.019230770357267328</v>
       </c>
     </row>
     <row r="107">
@@ -2367,16 +2367,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>-0.078294973095662343</v>
+        <v>-0.057994886240499678</v>
       </c>
       <c r="C107">
-        <v>0.0067977313892292656</v>
+        <v>0.0049146167713879649</v>
       </c>
       <c r="D107">
-        <v>-0.091618463336034239</v>
+        <v>-0.067627433501575962</v>
       </c>
       <c r="E107">
-        <v>-0.064971482855290447</v>
+        <v>-0.048362338979423401</v>
       </c>
     </row>
     <row r="108">
@@ -2384,16 +2384,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>-0.075467540039938552</v>
+        <v>-0.079144436607697377</v>
       </c>
       <c r="C108">
-        <v>0.014589280114758517</v>
+        <v>0.01291205943951285</v>
       </c>
       <c r="D108">
-        <v>-0.10406239324802861</v>
+        <v>-0.10445180614931229</v>
       </c>
       <c r="E108">
-        <v>-0.04687268683184849</v>
+        <v>-0.053837067066082468</v>
       </c>
     </row>
     <row r="109">
@@ -2401,16 +2401,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0.074492666262524529</v>
+        <v>0.032747316645117805</v>
       </c>
       <c r="C109">
-        <v>0.012178344761541247</v>
+        <v>0.0091217718189046879</v>
       </c>
       <c r="D109">
-        <v>0.050623223902479156</v>
+        <v>0.014868832474817299</v>
       </c>
       <c r="E109">
-        <v>0.098362108622569902</v>
+        <v>0.050625800815418315</v>
       </c>
     </row>
     <row r="110">
@@ -2418,16 +2418,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>-0.18267493037322821</v>
+        <v>-0.15030137053954926</v>
       </c>
       <c r="C110">
-        <v>0.0047493738628624129</v>
+        <v>0.0033273949715808713</v>
       </c>
       <c r="D110">
-        <v>-0.19198355002493492</v>
+        <v>-0.15682295222642811</v>
       </c>
       <c r="E110">
-        <v>-0.1733663107215215</v>
+        <v>-0.1437797888526704</v>
       </c>
     </row>
     <row r="111">
@@ -2435,16 +2435,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>-0.044615853622549904</v>
+        <v>-0.063721199908247025</v>
       </c>
       <c r="C111">
-        <v>0.0067233114934487151</v>
+        <v>0.0053554190800123736</v>
       </c>
       <c r="D111">
-        <v>-0.057793327390585285</v>
+        <v>-0.074217640305636004</v>
       </c>
       <c r="E111">
-        <v>-0.031438379854514524</v>
+        <v>-0.053224759510858054</v>
       </c>
     </row>
     <row r="112">
@@ -2452,16 +2452,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0.029848286824122095</v>
+        <v>0.028675356077107979</v>
       </c>
       <c r="C112">
-        <v>0.0061190126055906454</v>
+        <v>0.004339658526389574</v>
       </c>
       <c r="D112">
-        <v>0.017855219393731796</v>
+        <v>0.020169772034717072</v>
       </c>
       <c r="E112">
-        <v>0.041841354254512395</v>
+        <v>0.037180940119498886</v>
       </c>
     </row>
     <row r="113">
@@ -2469,16 +2469,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>-0.10597990883778588</v>
+        <v>-0.084063785111363226</v>
       </c>
       <c r="C113">
-        <v>0.0042350981194045588</v>
+        <v>0.0031934451690524548</v>
       </c>
       <c r="D113">
-        <v>-0.1142805641144931</v>
+        <v>-0.090322829639976177</v>
       </c>
       <c r="E113">
-        <v>-0.097679253561078663</v>
+        <v>-0.077804740582750276</v>
       </c>
     </row>
     <row r="114">
@@ -2486,16 +2486,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>-0.036990325284355384</v>
+        <v>-0.050952662400742303</v>
       </c>
       <c r="C114">
-        <v>0.0066536940652216344</v>
+        <v>0.0056542845404010268</v>
       </c>
       <c r="D114">
-        <v>-0.05003135035506677</v>
+        <v>-0.062034868871291698</v>
       </c>
       <c r="E114">
-        <v>-0.023949300213643998</v>
+        <v>-0.039870455930192908</v>
       </c>
     </row>
     <row r="115">
@@ -2503,16 +2503,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>0.00031830769003438557</v>
+        <v>-0.016215328338629636</v>
       </c>
       <c r="C115">
-        <v>0.0055271534461004352</v>
+        <v>0.0042596437704718552</v>
       </c>
       <c r="D115">
-        <v>-0.010514734219274322</v>
+        <v>-0.024564086067049601</v>
       </c>
       <c r="E115">
-        <v>0.011151349599343094</v>
+        <v>-0.0078665706102096708</v>
       </c>
     </row>
     <row r="116">
@@ -2520,16 +2520,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>-0.20697300060836446</v>
+        <v>-0.17384839226280152</v>
       </c>
       <c r="C116">
-        <v>0.0057855737005392998</v>
+        <v>0.0042958262262103508</v>
       </c>
       <c r="D116">
-        <v>-0.21831254249709611</v>
+        <v>-0.18226806854737665</v>
       </c>
       <c r="E116">
-        <v>-0.19563345871963281</v>
+        <v>-0.16542871597822639</v>
       </c>
     </row>
     <row r="117">
@@ -2537,16 +2537,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>-0.031888508393979921</v>
+        <v>-0.055896913775923533</v>
       </c>
       <c r="C117">
-        <v>0.0079563858852960585</v>
+        <v>0.0064940623742946726</v>
       </c>
       <c r="D117">
-        <v>-0.047482773664650979</v>
+        <v>-0.068625059674794237</v>
       </c>
       <c r="E117">
-        <v>-0.016294243123308863</v>
+        <v>-0.043168767877052837</v>
       </c>
     </row>
     <row r="118">
@@ -2554,16 +2554,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>0.044291654679563093</v>
+        <v>0.037913473163288282</v>
       </c>
       <c r="C118">
-        <v>0.0073394865611155664</v>
+        <v>0.0054479115546837084</v>
       </c>
       <c r="D118">
-        <v>0.029906492617969273</v>
+        <v>0.027235748017525568</v>
       </c>
       <c r="E118">
-        <v>0.058676816741156913</v>
+        <v>0.048591198309050995</v>
       </c>
     </row>
     <row r="119">
@@ -2571,16 +2571,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>-0.12973727220609915</v>
+        <v>-0.10784364943422567</v>
       </c>
       <c r="C119">
-        <v>0.0049312251690260536</v>
+        <v>0.003637720850072934</v>
       </c>
       <c r="D119">
-        <v>-0.13940231684223359</v>
+        <v>-0.114973460623882</v>
       </c>
       <c r="E119">
-        <v>-0.12007222756996472</v>
+        <v>-0.10071383824456934</v>
       </c>
     </row>
     <row r="120">
@@ -2588,16 +2588,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>-0.028308135089085341</v>
+        <v>-0.041437911980564714</v>
       </c>
       <c r="C120">
-        <v>0.0074464776003906278</v>
+        <v>0.0060420022515361585</v>
       </c>
       <c r="D120">
-        <v>-0.042902994565754769</v>
+        <v>-0.053280034297363041</v>
       </c>
       <c r="E120">
-        <v>-0.013713275612415914</v>
+        <v>-0.029595789663766386</v>
       </c>
     </row>
     <row r="121">
@@ -2605,16 +2605,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>0.003263927099746418</v>
+        <v>-0.0094000162365263096</v>
       </c>
       <c r="C121">
-        <v>0.0062913244014474543</v>
+        <v>0.0047082473615943556</v>
       </c>
       <c r="D121">
-        <v>-0.0090668688132702607</v>
+        <v>-0.018628023581205418</v>
       </c>
       <c r="E121">
-        <v>0.015594723012763096</v>
+        <v>-0.00017200889184720326</v>
       </c>
     </row>
     <row r="122">
@@ -2622,16 +2622,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>-0.12538890473117439</v>
+        <v>-0.11360634552211442</v>
       </c>
       <c r="C122">
-        <v>0.0066294523941429935</v>
+        <v>0.0043205750612752307</v>
       </c>
       <c r="D122">
-        <v>-0.13838255587573492</v>
+        <v>-0.12207457121058146</v>
       </c>
       <c r="E122">
-        <v>-0.11239525358661387</v>
+        <v>-0.10513811983364738</v>
       </c>
     </row>
     <row r="123">
@@ -2639,16 +2639,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>-0.068421513503536438</v>
+        <v>-0.075956331548065512</v>
       </c>
       <c r="C123">
-        <v>0.011846882433903153</v>
+        <v>0.010041080936780104</v>
       </c>
       <c r="D123">
-        <v>-0.091641268069201323</v>
+        <v>-0.095636614455526681</v>
       </c>
       <c r="E123">
-        <v>-0.045201758937871553</v>
+        <v>-0.056276048640604343</v>
       </c>
     </row>
     <row r="124">
@@ -2656,16 +2656,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0.021472322387155698</v>
+        <v>0.02754047524218893</v>
       </c>
       <c r="C124">
-        <v>0.010859199607261338</v>
+        <v>0.0074497595922980017</v>
       </c>
       <c r="D124">
-        <v>0.00018841490626594209</v>
+        <v>0.012939121334965858</v>
       </c>
       <c r="E124">
-        <v>0.042756229868045455</v>
+        <v>0.042141829149412002</v>
       </c>
     </row>
     <row r="125">
@@ -2673,16 +2673,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>-0.091899972028656018</v>
+        <v>-0.061345753639363329</v>
       </c>
       <c r="C125">
-        <v>0.007309597104717222</v>
+        <v>0.0050979623257709538</v>
       </c>
       <c r="D125">
-        <v>-0.10622671430624295</v>
+        <v>-0.071337654396318312</v>
       </c>
       <c r="E125">
-        <v>-0.077573229751069089</v>
+        <v>-0.051353852882408346</v>
       </c>
     </row>
     <row r="126">
@@ -2690,16 +2690,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>-0.086166796136866064</v>
+        <v>-0.091242892256369543</v>
       </c>
       <c r="C126">
-        <v>0.015293324397220701</v>
+        <v>0.013096250749625542</v>
       </c>
       <c r="D126">
-        <v>-0.11614156958438149</v>
+        <v>-0.11691127295760717</v>
       </c>
       <c r="E126">
-        <v>-0.05619202268935064</v>
+        <v>-0.065574511555131915</v>
       </c>
     </row>
     <row r="127">
@@ -2707,16 +2707,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0.10034342776062877</v>
+        <v>0.064425789813945714</v>
       </c>
       <c r="C127">
-        <v>0.012583392676954056</v>
+        <v>0.0091667911245304629</v>
       </c>
       <c r="D127">
-        <v>0.075680095257110488</v>
+        <v>0.0464590687354033</v>
       </c>
       <c r="E127">
-        <v>0.12500676026414706</v>
+        <v>0.082392510892488127</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>-0.17922925645424539</v>
+        <v>-0.14948682209205238</v>
       </c>
       <c r="C128">
-        <v>0.0049871830957619557</v>
+        <v>0.0036165202640044609</v>
       </c>
       <c r="D128">
-        <v>-0.18900397453548104</v>
+        <v>-0.15657507958038783</v>
       </c>
       <c r="E128">
-        <v>-0.16945453837300975</v>
+        <v>-0.14239856460371694</v>
       </c>
     </row>
     <row r="129">
@@ -2741,16 +2741,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>-0.043607715354031774</v>
+        <v>-0.068736299220748392</v>
       </c>
       <c r="C129">
-        <v>0.0071075090492879545</v>
+        <v>0.0059968330340104256</v>
       </c>
       <c r="D129">
-        <v>-0.057538203945007922</v>
+        <v>-0.080489889289826283</v>
       </c>
       <c r="E129">
-        <v>-0.029677226763055627</v>
+        <v>-0.056982709151670495</v>
       </c>
     </row>
     <row r="130">
@@ -2758,16 +2758,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0.058427523266053397</v>
+        <v>0.052229269736044054</v>
       </c>
       <c r="C130">
-        <v>0.0063745415663229235</v>
+        <v>0.0046722307585032137</v>
       </c>
       <c r="D130">
-        <v>0.045933627310864859</v>
+        <v>0.043071855358799246</v>
       </c>
       <c r="E130">
-        <v>0.070921419221241927</v>
+        <v>0.061386684113288861</v>
       </c>
     </row>
     <row r="131">
@@ -2775,16 +2775,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>-0.11101824164294564</v>
+        <v>-0.083493386186789795</v>
       </c>
       <c r="C131">
-        <v>0.0047570374174150405</v>
+        <v>0.0034996055969884082</v>
       </c>
       <c r="D131">
-        <v>-0.12034188105508553</v>
+        <v>-0.090352494799771824</v>
       </c>
       <c r="E131">
-        <v>-0.10169460223080576</v>
+        <v>-0.076634277573807766</v>
       </c>
     </row>
     <row r="132">
@@ -2792,16 +2792,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>-0.045525095479656698</v>
+        <v>-0.068309900862705164</v>
       </c>
       <c r="C132">
-        <v>0.0073411687232049225</v>
+        <v>0.0061409346860698934</v>
       </c>
       <c r="D132">
-        <v>-0.059913548635031628</v>
+        <v>-0.080345925160194481</v>
       </c>
       <c r="E132">
-        <v>-0.031136642324281767</v>
+        <v>-0.056273876565215847</v>
       </c>
     </row>
     <row r="133">
@@ -2809,16 +2809,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0.024080054530001775</v>
+        <v>0.0078269668440447207</v>
       </c>
       <c r="C133">
-        <v>0.0060721617265666068</v>
+        <v>0.0045594052843683733</v>
       </c>
       <c r="D133">
-        <v>0.012178814026102604</v>
+        <v>-0.0011093133136391344</v>
       </c>
       <c r="E133">
-        <v>0.035981295033900948</v>
+        <v>0.016763247001728578</v>
       </c>
     </row>
     <row r="134">
@@ -2826,16 +2826,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>-0.20009145815180684</v>
+        <v>-0.16226157223923607</v>
       </c>
       <c r="C134">
-        <v>0.006094471200048965</v>
+        <v>0.0046087968618687379</v>
       </c>
       <c r="D134">
-        <v>-0.21203642939228762</v>
+        <v>-0.17129466054284109</v>
       </c>
       <c r="E134">
-        <v>-0.18814648691132607</v>
+        <v>-0.15322848393563104</v>
       </c>
     </row>
     <row r="135">
@@ -2843,16 +2843,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>-0.037472498273489252</v>
+        <v>-0.067171958875570301</v>
       </c>
       <c r="C135">
-        <v>0.00842024136113299</v>
+        <v>0.0071353783116575205</v>
       </c>
       <c r="D135">
-        <v>-0.053975905639797275</v>
+        <v>-0.081157062645732136</v>
       </c>
       <c r="E135">
-        <v>-0.020969090907181225</v>
+        <v>-0.053186855105408458</v>
       </c>
     </row>
     <row r="136">
@@ -2860,16 +2860,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0.074828441885253838</v>
+        <v>0.060282868849169467</v>
       </c>
       <c r="C136">
-        <v>0.0076285430525930608</v>
+        <v>0.0057633739743206463</v>
       </c>
       <c r="D136">
-        <v>0.059876738221569061</v>
+        <v>0.04898684787079461</v>
       </c>
       <c r="E136">
-        <v>0.089780145548938622</v>
+        <v>0.071578889827544318</v>
       </c>
     </row>
     <row r="137">
@@ -2877,16 +2877,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>-0.12242651842613297</v>
+        <v>-0.10260903367150272</v>
       </c>
       <c r="C137">
-        <v>0.0055656558555464844</v>
+        <v>0.0041250659733125484</v>
       </c>
       <c r="D137">
-        <v>-0.13333502704810776</v>
+        <v>-0.11069402500172112</v>
       </c>
       <c r="E137">
-        <v>-0.11151800980415819</v>
+        <v>-0.094524042341284309</v>
       </c>
     </row>
     <row r="138">
@@ -2894,16 +2894,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>-0.037454395270240047</v>
+        <v>-0.058326230484136696</v>
       </c>
       <c r="C138">
-        <v>0.0082873318066447495</v>
+        <v>0.0068619889797527219</v>
       </c>
       <c r="D138">
-        <v>-0.053697302272091255</v>
+        <v>-0.071775499360872658</v>
       </c>
       <c r="E138">
-        <v>-0.021211488268388839</v>
+        <v>-0.044876961607400727</v>
       </c>
     </row>
     <row r="139">
@@ -2911,16 +2911,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0.018506899897803738</v>
+        <v>0.0060281385853554687</v>
       </c>
       <c r="C139">
-        <v>0.0069701073608765879</v>
+        <v>0.0052399107014338394</v>
       </c>
       <c r="D139">
-        <v>0.0048457109533883852</v>
+        <v>-0.0042419111220413841</v>
       </c>
       <c r="E139">
-        <v>0.032168088842219091</v>
+        <v>0.016298188292752321</v>
       </c>
     </row>
     <row r="140">
@@ -2928,16 +2928,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>-0.11951360740113488</v>
+        <v>-0.11079374089759307</v>
       </c>
       <c r="C140">
-        <v>0.0072185466818314023</v>
+        <v>0.0048353825065080742</v>
       </c>
       <c r="D140">
-        <v>-0.13366187663635992</v>
+        <v>-0.12027097709288095</v>
       </c>
       <c r="E140">
-        <v>-0.10536533816590986</v>
+        <v>-0.10131650470230519</v>
       </c>
     </row>
     <row r="141">
@@ -2945,16 +2945,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>-0.058748964926760891</v>
+        <v>-0.074288220901758947</v>
       </c>
       <c r="C141">
-        <v>0.012690396874412726</v>
+        <v>0.011234096546225805</v>
       </c>
       <c r="D141">
-        <v>-0.083621998183296797</v>
+        <v>-0.096306786395998836</v>
       </c>
       <c r="E141">
-        <v>-0.033875931670224978</v>
+        <v>-0.052269655407519058</v>
       </c>
     </row>
     <row r="142">
@@ -2962,16 +2962,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>0.03928518867451819</v>
+        <v>0.03694272435267959</v>
       </c>
       <c r="C142">
-        <v>0.011502687988613513</v>
+        <v>0.0080445726448871418</v>
       </c>
       <c r="D142">
-        <v>0.016740051299247546</v>
+        <v>0.021175550826462525</v>
       </c>
       <c r="E142">
-        <v>0.061830326049788831</v>
+        <v>0.052709897878896655</v>
       </c>
     </row>
     <row r="143">
@@ -2979,16 +2979,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>-0.086952508384541702</v>
+        <v>-0.064493498031780366</v>
       </c>
       <c r="C143">
-        <v>0.0082157460532521227</v>
+        <v>0.0058529120540440592</v>
       </c>
       <c r="D143">
-        <v>-0.10305529416559175</v>
+        <v>-0.075965084647389519</v>
       </c>
       <c r="E143">
-        <v>-0.070849722603491649</v>
+        <v>-0.053021911416171214</v>
       </c>
     </row>
     <row r="144">
@@ -2996,16 +2996,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>-0.082260562776086746</v>
+        <v>-0.11478585904035545</v>
       </c>
       <c r="C144">
-        <v>0.015969336716361089</v>
+        <v>0.014141490275390111</v>
       </c>
       <c r="D144">
-        <v>-0.11356031407587641</v>
+        <v>-0.14250288760152147</v>
       </c>
       <c r="E144">
-        <v>-0.050960811476297087</v>
+        <v>-0.08706883047918941</v>
       </c>
     </row>
     <row r="145">
@@ -3013,16 +3013,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0.089361972717976607</v>
+        <v>0.06941433137136041</v>
       </c>
       <c r="C145">
-        <v>0.013099570195236776</v>
+        <v>0.0097965936635965468</v>
       </c>
       <c r="D145">
-        <v>0.063686937083905687</v>
+        <v>0.050213210337562361</v>
       </c>
       <c r="E145">
-        <v>0.11503700835204753</v>
+        <v>0.08861545240515846</v>
       </c>
     </row>
     <row r="146">
@@ -3030,16 +3030,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>-0.14943134475776654</v>
+        <v>-0.13834770749091596</v>
       </c>
       <c r="C146">
-        <v>0.0052584794175212658</v>
+        <v>0.0040893426117577826</v>
       </c>
       <c r="D146">
-        <v>-0.15973779488307471</v>
+        <v>-0.14636268080066472</v>
       </c>
       <c r="E146">
-        <v>-0.13912489463245836</v>
+        <v>-0.1303327341811672</v>
       </c>
     </row>
     <row r="147">
@@ -3047,16 +3047,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>-0.029229117315318635</v>
+        <v>-0.076722724093914549</v>
       </c>
       <c r="C147">
-        <v>0.0074858432829302988</v>
+        <v>0.0071290842902312478</v>
       </c>
       <c r="D147">
-        <v>-0.043901128806762751</v>
+        <v>-0.090695488357995541</v>
       </c>
       <c r="E147">
-        <v>-0.014557105823874514</v>
+        <v>-0.062749959829833557</v>
       </c>
     </row>
     <row r="148">
@@ -3064,16 +3064,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0.066942331815350919</v>
+        <v>0.067937285421854621</v>
       </c>
       <c r="C148">
-        <v>0.0066793554134627038</v>
+        <v>0.0052979243294091483</v>
       </c>
       <c r="D148">
-        <v>0.053851010546946965</v>
+        <v>0.0575535327924728</v>
       </c>
       <c r="E148">
-        <v>0.080033653083754874</v>
+        <v>0.078321038051236441</v>
       </c>
     </row>
     <row r="149">
@@ -3081,16 +3081,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>-0.10872749551982962</v>
+        <v>-0.078858626048711064</v>
       </c>
       <c r="C149">
-        <v>0.0059195812784394349</v>
+        <v>0.0044869944218723949</v>
       </c>
       <c r="D149">
-        <v>-0.12032968328252637</v>
+        <v>-0.087652983364847559</v>
       </c>
       <c r="E149">
-        <v>-0.097125307757132864</v>
+        <v>-0.070064268732574569</v>
       </c>
     </row>
     <row r="150">
@@ -3098,16 +3098,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>-0.056697703952124381</v>
+        <v>-0.091594231155160452</v>
       </c>
       <c r="C150">
-        <v>0.0086309812520962408</v>
+        <v>0.0076896154901570602</v>
       </c>
       <c r="D150">
-        <v>-0.073614147928975276</v>
+        <v>-0.10666561745207492</v>
       </c>
       <c r="E150">
-        <v>-0.039781259975273493</v>
+        <v>-0.076522844858245981</v>
       </c>
     </row>
     <row r="151">
@@ -3115,16 +3115,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0.047132497943722367</v>
+        <v>0.025286418786274096</v>
       </c>
       <c r="C151">
-        <v>0.0073027848518367813</v>
+        <v>0.0056294766509290637</v>
       </c>
       <c r="D151">
-        <v>0.032819275934221619</v>
+        <v>0.014252834940083711</v>
       </c>
       <c r="E151">
-        <v>0.061445719953223114</v>
+        <v>0.036320002632464481</v>
       </c>
     </row>
     <row r="152">
@@ -3132,16 +3132,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>-0.1604055052210851</v>
+        <v>-0.14435422791117641</v>
       </c>
       <c r="C152">
-        <v>0.0060587131552550339</v>
+        <v>0.0048673213628476573</v>
       </c>
       <c r="D152">
-        <v>-0.17228039182211824</v>
+        <v>-0.15389401562375499</v>
       </c>
       <c r="E152">
-        <v>-0.14853061862005196</v>
+        <v>-0.13481444019859784</v>
       </c>
     </row>
     <row r="153">
@@ -3149,16 +3149,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>-0.022215854478820001</v>
+        <v>-0.066356561352776372</v>
       </c>
       <c r="C153">
-        <v>0.0082795884051694701</v>
+        <v>0.0077648835612637171</v>
       </c>
       <c r="D153">
-        <v>-0.038443586489756862</v>
+        <v>-0.081575474439708584</v>
       </c>
       <c r="E153">
-        <v>-0.0059881224678831439</v>
+        <v>-0.05113764826584416</v>
       </c>
     </row>
     <row r="154">
@@ -3166,16 +3166,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0.082796617868243078</v>
+        <v>0.08313908617479962</v>
       </c>
       <c r="C154">
-        <v>0.0074428971785316274</v>
+        <v>0.0060151594276179029</v>
       </c>
       <c r="D154">
-        <v>0.068208774259645596</v>
+        <v>0.071349574096390658</v>
       </c>
       <c r="E154">
-        <v>0.097384461476840559</v>
+        <v>0.094928598253208582</v>
       </c>
     </row>
     <row r="155">
@@ -3183,16 +3183,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>-0.11569384366322789</v>
+        <v>-0.093298755270002573</v>
       </c>
       <c r="C155">
-        <v>0.0069130637027892405</v>
+        <v>0.0052316345685546051</v>
       </c>
       <c r="D155">
-        <v>-0.12924322885041764</v>
+        <v>-0.10355258403378077</v>
       </c>
       <c r="E155">
-        <v>-0.10214445847603815</v>
+        <v>-0.083044926506224373</v>
       </c>
     </row>
     <row r="156">
@@ -3200,16 +3200,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>-0.054761474725207857</v>
+        <v>-0.08412572301073902</v>
       </c>
       <c r="C156">
-        <v>0.0098463667445633819</v>
+        <v>0.0086547932775020153</v>
       </c>
       <c r="D156">
-        <v>-0.074060040665312882</v>
+        <v>-0.10108882834435996</v>
       </c>
       <c r="E156">
-        <v>-0.035462908785102831</v>
+        <v>-0.067162617677118078</v>
       </c>
     </row>
     <row r="157">
@@ -3217,16 +3217,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0.043787948293691467</v>
+        <v>0.0251054788508982</v>
       </c>
       <c r="C157">
-        <v>0.0084393771315502825</v>
+        <v>0.0064684389672375348</v>
       </c>
       <c r="D157">
-        <v>0.027247037286434485</v>
+        <v>0.012427554835014848</v>
       </c>
       <c r="E157">
-        <v>0.060328859300948445</v>
+        <v>0.03778340286678155</v>
       </c>
     </row>
     <row r="158">
@@ -3234,16 +3234,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>-0.1228533372510533</v>
+        <v>-0.11540147864260129</v>
       </c>
       <c r="C158">
-        <v>0.0093874452994774267</v>
+        <v>0.0064902794555746325</v>
       </c>
       <c r="D158">
-        <v>-0.14125262306051456</v>
+        <v>-0.12812227400700471</v>
       </c>
       <c r="E158">
-        <v>-0.10445405144159202</v>
+        <v>-0.10268068327819788</v>
       </c>
     </row>
     <row r="159">
@@ -3251,16 +3251,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>-0.046950936311578637</v>
+        <v>-0.082530276505072248</v>
       </c>
       <c r="C159">
-        <v>0.015747005619895928</v>
+        <v>0.014975011866144137</v>
       </c>
       <c r="D159">
-        <v>-0.077814887876738403</v>
+        <v>-0.11188094820305487</v>
       </c>
       <c r="E159">
-        <v>-0.016086984746418866</v>
+        <v>-0.053179604807089623</v>
       </c>
     </row>
     <row r="160">
@@ -3268,16 +3268,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0.044628433442431337</v>
+        <v>0.0428155851412668</v>
       </c>
       <c r="C160">
-        <v>0.014828368224713057</v>
+        <v>0.010577891061798912</v>
       </c>
       <c r="D160">
-        <v>0.015565000703215572</v>
+        <v>0.022083166991148425</v>
       </c>
       <c r="E160">
-        <v>0.073691866181647109</v>
+        <v>0.063548003291385172</v>
       </c>
     </row>
     <row r="161">
@@ -3285,16 +3285,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>-0.088622726985119402</v>
+        <v>-0.070159197922018843</v>
       </c>
       <c r="C161">
-        <v>0.010807867844891286</v>
+        <v>0.0078250852147290269</v>
       </c>
       <c r="D161">
-        <v>-0.10980604734679157</v>
+        <v>-0.085496203157432005</v>
       </c>
       <c r="E161">
-        <v>-0.067439406623447232</v>
+        <v>-0.054822192686605681</v>
       </c>
     </row>
     <row r="162">
@@ -3302,16 +3302,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>-0.096857891285891243</v>
+        <v>-0.13357109414354879</v>
       </c>
       <c r="C162">
-        <v>0.018768403829266395</v>
+        <v>0.017363830708986415</v>
       </c>
       <c r="D162">
-        <v>-0.13364378806945651</v>
+        <v>-0.16760384333192607</v>
       </c>
       <c r="E162">
-        <v>-0.060071994502325983</v>
+        <v>-0.099538344955171484</v>
       </c>
     </row>
     <row r="163">
@@ -3319,16 +3319,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>0.09445641664193534</v>
+        <v>0.075107596682770603</v>
       </c>
       <c r="C163">
-        <v>0.015623448440812723</v>
+        <v>0.011985000039214896</v>
       </c>
       <c r="D163">
-        <v>0.063834603142222571</v>
+        <v>0.051617244398571085</v>
       </c>
       <c r="E163">
-        <v>0.12507823014164809</v>
+        <v>0.09859794896697012</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs.xlsx
+++ b/linreg/rifdid_coefs.xlsx
@@ -582,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.097464401122266106</v>
+        <v>-0.097464401122287464</v>
       </c>
       <c r="C2">
-        <v>0.0047164201965143402</v>
+        <v>0.0047164201965143289</v>
       </c>
       <c r="D2">
-        <v>-0.106708425304523</v>
+        <v>-0.10670842530454434</v>
       </c>
       <c r="E2">
-        <v>-0.088220376940009212</v>
+        <v>-0.088220376940030584</v>
       </c>
     </row>
     <row r="3">
@@ -599,16 +599,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0056578454894290857</v>
+        <v>-0.0056578454894339993</v>
       </c>
       <c r="C3">
-        <v>0.0065966016823923897</v>
+        <v>0.0065966016823927644</v>
       </c>
       <c r="D3">
-        <v>-0.018586961838692934</v>
+        <v>-0.018586961838698582</v>
       </c>
       <c r="E3">
-        <v>0.007271270859834764</v>
+        <v>0.0072712708598305842</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1159027882769664</v>
+        <v>-0.11590278827696369</v>
       </c>
       <c r="C4">
-        <v>0.0070461324870134999</v>
+        <v>0.0070461324870135277</v>
       </c>
       <c r="D4">
-        <v>-0.12971296981029889</v>
+        <v>-0.12971296981029623</v>
       </c>
       <c r="E4">
-        <v>-0.10209260674363391</v>
+        <v>-0.10209260674363116</v>
       </c>
     </row>
     <row r="5">
@@ -633,16 +633,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.031155157048010716</v>
+        <v>-0.031155157047986673</v>
       </c>
       <c r="C5">
-        <v>0.0027774659485927718</v>
+        <v>0.0027774659485926994</v>
       </c>
       <c r="D5">
-        <v>-0.036598896372993878</v>
+        <v>-0.036598896372969696</v>
       </c>
       <c r="E5">
-        <v>-0.025711417723027555</v>
+        <v>-0.02571141772300365</v>
       </c>
     </row>
     <row r="6">
@@ -650,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.014602432614965579</v>
+        <v>0.014602432614971799</v>
       </c>
       <c r="C6">
-        <v>0.0051147795200176989</v>
+        <v>0.0051147795200176555</v>
       </c>
       <c r="D6">
-        <v>0.0045776377382377373</v>
+        <v>0.004577637738244043</v>
       </c>
       <c r="E6">
-        <v>0.02462722749169342</v>
+        <v>0.024627227491699558</v>
       </c>
     </row>
     <row r="7">
@@ -667,16 +667,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.078462762060216101</v>
+        <v>-0.078462762060212923</v>
       </c>
       <c r="C7">
-        <v>0.004337988310416434</v>
+        <v>0.0043379883104164418</v>
       </c>
       <c r="D7">
-        <v>-0.086965072437304933</v>
+        <v>-0.086965072437301769</v>
       </c>
       <c r="E7">
-        <v>-0.06996045168312727</v>
+        <v>-0.069960451683124078</v>
       </c>
     </row>
     <row r="8">
@@ -684,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.10372393444060574</v>
+        <v>-0.10372393444062745</v>
       </c>
       <c r="C8">
-        <v>0.005633047677665497</v>
+        <v>0.0056330476776655248</v>
       </c>
       <c r="D8">
-        <v>-0.1147645202194586</v>
+        <v>-0.11476452021948037</v>
       </c>
       <c r="E8">
-        <v>-0.092683348661752873</v>
+        <v>-0.092683348661774537</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.00053886194556027013</v>
+        <v>-0.00053886194556146307</v>
       </c>
       <c r="C9">
-        <v>0.006739010146725781</v>
+        <v>0.0067390101467261487</v>
       </c>
       <c r="D9">
-        <v>-0.013747097317770088</v>
+        <v>-0.013747097317771999</v>
       </c>
       <c r="E9">
-        <v>0.012669373426649547</v>
+        <v>0.012669373426649075</v>
       </c>
     </row>
     <row r="10">
@@ -718,16 +718,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.086265248758539123</v>
+        <v>-0.086265248758532184</v>
       </c>
       <c r="C10">
-        <v>0.0076870491642685159</v>
+        <v>0.0076870491642685246</v>
       </c>
       <c r="D10">
-        <v>-0.10133160902047431</v>
+        <v>-0.10133160902046739</v>
       </c>
       <c r="E10">
-        <v>-0.07119888849660394</v>
+        <v>-0.071198888496596974</v>
       </c>
     </row>
     <row r="11">
@@ -735,16 +735,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03612250513490968</v>
+        <v>-0.036122505134913371</v>
       </c>
       <c r="C11">
-        <v>0.0031748758867286659</v>
+        <v>0.0031748758867286564</v>
       </c>
       <c r="D11">
-        <v>-0.042345155677904006</v>
+        <v>-0.042345155677907677</v>
       </c>
       <c r="E11">
-        <v>-0.029899854591915354</v>
+        <v>-0.029899854591919066</v>
       </c>
     </row>
     <row r="12">
@@ -752,16 +752,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.017930200045447608</v>
+        <v>0.017930200045443816</v>
       </c>
       <c r="C12">
-        <v>0.0051265806894197716</v>
+        <v>0.0051265806894196467</v>
       </c>
       <c r="D12">
-        <v>0.0078822733708737887</v>
+        <v>0.0078822733708702412</v>
       </c>
       <c r="E12">
-        <v>0.027978126720021427</v>
+        <v>0.027978126720017392</v>
       </c>
     </row>
     <row r="13">
@@ -769,16 +769,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.066068778449608373</v>
+        <v>-0.066068778449609469</v>
       </c>
       <c r="C13">
-        <v>0.0045830061966044468</v>
+        <v>0.0045830061966044399</v>
       </c>
       <c r="D13">
-        <v>-0.075051317300042594</v>
+        <v>-0.075051317300043677</v>
       </c>
       <c r="E13">
-        <v>-0.057086239599174159</v>
+        <v>-0.057086239599175269</v>
       </c>
     </row>
     <row r="14">
@@ -786,16 +786,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.21793794935324368</v>
+        <v>-0.21793794935322214</v>
       </c>
       <c r="C14">
-        <v>0.0095995470310456278</v>
+        <v>0.0095995470310453693</v>
       </c>
       <c r="D14">
-        <v>-0.23675283617110043</v>
+        <v>-0.2367528361710784</v>
       </c>
       <c r="E14">
-        <v>-0.19912306253538692</v>
+        <v>-0.19912306253536588</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03490404981463039</v>
+        <v>-0.034904049814595238</v>
       </c>
       <c r="C15">
-        <v>0.0188070857568692</v>
+        <v>0.018807085756868368</v>
       </c>
       <c r="D15">
-        <v>-0.071765496375060106</v>
+        <v>-0.07176549637502333</v>
       </c>
       <c r="E15">
-        <v>0.0019573967457993252</v>
+        <v>0.001957396745832847</v>
       </c>
     </row>
     <row r="16">
@@ -820,16 +820,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.063714627108222704</v>
+        <v>-0.063714627108222524</v>
       </c>
       <c r="C16">
-        <v>0.018957944579531049</v>
+        <v>0.018957944579530595</v>
       </c>
       <c r="D16">
-        <v>-0.10087175341944465</v>
+        <v>-0.10087175341944357</v>
       </c>
       <c r="E16">
-        <v>-0.026557500797000762</v>
+        <v>-0.026557500797001476</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.055731005675693106</v>
+        <v>-0.055731005675690025</v>
       </c>
       <c r="C17">
-        <v>0.0081941477678990921</v>
+        <v>0.008194147767899073</v>
       </c>
       <c r="D17">
-        <v>-0.071791365884865524</v>
+        <v>-0.071791365884862401</v>
       </c>
       <c r="E17">
-        <v>-0.039670645466520688</v>
+        <v>-0.039670645466517648</v>
       </c>
     </row>
     <row r="18">
@@ -854,16 +854,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.023934697202849489</v>
+        <v>0.023934697202849759</v>
       </c>
       <c r="C18">
-        <v>0.020254325493546655</v>
+        <v>0.020254325493546336</v>
       </c>
       <c r="D18">
-        <v>-0.015763362001614326</v>
+        <v>-0.015763362001613431</v>
       </c>
       <c r="E18">
-        <v>0.063632756407313307</v>
+        <v>0.063632756407312946</v>
       </c>
     </row>
     <row r="19">
@@ -871,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.091972688539959588</v>
+        <v>-0.09197268853995734</v>
       </c>
       <c r="C19">
-        <v>0.01636262857585935</v>
+        <v>0.016362628575859264</v>
       </c>
       <c r="D19">
-        <v>-0.12404310224749468</v>
+        <v>-0.12404310224749225</v>
       </c>
       <c r="E19">
-        <v>-0.059902274832424503</v>
+        <v>-0.059902274832422428</v>
       </c>
     </row>
     <row r="20">
@@ -888,16 +888,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.1518914441128231</v>
+        <v>-0.15189144411283786</v>
       </c>
       <c r="C20">
-        <v>0.0045922904917993605</v>
+        <v>0.0045922904917994117</v>
       </c>
       <c r="D20">
-        <v>-0.16089217826910443</v>
+        <v>-0.16089217826911928</v>
       </c>
       <c r="E20">
-        <v>-0.14289070995654177</v>
+        <v>-0.14289070995655645</v>
       </c>
     </row>
     <row r="21">
@@ -905,16 +905,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.018536542205195201</v>
+        <v>-0.018536542205197834</v>
       </c>
       <c r="C21">
-        <v>0.0065255551375708364</v>
+        <v>0.0065255551375712597</v>
       </c>
       <c r="D21">
-        <v>-0.031326409727799882</v>
+        <v>-0.031326409727803345</v>
       </c>
       <c r="E21">
-        <v>-0.0057466746825905208</v>
+        <v>-0.0057466746825923249</v>
       </c>
     </row>
     <row r="22">
@@ -922,16 +922,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.11582145936915912</v>
+        <v>-0.11582145936915891</v>
       </c>
       <c r="C22">
-        <v>0.0067180479111650857</v>
+        <v>0.006718047911165136</v>
       </c>
       <c r="D22">
-        <v>-0.12898860622224628</v>
+        <v>-0.12898860622224617</v>
       </c>
       <c r="E22">
-        <v>-0.10265431251607197</v>
+        <v>-0.10265431251607167</v>
       </c>
     </row>
     <row r="23">
@@ -939,16 +939,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.046717381656622731</v>
+        <v>-0.046717381656595461</v>
       </c>
       <c r="C23">
-        <v>0.0028167454695602616</v>
+        <v>0.0028167454695603605</v>
       </c>
       <c r="D23">
-        <v>-0.052238107514263679</v>
+        <v>-0.052238107514236604</v>
       </c>
       <c r="E23">
-        <v>-0.041196655798981782</v>
+        <v>-0.041196655798954318</v>
       </c>
     </row>
     <row r="24">
@@ -956,16 +956,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0034584116232918723</v>
+        <v>-0.0034584116232845514</v>
       </c>
       <c r="C24">
-        <v>0.0050916624774513617</v>
+        <v>0.0050916624774513938</v>
       </c>
       <c r="D24">
-        <v>-0.013437897878411072</v>
+        <v>-0.013437897878403812</v>
       </c>
       <c r="E24">
-        <v>0.0065210746318273265</v>
+        <v>0.0065210746318347104</v>
       </c>
     </row>
     <row r="25">
@@ -973,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.093252739145536945</v>
+        <v>-0.093252739145535349</v>
       </c>
       <c r="C25">
-        <v>0.0042102482783304774</v>
+        <v>0.00421024827833046</v>
       </c>
       <c r="D25">
-        <v>-0.10150468337992176</v>
+        <v>-0.10150468337992014</v>
       </c>
       <c r="E25">
-        <v>-0.08500079491115213</v>
+        <v>-0.085000794911150562</v>
       </c>
     </row>
     <row r="26">
@@ -990,16 +990,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.16138422137269409</v>
+        <v>-0.16138422137271122</v>
       </c>
       <c r="C26">
-        <v>0.0053216936791763599</v>
+        <v>0.0053216936791763928</v>
       </c>
       <c r="D26">
-        <v>-0.17181456368750925</v>
+        <v>-0.17181456368752643</v>
       </c>
       <c r="E26">
-        <v>-0.15095387905787894</v>
+        <v>-0.15095387905789601</v>
       </c>
     </row>
     <row r="27">
@@ -1007,16 +1007,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.0053036443585133828</v>
+        <v>-0.0053036443585125197</v>
       </c>
       <c r="C27">
-        <v>0.0065163525964822815</v>
+        <v>0.0065163525964821679</v>
       </c>
       <c r="D27">
-        <v>-0.018075478350255678</v>
+        <v>-0.018075478350254592</v>
       </c>
       <c r="E27">
-        <v>0.0074681896332289112</v>
+        <v>0.0074681896332295522</v>
       </c>
     </row>
     <row r="28">
@@ -1024,16 +1024,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.077952273634404337</v>
+        <v>-0.077952273634399313</v>
       </c>
       <c r="C28">
-        <v>0.007193270864007951</v>
+        <v>0.0071932708640080004</v>
       </c>
       <c r="D28">
-        <v>-0.092050844878437538</v>
+        <v>-0.092050844878432611</v>
       </c>
       <c r="E28">
-        <v>-0.063853702390371136</v>
+        <v>-0.063853702390366016</v>
       </c>
     </row>
     <row r="29">
@@ -1041,16 +1041,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.055444443251652917</v>
+        <v>-0.05544444325165724</v>
       </c>
       <c r="C29">
-        <v>0.00315632910421216</v>
+        <v>0.0031563291042122307</v>
       </c>
       <c r="D29">
-        <v>-0.061630742721277866</v>
+        <v>-0.061630742721282328</v>
       </c>
       <c r="E29">
-        <v>-0.049258143782027967</v>
+        <v>-0.049258143782032152</v>
       </c>
     </row>
     <row r="30">
@@ -1058,16 +1058,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0024240933039623527</v>
+        <v>0.0024240933039574889</v>
       </c>
       <c r="C30">
-        <v>0.0050776058121814131</v>
+        <v>0.0050776058121811997</v>
       </c>
       <c r="D30">
-        <v>-0.0075278442493628989</v>
+        <v>-0.0075278442493673442</v>
       </c>
       <c r="E30">
-        <v>0.012376030857287603</v>
+        <v>0.012376030857282321</v>
       </c>
     </row>
     <row r="31">
@@ -1075,16 +1075,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.075627684242248611</v>
+        <v>-0.075627684242249013</v>
       </c>
       <c r="C31">
-        <v>0.0044160198464212276</v>
+        <v>0.0044160198464212345</v>
       </c>
       <c r="D31">
-        <v>-0.084282935431774952</v>
+        <v>-0.084282935431775369</v>
       </c>
       <c r="E31">
-        <v>-0.066972433052722269</v>
+        <v>-0.066972433052722657</v>
       </c>
     </row>
     <row r="32">
@@ -1092,16 +1092,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.17647299717056505</v>
+        <v>-0.17647299717055526</v>
       </c>
       <c r="C32">
-        <v>0.0065354713109747357</v>
+        <v>0.0065354713109746177</v>
       </c>
       <c r="D32">
-        <v>-0.18928236751060973</v>
+        <v>-0.18928236751059968</v>
       </c>
       <c r="E32">
-        <v>-0.16366362683052038</v>
+        <v>-0.16366362683051083</v>
       </c>
     </row>
     <row r="33">
@@ -1109,16 +1109,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.043925165953804989</v>
+        <v>-0.043925165953788953</v>
       </c>
       <c r="C33">
-        <v>0.014198734369485076</v>
+        <v>0.014198734369485563</v>
       </c>
       <c r="D33">
-        <v>-0.071754351982551978</v>
+        <v>-0.071754351982536893</v>
       </c>
       <c r="E33">
-        <v>-0.016095979925057999</v>
+        <v>-0.016095979925041009</v>
       </c>
     </row>
     <row r="34">
@@ -1126,16 +1126,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.060598094666297224</v>
+        <v>-0.060598094666297161</v>
       </c>
       <c r="C34">
-        <v>0.012684182232458216</v>
+        <v>0.012684182232458093</v>
       </c>
       <c r="D34">
-        <v>-0.085458794062732824</v>
+        <v>-0.085458794062732518</v>
       </c>
       <c r="E34">
-        <v>-0.035737395269861624</v>
+        <v>-0.035737395269861805</v>
       </c>
     </row>
     <row r="35">
@@ -1143,16 +1143,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.04625215340262797</v>
+        <v>-0.046252153402626131</v>
       </c>
       <c r="C35">
-        <v>0.0060791090910996097</v>
+        <v>0.0060791090910994874</v>
       </c>
       <c r="D35">
-        <v>-0.058167081534189674</v>
+        <v>-0.058167081534187599</v>
       </c>
       <c r="E35">
-        <v>-0.034337225271066266</v>
+        <v>-0.034337225271064663</v>
       </c>
     </row>
     <row r="36">
@@ -1160,16 +1160,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0056337196904819387</v>
+        <v>0.005633719690483565</v>
       </c>
       <c r="C36">
-        <v>0.015932426772457493</v>
+        <v>0.015932426772457344</v>
       </c>
       <c r="D36">
-        <v>-0.025593507376907791</v>
+        <v>-0.025593507376905873</v>
       </c>
       <c r="E36">
-        <v>0.036860946757871667</v>
+        <v>0.036860946757873006</v>
       </c>
     </row>
     <row r="37">
@@ -1177,16 +1177,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.083611813585319647</v>
+        <v>-0.083611813585318578</v>
       </c>
       <c r="C37">
-        <v>0.011698069247767028</v>
+        <v>0.011698069247766988</v>
       </c>
       <c r="D37">
-        <v>-0.10653978745064215</v>
+        <v>-0.10653978745064099</v>
       </c>
       <c r="E37">
-        <v>-0.060683839719997149</v>
+        <v>-0.060683839719996156</v>
       </c>
     </row>
     <row r="38">
@@ -1194,16 +1194,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.1689285355750734</v>
+        <v>-0.16892853557508</v>
       </c>
       <c r="C38">
-        <v>0.0040344313131793399</v>
+        <v>0.0040344313131793763</v>
       </c>
       <c r="D38">
-        <v>-0.17683588459546953</v>
+        <v>-0.17683588459547622</v>
       </c>
       <c r="E38">
-        <v>-0.16102118655467726</v>
+        <v>-0.16102118655468378</v>
       </c>
     </row>
     <row r="39">
@@ -1211,16 +1211,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.02796874346919705</v>
+        <v>-0.027968743469198403</v>
       </c>
       <c r="C39">
-        <v>0.0059487543699251761</v>
+        <v>0.005948754369925491</v>
       </c>
       <c r="D39">
-        <v>-0.039628100981603444</v>
+        <v>-0.039628100981605414</v>
       </c>
       <c r="E39">
-        <v>-0.016309385956790656</v>
+        <v>-0.016309385956791392</v>
       </c>
     </row>
     <row r="40">
@@ -1228,16 +1228,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.087828573633573701</v>
+        <v>-0.087828573633573478</v>
       </c>
       <c r="C40">
-        <v>0.0057553798795320797</v>
+        <v>0.0057553798795320849</v>
       </c>
       <c r="D40">
-        <v>-0.099108923680371649</v>
+        <v>-0.099108923680371441</v>
       </c>
       <c r="E40">
-        <v>-0.076548223586775752</v>
+        <v>-0.076548223586775516</v>
       </c>
     </row>
     <row r="41">
@@ -1245,16 +1245,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.06265905050083645</v>
+        <v>-0.062659050500816854</v>
       </c>
       <c r="C41">
-        <v>0.0029127658436635009</v>
+        <v>0.0029127658436633916</v>
       </c>
       <c r="D41">
-        <v>-0.068367973044298244</v>
+        <v>-0.068367973044278427</v>
       </c>
       <c r="E41">
-        <v>-0.056950127957374662</v>
+        <v>-0.056950127957355282</v>
       </c>
     </row>
     <row r="42">
@@ -1262,16 +1262,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001441719185437004</v>
+        <v>-0.0014417191854327017</v>
       </c>
       <c r="C42">
-        <v>0.0052142785293559394</v>
+        <v>0.0052142785293563315</v>
       </c>
       <c r="D42">
-        <v>-0.011661528755398394</v>
+        <v>-0.01166152875539486</v>
       </c>
       <c r="E42">
-        <v>0.0087780903845243868</v>
+        <v>0.0087780903845294574</v>
       </c>
     </row>
     <row r="43">
@@ -1279,16 +1279,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.086932951332555575</v>
+        <v>-0.086932951332552744</v>
       </c>
       <c r="C43">
-        <v>0.0042029447660548742</v>
+        <v>0.0042029447660548343</v>
       </c>
       <c r="D43">
-        <v>-0.095170580929885937</v>
+        <v>-0.095170580929883036</v>
       </c>
       <c r="E43">
-        <v>-0.078695321735225213</v>
+        <v>-0.078695321735222451</v>
       </c>
     </row>
     <row r="44">
@@ -1296,16 +1296,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.182504756141942</v>
+        <v>-0.18250475614195205</v>
       </c>
       <c r="C44">
-        <v>0.0047709045476295462</v>
+        <v>0.0047709045476295488</v>
       </c>
       <c r="D44">
-        <v>-0.1918555701088944</v>
+        <v>-0.19185557010890444</v>
       </c>
       <c r="E44">
-        <v>-0.17315394217498961</v>
+        <v>-0.17315394217499966</v>
       </c>
     </row>
     <row r="45">
@@ -1313,16 +1313,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.0084503315535184153</v>
+        <v>-0.0084503315535157403</v>
       </c>
       <c r="C45">
-        <v>0.0061873988611498877</v>
+        <v>0.0061873988611498738</v>
       </c>
       <c r="D45">
-        <v>-0.020577427183359163</v>
+        <v>-0.020577427183356464</v>
       </c>
       <c r="E45">
-        <v>0.0036767640763223346</v>
+        <v>0.0036767640763249818</v>
       </c>
     </row>
     <row r="46">
@@ -1330,16 +1330,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.062048066975736248</v>
+        <v>-0.062048066975732612</v>
       </c>
       <c r="C46">
-        <v>0.0063829091868396696</v>
+        <v>0.0063829091868397017</v>
       </c>
       <c r="D46">
-        <v>-0.07455835633035017</v>
+        <v>-0.07455835633034659</v>
       </c>
       <c r="E46">
-        <v>-0.049537777621122325</v>
+        <v>-0.049537777621118634</v>
       </c>
     </row>
     <row r="47">
@@ -1347,16 +1347,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.078568813516409444</v>
+        <v>-0.078568813516413191</v>
       </c>
       <c r="C47">
-        <v>0.003285452402462976</v>
+        <v>0.0032854524024629956</v>
       </c>
       <c r="D47">
-        <v>-0.085008190331618938</v>
+        <v>-0.085008190331622727</v>
       </c>
       <c r="E47">
-        <v>-0.07212943670119995</v>
+        <v>-0.072129436701203656</v>
       </c>
     </row>
     <row r="48">
@@ -1364,16 +1364,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.00027269526650030678</v>
+        <v>0.00027269526649802378</v>
       </c>
       <c r="C48">
-        <v>0.0052580906070533217</v>
+        <v>0.0052580906070532176</v>
       </c>
       <c r="D48">
-        <v>-0.010032986447819256</v>
+        <v>-0.010032986447821335</v>
       </c>
       <c r="E48">
-        <v>0.010578376980819868</v>
+        <v>0.010578376980817381</v>
       </c>
     </row>
     <row r="49">
@@ -1381,16 +1381,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.069518524702940163</v>
+        <v>-0.069518524702940857</v>
       </c>
       <c r="C49">
-        <v>0.0044814480265952823</v>
+        <v>0.0044814480265952892</v>
       </c>
       <c r="D49">
-        <v>-0.078302012937129906</v>
+        <v>-0.078302012937130613</v>
       </c>
       <c r="E49">
-        <v>-0.060735036468750413</v>
+        <v>-0.060735036468751093</v>
       </c>
     </row>
     <row r="50">
@@ -1398,16 +1398,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.15409006833229191</v>
+        <v>-0.1540900683322885</v>
       </c>
       <c r="C50">
-        <v>0.0055054226019856864</v>
+        <v>0.0055054226019856508</v>
       </c>
       <c r="D50">
-        <v>-0.1648805673845736</v>
+        <v>-0.1648805673845701</v>
       </c>
       <c r="E50">
-        <v>-0.14329956928001022</v>
+        <v>-0.14329956928000689</v>
       </c>
     </row>
     <row r="51">
@@ -1415,16 +1415,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.046967359615533798</v>
+        <v>-0.046967359615528712</v>
       </c>
       <c r="C51">
-        <v>0.01237113719617973</v>
+        <v>0.012371137196179448</v>
       </c>
       <c r="D51">
-        <v>-0.071214498090040143</v>
+        <v>-0.071214498090034495</v>
       </c>
       <c r="E51">
-        <v>-0.022720221141027456</v>
+        <v>-0.022720221141022921</v>
       </c>
     </row>
     <row r="52">
@@ -1432,16 +1432,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.038767680181503082</v>
+        <v>-0.038767680181503276</v>
       </c>
       <c r="C52">
-        <v>0.010407272092574991</v>
+        <v>0.010407272092574978</v>
       </c>
       <c r="D52">
-        <v>-0.059165689157465062</v>
+        <v>-0.059165689157465229</v>
       </c>
       <c r="E52">
-        <v>-0.018369671205541106</v>
+        <v>-0.018369671205541328</v>
       </c>
     </row>
     <row r="53">
@@ -1449,16 +1449,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.047403832827668635</v>
+        <v>-0.047403832827667559</v>
       </c>
       <c r="C53">
-        <v>0.0055064572313329417</v>
+        <v>0.0055064572313328845</v>
       </c>
       <c r="D53">
-        <v>-0.058196375153797983</v>
+        <v>-0.058196375153796796</v>
       </c>
       <c r="E53">
-        <v>-0.036611290501539287</v>
+        <v>-0.036611290501538322</v>
       </c>
     </row>
     <row r="54">
@@ -1466,16 +1466,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.015073418754080381</v>
+        <v>-0.015073418754080208</v>
       </c>
       <c r="C54">
-        <v>0.014740268974442493</v>
+        <v>0.014740268974442961</v>
       </c>
       <c r="D54">
-        <v>-0.043964041185500298</v>
+        <v>-0.04396404118550104</v>
       </c>
       <c r="E54">
-        <v>0.013817203677339534</v>
+        <v>0.013817203677340623</v>
       </c>
     </row>
     <row r="55">
@@ -1483,16 +1483,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.05302666632747368</v>
+        <v>-0.05302666632747309</v>
       </c>
       <c r="C55">
-        <v>0.010407923284904074</v>
+        <v>0.010407923284904076</v>
       </c>
       <c r="D55">
-        <v>-0.073425980779652456</v>
+        <v>-0.073425980779651873</v>
       </c>
       <c r="E55">
-        <v>-0.032627351875294898</v>
+        <v>-0.032627351875294308</v>
       </c>
     </row>
     <row r="56">
@@ -1500,16 +1500,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.16984529737892404</v>
+        <v>-0.16984529737892581</v>
       </c>
       <c r="C56">
-        <v>0.0036618642533737806</v>
+        <v>0.0036618642533738179</v>
       </c>
       <c r="D56">
-        <v>-0.17702242755391276</v>
+        <v>-0.17702242755391462</v>
       </c>
       <c r="E56">
-        <v>-0.16266816720393532</v>
+        <v>-0.16266816720393701</v>
       </c>
     </row>
     <row r="57">
@@ -1517,16 +1517,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.041042283135822047</v>
+        <v>-0.041042283135823199</v>
       </c>
       <c r="C57">
-        <v>0.0056164824188114151</v>
+        <v>0.005616482418811246</v>
       </c>
       <c r="D57">
-        <v>-0.052050398853985574</v>
+        <v>-0.052050398853986393</v>
       </c>
       <c r="E57">
-        <v>-0.030034167417658519</v>
+        <v>-0.030034167417660004</v>
       </c>
     </row>
     <row r="58">
@@ -1534,16 +1534,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04740374953744024</v>
+        <v>-0.047403749537439879</v>
       </c>
       <c r="C58">
-        <v>0.0050933223052788464</v>
+        <v>0.0050933223052788438</v>
       </c>
       <c r="D58">
-        <v>-0.057386489114550548</v>
+        <v>-0.057386489114550188</v>
       </c>
       <c r="E58">
-        <v>-0.037421009960329932</v>
+        <v>-0.037421009960329571</v>
       </c>
     </row>
     <row r="59">
@@ -1551,16 +1551,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.072034393370609101</v>
+        <v>-0.072034393370597541</v>
       </c>
       <c r="C59">
-        <v>0.0028207215861316692</v>
+        <v>0.0028207215861315864</v>
       </c>
       <c r="D59">
-        <v>-0.077562912282257229</v>
+        <v>-0.077562912282245502</v>
       </c>
       <c r="E59">
-        <v>-0.066505874458960973</v>
+        <v>-0.066505874458949579</v>
       </c>
     </row>
     <row r="60">
@@ -1568,16 +1568,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.010920054360333026</v>
+        <v>-0.010920054360330507</v>
       </c>
       <c r="C60">
-        <v>0.005071012140768179</v>
+        <v>0.0050710121407679613</v>
       </c>
       <c r="D60">
-        <v>-0.020859066653950251</v>
+        <v>-0.020859066653947309</v>
       </c>
       <c r="E60">
-        <v>-0.00098104206671579923</v>
+        <v>-0.00098104206671370715</v>
       </c>
     </row>
     <row r="61">
@@ -1585,16 +1585,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.070044560373682466</v>
+        <v>-0.070044560373680551</v>
       </c>
       <c r="C61">
-        <v>0.0039769903389954486</v>
+        <v>0.0039769903389954044</v>
       </c>
       <c r="D61">
-        <v>-0.077839326935784395</v>
+        <v>-0.077839326935782382</v>
       </c>
       <c r="E61">
-        <v>-0.062249793811580537</v>
+        <v>-0.062249793811578712</v>
       </c>
     </row>
     <row r="62">
@@ -1602,16 +1602,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.18700037302294645</v>
+        <v>-0.18700037302294781</v>
       </c>
       <c r="C62">
-        <v>0.0043903812058257961</v>
+        <v>0.0043903812058258343</v>
       </c>
       <c r="D62">
-        <v>-0.19560537391739505</v>
+        <v>-0.19560537391739646</v>
       </c>
       <c r="E62">
-        <v>-0.17839537212849785</v>
+        <v>-0.17839537212849915</v>
       </c>
     </row>
     <row r="63">
@@ -1619,16 +1619,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.025503480936862995</v>
+        <v>-0.025503480936861691</v>
       </c>
       <c r="C63">
-        <v>0.0060169957569033896</v>
+        <v>0.0060169957569033098</v>
       </c>
       <c r="D63">
-        <v>-0.03729659215949277</v>
+        <v>-0.037296592159491312</v>
       </c>
       <c r="E63">
-        <v>-0.013710369714233221</v>
+        <v>-0.013710369714232073</v>
       </c>
     </row>
     <row r="64">
@@ -1636,16 +1636,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.03225612251669463</v>
+        <v>-0.032256122516694456</v>
       </c>
       <c r="C64">
-        <v>0.0057984864412830911</v>
+        <v>0.0057984864412831075</v>
       </c>
       <c r="D64">
-        <v>-0.043620962760516691</v>
+        <v>-0.043620962760516545</v>
       </c>
       <c r="E64">
-        <v>-0.020891282272872572</v>
+        <v>-0.020891282272872368</v>
       </c>
     </row>
     <row r="65">
@@ -1653,16 +1653,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.095310901832793962</v>
+        <v>-0.095310901832796585</v>
       </c>
       <c r="C65">
-        <v>0.003245014334796935</v>
+        <v>0.0032450143347969029</v>
       </c>
       <c r="D65">
-        <v>-0.10167102138797274</v>
+        <v>-0.10167102138797529</v>
       </c>
       <c r="E65">
-        <v>-0.088950782277615187</v>
+        <v>-0.088950782277617879</v>
       </c>
     </row>
     <row r="66">
@@ -1670,16 +1670,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0032849139735790897</v>
+        <v>-0.0032849139735810825</v>
       </c>
       <c r="C66">
-        <v>0.0052515324388209489</v>
+        <v>0.0052515324388208891</v>
       </c>
       <c r="D66">
-        <v>-0.013577741897524417</v>
+        <v>-0.013577741897526292</v>
       </c>
       <c r="E66">
-        <v>0.0070079139503662381</v>
+        <v>0.007007913950364127</v>
       </c>
     </row>
     <row r="67">
@@ -1687,16 +1687,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.048212500962544161</v>
+        <v>-0.048212500962544938</v>
       </c>
       <c r="C67">
-        <v>0.0043556227242508476</v>
+        <v>0.0043556227242508485</v>
       </c>
       <c r="D67">
-        <v>-0.056749375812812697</v>
+        <v>-0.056749375812813474</v>
       </c>
       <c r="E67">
-        <v>-0.039675626112275625</v>
+        <v>-0.039675626112276402</v>
       </c>
     </row>
     <row r="68">
@@ -1704,16 +1704,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.13387785084215059</v>
+        <v>-0.13387785084215012</v>
       </c>
       <c r="C68">
-        <v>0.0049186565356400744</v>
+        <v>0.0049186565356400735</v>
       </c>
       <c r="D68">
-        <v>-0.14351830217956116</v>
+        <v>-0.14351830217956069</v>
       </c>
       <c r="E68">
-        <v>-0.12423739950474003</v>
+        <v>-0.12423739950473955</v>
       </c>
     </row>
     <row r="69">
@@ -1721,16 +1721,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.046719681680247357</v>
+        <v>-0.046719681680246046</v>
       </c>
       <c r="C69">
-        <v>0.011266615859847067</v>
+        <v>0.01126661585984695</v>
       </c>
       <c r="D69">
-        <v>-0.068801984265747865</v>
+        <v>-0.068801984265746324</v>
       </c>
       <c r="E69">
-        <v>-0.024637379094746847</v>
+        <v>-0.024637379094745764</v>
       </c>
     </row>
     <row r="70">
@@ -1738,16 +1738,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.030370289682911764</v>
+        <v>-0.03037028968291142</v>
       </c>
       <c r="C70">
-        <v>0.009055046719176443</v>
+        <v>0.0090550467191764603</v>
       </c>
       <c r="D70">
-        <v>-0.048117968672422642</v>
+        <v>-0.048117968672422337</v>
       </c>
       <c r="E70">
-        <v>-0.012622610693400881</v>
+        <v>-0.012622610693400503</v>
       </c>
     </row>
     <row r="71">
@@ -1755,16 +1755,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.046895695285811279</v>
+        <v>-0.04689569528581073</v>
       </c>
       <c r="C71">
-        <v>0.0050075186225841135</v>
+        <v>0.0050075186225839894</v>
       </c>
       <c r="D71">
-        <v>-0.056710328254464634</v>
+        <v>-0.056710328254463843</v>
       </c>
       <c r="E71">
-        <v>-0.037081062317157923</v>
+        <v>-0.037081062317157618</v>
       </c>
     </row>
     <row r="72">
@@ -1772,16 +1772,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.047338143886766701</v>
+        <v>-0.047338143886766312</v>
       </c>
       <c r="C72">
-        <v>0.013468500755953251</v>
+        <v>0.013468500755953216</v>
       </c>
       <c r="D72">
-        <v>-0.073736126904051236</v>
+        <v>-0.073736126904050778</v>
       </c>
       <c r="E72">
-        <v>-0.020940160869482166</v>
+        <v>-0.020940160869481843</v>
       </c>
     </row>
     <row r="73">
@@ -1789,16 +1789,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.021536995637974926</v>
+        <v>-0.021536995637974985</v>
       </c>
       <c r="C73">
-        <v>0.0094992381084423889</v>
+        <v>0.0094992381084423785</v>
       </c>
       <c r="D73">
-        <v>-0.040155305931566049</v>
+        <v>-0.04015530593156609</v>
       </c>
       <c r="E73">
-        <v>-0.0029186853443838</v>
+        <v>-0.0029186853443838798</v>
       </c>
     </row>
     <row r="74">
@@ -1806,16 +1806,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.16132455495823389</v>
+        <v>-0.16132455495823064</v>
       </c>
       <c r="C74">
-        <v>0.0034825248211786505</v>
+        <v>0.0034825248211786623</v>
       </c>
       <c r="D74">
-        <v>-0.16815018590733319</v>
+        <v>-0.16815018590732997</v>
       </c>
       <c r="E74">
-        <v>-0.15449892400913459</v>
+        <v>-0.15449892400913132</v>
       </c>
     </row>
     <row r="75">
@@ -1823,16 +1823,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.048651046734607802</v>
+        <v>-0.04865104673460826</v>
       </c>
       <c r="C75">
-        <v>0.0054513335657894839</v>
+        <v>0.0054513335657892818</v>
       </c>
       <c r="D75">
-        <v>-0.059335476282456188</v>
+        <v>-0.059335476282456251</v>
       </c>
       <c r="E75">
-        <v>-0.037966617186759415</v>
+        <v>-0.037966617186760268</v>
       </c>
     </row>
     <row r="76">
@@ -1840,16 +1840,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.020900014724883054</v>
+        <v>-0.020900014724883162</v>
       </c>
       <c r="C76">
-        <v>0.0047244269601169524</v>
+        <v>0.004724426960116955</v>
       </c>
       <c r="D76">
-        <v>-0.030159731893192987</v>
+        <v>-0.030159731893193098</v>
       </c>
       <c r="E76">
-        <v>-0.011640297556573122</v>
+        <v>-0.011640297556573224</v>
       </c>
     </row>
     <row r="77">
@@ -1857,16 +1857,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.076284748435595615</v>
+        <v>-0.076284748435590424</v>
       </c>
       <c r="C77">
-        <v>0.0028741810673170187</v>
+        <v>0.002874181067317023</v>
       </c>
       <c r="D77">
-        <v>-0.081918046122360436</v>
+        <v>-0.081918046122355259</v>
       </c>
       <c r="E77">
-        <v>-0.070651450748830794</v>
+        <v>-0.070651450748825589</v>
       </c>
     </row>
     <row r="78">
@@ -1874,16 +1874,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.027656639201852521</v>
+        <v>-0.027656639201852875</v>
       </c>
       <c r="C78">
-        <v>0.0051339522989187168</v>
+        <v>0.0051339522989188582</v>
       </c>
       <c r="D78">
-        <v>-0.037719012076800493</v>
+        <v>-0.037719012076801117</v>
       </c>
       <c r="E78">
-        <v>-0.017594266326904553</v>
+        <v>-0.017594266326904633</v>
       </c>
     </row>
     <row r="79">
@@ -1891,16 +1891,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.056593316699201243</v>
+        <v>-0.056593316699200334</v>
       </c>
       <c r="C79">
-        <v>0.0039676874044034839</v>
+        <v>0.003967687404403464</v>
       </c>
       <c r="D79">
-        <v>-0.064369849824129369</v>
+        <v>-0.064369849824128425</v>
       </c>
       <c r="E79">
-        <v>-0.048816783574273111</v>
+        <v>-0.048816783574272243</v>
       </c>
     </row>
     <row r="80">
@@ -1908,16 +1908,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.1864259614496119</v>
+        <v>-0.18642596144960943</v>
       </c>
       <c r="C80">
-        <v>0.0042484230904590858</v>
+        <v>0.0042484230904590824</v>
       </c>
       <c r="D80">
-        <v>-0.19475272916738695</v>
+        <v>-0.19475272916738445</v>
       </c>
       <c r="E80">
-        <v>-0.17809919373183686</v>
+        <v>-0.17809919373183442</v>
       </c>
     </row>
     <row r="81">
@@ -1925,16 +1925,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.029912055224092855</v>
+        <v>-0.029912055224091315</v>
       </c>
       <c r="C81">
-        <v>0.0061136704105074638</v>
+        <v>0.0061136704105075757</v>
       </c>
       <c r="D81">
-        <v>-0.041894645546995221</v>
+        <v>-0.041894645546993903</v>
       </c>
       <c r="E81">
-        <v>-0.017929464901190489</v>
+        <v>-0.01792946490118873</v>
       </c>
     </row>
     <row r="82">
@@ -1942,16 +1942,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0090248630092466808</v>
+        <v>-0.0090248630092483479</v>
       </c>
       <c r="C82">
-        <v>0.0055420351937933649</v>
+        <v>0.0055420351937933727</v>
       </c>
       <c r="D82">
-        <v>-0.019887067351861961</v>
+        <v>-0.019887067351863644</v>
       </c>
       <c r="E82">
-        <v>0.0018373413333685994</v>
+        <v>0.0018373413333669462</v>
       </c>
     </row>
     <row r="83">
@@ -1959,16 +1959,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.10523665291054156</v>
+        <v>-0.10523665291054415</v>
       </c>
       <c r="C83">
-        <v>0.0033222608675551857</v>
+        <v>0.0033222608675551367</v>
       </c>
       <c r="D83">
-        <v>-0.111748173086142</v>
+        <v>-0.11174817308614451</v>
       </c>
       <c r="E83">
-        <v>-0.098725132734941115</v>
+        <v>-0.098725132734943793</v>
       </c>
     </row>
     <row r="84">
@@ -1976,16 +1976,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.01909554944164648</v>
+        <v>-0.019095549441646067</v>
       </c>
       <c r="C84">
-        <v>0.0054597057405839436</v>
+        <v>0.0054597057405837632</v>
       </c>
       <c r="D84">
-        <v>-0.029796390073952246</v>
+        <v>-0.029796390073951483</v>
       </c>
       <c r="E84">
-        <v>-0.0083947088093407115</v>
+        <v>-0.0083947088093406508</v>
       </c>
     </row>
     <row r="85">
@@ -1993,16 +1993,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.038424556586530621</v>
+        <v>-0.03842455658652974</v>
       </c>
       <c r="C85">
-        <v>0.0044117204117669478</v>
+        <v>0.0044117204117669574</v>
       </c>
       <c r="D85">
-        <v>-0.047071381027944427</v>
+        <v>-0.04707138102794356</v>
       </c>
       <c r="E85">
-        <v>-0.029777732145116816</v>
+        <v>-0.02977773214511592</v>
       </c>
     </row>
     <row r="86">
@@ -2010,16 +2010,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.11787290418496947</v>
+        <v>-0.11787290418497069</v>
       </c>
       <c r="C86">
-        <v>0.0043647094039408769</v>
+        <v>0.0043647094039408491</v>
       </c>
       <c r="D86">
-        <v>-0.12642763214894484</v>
+        <v>-0.12642763214894601</v>
       </c>
       <c r="E86">
-        <v>-0.10931817622099411</v>
+        <v>-0.10931817622099538</v>
       </c>
     </row>
     <row r="87">
@@ -2027,16 +2027,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.059952633936656827</v>
+        <v>-0.059952633936658686</v>
       </c>
       <c r="C87">
-        <v>0.010093456089698548</v>
+        <v>0.010093456089698433</v>
       </c>
       <c r="D87">
-        <v>-0.079735570914257092</v>
+        <v>-0.07973557091425873</v>
       </c>
       <c r="E87">
-        <v>-0.040169696959056561</v>
+        <v>-0.04016969695905865</v>
       </c>
     </row>
     <row r="88">
@@ -2044,16 +2044,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.014078076745719944</v>
+        <v>-0.014078076745719587</v>
       </c>
       <c r="C88">
-        <v>0.0078721743345668803</v>
+        <v>0.0078721743345668924</v>
       </c>
       <c r="D88">
-        <v>-0.029507353631004346</v>
+        <v>-0.029507353631004013</v>
       </c>
       <c r="E88">
-        <v>0.0013512001395644558</v>
+        <v>0.0013512001395648374</v>
       </c>
     </row>
     <row r="89">
@@ -2061,16 +2061,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.050234894485538639</v>
+        <v>-0.050234894485538868</v>
       </c>
       <c r="C89">
-        <v>0.0048095076353764686</v>
+        <v>0.0048095076353764331</v>
       </c>
       <c r="D89">
-        <v>-0.059661430013188202</v>
+        <v>-0.059661430013188362</v>
       </c>
       <c r="E89">
-        <v>-0.040808358957889077</v>
+        <v>-0.040808358957889375</v>
       </c>
     </row>
     <row r="90">
@@ -2078,16 +2078,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.071839226799532321</v>
+        <v>-0.071839226799532446</v>
       </c>
       <c r="C90">
-        <v>0.012740333458071809</v>
+        <v>0.012740333458071587</v>
       </c>
       <c r="D90">
-        <v>-0.096810016967997375</v>
+        <v>-0.09681001696799707</v>
       </c>
       <c r="E90">
-        <v>-0.046868436631067267</v>
+        <v>-0.046868436631067829</v>
       </c>
     </row>
     <row r="91">
@@ -2095,16 +2095,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0066441295074750719</v>
+        <v>0.0066441295074749314</v>
       </c>
       <c r="C91">
-        <v>0.0091113710322559723</v>
+        <v>0.009111371032255948</v>
       </c>
       <c r="D91">
-        <v>-0.011213969336032636</v>
+        <v>-0.011213969336032727</v>
       </c>
       <c r="E91">
-        <v>0.024502228350982778</v>
+        <v>0.024502228350982591</v>
       </c>
     </row>
     <row r="92">
@@ -2112,16 +2112,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.15303979342959115</v>
+        <v>-0.15303979342958687</v>
       </c>
       <c r="C92">
-        <v>0.0033607080662541623</v>
+        <v>0.0033607080662542443</v>
       </c>
       <c r="D92">
-        <v>-0.15962666765613248</v>
+        <v>-0.15962666765612837</v>
       </c>
       <c r="E92">
-        <v>-0.14645291920304981</v>
+        <v>-0.14645291920304537</v>
       </c>
     </row>
     <row r="93">
@@ -2129,16 +2129,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.054899127714996422</v>
+        <v>-0.054899127714996387</v>
       </c>
       <c r="C93">
-        <v>0.0053199625082072525</v>
+        <v>0.0053199625082070391</v>
       </c>
       <c r="D93">
-        <v>-0.065326074429988584</v>
+        <v>-0.06532607442998814</v>
       </c>
       <c r="E93">
-        <v>-0.04447218100000426</v>
+        <v>-0.044472181000004642</v>
       </c>
     </row>
     <row r="94">
@@ -2146,16 +2146,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.0038543815264766952</v>
+        <v>0.0038543815264763946</v>
       </c>
       <c r="C94">
-        <v>0.0044541030007478749</v>
+        <v>0.0044541030007478801</v>
       </c>
       <c r="D94">
-        <v>-0.004875509817726646</v>
+        <v>-0.0048755098177269574</v>
       </c>
       <c r="E94">
-        <v>0.012584272870680036</v>
+        <v>0.012584272870679746</v>
       </c>
     </row>
     <row r="95">
@@ -2163,16 +2163,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.078162960113853083</v>
+        <v>-0.078162960113852972</v>
       </c>
       <c r="C95">
-        <v>0.0029519971394014696</v>
+        <v>0.0029519971394015017</v>
       </c>
       <c r="D95">
-        <v>-0.083948774670153783</v>
+        <v>-0.083948774670153728</v>
       </c>
       <c r="E95">
-        <v>-0.072377145557552383</v>
+        <v>-0.072377145557552217</v>
       </c>
     </row>
     <row r="96">
@@ -2180,16 +2180,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.041691219687175464</v>
+        <v>-0.041691219687176026</v>
       </c>
       <c r="C96">
-        <v>0.0052365874965161529</v>
+        <v>0.0052365874965159933</v>
       </c>
       <c r="D96">
-        <v>-0.051954754078278709</v>
+        <v>-0.051954754078278959</v>
       </c>
       <c r="E96">
-        <v>-0.031427685296072219</v>
+        <v>-0.031427685296073093</v>
       </c>
     </row>
     <row r="97">
@@ -2197,16 +2197,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.038160711825125572</v>
+        <v>-0.038160711825125176</v>
       </c>
       <c r="C97">
-        <v>0.0039967230668183119</v>
+        <v>0.0039967230668183102</v>
       </c>
       <c r="D97">
-        <v>-0.045994153866396895</v>
+        <v>-0.045994153866396492</v>
       </c>
       <c r="E97">
-        <v>-0.030327269783854249</v>
+        <v>-0.030327269783853857</v>
       </c>
     </row>
     <row r="98">
@@ -2214,16 +2214,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.18216586685961245</v>
+        <v>-0.18216586685960634</v>
       </c>
       <c r="C98">
-        <v>0.004232070862710012</v>
+        <v>0.0042320708627099505</v>
       </c>
       <c r="D98">
-        <v>-0.19046058475578651</v>
+        <v>-0.19046058475578029</v>
       </c>
       <c r="E98">
-        <v>-0.17387114896343839</v>
+        <v>-0.17387114896343239</v>
       </c>
     </row>
     <row r="99">
@@ -2231,16 +2231,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.035737588267795106</v>
+        <v>-0.035737588267793649</v>
       </c>
       <c r="C99">
-        <v>0.0062462736763871712</v>
+        <v>0.0062462736763870853</v>
       </c>
       <c r="D99">
-        <v>-0.047980076574040596</v>
+        <v>-0.047980076574038973</v>
       </c>
       <c r="E99">
-        <v>-0.023495099961549616</v>
+        <v>-0.023495099961548326</v>
       </c>
     </row>
     <row r="100">
@@ -2248,16 +2248,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.019076892869721866</v>
+        <v>0.019076892869719329</v>
       </c>
       <c r="C100">
-        <v>0.0054392912765237828</v>
+        <v>0.005439291276523788</v>
       </c>
       <c r="D100">
-        <v>0.0084160631819613259</v>
+        <v>0.0084160631819587793</v>
       </c>
       <c r="E100">
-        <v>0.029737722557482405</v>
+        <v>0.029737722557479879</v>
       </c>
     </row>
     <row r="101">
@@ -2265,16 +2265,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.10865622928789338</v>
+        <v>-0.10865622928789284</v>
       </c>
       <c r="C101">
-        <v>0.0034496661360710582</v>
+        <v>0.0034496661360710963</v>
       </c>
       <c r="D101">
-        <v>-0.11541745952826349</v>
+        <v>-0.11541745952826302</v>
       </c>
       <c r="E101">
-        <v>-0.10189499904752328</v>
+        <v>-0.10189499904752267</v>
       </c>
     </row>
     <row r="102">
@@ -2282,16 +2282,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.028633611948908202</v>
+        <v>-0.028633611948908157</v>
       </c>
       <c r="C102">
-        <v>0.0056818351595819558</v>
+        <v>0.0056818351595818153</v>
       </c>
       <c r="D102">
-        <v>-0.039769818812543163</v>
+        <v>-0.039769818812542844</v>
       </c>
       <c r="E102">
-        <v>-0.01749740508527324</v>
+        <v>-0.017497405085273469</v>
       </c>
     </row>
     <row r="103">
@@ -2299,16 +2299,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>-0.026202341574021709</v>
+        <v>-0.026202341574023742</v>
       </c>
       <c r="C103">
-        <v>0.0045087356811034946</v>
+        <v>0.0045087356811035042</v>
       </c>
       <c r="D103">
-        <v>-0.035039312698315089</v>
+        <v>-0.035039312698317136</v>
       </c>
       <c r="E103">
-        <v>-0.017365370449728329</v>
+        <v>-0.017365370449730348</v>
       </c>
     </row>
     <row r="104">
@@ -2316,16 +2316,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>-0.10841170586297924</v>
+        <v>-0.10841170586298148</v>
       </c>
       <c r="C104">
-        <v>0.0041077707013431114</v>
+        <v>0.0041077707013430897</v>
       </c>
       <c r="D104">
-        <v>-0.11646284000186374</v>
+        <v>-0.11646284000186594</v>
       </c>
       <c r="E104">
-        <v>-0.10036057172409474</v>
+        <v>-0.10036057172409701</v>
       </c>
     </row>
     <row r="105">
@@ -2333,16 +2333,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>-0.063769333156231747</v>
+        <v>-0.063769333156235758</v>
       </c>
       <c r="C105">
-        <v>0.0095587325689828855</v>
+        <v>0.0095587325689827987</v>
       </c>
       <c r="D105">
-        <v>-0.082504224586622973</v>
+        <v>-0.082504224586626818</v>
       </c>
       <c r="E105">
-        <v>-0.045034441725840521</v>
+        <v>-0.045034441725844698</v>
       </c>
     </row>
     <row r="106">
@@ -2350,16 +2350,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>0.0049746140206533267</v>
+        <v>0.0049746140206537622</v>
       </c>
       <c r="C106">
-        <v>0.0072736362732398465</v>
+        <v>0.00727363627323985</v>
       </c>
       <c r="D106">
-        <v>-0.0092815423159606746</v>
+        <v>-0.0092815423159602461</v>
       </c>
       <c r="E106">
-        <v>0.019230770357267328</v>
+        <v>0.019230770357267772</v>
       </c>
     </row>
     <row r="107">
@@ -2367,16 +2367,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>-0.057994886240499678</v>
+        <v>-0.057994886240500441</v>
       </c>
       <c r="C107">
-        <v>0.0049146167713879649</v>
+        <v>0.0049146167713880152</v>
       </c>
       <c r="D107">
-        <v>-0.067627433501575962</v>
+        <v>-0.067627433501576822</v>
       </c>
       <c r="E107">
-        <v>-0.048362338979423401</v>
+        <v>-0.048362338979424067</v>
       </c>
     </row>
     <row r="108">
@@ -2384,16 +2384,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>-0.079144436607697377</v>
+        <v>-0.07914443660769778</v>
       </c>
       <c r="C108">
-        <v>0.01291205943951285</v>
+        <v>0.012912059439512786</v>
       </c>
       <c r="D108">
-        <v>-0.10445180614931229</v>
+        <v>-0.10445180614931257</v>
       </c>
       <c r="E108">
-        <v>-0.053837067066082468</v>
+        <v>-0.053837067066082996</v>
       </c>
     </row>
     <row r="109">
@@ -2401,16 +2401,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0.032747316645117805</v>
+        <v>0.032747316645117167</v>
       </c>
       <c r="C109">
-        <v>0.0091217718189046879</v>
+        <v>0.0091217718189047191</v>
       </c>
       <c r="D109">
-        <v>0.014868832474817299</v>
+        <v>0.014868832474816598</v>
       </c>
       <c r="E109">
-        <v>0.050625800815418315</v>
+        <v>0.050625800815417732</v>
       </c>
     </row>
     <row r="110">
@@ -2418,16 +2418,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>-0.15030137053954926</v>
+        <v>-0.15030137053954312</v>
       </c>
       <c r="C110">
-        <v>0.0033273949715808713</v>
+        <v>0.0033273949715808626</v>
       </c>
       <c r="D110">
-        <v>-0.15682295222642811</v>
+        <v>-0.15682295222642198</v>
       </c>
       <c r="E110">
-        <v>-0.1437797888526704</v>
+        <v>-0.14377978885266426</v>
       </c>
     </row>
     <row r="111">
@@ -2435,16 +2435,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>-0.063721199908247025</v>
+        <v>-0.063721199908248871</v>
       </c>
       <c r="C111">
-        <v>0.0053554190800123736</v>
+        <v>0.0053554190800120154</v>
       </c>
       <c r="D111">
-        <v>-0.074217640305636004</v>
+        <v>-0.074217640305637142</v>
       </c>
       <c r="E111">
-        <v>-0.053224759510858054</v>
+        <v>-0.0532247595108606</v>
       </c>
     </row>
     <row r="112">
@@ -2452,16 +2452,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0.028675356077107979</v>
+        <v>0.028675356077106508</v>
       </c>
       <c r="C112">
-        <v>0.004339658526389574</v>
+        <v>0.0043396585263895749</v>
       </c>
       <c r="D112">
-        <v>0.020169772034717072</v>
+        <v>0.020169772034715601</v>
       </c>
       <c r="E112">
-        <v>0.037180940119498886</v>
+        <v>0.037180940119497415</v>
       </c>
     </row>
     <row r="113">
@@ -2469,16 +2469,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>-0.084063785111363226</v>
+        <v>-0.08406378511136775</v>
       </c>
       <c r="C113">
-        <v>0.0031934451690524548</v>
+        <v>0.0031934451690524648</v>
       </c>
       <c r="D113">
-        <v>-0.090322829639976177</v>
+        <v>-0.090322829639980715</v>
       </c>
       <c r="E113">
-        <v>-0.077804740582750276</v>
+        <v>-0.077804740582754786</v>
       </c>
     </row>
     <row r="114">
@@ -2486,16 +2486,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>-0.050952662400742303</v>
+        <v>-0.050952662400744711</v>
       </c>
       <c r="C114">
-        <v>0.0056542845404010268</v>
+        <v>0.0056542845404008802</v>
       </c>
       <c r="D114">
-        <v>-0.062034868871291698</v>
+        <v>-0.062034868871293815</v>
       </c>
       <c r="E114">
-        <v>-0.039870455930192908</v>
+        <v>-0.039870455930195607</v>
       </c>
     </row>
     <row r="115">
@@ -2503,16 +2503,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>-0.016215328338629636</v>
+        <v>-0.016215328338630076</v>
       </c>
       <c r="C115">
-        <v>0.0042596437704718552</v>
+        <v>0.0042596437704718604</v>
       </c>
       <c r="D115">
-        <v>-0.024564086067049601</v>
+        <v>-0.024564086067050052</v>
       </c>
       <c r="E115">
-        <v>-0.0078665706102096708</v>
+        <v>-0.007866570610210101</v>
       </c>
     </row>
     <row r="116">
@@ -2520,16 +2520,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>-0.17384839226280152</v>
+        <v>-0.17384839226279294</v>
       </c>
       <c r="C116">
-        <v>0.0042958262262103508</v>
+        <v>0.0042958262262103716</v>
       </c>
       <c r="D116">
-        <v>-0.18226806854737665</v>
+        <v>-0.1822680685473681</v>
       </c>
       <c r="E116">
-        <v>-0.16542871597822639</v>
+        <v>-0.16542871597821779</v>
       </c>
     </row>
     <row r="117">
@@ -2537,16 +2537,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>-0.055896913775923533</v>
+        <v>-0.05589691377592327</v>
       </c>
       <c r="C117">
-        <v>0.0064940623742946726</v>
+        <v>0.0064940623742951826</v>
       </c>
       <c r="D117">
-        <v>-0.068625059674794237</v>
+        <v>-0.068625059674794958</v>
       </c>
       <c r="E117">
-        <v>-0.043168767877052837</v>
+        <v>-0.043168767877051574</v>
       </c>
     </row>
     <row r="118">
@@ -2554,16 +2554,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>0.037913473163288282</v>
+        <v>0.037913473163285638</v>
       </c>
       <c r="C118">
-        <v>0.0054479115546837084</v>
+        <v>0.0054479115546837422</v>
       </c>
       <c r="D118">
-        <v>0.027235748017525568</v>
+        <v>0.027235748017522862</v>
       </c>
       <c r="E118">
-        <v>0.048591198309050995</v>
+        <v>0.048591198309048414</v>
       </c>
     </row>
     <row r="119">
@@ -2571,16 +2571,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>-0.10784364943422567</v>
+        <v>-0.10784364943422628</v>
       </c>
       <c r="C119">
-        <v>0.003637720850072934</v>
+        <v>0.0036377208500729349</v>
       </c>
       <c r="D119">
-        <v>-0.114973460623882</v>
+        <v>-0.11497346062388261</v>
       </c>
       <c r="E119">
-        <v>-0.10071383824456934</v>
+        <v>-0.10071383824456995</v>
       </c>
     </row>
     <row r="120">
@@ -2588,16 +2588,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>-0.041437911980564714</v>
+        <v>-0.041437911980563277</v>
       </c>
       <c r="C120">
-        <v>0.0060420022515361585</v>
+        <v>0.0060420022515359877</v>
       </c>
       <c r="D120">
-        <v>-0.053280034297363041</v>
+        <v>-0.053280034297361271</v>
       </c>
       <c r="E120">
-        <v>-0.029595789663766386</v>
+        <v>-0.029595789663765283</v>
       </c>
     </row>
     <row r="121">
@@ -2605,16 +2605,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>-0.0094000162365263096</v>
+        <v>-0.0094000162365262506</v>
       </c>
       <c r="C121">
-        <v>0.0047082473615943556</v>
+        <v>0.0047082473615943643</v>
       </c>
       <c r="D121">
-        <v>-0.018628023581205418</v>
+        <v>-0.018628023581205376</v>
       </c>
       <c r="E121">
-        <v>-0.00017200889184720326</v>
+        <v>-0.00017200889184712694</v>
       </c>
     </row>
     <row r="122">
@@ -2622,16 +2622,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>-0.11360634552211442</v>
+        <v>-0.11360634552211731</v>
       </c>
       <c r="C122">
-        <v>0.0043205750612752307</v>
+        <v>0.0043205750612752801</v>
       </c>
       <c r="D122">
-        <v>-0.12207457121058146</v>
+        <v>-0.12207457121058443</v>
       </c>
       <c r="E122">
-        <v>-0.10513811983364738</v>
+        <v>-0.10513811983365018</v>
       </c>
     </row>
     <row r="123">
@@ -2639,16 +2639,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>-0.075956331548065512</v>
+        <v>-0.075956331548069134</v>
       </c>
       <c r="C123">
-        <v>0.010041080936780104</v>
+        <v>0.010041080936780354</v>
       </c>
       <c r="D123">
-        <v>-0.095636614455526681</v>
+        <v>-0.095636614455530788</v>
       </c>
       <c r="E123">
-        <v>-0.056276048640604343</v>
+        <v>-0.056276048640607472</v>
       </c>
     </row>
     <row r="124">
@@ -2656,16 +2656,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0.02754047524218893</v>
+        <v>0.027540475242189399</v>
       </c>
       <c r="C124">
-        <v>0.0074497595922980017</v>
+        <v>0.0074497595922980078</v>
       </c>
       <c r="D124">
-        <v>0.012939121334965858</v>
+        <v>0.012939121334966316</v>
       </c>
       <c r="E124">
-        <v>0.042141829149412002</v>
+        <v>0.042141829149412481</v>
       </c>
     </row>
     <row r="125">
@@ -2673,16 +2673,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>-0.061345753639363329</v>
+        <v>-0.061345753639364502</v>
       </c>
       <c r="C125">
-        <v>0.0050979623257709538</v>
+        <v>0.0050979623257709425</v>
       </c>
       <c r="D125">
-        <v>-0.071337654396318312</v>
+        <v>-0.071337654396319464</v>
       </c>
       <c r="E125">
-        <v>-0.051353852882408346</v>
+        <v>-0.05135385288240954</v>
       </c>
     </row>
     <row r="126">
@@ -2690,16 +2690,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>-0.091242892256369543</v>
+        <v>-0.09124289225636896</v>
       </c>
       <c r="C126">
-        <v>0.013096250749625542</v>
+        <v>0.013096250749625326</v>
       </c>
       <c r="D126">
-        <v>-0.11691127295760717</v>
+        <v>-0.11691127295760617</v>
       </c>
       <c r="E126">
-        <v>-0.065574511555131915</v>
+        <v>-0.065574511555131748</v>
       </c>
     </row>
     <row r="127">
@@ -2707,16 +2707,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0.064425789813945714</v>
+        <v>0.064425789813944825</v>
       </c>
       <c r="C127">
-        <v>0.0091667911245304629</v>
+        <v>0.0091667911245304542</v>
       </c>
       <c r="D127">
-        <v>0.0464590687354033</v>
+        <v>0.046459068735402426</v>
       </c>
       <c r="E127">
-        <v>0.082392510892488127</v>
+        <v>0.082392510892487225</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>-0.14948682209205238</v>
+        <v>-0.14948682209204475</v>
       </c>
       <c r="C128">
-        <v>0.0036165202640044609</v>
+        <v>0.0036165202640045103</v>
       </c>
       <c r="D128">
-        <v>-0.15657507958038783</v>
+        <v>-0.15657507958038031</v>
       </c>
       <c r="E128">
-        <v>-0.14239856460371694</v>
+        <v>-0.1423985646037092</v>
       </c>
     </row>
     <row r="129">
@@ -2741,16 +2741,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>-0.068736299220748392</v>
+        <v>-0.068736299220747588</v>
       </c>
       <c r="C129">
-        <v>0.0059968330340104256</v>
+        <v>0.0059968330340103449</v>
       </c>
       <c r="D129">
-        <v>-0.080489889289826283</v>
+        <v>-0.080489889289825325</v>
       </c>
       <c r="E129">
-        <v>-0.056982709151670495</v>
+        <v>-0.05698270915166985</v>
       </c>
     </row>
     <row r="130">
@@ -2758,16 +2758,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0.052229269736044054</v>
+        <v>0.052229269736042805</v>
       </c>
       <c r="C130">
-        <v>0.0046722307585032137</v>
+        <v>0.0046722307585032223</v>
       </c>
       <c r="D130">
-        <v>0.043071855358799246</v>
+        <v>0.043071855358797984</v>
       </c>
       <c r="E130">
-        <v>0.061386684113288861</v>
+        <v>0.061386684113287626</v>
       </c>
     </row>
     <row r="131">
@@ -2775,16 +2775,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>-0.083493386186789795</v>
+        <v>-0.083493386186799592</v>
       </c>
       <c r="C131">
-        <v>0.0034996055969884082</v>
+        <v>0.0034996055969884841</v>
       </c>
       <c r="D131">
-        <v>-0.090352494799771824</v>
+        <v>-0.090352494799781774</v>
       </c>
       <c r="E131">
-        <v>-0.076634277573807766</v>
+        <v>-0.076634277573817411</v>
       </c>
     </row>
     <row r="132">
@@ -2792,16 +2792,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>-0.068309900862705164</v>
+        <v>-0.068309900862707718</v>
       </c>
       <c r="C132">
-        <v>0.0061409346860698934</v>
+        <v>0.0061409346860695586</v>
       </c>
       <c r="D132">
-        <v>-0.080345925160194481</v>
+        <v>-0.080345925160196383</v>
       </c>
       <c r="E132">
-        <v>-0.056273876565215847</v>
+        <v>-0.05627387656521906</v>
       </c>
     </row>
     <row r="133">
@@ -2809,16 +2809,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0.0078269668440447207</v>
+        <v>0.0078269668440446704</v>
       </c>
       <c r="C133">
-        <v>0.0045594052843683733</v>
+        <v>0.0045594052843683673</v>
       </c>
       <c r="D133">
-        <v>-0.0011093133136391344</v>
+        <v>-0.0011093133136391743</v>
       </c>
       <c r="E133">
-        <v>0.016763247001728578</v>
+        <v>0.016763247001728515</v>
       </c>
     </row>
     <row r="134">
@@ -2826,16 +2826,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>-0.16226157223923607</v>
+        <v>-0.1622615722392251</v>
       </c>
       <c r="C134">
-        <v>0.0046087968618687379</v>
+        <v>0.0046087968618687639</v>
       </c>
       <c r="D134">
-        <v>-0.17129466054284109</v>
+        <v>-0.17129466054283018</v>
       </c>
       <c r="E134">
-        <v>-0.15322848393563104</v>
+        <v>-0.15322848393562002</v>
       </c>
     </row>
     <row r="135">
@@ -2843,16 +2843,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>-0.067171958875570301</v>
+        <v>-0.067171958875569177</v>
       </c>
       <c r="C135">
-        <v>0.0071353783116575205</v>
+        <v>0.0071353783116580504</v>
       </c>
       <c r="D135">
-        <v>-0.081157062645732136</v>
+        <v>-0.081157062645732053</v>
       </c>
       <c r="E135">
-        <v>-0.053186855105408458</v>
+        <v>-0.0531868551054063</v>
       </c>
     </row>
     <row r="136">
@@ -2860,16 +2860,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0.060282868849169467</v>
+        <v>0.060282868849164381</v>
       </c>
       <c r="C136">
-        <v>0.0057633739743206463</v>
+        <v>0.0057633739743206862</v>
       </c>
       <c r="D136">
-        <v>0.04898684787079461</v>
+        <v>0.048986847870789448</v>
       </c>
       <c r="E136">
-        <v>0.071578889827544318</v>
+        <v>0.071578889827539321</v>
       </c>
     </row>
     <row r="137">
@@ -2877,16 +2877,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>-0.10260903367150272</v>
+        <v>-0.10260903367150395</v>
       </c>
       <c r="C137">
-        <v>0.0041250659733125484</v>
+        <v>0.0041250659733125623</v>
       </c>
       <c r="D137">
-        <v>-0.11069402500172112</v>
+        <v>-0.11069402500172239</v>
       </c>
       <c r="E137">
-        <v>-0.094524042341284309</v>
+        <v>-0.094524042341285516</v>
       </c>
     </row>
     <row r="138">
@@ -2894,16 +2894,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>-0.058326230484136696</v>
+        <v>-0.058326230484134753</v>
       </c>
       <c r="C138">
-        <v>0.0068619889797527219</v>
+        <v>0.0068619889797525346</v>
       </c>
       <c r="D138">
-        <v>-0.071775499360872658</v>
+        <v>-0.071775499360870354</v>
       </c>
       <c r="E138">
-        <v>-0.044876961607400727</v>
+        <v>-0.044876961607399152</v>
       </c>
     </row>
     <row r="139">
@@ -2911,16 +2911,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0.0060281385853554687</v>
+        <v>0.0060281385853576293</v>
       </c>
       <c r="C139">
-        <v>0.0052399107014338394</v>
+        <v>0.0052399107014338428</v>
       </c>
       <c r="D139">
-        <v>-0.0042419111220413841</v>
+        <v>-0.0042419111220392304</v>
       </c>
       <c r="E139">
-        <v>0.016298188292752321</v>
+        <v>0.016298188292754489</v>
       </c>
     </row>
     <row r="140">
@@ -2928,16 +2928,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>-0.11079374089759307</v>
+        <v>-0.11079374089759617</v>
       </c>
       <c r="C140">
-        <v>0.0048353825065080742</v>
+        <v>0.0048353825065081133</v>
       </c>
       <c r="D140">
-        <v>-0.12027097709288095</v>
+        <v>-0.12027097709288413</v>
       </c>
       <c r="E140">
-        <v>-0.10131650470230519</v>
+        <v>-0.1013165047023082</v>
       </c>
     </row>
     <row r="141">
@@ -2945,16 +2945,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>-0.074288220901758947</v>
+        <v>-0.074288220901763721</v>
       </c>
       <c r="C141">
-        <v>0.011234096546225805</v>
+        <v>0.011234096546225782</v>
       </c>
       <c r="D141">
-        <v>-0.096306786395998836</v>
+        <v>-0.096306786396003569</v>
       </c>
       <c r="E141">
-        <v>-0.052269655407519058</v>
+        <v>-0.052269655407523881</v>
       </c>
     </row>
     <row r="142">
@@ -2962,16 +2962,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>0.03694272435267959</v>
+        <v>0.036942724352679743</v>
       </c>
       <c r="C142">
-        <v>0.0080445726448871418</v>
+        <v>0.0080445726448871505</v>
       </c>
       <c r="D142">
-        <v>0.021175550826462525</v>
+        <v>0.02117555082646266</v>
       </c>
       <c r="E142">
-        <v>0.052709897878896655</v>
+        <v>0.052709897878896822</v>
       </c>
     </row>
     <row r="143">
@@ -2979,16 +2979,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>-0.064493498031780366</v>
+        <v>-0.064493498031782129</v>
       </c>
       <c r="C143">
-        <v>0.0058529120540440592</v>
+        <v>0.005852912054044015</v>
       </c>
       <c r="D143">
-        <v>-0.075965084647389519</v>
+        <v>-0.075965084647391184</v>
       </c>
       <c r="E143">
-        <v>-0.053021911416171214</v>
+        <v>-0.053021911416173066</v>
       </c>
     </row>
     <row r="144">
@@ -2996,16 +2996,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>-0.11478585904035545</v>
+        <v>-0.11478585904035538</v>
       </c>
       <c r="C144">
-        <v>0.014141490275390111</v>
+        <v>0.014141490275390592</v>
       </c>
       <c r="D144">
-        <v>-0.14250288760152147</v>
+        <v>-0.14250288760152235</v>
       </c>
       <c r="E144">
-        <v>-0.08706883047918941</v>
+        <v>-0.087068830479188397</v>
       </c>
     </row>
     <row r="145">
@@ -3013,16 +3013,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0.06941433137136041</v>
+        <v>0.069414331371359356</v>
       </c>
       <c r="C145">
-        <v>0.0097965936635965468</v>
+        <v>0.0097965936635965364</v>
       </c>
       <c r="D145">
-        <v>0.050213210337562361</v>
+        <v>0.05021321033756132</v>
       </c>
       <c r="E145">
-        <v>0.08861545240515846</v>
+        <v>0.088615452405157391</v>
       </c>
     </row>
     <row r="146">
@@ -3030,16 +3030,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>-0.13834770749091596</v>
+        <v>-0.13834770749090572</v>
       </c>
       <c r="C146">
-        <v>0.0040893426117577826</v>
+        <v>0.0040893426117579032</v>
       </c>
       <c r="D146">
-        <v>-0.14636268080066472</v>
+        <v>-0.14636268080065473</v>
       </c>
       <c r="E146">
-        <v>-0.1303327341811672</v>
+        <v>-0.13033273418115671</v>
       </c>
     </row>
     <row r="147">
@@ -3047,16 +3047,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>-0.076722724093914549</v>
+        <v>-0.076722724093912092</v>
       </c>
       <c r="C147">
-        <v>0.0071290842902312478</v>
+        <v>0.0071290842902316468</v>
       </c>
       <c r="D147">
-        <v>-0.090695488357995541</v>
+        <v>-0.090695488357993861</v>
       </c>
       <c r="E147">
-        <v>-0.062749959829833557</v>
+        <v>-0.062749959829830323</v>
       </c>
     </row>
     <row r="148">
@@ -3064,16 +3064,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0.067937285421854621</v>
+        <v>0.067937285421852706</v>
       </c>
       <c r="C148">
-        <v>0.0052979243294091483</v>
+        <v>0.0052979243294091777</v>
       </c>
       <c r="D148">
-        <v>0.0575535327924728</v>
+        <v>0.057553532792470823</v>
       </c>
       <c r="E148">
-        <v>0.078321038051236441</v>
+        <v>0.078321038051234582</v>
       </c>
     </row>
     <row r="149">
@@ -3081,16 +3081,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>-0.078858626048711064</v>
+        <v>-0.078858626048725497</v>
       </c>
       <c r="C149">
-        <v>0.0044869944218723949</v>
+        <v>0.0044869944218723021</v>
       </c>
       <c r="D149">
-        <v>-0.087652983364847559</v>
+        <v>-0.087652983364861811</v>
       </c>
       <c r="E149">
-        <v>-0.070064268732574569</v>
+        <v>-0.070064268732589183</v>
       </c>
     </row>
     <row r="150">
@@ -3098,16 +3098,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>-0.091594231155160452</v>
+        <v>-0.091594231155163949</v>
       </c>
       <c r="C150">
-        <v>0.0076896154901570602</v>
+        <v>0.0076896154901569995</v>
       </c>
       <c r="D150">
-        <v>-0.10666561745207492</v>
+        <v>-0.10666561745207831</v>
       </c>
       <c r="E150">
-        <v>-0.076522844858245981</v>
+        <v>-0.076522844858249589</v>
       </c>
     </row>
     <row r="151">
@@ -3115,16 +3115,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0.025286418786274096</v>
+        <v>0.025286418786271882</v>
       </c>
       <c r="C151">
-        <v>0.0056294766509290637</v>
+        <v>0.0056294766509290646</v>
       </c>
       <c r="D151">
-        <v>0.014252834940083711</v>
+        <v>0.014252834940081496</v>
       </c>
       <c r="E151">
-        <v>0.036320002632464481</v>
+        <v>0.036320002632462267</v>
       </c>
     </row>
     <row r="152">
@@ -3132,16 +3132,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>-0.14435422791117641</v>
+        <v>-0.14435422791116448</v>
       </c>
       <c r="C152">
-        <v>0.0048673213628476573</v>
+        <v>0.0048673213628477666</v>
       </c>
       <c r="D152">
-        <v>-0.15389401562375499</v>
+        <v>-0.15389401562374327</v>
       </c>
       <c r="E152">
-        <v>-0.13481444019859784</v>
+        <v>-0.13481444019858568</v>
       </c>
     </row>
     <row r="153">
@@ -3149,16 +3149,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>-0.066356561352776372</v>
+        <v>-0.066356561352774832</v>
       </c>
       <c r="C153">
-        <v>0.0077648835612637171</v>
+        <v>0.0077648835612636356</v>
       </c>
       <c r="D153">
-        <v>-0.081575474439708584</v>
+        <v>-0.081575474439706891</v>
       </c>
       <c r="E153">
-        <v>-0.05113764826584416</v>
+        <v>-0.051137648265842779</v>
       </c>
     </row>
     <row r="154">
@@ -3166,16 +3166,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0.08313908617479962</v>
+        <v>0.083139086174794777</v>
       </c>
       <c r="C154">
-        <v>0.0060151594276179029</v>
+        <v>0.0060151594276179532</v>
       </c>
       <c r="D154">
-        <v>0.071349574096390658</v>
+        <v>0.071349574096385718</v>
       </c>
       <c r="E154">
-        <v>0.094928598253208582</v>
+        <v>0.094928598253203836</v>
       </c>
     </row>
     <row r="155">
@@ -3183,16 +3183,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>-0.093298755270002573</v>
+        <v>-0.093298755270001907</v>
       </c>
       <c r="C155">
-        <v>0.0052316345685546051</v>
+        <v>0.0052316345685545235</v>
       </c>
       <c r="D155">
-        <v>-0.10355258403378077</v>
+        <v>-0.10355258403377994</v>
       </c>
       <c r="E155">
-        <v>-0.083044926506224373</v>
+        <v>-0.083044926506223873</v>
       </c>
     </row>
     <row r="156">
@@ -3200,16 +3200,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>-0.08412572301073902</v>
+        <v>-0.084125723010735357</v>
       </c>
       <c r="C156">
-        <v>0.0086547932775020153</v>
+        <v>0.0086547932775018488</v>
       </c>
       <c r="D156">
-        <v>-0.10108882834435996</v>
+        <v>-0.10108882834435598</v>
       </c>
       <c r="E156">
-        <v>-0.067162617677118078</v>
+        <v>-0.067162617677114733</v>
       </c>
     </row>
     <row r="157">
@@ -3217,16 +3217,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0.0251054788508982</v>
+        <v>0.025105478850898838</v>
       </c>
       <c r="C157">
-        <v>0.0064684389672375348</v>
+        <v>0.0064684389672375556</v>
       </c>
       <c r="D157">
-        <v>0.012427554835014848</v>
+        <v>0.012427554835015446</v>
       </c>
       <c r="E157">
-        <v>0.03778340286678155</v>
+        <v>0.03778340286678223</v>
       </c>
     </row>
     <row r="158">
@@ -3234,16 +3234,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>-0.11540147864260129</v>
+        <v>-0.11540147864260554</v>
       </c>
       <c r="C158">
-        <v>0.0064902794555746325</v>
+        <v>0.0064902794555746074</v>
       </c>
       <c r="D158">
-        <v>-0.12812227400700471</v>
+        <v>-0.1281222740070089</v>
       </c>
       <c r="E158">
-        <v>-0.10268068327819788</v>
+        <v>-0.10268068327820218</v>
       </c>
     </row>
     <row r="159">
@@ -3251,16 +3251,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>-0.082530276505072248</v>
+        <v>-0.082530276505078715</v>
       </c>
       <c r="C159">
-        <v>0.014975011866144137</v>
+        <v>0.014975011866143854</v>
       </c>
       <c r="D159">
-        <v>-0.11188094820305487</v>
+        <v>-0.11188094820306078</v>
       </c>
       <c r="E159">
-        <v>-0.053179604807089623</v>
+        <v>-0.053179604807096645</v>
       </c>
     </row>
     <row r="160">
@@ -3268,16 +3268,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0.0428155851412668</v>
+        <v>0.042815585141267015</v>
       </c>
       <c r="C160">
-        <v>0.010577891061798912</v>
+        <v>0.010577891061798888</v>
       </c>
       <c r="D160">
-        <v>0.022083166991148425</v>
+        <v>0.022083166991148689</v>
       </c>
       <c r="E160">
-        <v>0.063548003291385172</v>
+        <v>0.063548003291385338</v>
       </c>
     </row>
     <row r="161">
@@ -3285,16 +3285,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>-0.070159197922018843</v>
+        <v>-0.070159197922021216</v>
       </c>
       <c r="C161">
-        <v>0.0078250852147290269</v>
+        <v>0.0078250852147292715</v>
       </c>
       <c r="D161">
-        <v>-0.085496203157432005</v>
+        <v>-0.085496203157434864</v>
       </c>
       <c r="E161">
-        <v>-0.054822192686605681</v>
+        <v>-0.054822192686607568</v>
       </c>
     </row>
     <row r="162">
@@ -3302,16 +3302,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>-0.13357109414354879</v>
+        <v>-0.13357109414354942</v>
       </c>
       <c r="C162">
-        <v>0.017363830708986415</v>
+        <v>0.017363830708986113</v>
       </c>
       <c r="D162">
-        <v>-0.16760384333192607</v>
+        <v>-0.16760384333192613</v>
       </c>
       <c r="E162">
-        <v>-0.099538344955171484</v>
+        <v>-0.09953834495517272</v>
       </c>
     </row>
     <row r="163">
@@ -3319,16 +3319,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>0.075107596682770603</v>
+        <v>0.075107596682769479</v>
       </c>
       <c r="C163">
-        <v>0.011985000039214896</v>
+        <v>0.011985000039214955</v>
       </c>
       <c r="D163">
-        <v>0.051617244398571085</v>
+        <v>0.05161724439856985</v>
       </c>
       <c r="E163">
-        <v>0.09859794896697012</v>
+        <v>0.098597948966969107</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs.xlsx
+++ b/linreg/rifdid_coefs.xlsx
@@ -582,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.097464401122287464</v>
+        <v>-0.099024482175962061</v>
       </c>
       <c r="C2">
-        <v>0.0047164201965143289</v>
+        <v>0.0047411528653158704</v>
       </c>
       <c r="D2">
-        <v>-0.10670842530454434</v>
+        <v>-0.1083169817863962</v>
       </c>
       <c r="E2">
-        <v>-0.088220376940030584</v>
+        <v>-0.089731982565527918</v>
       </c>
     </row>
     <row r="3">
@@ -599,16 +599,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0056578454894339993</v>
+        <v>-0.0061791616450534107</v>
       </c>
       <c r="C3">
-        <v>0.0065966016823927644</v>
+        <v>0.0066829453975984672</v>
       </c>
       <c r="D3">
-        <v>-0.018586961838698582</v>
+        <v>-0.019277509086672771</v>
       </c>
       <c r="E3">
-        <v>0.0072712708598305842</v>
+        <v>0.0069191857965659499</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.11590278827696369</v>
+        <v>-0.11444442676114058</v>
       </c>
       <c r="C4">
-        <v>0.0070461324870135277</v>
+        <v>0.0070715518059683248</v>
       </c>
       <c r="D4">
-        <v>-0.12971296981029623</v>
+        <v>-0.12830442964838087</v>
       </c>
       <c r="E4">
-        <v>-0.10209260674363116</v>
+        <v>-0.10058442387390029</v>
       </c>
     </row>
     <row r="5">
@@ -633,16 +633,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.031155157047986673</v>
+        <v>-0.031695888374138788</v>
       </c>
       <c r="C5">
-        <v>0.0027774659485926994</v>
+        <v>0.0027908780104624873</v>
       </c>
       <c r="D5">
-        <v>-0.036598896372969696</v>
+        <v>-0.037165915016637116</v>
       </c>
       <c r="E5">
-        <v>-0.02571141772300365</v>
+        <v>-0.02622586173164046</v>
       </c>
     </row>
     <row r="6">
@@ -650,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.014602432614971799</v>
+        <v>0.012318934357276781</v>
       </c>
       <c r="C6">
-        <v>0.0051147795200176555</v>
+        <v>0.0051898057653627207</v>
       </c>
       <c r="D6">
-        <v>0.004577637738244043</v>
+        <v>0.0021470903356095063</v>
       </c>
       <c r="E6">
-        <v>0.024627227491699558</v>
+        <v>0.022490778378944056</v>
       </c>
     </row>
     <row r="7">
@@ -667,16 +667,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.078462762060212923</v>
+        <v>-0.078503751421946585</v>
       </c>
       <c r="C7">
-        <v>0.0043379883104164418</v>
+        <v>0.0043527526997383503</v>
       </c>
       <c r="D7">
-        <v>-0.086965072437301769</v>
+        <v>-0.087034999705288676</v>
       </c>
       <c r="E7">
-        <v>-0.069960451683124078</v>
+        <v>-0.069972503138604494</v>
       </c>
     </row>
     <row r="8">
@@ -684,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.10372393444062745</v>
+        <v>-0.10455222070698317</v>
       </c>
       <c r="C8">
-        <v>0.0056330476776655248</v>
+        <v>0.0056312140854811307</v>
       </c>
       <c r="D8">
-        <v>-0.11476452021948037</v>
+        <v>-0.11558921303358481</v>
       </c>
       <c r="E8">
-        <v>-0.092683348661774537</v>
+        <v>-0.093515228380381524</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.00053886194556146307</v>
+        <v>-0.00045445756617420178</v>
       </c>
       <c r="C9">
-        <v>0.0067390101467261487</v>
+        <v>0.0067936344426968642</v>
       </c>
       <c r="D9">
-        <v>-0.013747097317771999</v>
+        <v>-0.013769755133550476</v>
       </c>
       <c r="E9">
-        <v>0.012669373426649075</v>
+        <v>0.012860840001202073</v>
       </c>
     </row>
     <row r="10">
@@ -718,16 +718,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.086265248758532184</v>
+        <v>-0.085867469951554448</v>
       </c>
       <c r="C10">
-        <v>0.0076870491642685246</v>
+        <v>0.0076781275266597721</v>
       </c>
       <c r="D10">
-        <v>-0.10133160902046739</v>
+        <v>-0.10091634454733751</v>
       </c>
       <c r="E10">
-        <v>-0.071198888496596974</v>
+        <v>-0.070818595355771383</v>
       </c>
     </row>
     <row r="11">
@@ -735,16 +735,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.036122505134913371</v>
+        <v>-0.036318035399276825</v>
       </c>
       <c r="C11">
-        <v>0.0031748758867286564</v>
+        <v>0.0031910718072238227</v>
       </c>
       <c r="D11">
-        <v>-0.042345155677907677</v>
+        <v>-0.042572429575724595</v>
       </c>
       <c r="E11">
-        <v>-0.029899854591919066</v>
+        <v>-0.030063641222829052</v>
       </c>
     </row>
     <row r="12">
@@ -752,16 +752,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.017930200045443816</v>
+        <v>0.016648540444769072</v>
       </c>
       <c r="C12">
-        <v>0.0051265806894196467</v>
+        <v>0.0051921851250707725</v>
       </c>
       <c r="D12">
-        <v>0.0078822733708702412</v>
+        <v>0.0064720309924376999</v>
       </c>
       <c r="E12">
-        <v>0.027978126720017392</v>
+        <v>0.026825049897100446</v>
       </c>
     </row>
     <row r="13">
@@ -769,16 +769,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.066068778449609469</v>
+        <v>-0.066430211159686448</v>
       </c>
       <c r="C13">
-        <v>0.0045830061966044399</v>
+        <v>0.0045997326356777106</v>
       </c>
       <c r="D13">
-        <v>-0.075051317300043677</v>
+        <v>-0.075445533517733782</v>
       </c>
       <c r="E13">
-        <v>-0.057086239599175269</v>
+        <v>-0.057414888801639113</v>
       </c>
     </row>
     <row r="14">
@@ -786,16 +786,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.21793794935322214</v>
+        <v>-0.22067669361769202</v>
       </c>
       <c r="C14">
-        <v>0.0095995470310453693</v>
+        <v>0.0096431955066041564</v>
       </c>
       <c r="D14">
-        <v>-0.2367528361710784</v>
+        <v>-0.23957713346840318</v>
       </c>
       <c r="E14">
-        <v>-0.19912306253536588</v>
+        <v>-0.20177625376698086</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.034904049814595238</v>
+        <v>-0.037197198911645718</v>
       </c>
       <c r="C15">
-        <v>0.018807085756868368</v>
+        <v>0.01908412906031777</v>
       </c>
       <c r="D15">
-        <v>-0.07176549637502333</v>
+        <v>-0.074601649869911593</v>
       </c>
       <c r="E15">
-        <v>0.001957396745832847</v>
+        <v>0.00020725204662015717</v>
       </c>
     </row>
     <row r="16">
@@ -820,16 +820,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.063714627108222524</v>
+        <v>-0.064991432564926135</v>
       </c>
       <c r="C16">
-        <v>0.018957944579530595</v>
+        <v>0.019056468185997235</v>
       </c>
       <c r="D16">
-        <v>-0.10087175341944357</v>
+        <v>-0.10234166885016632</v>
       </c>
       <c r="E16">
-        <v>-0.026557500797001476</v>
+        <v>-0.027641196279685955</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.055731005675690025</v>
+        <v>-0.057179137833115179</v>
       </c>
       <c r="C17">
-        <v>0.008194147767899073</v>
+        <v>0.0082031782954033114</v>
       </c>
       <c r="D17">
-        <v>-0.071791365884862401</v>
+        <v>-0.073257200589021687</v>
       </c>
       <c r="E17">
-        <v>-0.039670645466517648</v>
+        <v>-0.041101075077208671</v>
       </c>
     </row>
     <row r="18">
@@ -854,16 +854,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.023934697202849759</v>
+        <v>0.021644943603863483</v>
       </c>
       <c r="C18">
-        <v>0.020254325493546336</v>
+        <v>0.020503548142889051</v>
       </c>
       <c r="D18">
-        <v>-0.015763362001613431</v>
+        <v>-0.018541594087856005</v>
       </c>
       <c r="E18">
-        <v>0.063632756407312946</v>
+        <v>0.061831481295582968</v>
       </c>
     </row>
     <row r="19">
@@ -871,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.09197268853995734</v>
+        <v>-0.091908996028110548</v>
       </c>
       <c r="C19">
-        <v>0.016362628575859264</v>
+        <v>0.016370324680191683</v>
       </c>
       <c r="D19">
-        <v>-0.12404310224749225</v>
+        <v>-0.12399449972735038</v>
       </c>
       <c r="E19">
-        <v>-0.059902274832422428</v>
+        <v>-0.059823492328870707</v>
       </c>
     </row>
     <row r="20">
@@ -888,16 +888,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.15189144411283786</v>
+        <v>-0.15303630922111874</v>
       </c>
       <c r="C20">
-        <v>0.0045922904917994117</v>
+        <v>0.0046024944906586061</v>
       </c>
       <c r="D20">
-        <v>-0.16089217826911928</v>
+        <v>-0.16205704309670135</v>
       </c>
       <c r="E20">
-        <v>-0.14289070995655645</v>
+        <v>-0.14401557534553613</v>
       </c>
     </row>
     <row r="21">
@@ -905,16 +905,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.018536542205197834</v>
+        <v>-0.02096055302258484</v>
       </c>
       <c r="C21">
-        <v>0.0065255551375712597</v>
+        <v>0.0066297851814736087</v>
       </c>
       <c r="D21">
-        <v>-0.031326409727803345</v>
+        <v>-0.033954708234663435</v>
       </c>
       <c r="E21">
-        <v>-0.0057466746825923249</v>
+        <v>-0.0079663978105062438</v>
       </c>
     </row>
     <row r="22">
@@ -922,16 +922,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.11582145936915891</v>
+        <v>-0.11627636684633143</v>
       </c>
       <c r="C22">
-        <v>0.006718047911165136</v>
+        <v>0.0067270793067385117</v>
       </c>
       <c r="D22">
-        <v>-0.12898860622224617</v>
+        <v>-0.12946121526042334</v>
       </c>
       <c r="E22">
-        <v>-0.10265431251607167</v>
+        <v>-0.10309151843223953</v>
       </c>
     </row>
     <row r="23">
@@ -939,16 +939,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.046717381656595461</v>
+        <v>-0.047806989887355496</v>
       </c>
       <c r="C23">
-        <v>0.0028167454695603605</v>
+        <v>0.002833804661930177</v>
       </c>
       <c r="D23">
-        <v>-0.052238107514236604</v>
+        <v>-0.05336115131694278</v>
       </c>
       <c r="E23">
-        <v>-0.041196655798954318</v>
+        <v>-0.042252828457768211</v>
       </c>
     </row>
     <row r="24">
@@ -956,16 +956,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0034584116232845514</v>
+        <v>-0.0035473466719014206</v>
       </c>
       <c r="C24">
-        <v>0.0050916624774513938</v>
+        <v>0.0051633400257737015</v>
       </c>
       <c r="D24">
-        <v>-0.013437897878403812</v>
+        <v>-0.013667318737817621</v>
       </c>
       <c r="E24">
-        <v>0.0065210746318347104</v>
+        <v>0.0065726253940147786</v>
       </c>
     </row>
     <row r="25">
@@ -973,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.093252739145535349</v>
+        <v>-0.093522775381915862</v>
       </c>
       <c r="C25">
-        <v>0.00421024827833046</v>
+        <v>0.004230119252296851</v>
       </c>
       <c r="D25">
-        <v>-0.10150468337992014</v>
+        <v>-0.10181366625004609</v>
       </c>
       <c r="E25">
-        <v>-0.085000794911150562</v>
+        <v>-0.085231884513785633</v>
       </c>
     </row>
     <row r="26">
@@ -990,16 +990,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.16138422137271122</v>
+        <v>-0.16172036466464862</v>
       </c>
       <c r="C26">
-        <v>0.0053216936791763928</v>
+        <v>0.0053399421066232479</v>
       </c>
       <c r="D26">
-        <v>-0.17181456368752643</v>
+        <v>-0.17218647359971004</v>
       </c>
       <c r="E26">
-        <v>-0.15095387905789601</v>
+        <v>-0.1512542557295872</v>
       </c>
     </row>
     <row r="27">
@@ -1007,16 +1007,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.0053036443585125197</v>
+        <v>-0.0043476479249002324</v>
       </c>
       <c r="C27">
-        <v>0.0065163525964821679</v>
+        <v>0.0065969658560436394</v>
       </c>
       <c r="D27">
-        <v>-0.018075478350254592</v>
+        <v>-0.017277481603171004</v>
       </c>
       <c r="E27">
-        <v>0.0074681896332295522</v>
+        <v>0.0085821857533705404</v>
       </c>
     </row>
     <row r="28">
@@ -1024,16 +1024,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.077952273634399313</v>
+        <v>-0.077982040334245051</v>
       </c>
       <c r="C28">
-        <v>0.0071932708640080004</v>
+        <v>0.00721067259068363</v>
       </c>
       <c r="D28">
-        <v>-0.092050844878432611</v>
+        <v>-0.092114718801967047</v>
       </c>
       <c r="E28">
-        <v>-0.063853702390366016</v>
+        <v>-0.063849361866523055</v>
       </c>
     </row>
     <row r="29">
@@ -1041,16 +1041,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.05544444325165724</v>
+        <v>-0.057808478816729611</v>
       </c>
       <c r="C29">
-        <v>0.0031563291042122307</v>
+        <v>0.0031755176318704862</v>
       </c>
       <c r="D29">
-        <v>-0.061630742721282328</v>
+        <v>-0.064032387328915891</v>
       </c>
       <c r="E29">
-        <v>-0.049258143782032152</v>
+        <v>-0.051584570304543338</v>
       </c>
     </row>
     <row r="30">
@@ -1058,16 +1058,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0024240933039574889</v>
+        <v>0.0027338247150451344</v>
       </c>
       <c r="C30">
-        <v>0.0050776058121811997</v>
+        <v>0.0051411272215430388</v>
       </c>
       <c r="D30">
-        <v>-0.0075278442493673442</v>
+        <v>-0.0073426129514484557</v>
       </c>
       <c r="E30">
-        <v>0.012376030857282321</v>
+        <v>0.012810262381538724</v>
       </c>
     </row>
     <row r="31">
@@ -1075,16 +1075,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.075627684242249013</v>
+        <v>-0.074556459188820479</v>
       </c>
       <c r="C31">
-        <v>0.0044160198464212345</v>
+        <v>0.0044342550340282739</v>
       </c>
       <c r="D31">
-        <v>-0.084282935431775369</v>
+        <v>-0.083247450973752579</v>
       </c>
       <c r="E31">
-        <v>-0.066972433052722657</v>
+        <v>-0.065865467403888378</v>
       </c>
     </row>
     <row r="32">
@@ -1092,16 +1092,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.17647299717055526</v>
+        <v>-0.17696695958858022</v>
       </c>
       <c r="C32">
-        <v>0.0065354713109746177</v>
+        <v>0.0065438104776869488</v>
       </c>
       <c r="D32">
-        <v>-0.18928236751059968</v>
+        <v>-0.18979267656624313</v>
       </c>
       <c r="E32">
-        <v>-0.16366362683051083</v>
+        <v>-0.16414124261091731</v>
       </c>
     </row>
     <row r="33">
@@ -1109,16 +1109,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.043925165953788953</v>
+        <v>-0.047996265293539134</v>
       </c>
       <c r="C33">
-        <v>0.014198734369485563</v>
+        <v>0.014404909844589305</v>
       </c>
       <c r="D33">
-        <v>-0.071754351982536893</v>
+        <v>-0.076229554962520762</v>
       </c>
       <c r="E33">
-        <v>-0.016095979925041009</v>
+        <v>-0.019762975624557498</v>
       </c>
     </row>
     <row r="34">
@@ -1126,16 +1126,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.060598094666297161</v>
+        <v>-0.060078470691476885</v>
       </c>
       <c r="C34">
-        <v>0.012684182232458093</v>
+        <v>0.012689900621479171</v>
       </c>
       <c r="D34">
-        <v>-0.085458794062732518</v>
+        <v>-0.084950382003812233</v>
       </c>
       <c r="E34">
-        <v>-0.035737395269861805</v>
+        <v>-0.035206559379141536</v>
       </c>
     </row>
     <row r="35">
@@ -1143,16 +1143,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.046252153402626131</v>
+        <v>-0.04803686851145661</v>
       </c>
       <c r="C35">
-        <v>0.0060791090910994874</v>
+        <v>0.006108774609192652</v>
       </c>
       <c r="D35">
-        <v>-0.058167081534187599</v>
+        <v>-0.06000994260437547</v>
       </c>
       <c r="E35">
-        <v>-0.034337225271064663</v>
+        <v>-0.036063794418537749</v>
       </c>
     </row>
     <row r="36">
@@ -1160,16 +1160,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.005633719690483565</v>
+        <v>0.0039128979231163354</v>
       </c>
       <c r="C36">
-        <v>0.015932426772457344</v>
+        <v>0.016152318078827412</v>
       </c>
       <c r="D36">
-        <v>-0.025593507376905873</v>
+        <v>-0.027745317267729056</v>
       </c>
       <c r="E36">
-        <v>0.036860946757873006</v>
+        <v>0.03557111311396173</v>
       </c>
     </row>
     <row r="37">
@@ -1177,16 +1177,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.083611813585318578</v>
+        <v>-0.081249575832546425</v>
       </c>
       <c r="C37">
-        <v>0.011698069247766988</v>
+        <v>0.011740519116307442</v>
       </c>
       <c r="D37">
-        <v>-0.10653978745064099</v>
+        <v>-0.10426075471240648</v>
       </c>
       <c r="E37">
-        <v>-0.060683839719996156</v>
+        <v>-0.058238396952686379</v>
       </c>
     </row>
     <row r="38">
@@ -1194,16 +1194,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.16892853557508</v>
+        <v>-0.16981806875918373</v>
       </c>
       <c r="C38">
-        <v>0.0040344313131793763</v>
+        <v>0.0040476680723036873</v>
       </c>
       <c r="D38">
-        <v>-0.17683588459547622</v>
+        <v>-0.17775136157920818</v>
       </c>
       <c r="E38">
-        <v>-0.16102118655468378</v>
+        <v>-0.16188477593915929</v>
       </c>
     </row>
     <row r="39">
@@ -1211,16 +1211,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.027968743469198403</v>
+        <v>-0.028439161374978737</v>
       </c>
       <c r="C39">
-        <v>0.005948754369925491</v>
+        <v>0.0060271003055146601</v>
       </c>
       <c r="D39">
-        <v>-0.039628100981605414</v>
+        <v>-0.040252074569734196</v>
       </c>
       <c r="E39">
-        <v>-0.016309385956791392</v>
+        <v>-0.016626248180223277</v>
       </c>
     </row>
     <row r="40">
@@ -1228,16 +1228,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.087828573633573478</v>
+        <v>-0.087908154331181099</v>
       </c>
       <c r="C40">
-        <v>0.0057553798795320849</v>
+        <v>0.005768575246077874</v>
       </c>
       <c r="D40">
-        <v>-0.099108923680371441</v>
+        <v>-0.09921436713420731</v>
       </c>
       <c r="E40">
-        <v>-0.076548223586775516</v>
+        <v>-0.076601941528154888</v>
       </c>
     </row>
     <row r="41">
@@ -1245,16 +1245,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.062659050500816854</v>
+        <v>-0.06302715905556136</v>
       </c>
       <c r="C41">
-        <v>0.0029127658436633916</v>
+        <v>0.0029251483003556755</v>
       </c>
       <c r="D41">
-        <v>-0.068367973044278427</v>
+        <v>-0.068760350931458769</v>
       </c>
       <c r="E41">
-        <v>-0.056950127957355282</v>
+        <v>-0.057293967179663952</v>
       </c>
     </row>
     <row r="42">
@@ -1262,16 +1262,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0014417191854327017</v>
+        <v>-0.0011646886522908466</v>
       </c>
       <c r="C42">
-        <v>0.0052142785293563315</v>
+        <v>0.0052814886277797587</v>
       </c>
       <c r="D42">
-        <v>-0.01166152875539486</v>
+        <v>-0.011516227987834847</v>
       </c>
       <c r="E42">
-        <v>0.0087780903845294574</v>
+        <v>0.0091868506832531536</v>
       </c>
     </row>
     <row r="43">
@@ -1279,16 +1279,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.086932951332552744</v>
+        <v>-0.087401567988894951</v>
       </c>
       <c r="C43">
-        <v>0.0042029447660548343</v>
+        <v>0.0042157298340472077</v>
       </c>
       <c r="D43">
-        <v>-0.095170580929883036</v>
+        <v>-0.095664256083238391</v>
       </c>
       <c r="E43">
-        <v>-0.078695321735222451</v>
+        <v>-0.079138879894551512</v>
       </c>
     </row>
     <row r="44">
@@ -1296,16 +1296,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.18250475614195205</v>
+        <v>-0.18275079554108009</v>
       </c>
       <c r="C44">
-        <v>0.0047709045476295488</v>
+        <v>0.0047711668345929445</v>
       </c>
       <c r="D44">
-        <v>-0.19185557010890444</v>
+        <v>-0.19210212385909045</v>
       </c>
       <c r="E44">
-        <v>-0.17315394217499966</v>
+        <v>-0.17339946722306973</v>
       </c>
     </row>
     <row r="45">
@@ -1313,16 +1313,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.0084503315535157403</v>
+        <v>-0.0084180956477924989</v>
       </c>
       <c r="C45">
-        <v>0.0061873988611498738</v>
+        <v>0.0062498905765038847</v>
       </c>
       <c r="D45">
-        <v>-0.020577427183356464</v>
+        <v>-0.020667673321073169</v>
       </c>
       <c r="E45">
-        <v>0.0036767640763249818</v>
+        <v>0.0038314820254881712</v>
       </c>
     </row>
     <row r="46">
@@ -1330,16 +1330,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.062048066975732612</v>
+        <v>-0.061485035568438928</v>
       </c>
       <c r="C46">
-        <v>0.0063829091868397017</v>
+        <v>0.0063764057983259938</v>
       </c>
       <c r="D46">
-        <v>-0.07455835633034659</v>
+        <v>-0.07398257886889209</v>
       </c>
       <c r="E46">
-        <v>-0.049537777621118634</v>
+        <v>-0.048987492267985766</v>
       </c>
     </row>
     <row r="47">
@@ -1347,16 +1347,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.078568813516413191</v>
+        <v>-0.080027209254072515</v>
       </c>
       <c r="C47">
-        <v>0.0032854524024629956</v>
+        <v>0.0032990992512006941</v>
       </c>
       <c r="D47">
-        <v>-0.085008190331622727</v>
+        <v>-0.086493333613142931</v>
       </c>
       <c r="E47">
-        <v>-0.072129436701203656</v>
+        <v>-0.073561084895002099</v>
       </c>
     </row>
     <row r="48">
@@ -1364,16 +1364,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.00027269526649802378</v>
+        <v>0.00023857623481842144</v>
       </c>
       <c r="C48">
-        <v>0.0052580906070532176</v>
+        <v>0.00533259167571235</v>
       </c>
       <c r="D48">
-        <v>-0.010032986447821335</v>
+        <v>-0.010213125367899497</v>
       </c>
       <c r="E48">
-        <v>0.010578376980817381</v>
+        <v>0.010690277837536339</v>
       </c>
     </row>
     <row r="49">
@@ -1381,16 +1381,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.069518524702940857</v>
+        <v>-0.068228579789765403</v>
       </c>
       <c r="C49">
-        <v>0.0044814480265952892</v>
+        <v>0.0044949215239029373</v>
       </c>
       <c r="D49">
-        <v>-0.078302012937130613</v>
+        <v>-0.077038475868896922</v>
       </c>
       <c r="E49">
-        <v>-0.060735036468751093</v>
+        <v>-0.059418683710633885</v>
       </c>
     </row>
     <row r="50">
@@ -1398,16 +1398,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.1540900683322885</v>
+        <v>-0.15447999292797202</v>
       </c>
       <c r="C50">
-        <v>0.0055054226019856508</v>
+        <v>0.0055175840985079282</v>
       </c>
       <c r="D50">
-        <v>-0.1648805673845701</v>
+        <v>-0.16529432997046689</v>
       </c>
       <c r="E50">
-        <v>-0.14329956928000689</v>
+        <v>-0.14366565588547714</v>
       </c>
     </row>
     <row r="51">
@@ -1415,16 +1415,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.046967359615528712</v>
+        <v>-0.048901464736917755</v>
       </c>
       <c r="C51">
-        <v>0.012371137196179448</v>
+        <v>0.01254506464328836</v>
       </c>
       <c r="D51">
-        <v>-0.071214498090034495</v>
+        <v>-0.073489500886487855</v>
       </c>
       <c r="E51">
-        <v>-0.022720221141022921</v>
+        <v>-0.024313428587347655</v>
       </c>
     </row>
     <row r="52">
@@ -1432,16 +1432,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.038767680181503276</v>
+        <v>-0.038331592583394379</v>
       </c>
       <c r="C52">
-        <v>0.010407272092574978</v>
+        <v>0.010421689771356671</v>
       </c>
       <c r="D52">
-        <v>-0.059165689157465229</v>
+        <v>-0.058757863162623047</v>
       </c>
       <c r="E52">
-        <v>-0.018369671205541328</v>
+        <v>-0.017905322004165714</v>
       </c>
     </row>
     <row r="53">
@@ -1449,16 +1449,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.047403832827667559</v>
+        <v>-0.047592601837013741</v>
       </c>
       <c r="C53">
-        <v>0.0055064572313328845</v>
+        <v>0.0055122432087714637</v>
       </c>
       <c r="D53">
-        <v>-0.058196375153796796</v>
+        <v>-0.058396486507679639</v>
       </c>
       <c r="E53">
-        <v>-0.036611290501538322</v>
+        <v>-0.036788717166347844</v>
       </c>
     </row>
     <row r="54">
@@ -1466,16 +1466,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.015073418754080208</v>
+        <v>-0.015733959856282748</v>
       </c>
       <c r="C54">
-        <v>0.014740268974442961</v>
+        <v>0.014903850641452497</v>
       </c>
       <c r="D54">
-        <v>-0.04396404118550104</v>
+        <v>-0.044945204240938591</v>
       </c>
       <c r="E54">
-        <v>0.013817203677340623</v>
+        <v>0.013477284528373091</v>
       </c>
     </row>
     <row r="55">
@@ -1483,16 +1483,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.05302666632747309</v>
+        <v>-0.051930884001828277</v>
       </c>
       <c r="C55">
-        <v>0.010407923284904076</v>
+        <v>0.010415908098545</v>
       </c>
       <c r="D55">
-        <v>-0.073425980779651873</v>
+        <v>-0.072345852205311381</v>
       </c>
       <c r="E55">
-        <v>-0.032627351875294308</v>
+        <v>-0.031515915798345173</v>
       </c>
     </row>
     <row r="56">
@@ -1500,16 +1500,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.16984529737892581</v>
+        <v>-0.17079937089662234</v>
       </c>
       <c r="C56">
-        <v>0.0036618642533738179</v>
+        <v>0.0036684201001737286</v>
       </c>
       <c r="D56">
-        <v>-0.17702242755391462</v>
+        <v>-0.17798935049022527</v>
       </c>
       <c r="E56">
-        <v>-0.16266816720393701</v>
+        <v>-0.16360939130301941</v>
       </c>
     </row>
     <row r="57">
@@ -1517,16 +1517,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.041042283135823199</v>
+        <v>-0.042169340888830058</v>
       </c>
       <c r="C57">
-        <v>0.005616482418811246</v>
+        <v>0.0056850723452225157</v>
       </c>
       <c r="D57">
-        <v>-0.052050398853986393</v>
+        <v>-0.05331189082425606</v>
       </c>
       <c r="E57">
-        <v>-0.030034167417660004</v>
+        <v>-0.031026790953404056</v>
       </c>
     </row>
     <row r="58">
@@ -1534,16 +1534,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.047403749537439879</v>
+        <v>-0.046124637073411169</v>
       </c>
       <c r="C58">
-        <v>0.0050933223052788438</v>
+        <v>0.0050979378770060159</v>
       </c>
       <c r="D58">
-        <v>-0.057386489114550188</v>
+        <v>-0.056116423265890281</v>
       </c>
       <c r="E58">
-        <v>-0.037421009960329571</v>
+        <v>-0.036132850880932058</v>
       </c>
     </row>
     <row r="59">
@@ -1551,16 +1551,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.072034393370597541</v>
+        <v>-0.072744506074702148</v>
       </c>
       <c r="C59">
-        <v>0.0028207215861315864</v>
+        <v>0.0028247152350817295</v>
       </c>
       <c r="D59">
-        <v>-0.077562912282245502</v>
+        <v>-0.07828085253464917</v>
       </c>
       <c r="E59">
-        <v>-0.066505874458949579</v>
+        <v>-0.067208159614755125</v>
       </c>
     </row>
     <row r="60">
@@ -1568,16 +1568,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.010920054360330507</v>
+        <v>-0.010592204616967478</v>
       </c>
       <c r="C60">
-        <v>0.0050710121407679613</v>
+        <v>0.0051274379916718292</v>
       </c>
       <c r="D60">
-        <v>-0.020859066653947309</v>
+        <v>-0.020641809908585083</v>
       </c>
       <c r="E60">
-        <v>-0.00098104206671370715</v>
+        <v>-0.00054259932534987329</v>
       </c>
     </row>
     <row r="61">
@@ -1585,16 +1585,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.070044560373680551</v>
+        <v>-0.069395089098443732</v>
       </c>
       <c r="C61">
-        <v>0.0039769903389954044</v>
+        <v>0.0039786180189079652</v>
       </c>
       <c r="D61">
-        <v>-0.077839326935782382</v>
+        <v>-0.07719304604323475</v>
       </c>
       <c r="E61">
-        <v>-0.062249793811578712</v>
+        <v>-0.061597132153652714</v>
       </c>
     </row>
     <row r="62">
@@ -1602,16 +1602,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.18700037302294781</v>
+        <v>-0.18765995858883106</v>
       </c>
       <c r="C62">
-        <v>0.0043903812058258343</v>
+        <v>0.004403706019516034</v>
       </c>
       <c r="D62">
-        <v>-0.19560537391739646</v>
+        <v>-0.19629107593017348</v>
       </c>
       <c r="E62">
-        <v>-0.17839537212849915</v>
+        <v>-0.17902884124748863</v>
       </c>
     </row>
     <row r="63">
@@ -1619,16 +1619,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.025503480936861691</v>
+        <v>-0.025914246499527085</v>
       </c>
       <c r="C63">
-        <v>0.0060169957569033098</v>
+        <v>0.0060961798559134479</v>
       </c>
       <c r="D63">
-        <v>-0.037296592159491312</v>
+        <v>-0.037862556272507689</v>
       </c>
       <c r="E63">
-        <v>-0.013710369714232073</v>
+        <v>-0.013965936726546481</v>
       </c>
     </row>
     <row r="64">
@@ -1636,16 +1636,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.032256122516694456</v>
+        <v>-0.031334837976003414</v>
       </c>
       <c r="C64">
-        <v>0.0057984864412831075</v>
+        <v>0.0058080930552055826</v>
       </c>
       <c r="D64">
-        <v>-0.043620962760516545</v>
+        <v>-0.042718507200686297</v>
       </c>
       <c r="E64">
-        <v>-0.020891282272872368</v>
+        <v>-0.019951168751320532</v>
       </c>
     </row>
     <row r="65">
@@ -1653,16 +1653,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.095310901832796585</v>
+        <v>-0.095912155175779751</v>
       </c>
       <c r="C65">
-        <v>0.0032450143347969029</v>
+        <v>0.0032521515968411655</v>
       </c>
       <c r="D65">
-        <v>-0.10167102138797529</v>
+        <v>-0.10228626370012046</v>
       </c>
       <c r="E65">
-        <v>-0.088950782277617879</v>
+        <v>-0.089538046651439038</v>
       </c>
     </row>
     <row r="66">
@@ -1670,16 +1670,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0032849139735810825</v>
+        <v>-0.0048298092872437071</v>
       </c>
       <c r="C66">
-        <v>0.0052515324388208891</v>
+        <v>0.0053206174487109943</v>
       </c>
       <c r="D66">
-        <v>-0.013577741897526292</v>
+        <v>-0.015258041804917782</v>
       </c>
       <c r="E66">
-        <v>0.007007913950364127</v>
+        <v>0.0055984232304303674</v>
       </c>
     </row>
     <row r="67">
@@ -1687,16 +1687,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.048212500962544938</v>
+        <v>-0.048138709094563185</v>
       </c>
       <c r="C67">
-        <v>0.0043556227242508485</v>
+        <v>0.0043612426023068073</v>
       </c>
       <c r="D67">
-        <v>-0.056749375812813474</v>
+        <v>-0.056686598951568343</v>
       </c>
       <c r="E67">
-        <v>-0.039675626112276402</v>
+        <v>-0.039590819237558028</v>
       </c>
     </row>
     <row r="68">
@@ -1704,16 +1704,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.13387785084215012</v>
+        <v>-0.13411082058311358</v>
       </c>
       <c r="C68">
-        <v>0.0049186565356400735</v>
+        <v>0.0049228836316698556</v>
       </c>
       <c r="D68">
-        <v>-0.14351830217956069</v>
+        <v>-0.14375955848422789</v>
       </c>
       <c r="E68">
-        <v>-0.12423739950473955</v>
+        <v>-0.12446208268199928</v>
       </c>
     </row>
     <row r="69">
@@ -1721,16 +1721,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.046719681680246046</v>
+        <v>-0.048905856049906909</v>
       </c>
       <c r="C69">
-        <v>0.01126661585984695</v>
+        <v>0.011409961008375538</v>
       </c>
       <c r="D69">
-        <v>-0.068801984265746324</v>
+        <v>-0.071269115364733737</v>
       </c>
       <c r="E69">
-        <v>-0.024637379094745764</v>
+        <v>-0.026542596735080089</v>
       </c>
     </row>
     <row r="70">
@@ -1738,16 +1738,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03037028968291142</v>
+        <v>-0.029425342987244217</v>
       </c>
       <c r="C70">
-        <v>0.0090550467191764603</v>
+        <v>0.0090540182963139981</v>
       </c>
       <c r="D70">
-        <v>-0.048117968672422337</v>
+        <v>-0.04717100915148676</v>
       </c>
       <c r="E70">
-        <v>-0.012622610693400503</v>
+        <v>-0.011679676823001674</v>
       </c>
     </row>
     <row r="71">
@@ -1755,16 +1755,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.04689569528581073</v>
+        <v>-0.047595013444972273</v>
       </c>
       <c r="C71">
-        <v>0.0050075186225839894</v>
+        <v>0.0050126626361265986</v>
       </c>
       <c r="D71">
-        <v>-0.056710328254463843</v>
+        <v>-0.057419730345614595</v>
       </c>
       <c r="E71">
-        <v>-0.037081062317157618</v>
+        <v>-0.037770296544329951</v>
       </c>
     </row>
     <row r="72">
@@ -1772,16 +1772,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.047338143886766312</v>
+        <v>-0.046356518913204824</v>
       </c>
       <c r="C72">
-        <v>0.013468500755953216</v>
+        <v>0.013612849702266082</v>
       </c>
       <c r="D72">
-        <v>-0.073736126904050778</v>
+        <v>-0.073037427692476523</v>
       </c>
       <c r="E72">
-        <v>-0.020940160869481843</v>
+        <v>-0.019675610133933128</v>
       </c>
     </row>
     <row r="73">
@@ -1789,16 +1789,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.021536995637974985</v>
+        <v>-0.02034980957595128</v>
       </c>
       <c r="C73">
-        <v>0.0094992381084423785</v>
+        <v>0.0095026210763582628</v>
       </c>
       <c r="D73">
-        <v>-0.04015530593156609</v>
+        <v>-0.038974753775555107</v>
       </c>
       <c r="E73">
-        <v>-0.0029186853443838798</v>
+        <v>-0.0017248653763474488</v>
       </c>
     </row>
     <row r="74">
@@ -1806,16 +1806,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.16132455495823064</v>
+        <v>-0.16180898085004211</v>
       </c>
       <c r="C74">
-        <v>0.0034825248211786623</v>
+        <v>0.003488896495404794</v>
       </c>
       <c r="D74">
-        <v>-0.16815018590732997</v>
+        <v>-0.16864710023690438</v>
       </c>
       <c r="E74">
-        <v>-0.15449892400913132</v>
+        <v>-0.15497086146317984</v>
       </c>
     </row>
     <row r="75">
@@ -1823,16 +1823,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04865104673460826</v>
+        <v>-0.048198856788326999</v>
       </c>
       <c r="C75">
-        <v>0.0054513335657892818</v>
+        <v>0.0055187407327957124</v>
       </c>
       <c r="D75">
-        <v>-0.059335476282456251</v>
+        <v>-0.059015402376796353</v>
       </c>
       <c r="E75">
-        <v>-0.037966617186760268</v>
+        <v>-0.037382311199857646</v>
       </c>
     </row>
     <row r="76">
@@ -1840,16 +1840,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.020900014724883162</v>
+        <v>-0.019816215559537057</v>
       </c>
       <c r="C76">
-        <v>0.004724426960116955</v>
+        <v>0.0047287370653043776</v>
       </c>
       <c r="D76">
-        <v>-0.030159731893193098</v>
+        <v>-0.02908438062096013</v>
       </c>
       <c r="E76">
-        <v>-0.011640297556573224</v>
+        <v>-0.010548050498113986</v>
       </c>
     </row>
     <row r="77">
@@ -1857,16 +1857,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.076284748435590424</v>
+        <v>-0.076595423173271379</v>
       </c>
       <c r="C77">
-        <v>0.002874181067317023</v>
+        <v>0.0028763696049252272</v>
       </c>
       <c r="D77">
-        <v>-0.081918046122355259</v>
+        <v>-0.082233010453557437</v>
       </c>
       <c r="E77">
-        <v>-0.070651450748825589</v>
+        <v>-0.070957835892985321</v>
       </c>
     </row>
     <row r="78">
@@ -1874,16 +1874,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.027656639201852875</v>
+        <v>-0.028183604957812466</v>
       </c>
       <c r="C78">
-        <v>0.0051339522989188582</v>
+        <v>0.0051876433645230693</v>
       </c>
       <c r="D78">
-        <v>-0.037719012076801117</v>
+        <v>-0.038351210746866093</v>
       </c>
       <c r="E78">
-        <v>-0.017594266326904633</v>
+        <v>-0.018015999168758838</v>
       </c>
     </row>
     <row r="79">
@@ -1891,16 +1891,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.056593316699200334</v>
+        <v>-0.056020348128513198</v>
       </c>
       <c r="C79">
-        <v>0.003967687404403464</v>
+        <v>0.003967103528189209</v>
       </c>
       <c r="D79">
-        <v>-0.064369849824128425</v>
+        <v>-0.063795737060381302</v>
       </c>
       <c r="E79">
-        <v>-0.048816783574272243</v>
+        <v>-0.048244959196645093</v>
       </c>
     </row>
     <row r="80">
@@ -1908,16 +1908,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.18642596144960943</v>
+        <v>-0.18660373534044244</v>
       </c>
       <c r="C80">
-        <v>0.0042484230904590824</v>
+        <v>0.0042582897860814466</v>
       </c>
       <c r="D80">
-        <v>-0.19475272916738445</v>
+        <v>-0.19494984170045512</v>
       </c>
       <c r="E80">
-        <v>-0.17809919373183442</v>
+        <v>-0.17825762898042977</v>
       </c>
     </row>
     <row r="81">
@@ -1925,16 +1925,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.029912055224091315</v>
+        <v>-0.029767673674232737</v>
       </c>
       <c r="C81">
-        <v>0.0061136704105075757</v>
+        <v>0.0061885939590365291</v>
       </c>
       <c r="D81">
-        <v>-0.041894645546993903</v>
+        <v>-0.04189711201585878</v>
       </c>
       <c r="E81">
-        <v>-0.01792946490118873</v>
+        <v>-0.017638235332606694</v>
       </c>
     </row>
     <row r="82">
@@ -1942,16 +1942,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0090248630092483479</v>
+        <v>-0.0081419122786982271</v>
       </c>
       <c r="C82">
-        <v>0.0055420351937933727</v>
+        <v>0.0055476327080641926</v>
       </c>
       <c r="D82">
-        <v>-0.019887067351863644</v>
+        <v>-0.019015087885282781</v>
       </c>
       <c r="E82">
-        <v>0.0018373413333669462</v>
+        <v>0.0027312633278863269</v>
       </c>
     </row>
     <row r="83">
@@ -1959,16 +1959,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.10523665291054415</v>
+        <v>-0.10556223094679273</v>
       </c>
       <c r="C83">
-        <v>0.0033222608675551367</v>
+        <v>0.0033335368651851134</v>
       </c>
       <c r="D83">
-        <v>-0.11174817308614451</v>
+        <v>-0.11209585187922992</v>
       </c>
       <c r="E83">
-        <v>-0.098725132734943793</v>
+        <v>-0.099028610014355548</v>
       </c>
     </row>
     <row r="84">
@@ -1976,16 +1976,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.019095549441646067</v>
+        <v>-0.019170470089015335</v>
       </c>
       <c r="C84">
-        <v>0.0054597057405837632</v>
+        <v>0.0055289658491680625</v>
       </c>
       <c r="D84">
-        <v>-0.029796390073951483</v>
+        <v>-0.030007058513799055</v>
       </c>
       <c r="E84">
-        <v>-0.0083947088093406508</v>
+        <v>-0.0083338816642316155</v>
       </c>
     </row>
     <row r="85">
@@ -1993,16 +1993,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03842455658652974</v>
+        <v>-0.037615077626993849</v>
       </c>
       <c r="C85">
-        <v>0.0044117204117669574</v>
+        <v>0.0044209761947969529</v>
       </c>
       <c r="D85">
-        <v>-0.04707138102794356</v>
+        <v>-0.046280043330478839</v>
       </c>
       <c r="E85">
-        <v>-0.02977773214511592</v>
+        <v>-0.02895011192350886</v>
       </c>
     </row>
     <row r="86">
@@ -2010,16 +2010,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.11787290418497069</v>
+        <v>-0.11794566445480699</v>
       </c>
       <c r="C86">
-        <v>0.0043647094039408491</v>
+        <v>0.0043736586045873558</v>
       </c>
       <c r="D86">
-        <v>-0.12642763214894601</v>
+        <v>-0.12651793402322298</v>
       </c>
       <c r="E86">
-        <v>-0.10931817622099538</v>
+        <v>-0.109373394886391</v>
       </c>
     </row>
     <row r="87">
@@ -2027,16 +2027,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.059952633936658686</v>
+        <v>-0.060869734675885363</v>
       </c>
       <c r="C87">
-        <v>0.010093456089698433</v>
+        <v>0.01022142856134773</v>
       </c>
       <c r="D87">
-        <v>-0.07973557091425873</v>
+        <v>-0.080903497921667095</v>
       </c>
       <c r="E87">
-        <v>-0.04016969695905865</v>
+        <v>-0.040835971430103632</v>
       </c>
     </row>
     <row r="88">
@@ -2044,16 +2044,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.014078076745719587</v>
+        <v>-0.013783371232035995</v>
       </c>
       <c r="C88">
-        <v>0.0078721743345668924</v>
+        <v>0.0078825141644976587</v>
       </c>
       <c r="D88">
-        <v>-0.029507353631004013</v>
+        <v>-0.029232916430661861</v>
       </c>
       <c r="E88">
-        <v>0.0013512001395648374</v>
+        <v>0.0016661739665898706</v>
       </c>
     </row>
     <row r="89">
@@ -2061,16 +2061,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.050234894485538868</v>
+        <v>-0.050320246593257296</v>
       </c>
       <c r="C89">
-        <v>0.0048095076353764331</v>
+        <v>0.0048158757256847283</v>
       </c>
       <c r="D89">
-        <v>-0.059661430013188362</v>
+        <v>-0.05975926514849144</v>
       </c>
       <c r="E89">
-        <v>-0.040808358957889375</v>
+        <v>-0.040881228038023153</v>
       </c>
     </row>
     <row r="90">
@@ -2078,16 +2078,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.071839226799532446</v>
+        <v>-0.07267977630132938</v>
       </c>
       <c r="C90">
-        <v>0.012740333458071587</v>
+        <v>0.012879516198559093</v>
       </c>
       <c r="D90">
-        <v>-0.09681001696799707</v>
+        <v>-0.097923366315968513</v>
       </c>
       <c r="E90">
-        <v>-0.046868436631067829</v>
+        <v>-0.047436186286690246</v>
       </c>
     </row>
     <row r="91">
@@ -2095,16 +2095,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0066441295074749314</v>
+        <v>0.007309382374844864</v>
       </c>
       <c r="C91">
-        <v>0.009111371032255948</v>
+        <v>0.0091165736348784582</v>
       </c>
       <c r="D91">
-        <v>-0.011213969336032727</v>
+        <v>-0.01055891668462499</v>
       </c>
       <c r="E91">
-        <v>0.024502228350982591</v>
+        <v>0.025177681434314717</v>
       </c>
     </row>
     <row r="92">
@@ -2112,16 +2112,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.15303979342958687</v>
+        <v>-0.15320443932296227</v>
       </c>
       <c r="C92">
-        <v>0.0033607080662542443</v>
+        <v>0.0033648322412702506</v>
       </c>
       <c r="D92">
-        <v>-0.15962666765612837</v>
+        <v>-0.1597993969586716</v>
       </c>
       <c r="E92">
-        <v>-0.14645291920304537</v>
+        <v>-0.14660948168725293</v>
       </c>
     </row>
     <row r="93">
@@ -2129,16 +2129,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.054899127714996387</v>
+        <v>-0.055357192554991205</v>
       </c>
       <c r="C93">
-        <v>0.0053199625082070391</v>
+        <v>0.005380139810736503</v>
       </c>
       <c r="D93">
-        <v>-0.06532607442998814</v>
+        <v>-0.065902085013762282</v>
       </c>
       <c r="E93">
-        <v>-0.044472181000004642</v>
+        <v>-0.044812300096220128</v>
       </c>
     </row>
     <row r="94">
@@ -2146,16 +2146,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.0038543815264763946</v>
+        <v>0.0048658929873625521</v>
       </c>
       <c r="C94">
-        <v>0.0044541030007478801</v>
+        <v>0.0044540991080393201</v>
       </c>
       <c r="D94">
-        <v>-0.0048755098177269574</v>
+        <v>-0.0038639909463698717</v>
       </c>
       <c r="E94">
-        <v>0.012584272870679746</v>
+        <v>0.013595776921094975</v>
       </c>
     </row>
     <row r="95">
@@ -2163,16 +2163,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.078162960113852972</v>
+        <v>-0.077703811377987805</v>
       </c>
       <c r="C95">
-        <v>0.0029519971394015017</v>
+        <v>0.0029515501293826268</v>
       </c>
       <c r="D95">
-        <v>-0.083948774670153728</v>
+        <v>-0.083488749947093127</v>
       </c>
       <c r="E95">
-        <v>-0.072377145557552217</v>
+        <v>-0.071918872808882484</v>
       </c>
     </row>
     <row r="96">
@@ -2180,16 +2180,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.041691219687176026</v>
+        <v>-0.042253573512919862</v>
       </c>
       <c r="C96">
-        <v>0.0052365874965159933</v>
+        <v>0.0052864067961032064</v>
       </c>
       <c r="D96">
-        <v>-0.051954754078278959</v>
+        <v>-0.052614752292273553</v>
       </c>
       <c r="E96">
-        <v>-0.031427685296073093</v>
+        <v>-0.031892394733566171</v>
       </c>
     </row>
     <row r="97">
@@ -2197,16 +2197,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.038160711825125176</v>
+        <v>-0.037968034862302595</v>
       </c>
       <c r="C97">
-        <v>0.0039967230668183102</v>
+        <v>0.0039922216369852126</v>
       </c>
       <c r="D97">
-        <v>-0.045994153866396492</v>
+        <v>-0.045792654439081808</v>
       </c>
       <c r="E97">
-        <v>-0.030327269783853857</v>
+        <v>-0.030143415285523383</v>
       </c>
     </row>
     <row r="98">
@@ -2214,16 +2214,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.18216586685960634</v>
+        <v>-0.18184754101620818</v>
       </c>
       <c r="C98">
-        <v>0.0042320708627099505</v>
+        <v>0.0042395496130313414</v>
       </c>
       <c r="D98">
-        <v>-0.19046058475578029</v>
+        <v>-0.19015691726029674</v>
       </c>
       <c r="E98">
-        <v>-0.17387114896343239</v>
+        <v>-0.17353816477211961</v>
       </c>
     </row>
     <row r="99">
@@ -2231,16 +2231,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.035737588267793649</v>
+        <v>-0.036070009631690561</v>
       </c>
       <c r="C99">
-        <v>0.0062462736763870853</v>
+        <v>0.0063137667285114588</v>
       </c>
       <c r="D99">
-        <v>-0.047980076574038973</v>
+        <v>-0.048444782438535436</v>
       </c>
       <c r="E99">
-        <v>-0.023495099961548326</v>
+        <v>-0.023695236824845686</v>
       </c>
     </row>
     <row r="100">
@@ -2248,16 +2248,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.019076892869719329</v>
+        <v>0.020004581559113901</v>
       </c>
       <c r="C100">
-        <v>0.005439291276523788</v>
+        <v>0.0054423428562782325</v>
       </c>
       <c r="D100">
-        <v>0.0084160631819587793</v>
+        <v>0.0093377705603368971</v>
       </c>
       <c r="E100">
-        <v>0.029737722557479879</v>
+        <v>0.030671392557890906</v>
       </c>
     </row>
     <row r="101">
@@ -2265,16 +2265,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.10865622928789284</v>
+        <v>-0.10911811044398571</v>
       </c>
       <c r="C101">
-        <v>0.0034496661360710963</v>
+        <v>0.0034436703646742546</v>
       </c>
       <c r="D101">
-        <v>-0.11541745952826302</v>
+        <v>-0.11586758935751797</v>
       </c>
       <c r="E101">
-        <v>-0.10189499904752267</v>
+        <v>-0.10236863153045346</v>
       </c>
     </row>
     <row r="102">
@@ -2282,16 +2282,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.028633611948908157</v>
+        <v>-0.030003193057257696</v>
       </c>
       <c r="C102">
-        <v>0.0056818351595818153</v>
+        <v>0.0057335278829334516</v>
       </c>
       <c r="D102">
-        <v>-0.039769818812542844</v>
+        <v>-0.041240716236880928</v>
       </c>
       <c r="E102">
-        <v>-0.017497405085273469</v>
+        <v>-0.018765669877634464</v>
       </c>
     </row>
     <row r="103">
@@ -2299,16 +2299,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>-0.026202341574023742</v>
+        <v>-0.02488401820236073</v>
       </c>
       <c r="C103">
-        <v>0.0045087356811035042</v>
+        <v>0.0044969473759848512</v>
       </c>
       <c r="D103">
-        <v>-0.035039312698317136</v>
+        <v>-0.033697884883919553</v>
       </c>
       <c r="E103">
-        <v>-0.017365370449730348</v>
+        <v>-0.016070151520801906</v>
       </c>
     </row>
     <row r="104">
@@ -2316,16 +2316,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>-0.10841170586298148</v>
+        <v>-0.10881507809529541</v>
       </c>
       <c r="C104">
-        <v>0.0041077707013430897</v>
+        <v>0.0041158004875177174</v>
       </c>
       <c r="D104">
-        <v>-0.11646284000186594</v>
+        <v>-0.11688195172640466</v>
       </c>
       <c r="E104">
-        <v>-0.10036057172409701</v>
+        <v>-0.10074820446418616</v>
       </c>
     </row>
     <row r="105">
@@ -2333,16 +2333,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>-0.063769333156235758</v>
+        <v>-0.064480938621383502</v>
       </c>
       <c r="C105">
-        <v>0.0095587325689827987</v>
+        <v>0.0096879073265899399</v>
       </c>
       <c r="D105">
-        <v>-0.082504224586626818</v>
+        <v>-0.083469012603714046</v>
       </c>
       <c r="E105">
-        <v>-0.045034441725844698</v>
+        <v>-0.045492864639052957</v>
       </c>
     </row>
     <row r="106">
@@ -2350,16 +2350,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>0.0049746140206537622</v>
+        <v>0.0059024186507677136</v>
       </c>
       <c r="C106">
-        <v>0.00727363627323985</v>
+        <v>0.0072799179657338136</v>
       </c>
       <c r="D106">
-        <v>-0.0092815423159602461</v>
+        <v>-0.0083660519547729822</v>
       </c>
       <c r="E106">
-        <v>0.019230770357267772</v>
+        <v>0.020170889256308409</v>
       </c>
     </row>
     <row r="107">
@@ -2367,16 +2367,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>-0.057994886240500441</v>
+        <v>-0.057648613459493257</v>
       </c>
       <c r="C107">
-        <v>0.0049146167713880152</v>
+        <v>0.0049130086236707105</v>
       </c>
       <c r="D107">
-        <v>-0.067627433501576822</v>
+        <v>-0.067278010520867737</v>
       </c>
       <c r="E107">
-        <v>-0.048362338979424067</v>
+        <v>-0.048019216398118784</v>
       </c>
     </row>
     <row r="108">
@@ -2384,16 +2384,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>-0.07914443660769778</v>
+        <v>-0.079976878440823448</v>
       </c>
       <c r="C108">
-        <v>0.012912059439512786</v>
+        <v>0.013029715209823446</v>
       </c>
       <c r="D108">
-        <v>-0.10445180614931257</v>
+        <v>-0.10551485546523129</v>
       </c>
       <c r="E108">
-        <v>-0.053837067066082996</v>
+        <v>-0.054438901416415608</v>
       </c>
     </row>
     <row r="109">
@@ -2401,16 +2401,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0.032747316645117167</v>
+        <v>0.03324446969826364</v>
       </c>
       <c r="C109">
-        <v>0.0091217718189047191</v>
+        <v>0.0091109447833531091</v>
       </c>
       <c r="D109">
-        <v>0.014868832474816598</v>
+        <v>0.015387203073395257</v>
       </c>
       <c r="E109">
-        <v>0.050625800815417732</v>
+        <v>0.051101736323132023</v>
       </c>
     </row>
     <row r="110">
@@ -2418,16 +2418,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>-0.15030137053954312</v>
+        <v>-0.15029418270819397</v>
       </c>
       <c r="C110">
-        <v>0.0033273949715808626</v>
+        <v>0.0033323506794690101</v>
       </c>
       <c r="D110">
-        <v>-0.15682295222642198</v>
+        <v>-0.15682547757896856</v>
       </c>
       <c r="E110">
-        <v>-0.14377978885266426</v>
+        <v>-0.14376288783741939</v>
       </c>
     </row>
     <row r="111">
@@ -2435,16 +2435,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>-0.063721199908248871</v>
+        <v>-0.063548221666989257</v>
       </c>
       <c r="C111">
-        <v>0.0053554190800120154</v>
+        <v>0.0054210008382817813</v>
       </c>
       <c r="D111">
-        <v>-0.074217640305637142</v>
+        <v>-0.074173200360761138</v>
       </c>
       <c r="E111">
-        <v>-0.0532247595108606</v>
+        <v>-0.052923242973217377</v>
       </c>
     </row>
     <row r="112">
@@ -2452,16 +2452,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0.028675356077106508</v>
+        <v>0.029534548209051648</v>
       </c>
       <c r="C112">
-        <v>0.0043396585263895749</v>
+        <v>0.0043426016947590729</v>
       </c>
       <c r="D112">
-        <v>0.020169772034715601</v>
+        <v>0.021023195442506571</v>
       </c>
       <c r="E112">
-        <v>0.037180940119497415</v>
+        <v>0.038045900975596722</v>
       </c>
     </row>
     <row r="113">
@@ -2469,16 +2469,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>-0.08406378511136775</v>
+        <v>-0.084302926660764388</v>
       </c>
       <c r="C113">
-        <v>0.0031934451690524648</v>
+        <v>0.0031974491614021796</v>
       </c>
       <c r="D113">
-        <v>-0.090322829639980715</v>
+        <v>-0.090569819027731549</v>
       </c>
       <c r="E113">
-        <v>-0.077804740582754786</v>
+        <v>-0.078036034293797227</v>
       </c>
     </row>
     <row r="114">
@@ -2486,16 +2486,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>-0.050952662400744711</v>
+        <v>-0.052170087910597303</v>
       </c>
       <c r="C114">
-        <v>0.0056542845404008802</v>
+        <v>0.0057180445465015942</v>
       </c>
       <c r="D114">
-        <v>-0.062034868871293815</v>
+        <v>-0.063377262102769477</v>
       </c>
       <c r="E114">
-        <v>-0.039870455930195607</v>
+        <v>-0.040962913718425135</v>
       </c>
     </row>
     <row r="115">
@@ -2503,16 +2503,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>-0.016215328338630076</v>
+        <v>-0.015514382737899393</v>
       </c>
       <c r="C115">
-        <v>0.0042596437704718604</v>
+        <v>0.0042602435534958094</v>
       </c>
       <c r="D115">
-        <v>-0.024564086067050052</v>
+        <v>-0.023864316218973364</v>
       </c>
       <c r="E115">
-        <v>-0.007866570610210101</v>
+        <v>-0.0071644492568254236</v>
       </c>
     </row>
     <row r="116">
@@ -2520,16 +2520,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>-0.17384839226279294</v>
+        <v>-0.1739137409231985</v>
       </c>
       <c r="C116">
-        <v>0.0042958262262103716</v>
+        <v>0.0042951677886330251</v>
       </c>
       <c r="D116">
-        <v>-0.1822680685473681</v>
+        <v>-0.18233212694173662</v>
       </c>
       <c r="E116">
-        <v>-0.16542871597821779</v>
+        <v>-0.16549535490466039</v>
       </c>
     </row>
     <row r="117">
@@ -2537,16 +2537,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>-0.05589691377592327</v>
+        <v>-0.055373740888655071</v>
       </c>
       <c r="C117">
-        <v>0.0064940623742951826</v>
+        <v>0.0065623809152315455</v>
       </c>
       <c r="D117">
-        <v>-0.068625059674794958</v>
+        <v>-0.068235789233147964</v>
       </c>
       <c r="E117">
-        <v>-0.043168767877051574</v>
+        <v>-0.042511692544162177</v>
       </c>
     </row>
     <row r="118">
@@ -2554,16 +2554,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>0.037913473163285638</v>
+        <v>0.039155762704626777</v>
       </c>
       <c r="C118">
-        <v>0.0054479115546837422</v>
+        <v>0.0054440643663098481</v>
       </c>
       <c r="D118">
-        <v>0.027235748017522862</v>
+        <v>0.028485577603441184</v>
       </c>
       <c r="E118">
-        <v>0.048591198309048414</v>
+        <v>0.049825947805812371</v>
       </c>
     </row>
     <row r="119">
@@ -2571,16 +2571,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>-0.10784364943422628</v>
+        <v>-0.1076734573267335</v>
       </c>
       <c r="C119">
-        <v>0.0036377208500729349</v>
+        <v>0.0036431946761446795</v>
       </c>
       <c r="D119">
-        <v>-0.11497346062388261</v>
+        <v>-0.11481399722764166</v>
       </c>
       <c r="E119">
-        <v>-0.10071383824456995</v>
+        <v>-0.10053291742582535</v>
       </c>
     </row>
     <row r="120">
@@ -2588,16 +2588,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>-0.041437911980563277</v>
+        <v>-0.040353807518928385</v>
       </c>
       <c r="C120">
-        <v>0.0060420022515359877</v>
+        <v>0.006109500484939424</v>
       </c>
       <c r="D120">
-        <v>-0.053280034297361271</v>
+        <v>-0.052328224442893839</v>
       </c>
       <c r="E120">
-        <v>-0.029595789663765283</v>
+        <v>-0.02837939059496293</v>
       </c>
     </row>
     <row r="121">
@@ -2605,16 +2605,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>-0.0094000162365262506</v>
+        <v>-0.0096477959386759224</v>
       </c>
       <c r="C121">
-        <v>0.0047082473615943643</v>
+        <v>0.0047109111294204101</v>
       </c>
       <c r="D121">
-        <v>-0.018628023581205376</v>
+        <v>-0.018881024431657747</v>
       </c>
       <c r="E121">
-        <v>-0.00017200889184712694</v>
+        <v>-0.00041456744569409558</v>
       </c>
     </row>
     <row r="122">
@@ -2622,16 +2622,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>-0.11360634552211731</v>
+        <v>-0.11378853808854569</v>
       </c>
       <c r="C122">
-        <v>0.0043205750612752801</v>
+        <v>0.0043213769710463675</v>
       </c>
       <c r="D122">
-        <v>-0.12207457121058443</v>
+        <v>-0.12225833686609557</v>
       </c>
       <c r="E122">
-        <v>-0.10513811983365018</v>
+        <v>-0.10531873931099582</v>
       </c>
     </row>
     <row r="123">
@@ -2639,16 +2639,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>-0.075956331548069134</v>
+        <v>-0.076735441932734322</v>
       </c>
       <c r="C123">
-        <v>0.010041080936780354</v>
+        <v>0.010166440852420086</v>
       </c>
       <c r="D123">
-        <v>-0.095636614455530788</v>
+        <v>-0.096661430542566429</v>
       </c>
       <c r="E123">
-        <v>-0.056276048640607472</v>
+        <v>-0.056809453322902215</v>
       </c>
     </row>
     <row r="124">
@@ -2656,16 +2656,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0.027540475242189399</v>
+        <v>0.028283582940068761</v>
       </c>
       <c r="C124">
-        <v>0.0074497595922980078</v>
+        <v>0.0074468765789732563</v>
       </c>
       <c r="D124">
-        <v>0.012939121334966316</v>
+        <v>0.013687877319441093</v>
       </c>
       <c r="E124">
-        <v>0.042141829149412481</v>
+        <v>0.042879288560696428</v>
       </c>
     </row>
     <row r="125">
@@ -2673,16 +2673,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>-0.061345753639364502</v>
+        <v>-0.060830993774815018</v>
       </c>
       <c r="C125">
-        <v>0.0050979623257709425</v>
+        <v>0.0051045214167023244</v>
       </c>
       <c r="D125">
-        <v>-0.071337654396319464</v>
+        <v>-0.070835752018652956</v>
       </c>
       <c r="E125">
-        <v>-0.05135385288240954</v>
+        <v>-0.050826235530977079</v>
       </c>
     </row>
     <row r="126">
@@ -2690,16 +2690,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>-0.09124289225636896</v>
+        <v>-0.092890553017451499</v>
       </c>
       <c r="C126">
-        <v>0.013096250749625326</v>
+        <v>0.013233237596214002</v>
       </c>
       <c r="D126">
-        <v>-0.11691127295760617</v>
+        <v>-0.11882742978325017</v>
       </c>
       <c r="E126">
-        <v>-0.065574511555131748</v>
+        <v>-0.066953676251652827</v>
       </c>
     </row>
     <row r="127">
@@ -2707,16 +2707,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0.064425789813944825</v>
+        <v>0.063866006475210596</v>
       </c>
       <c r="C127">
-        <v>0.0091667911245304542</v>
+        <v>0.0091641743251634489</v>
       </c>
       <c r="D127">
-        <v>0.046459068735402426</v>
+        <v>0.045904411030112335</v>
       </c>
       <c r="E127">
-        <v>0.082392510892487225</v>
+        <v>0.081827601920308857</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>-0.14948682209204475</v>
+        <v>-0.14901963881181524</v>
       </c>
       <c r="C128">
-        <v>0.0036165202640045103</v>
+        <v>0.0036140586108691043</v>
       </c>
       <c r="D128">
-        <v>-0.15657507958038031</v>
+        <v>-0.15610307172098592</v>
       </c>
       <c r="E128">
-        <v>-0.1423985646037092</v>
+        <v>-0.14193620590264455</v>
       </c>
     </row>
     <row r="129">
@@ -2741,16 +2741,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>-0.068736299220747588</v>
+        <v>-0.068112760109371673</v>
       </c>
       <c r="C129">
-        <v>0.0059968330340103449</v>
+        <v>0.0060623347424987439</v>
       </c>
       <c r="D129">
-        <v>-0.080489889289825325</v>
+        <v>-0.079994731611515546</v>
       </c>
       <c r="E129">
-        <v>-0.05698270915166985</v>
+        <v>-0.056230788607227793</v>
       </c>
     </row>
     <row r="130">
@@ -2758,16 +2758,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0.052229269736042805</v>
+        <v>0.052828211222161719</v>
       </c>
       <c r="C130">
-        <v>0.0046722307585032223</v>
+        <v>0.0046666629069386937</v>
       </c>
       <c r="D130">
-        <v>0.043071855358797984</v>
+        <v>0.043681709416241526</v>
       </c>
       <c r="E130">
-        <v>0.061386684113287626</v>
+        <v>0.061974713028081913</v>
       </c>
     </row>
     <row r="131">
@@ -2775,16 +2775,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>-0.083493386186799592</v>
+        <v>-0.08327864732441817</v>
       </c>
       <c r="C131">
-        <v>0.0034996055969884841</v>
+        <v>0.0034975075194824592</v>
       </c>
       <c r="D131">
-        <v>-0.090352494799781774</v>
+        <v>-0.090133643939170574</v>
       </c>
       <c r="E131">
-        <v>-0.076634277573817411</v>
+        <v>-0.076423650709665766</v>
       </c>
     </row>
     <row r="132">
@@ -2792,16 +2792,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>-0.068309900862707718</v>
+        <v>-0.068759599880155994</v>
       </c>
       <c r="C132">
-        <v>0.0061409346860695586</v>
+        <v>0.0061983341627334801</v>
       </c>
       <c r="D132">
-        <v>-0.080345925160196383</v>
+        <v>-0.080908125499031452</v>
       </c>
       <c r="E132">
-        <v>-0.05627387656521906</v>
+        <v>-0.056611074261280536</v>
       </c>
     </row>
     <row r="133">
@@ -2809,16 +2809,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0.0078269668440446704</v>
+        <v>0.0086407630339055651</v>
       </c>
       <c r="C133">
-        <v>0.0045594052843683673</v>
+        <v>0.0045516620693819097</v>
       </c>
       <c r="D133">
-        <v>-0.0011093133136391743</v>
+        <v>-0.00028034089605166734</v>
       </c>
       <c r="E133">
-        <v>0.016763247001728515</v>
+        <v>0.017561866963862797</v>
       </c>
     </row>
     <row r="134">
@@ -2826,16 +2826,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>-0.1622615722392251</v>
+        <v>-0.16154033028097436</v>
       </c>
       <c r="C134">
-        <v>0.0046087968618687639</v>
+        <v>0.0046019531832180664</v>
       </c>
       <c r="D134">
-        <v>-0.17129466054283018</v>
+        <v>-0.17056000546993819</v>
       </c>
       <c r="E134">
-        <v>-0.15322848393562002</v>
+        <v>-0.15252065509201054</v>
       </c>
     </row>
     <row r="135">
@@ -2843,16 +2843,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>-0.067171958875569177</v>
+        <v>-0.067483951825654906</v>
       </c>
       <c r="C135">
-        <v>0.0071353783116580504</v>
+        <v>0.0072151461819840012</v>
       </c>
       <c r="D135">
-        <v>-0.081157062645732053</v>
+        <v>-0.081625398383544503</v>
       </c>
       <c r="E135">
-        <v>-0.0531868551054063</v>
+        <v>-0.053342505267765308</v>
       </c>
     </row>
     <row r="136">
@@ -2860,16 +2860,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0.060282868849164381</v>
+        <v>0.061060592474085976</v>
       </c>
       <c r="C136">
-        <v>0.0057633739743206862</v>
+        <v>0.0057546333461375616</v>
       </c>
       <c r="D136">
-        <v>0.048986847870789448</v>
+        <v>0.049781702501232178</v>
       </c>
       <c r="E136">
-        <v>0.071578889827539321</v>
+        <v>0.072339482446939773</v>
       </c>
     </row>
     <row r="137">
@@ -2877,16 +2877,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>-0.10260903367150395</v>
+        <v>-0.1021287050070955</v>
       </c>
       <c r="C137">
-        <v>0.0041250659733125623</v>
+        <v>0.0041311881326783024</v>
       </c>
       <c r="D137">
-        <v>-0.11069402500172239</v>
+        <v>-0.11022569578628828</v>
       </c>
       <c r="E137">
-        <v>-0.094524042341285516</v>
+        <v>-0.094031714227902727</v>
       </c>
     </row>
     <row r="138">
@@ -2894,16 +2894,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>-0.058326230484134753</v>
+        <v>-0.058803113997123575</v>
       </c>
       <c r="C138">
-        <v>0.0068619889797525346</v>
+        <v>0.0069362471551680906</v>
       </c>
       <c r="D138">
-        <v>-0.071775499360870354</v>
+        <v>-0.072397926785566391</v>
       </c>
       <c r="E138">
-        <v>-0.044876961607399152</v>
+        <v>-0.045208301208680766</v>
       </c>
     </row>
     <row r="139">
@@ -2911,16 +2911,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0.0060281385853576293</v>
+        <v>0.006045284364052295</v>
       </c>
       <c r="C139">
-        <v>0.0052399107014338428</v>
+        <v>0.0052413065069312429</v>
       </c>
       <c r="D139">
-        <v>-0.0042419111220392304</v>
+        <v>-0.0042275013563190852</v>
       </c>
       <c r="E139">
-        <v>0.016298188292754489</v>
+        <v>0.016318070084423673</v>
       </c>
     </row>
     <row r="140">
@@ -2928,16 +2928,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>-0.11079374089759617</v>
+        <v>-0.11095722950350918</v>
       </c>
       <c r="C140">
-        <v>0.0048353825065081133</v>
+        <v>0.0048257780180325635</v>
       </c>
       <c r="D140">
-        <v>-0.12027097709288413</v>
+        <v>-0.12041564265091906</v>
       </c>
       <c r="E140">
-        <v>-0.1013165047023082</v>
+        <v>-0.10149881635609931</v>
       </c>
     </row>
     <row r="141">
@@ -2945,16 +2945,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>-0.074288220901763721</v>
+        <v>-0.075974264627295326</v>
       </c>
       <c r="C141">
-        <v>0.011234096546225782</v>
+        <v>0.011344863322400079</v>
       </c>
       <c r="D141">
-        <v>-0.096306786396003569</v>
+        <v>-0.098209933985311984</v>
       </c>
       <c r="E141">
-        <v>-0.052269655407523881</v>
+        <v>-0.053738595269278669</v>
       </c>
     </row>
     <row r="142">
@@ -2962,16 +2962,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>0.036942724352679743</v>
+        <v>0.038439735599106482</v>
       </c>
       <c r="C142">
-        <v>0.0080445726448871505</v>
+        <v>0.0080236872231295893</v>
       </c>
       <c r="D142">
-        <v>0.02117555082646266</v>
+        <v>0.022713494475215347</v>
       </c>
       <c r="E142">
-        <v>0.052709897878896822</v>
+        <v>0.054165976722997618</v>
       </c>
     </row>
     <row r="143">
@@ -2979,16 +2979,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>-0.064493498031782129</v>
+        <v>-0.064384034372267737</v>
       </c>
       <c r="C143">
-        <v>0.005852912054044015</v>
+        <v>0.0058492894020203742</v>
       </c>
       <c r="D143">
-        <v>-0.075965084647391184</v>
+        <v>-0.075848522732327048</v>
       </c>
       <c r="E143">
-        <v>-0.053021911416173066</v>
+        <v>-0.052919546012208434</v>
       </c>
     </row>
     <row r="144">
@@ -2996,16 +2996,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>-0.11478585904035538</v>
+        <v>-0.1173928462173907</v>
       </c>
       <c r="C144">
-        <v>0.014141490275390592</v>
+        <v>0.014243031352962916</v>
       </c>
       <c r="D144">
-        <v>-0.14250288760152235</v>
+        <v>-0.14530889822562304</v>
       </c>
       <c r="E144">
-        <v>-0.087068830479188397</v>
+        <v>-0.089476794209158342</v>
       </c>
     </row>
     <row r="145">
@@ -3013,16 +3013,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0.069414331371359356</v>
+        <v>0.069345187269563777</v>
       </c>
       <c r="C145">
-        <v>0.0097965936635965364</v>
+        <v>0.0097785447241396355</v>
       </c>
       <c r="D145">
-        <v>0.05021321033756132</v>
+        <v>0.050179438327564732</v>
       </c>
       <c r="E145">
-        <v>0.088615452405157391</v>
+        <v>0.088510936211562821</v>
       </c>
     </row>
     <row r="146">
@@ -3030,16 +3030,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>-0.13834770749090572</v>
+        <v>-0.13728350980954085</v>
       </c>
       <c r="C146">
-        <v>0.0040893426117579032</v>
+        <v>0.0040760775086278889</v>
       </c>
       <c r="D146">
-        <v>-0.14636268080065473</v>
+        <v>-0.14527248416599214</v>
       </c>
       <c r="E146">
-        <v>-0.13033273418115671</v>
+        <v>-0.12929453545308955</v>
       </c>
     </row>
     <row r="147">
@@ -3047,16 +3047,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>-0.076722724093912092</v>
+        <v>-0.077209107859891962</v>
       </c>
       <c r="C147">
-        <v>0.0071290842902316468</v>
+        <v>0.0071750298975294018</v>
       </c>
       <c r="D147">
-        <v>-0.090695488357993861</v>
+        <v>-0.091271924314388048</v>
       </c>
       <c r="E147">
-        <v>-0.062749959829830323</v>
+        <v>-0.063146291405395877</v>
       </c>
     </row>
     <row r="148">
@@ -3064,16 +3064,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0.067937285421852706</v>
+        <v>0.068000437363003513</v>
       </c>
       <c r="C148">
-        <v>0.0052979243294091777</v>
+        <v>0.0052723952889582272</v>
       </c>
       <c r="D148">
-        <v>0.057553532792470823</v>
+        <v>0.057666720530729423</v>
       </c>
       <c r="E148">
-        <v>0.078321038051234582</v>
+        <v>0.078334154195277603</v>
       </c>
     </row>
     <row r="149">
@@ -3081,16 +3081,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>-0.078858626048725497</v>
+        <v>-0.079169002031286989</v>
       </c>
       <c r="C149">
-        <v>0.0044869944218723021</v>
+        <v>0.0044862197256005688</v>
       </c>
       <c r="D149">
-        <v>-0.087652983364861811</v>
+        <v>-0.087961841177656583</v>
       </c>
       <c r="E149">
-        <v>-0.070064268732589183</v>
+        <v>-0.070376162884917395</v>
       </c>
     </row>
     <row r="150">
@@ -3098,16 +3098,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>-0.091594231155163949</v>
+        <v>-0.091058470223139121</v>
       </c>
       <c r="C150">
-        <v>0.0076896154901569995</v>
+        <v>0.0077759097191383115</v>
       </c>
       <c r="D150">
-        <v>-0.10666561745207831</v>
+        <v>-0.10629899065215626</v>
       </c>
       <c r="E150">
-        <v>-0.076522844858249589</v>
+        <v>-0.075817949794121986</v>
       </c>
     </row>
     <row r="151">
@@ -3115,16 +3115,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0.025286418786271882</v>
+        <v>0.026000355249977965</v>
       </c>
       <c r="C151">
-        <v>0.0056294766509290646</v>
+        <v>0.0056256165233525704</v>
       </c>
       <c r="D151">
-        <v>0.014252834940081496</v>
+        <v>0.014974336861550452</v>
       </c>
       <c r="E151">
-        <v>0.036320002632462267</v>
+        <v>0.037026373638405476</v>
       </c>
     </row>
     <row r="152">
@@ -3132,16 +3132,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>-0.14435422791116448</v>
+        <v>-0.14350013352661423</v>
       </c>
       <c r="C152">
-        <v>0.0048673213628477666</v>
+        <v>0.0048667735507402577</v>
       </c>
       <c r="D152">
-        <v>-0.15389401562374327</v>
+        <v>-0.15303884782861873</v>
       </c>
       <c r="E152">
-        <v>-0.13481444019858568</v>
+        <v>-0.13396141922460972</v>
       </c>
     </row>
     <row r="153">
@@ -3149,16 +3149,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>-0.066356561352774832</v>
+        <v>-0.066742286713768958</v>
       </c>
       <c r="C153">
-        <v>0.0077648835612636356</v>
+        <v>0.0078314968298384101</v>
       </c>
       <c r="D153">
-        <v>-0.081575474439706891</v>
+        <v>-0.082091760043079706</v>
       </c>
       <c r="E153">
-        <v>-0.051137648265842779</v>
+        <v>-0.051392813384458211</v>
       </c>
     </row>
     <row r="154">
@@ -3166,16 +3166,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0.083139086174794777</v>
+        <v>0.083169152767630108</v>
       </c>
       <c r="C154">
-        <v>0.0060151594276179532</v>
+        <v>0.0060055353760475501</v>
       </c>
       <c r="D154">
-        <v>0.071349574096385718</v>
+        <v>0.071398503160564369</v>
       </c>
       <c r="E154">
-        <v>0.094928598253203836</v>
+        <v>0.094939802374695847</v>
       </c>
     </row>
     <row r="155">
@@ -3183,16 +3183,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>-0.093298755270001907</v>
+        <v>-0.092616009657075934</v>
       </c>
       <c r="C155">
-        <v>0.0052316345685545235</v>
+        <v>0.0052260470476924916</v>
       </c>
       <c r="D155">
-        <v>-0.10355258403377994</v>
+        <v>-0.10285888734692837</v>
       </c>
       <c r="E155">
-        <v>-0.083044926506223873</v>
+        <v>-0.082373131967223498</v>
       </c>
     </row>
     <row r="156">
@@ -3200,16 +3200,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>-0.084125723010735357</v>
+        <v>-0.082998275282338704</v>
       </c>
       <c r="C156">
-        <v>0.0086547932775018488</v>
+        <v>0.0087231030825024262</v>
       </c>
       <c r="D156">
-        <v>-0.10108882834435598</v>
+        <v>-0.10009526601637708</v>
       </c>
       <c r="E156">
-        <v>-0.067162617677114733</v>
+        <v>-0.065901284548300326</v>
       </c>
     </row>
     <row r="157">
@@ -3217,16 +3217,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0.025105478850898838</v>
+        <v>0.025134603740510277</v>
       </c>
       <c r="C157">
-        <v>0.0064684389672375556</v>
+        <v>0.0064545123084110831</v>
       </c>
       <c r="D157">
-        <v>0.012427554835015446</v>
+        <v>0.012483975164195934</v>
       </c>
       <c r="E157">
-        <v>0.03778340286678223</v>
+        <v>0.037785232316824617</v>
       </c>
     </row>
     <row r="158">
@@ -3234,16 +3234,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>-0.11540147864260554</v>
+        <v>-0.1141410877850071</v>
       </c>
       <c r="C158">
-        <v>0.0064902794555746074</v>
+        <v>0.0064912920239342696</v>
       </c>
       <c r="D158">
-        <v>-0.1281222740070089</v>
+        <v>-0.12686386980967387</v>
       </c>
       <c r="E158">
-        <v>-0.10268068327820218</v>
+        <v>-0.10141830576034033</v>
       </c>
     </row>
     <row r="159">
@@ -3251,16 +3251,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>-0.082530276505078715</v>
+        <v>-0.083236520063530717</v>
       </c>
       <c r="C159">
-        <v>0.014975011866143854</v>
+        <v>0.015140879234940475</v>
       </c>
       <c r="D159">
-        <v>-0.11188094820306078</v>
+        <v>-0.112912292692105</v>
       </c>
       <c r="E159">
-        <v>-0.053179604807096645</v>
+        <v>-0.053560747434956438</v>
       </c>
     </row>
     <row r="160">
@@ -3268,16 +3268,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0.042815585141267015</v>
+        <v>0.042196034512521872</v>
       </c>
       <c r="C160">
-        <v>0.010577891061798888</v>
+        <v>0.010561910117648335</v>
       </c>
       <c r="D160">
-        <v>0.022083166991148689</v>
+        <v>0.021494935302149468</v>
       </c>
       <c r="E160">
-        <v>0.063548003291385338</v>
+        <v>0.06289713372289428</v>
       </c>
     </row>
     <row r="161">
@@ -3285,16 +3285,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>-0.070159197922021216</v>
+        <v>-0.070007972326345744</v>
       </c>
       <c r="C161">
-        <v>0.0078250852147292715</v>
+        <v>0.007794013772830388</v>
       </c>
       <c r="D161">
-        <v>-0.085496203157434864</v>
+        <v>-0.085284080932955711</v>
       </c>
       <c r="E161">
-        <v>-0.054822192686607568</v>
+        <v>-0.054731863719735777</v>
       </c>
     </row>
     <row r="162">
@@ -3302,16 +3302,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>-0.13357109414354942</v>
+        <v>-0.13469555139155634</v>
       </c>
       <c r="C162">
-        <v>0.017363830708986113</v>
+        <v>0.017518591453418809</v>
       </c>
       <c r="D162">
-        <v>-0.16760384333192613</v>
+        <v>-0.16903163463151069</v>
       </c>
       <c r="E162">
-        <v>-0.09953834495517272</v>
+        <v>-0.10035946815160199</v>
       </c>
     </row>
     <row r="163">
@@ -3319,16 +3319,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>0.075107596682769479</v>
+        <v>0.075680405648697602</v>
       </c>
       <c r="C163">
-        <v>0.011985000039214955</v>
+        <v>0.011933588806357582</v>
       </c>
       <c r="D163">
-        <v>0.05161724439856985</v>
+        <v>0.052290814099856683</v>
       </c>
       <c r="E163">
-        <v>0.098597948966969107</v>
+        <v>0.09906999719753852</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs.xlsx
+++ b/linreg/rifdid_coefs.xlsx
@@ -582,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.099024482175962061</v>
+        <v>-0.098305422952378221</v>
       </c>
       <c r="C2">
-        <v>0.0047411528653158704</v>
+        <v>0.0055371427180362243</v>
       </c>
       <c r="D2">
-        <v>-0.1083169817863962</v>
+        <v>-0.10915803631766517</v>
       </c>
       <c r="E2">
-        <v>-0.089731982565527918</v>
+        <v>-0.087452809587091271</v>
       </c>
     </row>
     <row r="3">
@@ -599,16 +599,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0061791616450534107</v>
+        <v>-0.0066103235670499942</v>
       </c>
       <c r="C3">
-        <v>0.0066829453975984672</v>
+        <v>0.0059319811910628524</v>
       </c>
       <c r="D3">
-        <v>-0.019277509086672771</v>
+        <v>-0.018236807050501066</v>
       </c>
       <c r="E3">
-        <v>0.0069191857965659499</v>
+        <v>0.0050161599164010784</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.11444442676114058</v>
+        <v>-0.11573940178718806</v>
       </c>
       <c r="C4">
-        <v>0.0070715518059683248</v>
+        <v>0.0073206561625614938</v>
       </c>
       <c r="D4">
-        <v>-0.12830442964838087</v>
+        <v>-0.13008764147653129</v>
       </c>
       <c r="E4">
-        <v>-0.10058442387390029</v>
+        <v>-0.10139116209784484</v>
       </c>
     </row>
     <row r="5">
@@ -633,16 +633,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.031695888374138788</v>
+        <v>-0.031586525380297811</v>
       </c>
       <c r="C5">
-        <v>0.0027908780104624873</v>
+        <v>0.0028373900160442358</v>
       </c>
       <c r="D5">
-        <v>-0.037165915016637116</v>
+        <v>-0.037147714254410928</v>
       </c>
       <c r="E5">
-        <v>-0.02622586173164046</v>
+        <v>-0.026025336506184694</v>
       </c>
     </row>
     <row r="6">
@@ -650,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.012318934357276781</v>
+        <v>0.01224639642634286</v>
       </c>
       <c r="C6">
-        <v>0.0051898057653627207</v>
+        <v>0.0051676738689627934</v>
       </c>
       <c r="D6">
-        <v>0.0021470903356095063</v>
+        <v>0.0021179296795729528</v>
       </c>
       <c r="E6">
-        <v>0.022490778378944056</v>
+        <v>0.022374863173112769</v>
       </c>
     </row>
     <row r="7">
@@ -667,16 +667,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.078503751421946585</v>
+        <v>-0.078600075501523536</v>
       </c>
       <c r="C7">
-        <v>0.0043527526997383503</v>
+        <v>0.0039867612391433277</v>
       </c>
       <c r="D7">
-        <v>-0.087034999705288676</v>
+        <v>-0.086413993264503233</v>
       </c>
       <c r="E7">
-        <v>-0.069972503138604494</v>
+        <v>-0.07078615773854384</v>
       </c>
     </row>
     <row r="8">
@@ -684,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.10455222070698317</v>
+        <v>-0.10435172782636379</v>
       </c>
       <c r="C8">
-        <v>0.0056312140854811307</v>
+        <v>0.0056204055787072134</v>
       </c>
       <c r="D8">
-        <v>-0.11558921303358481</v>
+        <v>-0.11536753648516343</v>
       </c>
       <c r="E8">
-        <v>-0.093515228380381524</v>
+        <v>-0.093335919167564146</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.00045445756617420178</v>
+        <v>-0.0010113574931356602</v>
       </c>
       <c r="C9">
-        <v>0.0067936344426968642</v>
+        <v>0.0066615957731130625</v>
       </c>
       <c r="D9">
-        <v>-0.013769755133550476</v>
+        <v>-0.014067864425107143</v>
       </c>
       <c r="E9">
-        <v>0.012860840001202073</v>
+        <v>0.012045149438835823</v>
       </c>
     </row>
     <row r="10">
@@ -718,16 +718,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.085867469951554448</v>
+        <v>-0.086082611916293128</v>
       </c>
       <c r="C10">
-        <v>0.0076781275266597721</v>
+        <v>0.007477705550334981</v>
       </c>
       <c r="D10">
-        <v>-0.10091634454733751</v>
+        <v>-0.10073866696353072</v>
       </c>
       <c r="E10">
-        <v>-0.070818595355771383</v>
+        <v>-0.071426556869055538</v>
       </c>
     </row>
     <row r="11">
@@ -735,16 +735,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.036318035399276825</v>
+        <v>-0.036303621285970866</v>
       </c>
       <c r="C11">
-        <v>0.0031910718072238227</v>
+        <v>0.0033475648871281205</v>
       </c>
       <c r="D11">
-        <v>-0.042572429575724595</v>
+        <v>-0.042864737047947507</v>
       </c>
       <c r="E11">
-        <v>-0.030063641222829052</v>
+        <v>-0.029742505523994222</v>
       </c>
     </row>
     <row r="12">
@@ -752,16 +752,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.016648540444769072</v>
+        <v>0.016315424605832785</v>
       </c>
       <c r="C12">
-        <v>0.0051921851250707725</v>
+        <v>0.0052901032623054014</v>
       </c>
       <c r="D12">
-        <v>0.0064720309924376999</v>
+        <v>0.0059469982818929085</v>
       </c>
       <c r="E12">
-        <v>0.026825049897100446</v>
+        <v>0.026683850929772664</v>
       </c>
     </row>
     <row r="13">
@@ -769,16 +769,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.066430211159686448</v>
+        <v>-0.066219177592817188</v>
       </c>
       <c r="C13">
-        <v>0.0045997326356777106</v>
+        <v>0.0046650914068757463</v>
       </c>
       <c r="D13">
-        <v>-0.075445533517733782</v>
+        <v>-0.075362601482345748</v>
       </c>
       <c r="E13">
-        <v>-0.057414888801639113</v>
+        <v>-0.057075753703288622</v>
       </c>
     </row>
     <row r="14">
@@ -786,16 +786,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.22067669361769202</v>
+        <v>-0.22161197512852962</v>
       </c>
       <c r="C14">
-        <v>0.0096431955066041564</v>
+        <v>0.0092763786467415076</v>
       </c>
       <c r="D14">
-        <v>-0.23957713346840318</v>
+        <v>-0.23979346654679567</v>
       </c>
       <c r="E14">
-        <v>-0.20177625376698086</v>
+        <v>-0.20343048371026357</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.037197198911645718</v>
+        <v>-0.037643626888708599</v>
       </c>
       <c r="C15">
-        <v>0.01908412906031777</v>
+        <v>0.020321389494733891</v>
       </c>
       <c r="D15">
-        <v>-0.074601649869911593</v>
+        <v>-0.077473088662083911</v>
       </c>
       <c r="E15">
-        <v>0.00020725204662015717</v>
+        <v>0.0021858348846667194</v>
       </c>
     </row>
     <row r="16">
@@ -820,16 +820,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.064991432564926135</v>
+        <v>-0.061669505351578315</v>
       </c>
       <c r="C16">
-        <v>0.019056468185997235</v>
+        <v>0.019645849634661382</v>
       </c>
       <c r="D16">
-        <v>-0.10234166885016632</v>
+        <v>-0.10017492434529421</v>
       </c>
       <c r="E16">
-        <v>-0.027641196279685955</v>
+        <v>-0.023164086357862421</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.057179137833115179</v>
+        <v>-0.05619440695202832</v>
       </c>
       <c r="C17">
-        <v>0.0082031782954033114</v>
+        <v>0.0082176700349124703</v>
       </c>
       <c r="D17">
-        <v>-0.073257200589021687</v>
+        <v>-0.072300878726697188</v>
       </c>
       <c r="E17">
-        <v>-0.041101075077208671</v>
+        <v>-0.040087935177359452</v>
       </c>
     </row>
     <row r="18">
@@ -854,16 +854,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.021644943603863483</v>
+        <v>0.023412311114416509</v>
       </c>
       <c r="C18">
-        <v>0.020503548142889051</v>
+        <v>0.020204495850962519</v>
       </c>
       <c r="D18">
-        <v>-0.018541594087856005</v>
+        <v>-0.016188103694451901</v>
       </c>
       <c r="E18">
-        <v>0.061831481295582968</v>
+        <v>0.063012725923284912</v>
       </c>
     </row>
     <row r="19">
@@ -871,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.091908996028110548</v>
+        <v>-0.093262887417085619</v>
       </c>
       <c r="C19">
-        <v>0.016370324680191683</v>
+        <v>0.015440428138466574</v>
       </c>
       <c r="D19">
-        <v>-0.12399449972735038</v>
+        <v>-0.1235258231329833</v>
       </c>
       <c r="E19">
-        <v>-0.059823492328870707</v>
+        <v>-0.06299995170118794</v>
       </c>
     </row>
     <row r="20">
@@ -888,16 +888,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.15303630922111874</v>
+        <v>-0.15342696056004027</v>
       </c>
       <c r="C20">
-        <v>0.0046024944906586061</v>
+        <v>0.0047963856061168956</v>
       </c>
       <c r="D20">
-        <v>-0.16205704309670135</v>
+        <v>-0.16282771491742032</v>
       </c>
       <c r="E20">
-        <v>-0.14401557534553613</v>
+        <v>-0.14402620620266021</v>
       </c>
     </row>
     <row r="21">
@@ -905,16 +905,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02096055302258484</v>
+        <v>-0.021377979051074029</v>
       </c>
       <c r="C21">
-        <v>0.0066297851814736087</v>
+        <v>0.006553217666118662</v>
       </c>
       <c r="D21">
-        <v>-0.033954708234663435</v>
+        <v>-0.03422206511685217</v>
       </c>
       <c r="E21">
-        <v>-0.0079663978105062438</v>
+        <v>-0.0085338929852958861</v>
       </c>
     </row>
     <row r="22">
@@ -922,16 +922,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.11627636684633143</v>
+        <v>-0.11648746554878942</v>
       </c>
       <c r="C22">
-        <v>0.0067270793067385117</v>
+        <v>0.0065762633595218608</v>
       </c>
       <c r="D22">
-        <v>-0.12946121526042334</v>
+        <v>-0.12937672039799536</v>
       </c>
       <c r="E22">
-        <v>-0.10309151843223953</v>
+        <v>-0.10359821069958346</v>
       </c>
     </row>
     <row r="23">
@@ -939,16 +939,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.047806989887355496</v>
+        <v>-0.047943529867901319</v>
       </c>
       <c r="C23">
-        <v>0.002833804661930177</v>
+        <v>0.0028931843868522165</v>
       </c>
       <c r="D23">
-        <v>-0.05336115131694278</v>
+        <v>-0.053614073829760911</v>
       </c>
       <c r="E23">
-        <v>-0.042252828457768211</v>
+        <v>-0.042272985906041727</v>
       </c>
     </row>
     <row r="24">
@@ -956,16 +956,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0035473466719014206</v>
+        <v>-0.0036999880993961419</v>
       </c>
       <c r="C24">
-        <v>0.0051633400257737015</v>
+        <v>0.0052262228011167909</v>
       </c>
       <c r="D24">
-        <v>-0.013667318737817621</v>
+        <v>-0.013943208781382877</v>
       </c>
       <c r="E24">
-        <v>0.0065726253940147786</v>
+        <v>0.0065432325825905933</v>
       </c>
     </row>
     <row r="25">
@@ -973,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.093522775381915862</v>
+        <v>-0.093677360652642247</v>
       </c>
       <c r="C25">
-        <v>0.004230119252296851</v>
+        <v>0.0043900027352143777</v>
       </c>
       <c r="D25">
-        <v>-0.10181366625004609</v>
+        <v>-0.10228161816759494</v>
       </c>
       <c r="E25">
-        <v>-0.085231884513785633</v>
+        <v>-0.085073103137689551</v>
       </c>
     </row>
     <row r="26">
@@ -990,16 +990,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.16172036466464862</v>
+        <v>-0.16205271044661759</v>
       </c>
       <c r="C26">
-        <v>0.0053399421066232479</v>
+        <v>0.0052428216829583461</v>
       </c>
       <c r="D26">
-        <v>-0.17218647359971004</v>
+        <v>-0.17232846718390263</v>
       </c>
       <c r="E26">
-        <v>-0.1512542557295872</v>
+        <v>-0.15177695370933256</v>
       </c>
     </row>
     <row r="27">
@@ -1007,16 +1007,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.0043476479249002324</v>
+        <v>-0.004747827639494097</v>
       </c>
       <c r="C27">
-        <v>0.0065969658560436394</v>
+        <v>0.0064775449992238122</v>
       </c>
       <c r="D27">
-        <v>-0.017277481603171004</v>
+        <v>-0.01744360115458389</v>
       </c>
       <c r="E27">
-        <v>0.0085821857533705404</v>
+        <v>0.0079479458755956946</v>
       </c>
     </row>
     <row r="28">
@@ -1024,16 +1024,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.077982040334245051</v>
+        <v>-0.078110111145420255</v>
       </c>
       <c r="C28">
-        <v>0.00721067259068363</v>
+        <v>0.0069021433686245427</v>
       </c>
       <c r="D28">
-        <v>-0.092114718801967047</v>
+        <v>-0.091638083392195285</v>
       </c>
       <c r="E28">
-        <v>-0.063849361866523055</v>
+        <v>-0.064582138898645225</v>
       </c>
     </row>
     <row r="29">
@@ -1041,16 +1041,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.057808478816729611</v>
+        <v>-0.057949112402810685</v>
       </c>
       <c r="C29">
-        <v>0.0031755176318704862</v>
+        <v>0.0035660102313441943</v>
       </c>
       <c r="D29">
-        <v>-0.064032387328915891</v>
+        <v>-0.064938373768947996</v>
       </c>
       <c r="E29">
-        <v>-0.051584570304543338</v>
+        <v>-0.05095985103667338</v>
       </c>
     </row>
     <row r="30">
@@ -1058,16 +1058,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0027338247150451344</v>
+        <v>0.0025490153085120557</v>
       </c>
       <c r="C30">
-        <v>0.0051411272215430388</v>
+        <v>0.0045660216716771921</v>
       </c>
       <c r="D30">
-        <v>-0.0073426129514484557</v>
+        <v>-0.0064002351973591939</v>
       </c>
       <c r="E30">
-        <v>0.012810262381538724</v>
+        <v>0.011498265814383306</v>
       </c>
     </row>
     <row r="31">
@@ -1075,16 +1075,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.074556459188820479</v>
+        <v>-0.074517414445214369</v>
       </c>
       <c r="C31">
-        <v>0.0044342550340282739</v>
+        <v>0.0044846005386297424</v>
       </c>
       <c r="D31">
-        <v>-0.083247450973752579</v>
+        <v>-0.083307082240247132</v>
       </c>
       <c r="E31">
-        <v>-0.065865467403888378</v>
+        <v>-0.065727746650181607</v>
       </c>
     </row>
     <row r="32">
@@ -1092,16 +1092,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.17696695958858022</v>
+        <v>-0.17776731450234848</v>
       </c>
       <c r="C32">
-        <v>0.0065438104776869488</v>
+        <v>0.0068474954529402178</v>
       </c>
       <c r="D32">
-        <v>-0.18979267656624313</v>
+        <v>-0.19118825003714149</v>
       </c>
       <c r="E32">
-        <v>-0.16414124261091731</v>
+        <v>-0.16434637896755547</v>
       </c>
     </row>
     <row r="33">
@@ -1109,16 +1109,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.047996265293539134</v>
+        <v>-0.04765772755912865</v>
       </c>
       <c r="C33">
-        <v>0.014404909844589305</v>
+        <v>0.014972953884754441</v>
       </c>
       <c r="D33">
-        <v>-0.076229554962520762</v>
+        <v>-0.077004377036118454</v>
       </c>
       <c r="E33">
-        <v>-0.019762975624557498</v>
+        <v>-0.018311078082138846</v>
       </c>
     </row>
     <row r="34">
@@ -1126,16 +1126,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.060078470691476885</v>
+        <v>-0.06079784082938202</v>
       </c>
       <c r="C34">
-        <v>0.012689900621479171</v>
+        <v>0.012278619709690703</v>
       </c>
       <c r="D34">
-        <v>-0.084950382003812233</v>
+        <v>-0.084863656529812925</v>
       </c>
       <c r="E34">
-        <v>-0.035206559379141536</v>
+        <v>-0.036732025128951115</v>
       </c>
     </row>
     <row r="35">
@@ -1143,16 +1143,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.04803686851145661</v>
+        <v>-0.048319756838915831</v>
       </c>
       <c r="C35">
-        <v>0.006108774609192652</v>
+        <v>0.0063011169511702153</v>
       </c>
       <c r="D35">
-        <v>-0.06000994260437547</v>
+        <v>-0.060669822233576275</v>
       </c>
       <c r="E35">
-        <v>-0.036063794418537749</v>
+        <v>-0.035969691444255388</v>
       </c>
     </row>
     <row r="36">
@@ -1160,16 +1160,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0039128979231163354</v>
+        <v>0.0046992557406714272</v>
       </c>
       <c r="C36">
-        <v>0.016152318078827412</v>
+        <v>0.015329149841694931</v>
       </c>
       <c r="D36">
-        <v>-0.027745317267729056</v>
+        <v>-0.025345576700396388</v>
       </c>
       <c r="E36">
-        <v>0.03557111311396173</v>
+        <v>0.034744088181739241</v>
       </c>
     </row>
     <row r="37">
@@ -1177,16 +1177,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.081249575832546425</v>
+        <v>-0.081803081993042245</v>
       </c>
       <c r="C37">
-        <v>0.011740519116307442</v>
+        <v>0.012963581832578366</v>
       </c>
       <c r="D37">
-        <v>-0.10426075471240648</v>
+        <v>-0.10721144762441522</v>
       </c>
       <c r="E37">
-        <v>-0.058238396952686379</v>
+        <v>-0.056394716361669275</v>
       </c>
     </row>
     <row r="38">
@@ -1194,16 +1194,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.16981806875918373</v>
+        <v>-0.17064415773692759</v>
       </c>
       <c r="C38">
-        <v>0.0040476680723036873</v>
+        <v>0.0041150748050748087</v>
       </c>
       <c r="D38">
-        <v>-0.17775136157920818</v>
+        <v>-0.17870956585495226</v>
       </c>
       <c r="E38">
-        <v>-0.16188477593915929</v>
+        <v>-0.16257874961890292</v>
       </c>
     </row>
     <row r="39">
@@ -1211,16 +1211,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.028439161374978737</v>
+        <v>-0.02858129130194274</v>
       </c>
       <c r="C39">
-        <v>0.0060271003055146601</v>
+        <v>0.0066296750805093377</v>
       </c>
       <c r="D39">
-        <v>-0.040252074569734196</v>
+        <v>-0.04157523132662079</v>
       </c>
       <c r="E39">
-        <v>-0.016626248180223277</v>
+        <v>-0.01558735127726469</v>
       </c>
     </row>
     <row r="40">
@@ -1228,16 +1228,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.087908154331181099</v>
+        <v>-0.087984827355854084</v>
       </c>
       <c r="C40">
-        <v>0.005768575246077874</v>
+        <v>0.0062816842862812713</v>
       </c>
       <c r="D40">
-        <v>-0.09921436713420731</v>
+        <v>-0.10029671713607398</v>
       </c>
       <c r="E40">
-        <v>-0.076601941528154888</v>
+        <v>-0.075672937575634189</v>
       </c>
     </row>
     <row r="41">
@@ -1245,16 +1245,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.06302715905556136</v>
+        <v>-0.063124288578072521</v>
       </c>
       <c r="C41">
-        <v>0.0029251483003556755</v>
+        <v>0.0029694469705011683</v>
       </c>
       <c r="D41">
-        <v>-0.068760350931458769</v>
+        <v>-0.068944304635520495</v>
       </c>
       <c r="E41">
-        <v>-0.057293967179663952</v>
+        <v>-0.057304272520624554</v>
       </c>
     </row>
     <row r="42">
@@ -1262,16 +1262,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0011646886522908466</v>
+        <v>-0.0011655145170387658</v>
       </c>
       <c r="C42">
-        <v>0.0052814886277797587</v>
+        <v>0.0058296791723379694</v>
       </c>
       <c r="D42">
-        <v>-0.011516227987834847</v>
+        <v>-0.01259148936347646</v>
       </c>
       <c r="E42">
-        <v>0.0091868506832531536</v>
+        <v>0.010260460329398929</v>
       </c>
     </row>
     <row r="43">
@@ -1279,16 +1279,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.087401567988894951</v>
+        <v>-0.087739176024739837</v>
       </c>
       <c r="C43">
-        <v>0.0042157298340472077</v>
+        <v>0.0043415381257923815</v>
       </c>
       <c r="D43">
-        <v>-0.095664256083238391</v>
+        <v>-0.096248444537411618</v>
       </c>
       <c r="E43">
-        <v>-0.079138879894551512</v>
+        <v>-0.079229907512068057</v>
       </c>
     </row>
     <row r="44">
@@ -1296,16 +1296,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.18275079554108009</v>
+        <v>-0.18407888670215353</v>
       </c>
       <c r="C44">
-        <v>0.0047711668345929445</v>
+        <v>0.0047909450608974429</v>
       </c>
       <c r="D44">
-        <v>-0.19210212385909045</v>
+        <v>-0.19346898023661457</v>
       </c>
       <c r="E44">
-        <v>-0.17339946722306973</v>
+        <v>-0.17468879316769248</v>
       </c>
     </row>
     <row r="45">
@@ -1313,16 +1313,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.0084180956477924989</v>
+        <v>-0.0091468349942643024</v>
       </c>
       <c r="C45">
-        <v>0.0062498905765038847</v>
+        <v>0.0064109251924265457</v>
       </c>
       <c r="D45">
-        <v>-0.020667673321073169</v>
+        <v>-0.02171203589599232</v>
       </c>
       <c r="E45">
-        <v>0.0038314820254881712</v>
+        <v>0.0034183659074637166</v>
       </c>
     </row>
     <row r="46">
@@ -1330,16 +1330,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.061485035568438928</v>
+        <v>-0.060737740006603716</v>
       </c>
       <c r="C46">
-        <v>0.0063764057983259938</v>
+        <v>0.0061190974828264121</v>
       </c>
       <c r="D46">
-        <v>-0.07398257886889209</v>
+        <v>-0.072730968269476323</v>
       </c>
       <c r="E46">
-        <v>-0.048987492267985766</v>
+        <v>-0.048744511743731102</v>
       </c>
     </row>
     <row r="47">
@@ -1347,16 +1347,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.080027209254072515</v>
+        <v>-0.080229166245644343</v>
       </c>
       <c r="C47">
-        <v>0.0032990992512006941</v>
+        <v>0.0037110003963432359</v>
       </c>
       <c r="D47">
-        <v>-0.086493333613142931</v>
+        <v>-0.087502603509481108</v>
       </c>
       <c r="E47">
-        <v>-0.073561084895002099</v>
+        <v>-0.072955728981807577</v>
       </c>
     </row>
     <row r="48">
@@ -1364,16 +1364,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.00023857623481842144</v>
+        <v>0.00032415575034068446</v>
       </c>
       <c r="C48">
-        <v>0.00533259167571235</v>
+        <v>0.0053734970178774639</v>
       </c>
       <c r="D48">
-        <v>-0.010213125367899497</v>
+        <v>-0.010207719558931242</v>
       </c>
       <c r="E48">
-        <v>0.010690277837536339</v>
+        <v>0.010856031059612612</v>
       </c>
     </row>
     <row r="49">
@@ -1381,16 +1381,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.068228579789765403</v>
+        <v>-0.068463172566542205</v>
       </c>
       <c r="C49">
-        <v>0.0044949215239029373</v>
+        <v>0.0047961353927554922</v>
       </c>
       <c r="D49">
-        <v>-0.077038475868896922</v>
+        <v>-0.07786343830686622</v>
       </c>
       <c r="E49">
-        <v>-0.059418683710633885</v>
+        <v>-0.059062906826218189</v>
       </c>
     </row>
     <row r="50">
@@ -1398,16 +1398,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.15447999292797202</v>
+        <v>-0.15517396459747274</v>
       </c>
       <c r="C50">
-        <v>0.0055175840985079282</v>
+        <v>0.0053201171183374276</v>
       </c>
       <c r="D50">
-        <v>-0.16529432997046689</v>
+        <v>-0.16560127329354452</v>
       </c>
       <c r="E50">
-        <v>-0.14366565588547714</v>
+        <v>-0.14474665590140096</v>
       </c>
     </row>
     <row r="51">
@@ -1415,16 +1415,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.048901464736917755</v>
+        <v>-0.048617009749955503</v>
       </c>
       <c r="C51">
-        <v>0.01254506464328836</v>
+        <v>0.012545310669081407</v>
       </c>
       <c r="D51">
-        <v>-0.073489500886487855</v>
+        <v>-0.073205533672435374</v>
       </c>
       <c r="E51">
-        <v>-0.024313428587347655</v>
+        <v>-0.024028485827475632</v>
       </c>
     </row>
     <row r="52">
@@ -1432,16 +1432,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.038331592583394379</v>
+        <v>-0.038063987228287063</v>
       </c>
       <c r="C52">
-        <v>0.010421689771356671</v>
+        <v>0.01095384557250851</v>
       </c>
       <c r="D52">
-        <v>-0.058757863162623047</v>
+        <v>-0.059533275714428416</v>
       </c>
       <c r="E52">
-        <v>-0.017905322004165714</v>
+        <v>-0.016594698742145711</v>
       </c>
     </row>
     <row r="53">
@@ -1449,16 +1449,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.047592601837013741</v>
+        <v>-0.047747066326929585</v>
       </c>
       <c r="C53">
-        <v>0.0055122432087714637</v>
+        <v>0.0058107964198945402</v>
       </c>
       <c r="D53">
-        <v>-0.058396486507679639</v>
+        <v>-0.059136113116075237</v>
       </c>
       <c r="E53">
-        <v>-0.036788717166347844</v>
+        <v>-0.036358019537783934</v>
       </c>
     </row>
     <row r="54">
@@ -1466,16 +1466,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.015733959856282748</v>
+        <v>-0.014491193389165144</v>
       </c>
       <c r="C54">
-        <v>0.014903850641452497</v>
+        <v>0.014770900283429467</v>
       </c>
       <c r="D54">
-        <v>-0.044945204240938591</v>
+        <v>-0.043441867666760309</v>
       </c>
       <c r="E54">
-        <v>0.013477284528373091</v>
+        <v>0.014459480888430021</v>
       </c>
     </row>
     <row r="55">
@@ -1483,16 +1483,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.051930884001828277</v>
+        <v>-0.052414051628989038</v>
       </c>
       <c r="C55">
-        <v>0.010415908098545</v>
+        <v>0.011050304079277476</v>
       </c>
       <c r="D55">
-        <v>-0.072345852205311381</v>
+        <v>-0.074072430463651834</v>
       </c>
       <c r="E55">
-        <v>-0.031515915798345173</v>
+        <v>-0.030755672794326248</v>
       </c>
     </row>
     <row r="56">
@@ -1500,16 +1500,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.17079937089662234</v>
+        <v>-0.17137772037408652</v>
       </c>
       <c r="C56">
-        <v>0.0036684201001737286</v>
+        <v>0.0038846509302361484</v>
       </c>
       <c r="D56">
-        <v>-0.17798935049022527</v>
+        <v>-0.17899150545273931</v>
       </c>
       <c r="E56">
-        <v>-0.16360939130301941</v>
+        <v>-0.16376393529543373</v>
       </c>
     </row>
     <row r="57">
@@ -1517,16 +1517,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.042169340888830058</v>
+        <v>-0.042096234440326313</v>
       </c>
       <c r="C57">
-        <v>0.0056850723452225157</v>
+        <v>0.005169248525507205</v>
       </c>
       <c r="D57">
-        <v>-0.05331189082425606</v>
+        <v>-0.052227787570368348</v>
       </c>
       <c r="E57">
-        <v>-0.031026790953404056</v>
+        <v>-0.031964681310284279</v>
       </c>
     </row>
     <row r="58">
@@ -1534,16 +1534,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.046124637073411169</v>
+        <v>-0.04593040845926652</v>
       </c>
       <c r="C58">
-        <v>0.0050979378770060159</v>
+        <v>0.0052443493113615829</v>
       </c>
       <c r="D58">
-        <v>-0.056116423265890281</v>
+        <v>-0.05620915660193699</v>
       </c>
       <c r="E58">
-        <v>-0.036132850880932058</v>
+        <v>-0.03565166031659605</v>
       </c>
     </row>
     <row r="59">
@@ -1551,16 +1551,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.072744506074702148</v>
+        <v>-0.072591034536570051</v>
       </c>
       <c r="C59">
-        <v>0.0028247152350817295</v>
+        <v>0.0023280430047731451</v>
       </c>
       <c r="D59">
-        <v>-0.07828085253464917</v>
+        <v>-0.077153920422328895</v>
       </c>
       <c r="E59">
-        <v>-0.067208159614755125</v>
+        <v>-0.068028148650811207</v>
       </c>
     </row>
     <row r="60">
@@ -1568,16 +1568,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.010592204616967478</v>
+        <v>-0.010284682026807023</v>
       </c>
       <c r="C60">
-        <v>0.0051274379916718292</v>
+        <v>0.005204437226811195</v>
       </c>
       <c r="D60">
-        <v>-0.020641809908585083</v>
+        <v>-0.020485203716847155</v>
       </c>
       <c r="E60">
-        <v>-0.00054259932534987329</v>
+        <v>-8.4160336766891941e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1585,16 +1585,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.069395089098443732</v>
+        <v>-0.069827670112592749</v>
       </c>
       <c r="C61">
-        <v>0.0039786180189079652</v>
+        <v>0.0032857078041046424</v>
       </c>
       <c r="D61">
-        <v>-0.07719304604323475</v>
+        <v>-0.076267546752903204</v>
       </c>
       <c r="E61">
-        <v>-0.061597132153652714</v>
+        <v>-0.063387793472282294</v>
       </c>
     </row>
     <row r="62">
@@ -1602,16 +1602,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.18765995858883106</v>
+        <v>-0.18864968849357752</v>
       </c>
       <c r="C62">
-        <v>0.004403706019516034</v>
+        <v>0.0051846684415299601</v>
       </c>
       <c r="D62">
-        <v>-0.19629107593017348</v>
+        <v>-0.19881146680501888</v>
       </c>
       <c r="E62">
-        <v>-0.17902884124748863</v>
+        <v>-0.17848791018213617</v>
       </c>
     </row>
     <row r="63">
@@ -1619,16 +1619,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.025914246499527085</v>
+        <v>-0.026651901671479076</v>
       </c>
       <c r="C63">
-        <v>0.0060961798559134479</v>
+        <v>0.0063850456716319764</v>
       </c>
       <c r="D63">
-        <v>-0.037862556272507689</v>
+        <v>-0.039166379570167165</v>
       </c>
       <c r="E63">
-        <v>-0.013965936726546481</v>
+        <v>-0.014137423772790985</v>
       </c>
     </row>
     <row r="64">
@@ -1636,16 +1636,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.031334837976003414</v>
+        <v>-0.030990882386435346</v>
       </c>
       <c r="C64">
-        <v>0.0058080930552055826</v>
+        <v>0.006632757253494736</v>
       </c>
       <c r="D64">
-        <v>-0.042718507200686297</v>
+        <v>-0.043990866775741572</v>
       </c>
       <c r="E64">
-        <v>-0.019951168751320532</v>
+        <v>-0.017990897997129121</v>
       </c>
     </row>
     <row r="65">
@@ -1653,16 +1653,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.095912155175779751</v>
+        <v>-0.096184274204921053</v>
       </c>
       <c r="C65">
-        <v>0.0032521515968411655</v>
+        <v>0.0035391912586462751</v>
       </c>
       <c r="D65">
-        <v>-0.10228626370012046</v>
+        <v>-0.10312097127718464</v>
       </c>
       <c r="E65">
-        <v>-0.089538046651439038</v>
+        <v>-0.089247577132657463</v>
       </c>
     </row>
     <row r="66">
@@ -1670,16 +1670,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0048298092872437071</v>
+        <v>-0.0051239965651623566</v>
       </c>
       <c r="C66">
-        <v>0.0053206174487109943</v>
+        <v>0.0048862710585001667</v>
       </c>
       <c r="D66">
-        <v>-0.015258041804917782</v>
+        <v>-0.014700925210366162</v>
       </c>
       <c r="E66">
-        <v>0.0055984232304303674</v>
+        <v>0.0044529320800414489</v>
       </c>
     </row>
     <row r="67">
@@ -1687,16 +1687,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.048138709094563185</v>
+        <v>-0.048013825714913611</v>
       </c>
       <c r="C67">
-        <v>0.0043612426023068073</v>
+        <v>0.0041616587394490293</v>
       </c>
       <c r="D67">
-        <v>-0.056686598951568343</v>
+        <v>-0.056170538332004048</v>
       </c>
       <c r="E67">
-        <v>-0.039590819237558028</v>
+        <v>-0.039857113097823173</v>
       </c>
     </row>
     <row r="68">
@@ -1704,16 +1704,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.13411082058311358</v>
+        <v>-0.13484008672991063</v>
       </c>
       <c r="C68">
-        <v>0.0049228836316698556</v>
+        <v>0.0049225728976203141</v>
       </c>
       <c r="D68">
-        <v>-0.14375955848422789</v>
+        <v>-0.14448821778429694</v>
       </c>
       <c r="E68">
-        <v>-0.12446208268199928</v>
+        <v>-0.12519195567552432</v>
       </c>
     </row>
     <row r="69">
@@ -1721,16 +1721,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.048905856049906909</v>
+        <v>-0.047850208467697122</v>
       </c>
       <c r="C69">
-        <v>0.011409961008375538</v>
+        <v>0.013842786827032745</v>
       </c>
       <c r="D69">
-        <v>-0.071269115364733737</v>
+        <v>-0.074981756185295956</v>
       </c>
       <c r="E69">
-        <v>-0.026542596735080089</v>
+        <v>-0.020718660750098292</v>
       </c>
     </row>
     <row r="70">
@@ -1738,16 +1738,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.029425342987244217</v>
+        <v>-0.029374281656007317</v>
       </c>
       <c r="C70">
-        <v>0.0090540182963139981</v>
+        <v>0.0090004721448572206</v>
       </c>
       <c r="D70">
-        <v>-0.04717100915148676</v>
+        <v>-0.047015002598284318</v>
       </c>
       <c r="E70">
-        <v>-0.011679676823001674</v>
+        <v>-0.011733560713730315</v>
       </c>
     </row>
     <row r="71">
@@ -1755,16 +1755,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.047595013444972273</v>
+        <v>-0.047607953028887671</v>
       </c>
       <c r="C71">
-        <v>0.0050126626361265986</v>
+        <v>0.0051477624334363729</v>
       </c>
       <c r="D71">
-        <v>-0.057419730345614595</v>
+        <v>-0.057697466234527935</v>
       </c>
       <c r="E71">
-        <v>-0.037770296544329951</v>
+        <v>-0.037518439823247408</v>
       </c>
     </row>
     <row r="72">
@@ -1772,16 +1772,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.046356518913204824</v>
+        <v>-0.046074611722696848</v>
       </c>
       <c r="C72">
-        <v>0.013612849702266082</v>
+        <v>0.01391000963449536</v>
       </c>
       <c r="D72">
-        <v>-0.073037427692476523</v>
+        <v>-0.073337957246615515</v>
       </c>
       <c r="E72">
-        <v>-0.019675610133933128</v>
+        <v>-0.018811266198778182</v>
       </c>
     </row>
     <row r="73">
@@ -1789,16 +1789,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.02034980957595128</v>
+        <v>-0.020313643800299454</v>
       </c>
       <c r="C73">
-        <v>0.0095026210763582628</v>
+        <v>0.0098775072666800589</v>
       </c>
       <c r="D73">
-        <v>-0.038974753775555107</v>
+        <v>-0.039673363930089689</v>
       </c>
       <c r="E73">
-        <v>-0.0017248653763474488</v>
+        <v>-0.00095392367050921995</v>
       </c>
     </row>
     <row r="74">
@@ -1806,16 +1806,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.16180898085004211</v>
+        <v>-0.16209035386415319</v>
       </c>
       <c r="C74">
-        <v>0.003488896495404794</v>
+        <v>0.0036840054724745176</v>
       </c>
       <c r="D74">
-        <v>-0.16864710023690438</v>
+        <v>-0.16931088059866126</v>
       </c>
       <c r="E74">
-        <v>-0.15497086146317984</v>
+        <v>-0.15486982712964512</v>
       </c>
     </row>
     <row r="75">
@@ -1823,16 +1823,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.048198856788326999</v>
+        <v>-0.048256811266084165</v>
       </c>
       <c r="C75">
-        <v>0.0055187407327957124</v>
+        <v>0.0054713723242131238</v>
       </c>
       <c r="D75">
-        <v>-0.059015402376796353</v>
+        <v>-0.058980516873093594</v>
       </c>
       <c r="E75">
-        <v>-0.037382311199857646</v>
+        <v>-0.037533105659074736</v>
       </c>
     </row>
     <row r="76">
@@ -1840,16 +1840,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.019816215559537057</v>
+        <v>-0.019673289769358476</v>
       </c>
       <c r="C76">
-        <v>0.0047287370653043776</v>
+        <v>0.0048715287457170653</v>
       </c>
       <c r="D76">
-        <v>-0.02908438062096013</v>
+        <v>-0.029221322151283213</v>
       </c>
       <c r="E76">
-        <v>-0.010548050498113986</v>
+        <v>-0.01012525738743374</v>
       </c>
     </row>
     <row r="77">
@@ -1857,16 +1857,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.076595423173271379</v>
+        <v>-0.076618667110106536</v>
       </c>
       <c r="C77">
-        <v>0.0028763696049252272</v>
+        <v>0.0027293176348745689</v>
       </c>
       <c r="D77">
-        <v>-0.082233010453557437</v>
+        <v>-0.081968037756777815</v>
       </c>
       <c r="E77">
-        <v>-0.070957835892985321</v>
+        <v>-0.071269296463435258</v>
       </c>
     </row>
     <row r="78">
@@ -1874,16 +1874,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.028183604957812466</v>
+        <v>-0.027967068435796584</v>
       </c>
       <c r="C78">
-        <v>0.0051876433645230693</v>
+        <v>0.0056038329100200476</v>
       </c>
       <c r="D78">
-        <v>-0.038351210746866093</v>
+        <v>-0.038950392214118695</v>
       </c>
       <c r="E78">
-        <v>-0.018015999168758838</v>
+        <v>-0.016983744657474469</v>
       </c>
     </row>
     <row r="79">
@@ -1891,16 +1891,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.056020348128513198</v>
+        <v>-0.056099221811387844</v>
       </c>
       <c r="C79">
-        <v>0.003967103528189209</v>
+        <v>0.0043903940391484889</v>
       </c>
       <c r="D79">
-        <v>-0.063795737060381302</v>
+        <v>-0.064704246268873097</v>
       </c>
       <c r="E79">
-        <v>-0.048244959196645093</v>
+        <v>-0.04749419735390259</v>
       </c>
     </row>
     <row r="80">
@@ -1908,16 +1908,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.18660373534044244</v>
+        <v>-0.18673349546309945</v>
       </c>
       <c r="C80">
-        <v>0.0042582897860814466</v>
+        <v>0.004218705075329972</v>
       </c>
       <c r="D80">
-        <v>-0.19494984170045512</v>
+        <v>-0.19500201759143157</v>
       </c>
       <c r="E80">
-        <v>-0.17825762898042977</v>
+        <v>-0.17846497333476732</v>
       </c>
     </row>
     <row r="81">
@@ -1925,16 +1925,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.029767673674232737</v>
+        <v>-0.030288068811939215</v>
       </c>
       <c r="C81">
-        <v>0.0061885939590365291</v>
+        <v>0.0058493516447091351</v>
       </c>
       <c r="D81">
-        <v>-0.04189711201585878</v>
+        <v>-0.04175260417220978</v>
       </c>
       <c r="E81">
-        <v>-0.017638235332606694</v>
+        <v>-0.01882353345166865</v>
       </c>
     </row>
     <row r="82">
@@ -1942,16 +1942,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0081419122786982271</v>
+        <v>-0.0081465467369414794</v>
       </c>
       <c r="C82">
-        <v>0.0055476327080641926</v>
+        <v>0.0053036692055218292</v>
       </c>
       <c r="D82">
-        <v>-0.019015087885282781</v>
+        <v>-0.018541562601799205</v>
       </c>
       <c r="E82">
-        <v>0.0027312633278863269</v>
+        <v>0.0022484691279162465</v>
       </c>
     </row>
     <row r="83">
@@ -1959,16 +1959,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.10556223094679273</v>
+        <v>-0.10587180769053288</v>
       </c>
       <c r="C83">
-        <v>0.0033335368651851134</v>
+        <v>0.0035486856675946512</v>
       </c>
       <c r="D83">
-        <v>-0.11209585187922992</v>
+        <v>-0.11282711348833346</v>
       </c>
       <c r="E83">
-        <v>-0.099028610014355548</v>
+        <v>-0.098916501892732295</v>
       </c>
     </row>
     <row r="84">
@@ -1976,16 +1976,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.019170470089015335</v>
+        <v>-0.019257976230802911</v>
       </c>
       <c r="C84">
-        <v>0.0055289658491680625</v>
+        <v>0.005769039516630276</v>
       </c>
       <c r="D84">
-        <v>-0.030007058513799055</v>
+        <v>-0.030565101672813899</v>
       </c>
       <c r="E84">
-        <v>-0.0083338816642316155</v>
+        <v>-0.0079508507887919213</v>
       </c>
     </row>
     <row r="85">
@@ -1993,16 +1993,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.037615077626993849</v>
+        <v>-0.037506751914255426</v>
       </c>
       <c r="C85">
-        <v>0.0044209761947969529</v>
+        <v>0.0048939036985036219</v>
       </c>
       <c r="D85">
-        <v>-0.046280043330478839</v>
+        <v>-0.047098640279829324</v>
       </c>
       <c r="E85">
-        <v>-0.02895011192350886</v>
+        <v>-0.027914863548681532</v>
       </c>
     </row>
     <row r="86">
@@ -2010,16 +2010,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.11794566445480699</v>
+        <v>-0.11797970612862162</v>
       </c>
       <c r="C86">
-        <v>0.0043736586045873558</v>
+        <v>0.0043789024539093932</v>
       </c>
       <c r="D86">
-        <v>-0.12651793402322298</v>
+        <v>-0.1265622554637702</v>
       </c>
       <c r="E86">
-        <v>-0.109373394886391</v>
+        <v>-0.10939715679347305</v>
       </c>
     </row>
     <row r="87">
@@ -2027,16 +2027,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.060869734675885363</v>
+        <v>-0.060217417427855593</v>
       </c>
       <c r="C87">
-        <v>0.01022142856134773</v>
+        <v>0.010966551355185764</v>
       </c>
       <c r="D87">
-        <v>-0.080903497921667095</v>
+        <v>-0.081711608959410043</v>
       </c>
       <c r="E87">
-        <v>-0.040835971430103632</v>
+        <v>-0.038723225896301144</v>
       </c>
     </row>
     <row r="88">
@@ -2044,16 +2044,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.013783371232035995</v>
+        <v>-0.01354135271725368</v>
       </c>
       <c r="C88">
-        <v>0.0078825141644976587</v>
+        <v>0.00786212932119249</v>
       </c>
       <c r="D88">
-        <v>-0.029232916430661861</v>
+        <v>-0.028950947584618341</v>
       </c>
       <c r="E88">
-        <v>0.0016661739665898706</v>
+        <v>0.0018682421501109818</v>
       </c>
     </row>
     <row r="89">
@@ -2061,16 +2061,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.050320246593257296</v>
+        <v>-0.049956942216219352</v>
       </c>
       <c r="C89">
-        <v>0.0048158757256847283</v>
+        <v>0.005204338477454387</v>
       </c>
       <c r="D89">
-        <v>-0.05975926514849144</v>
+        <v>-0.060157343356301761</v>
       </c>
       <c r="E89">
-        <v>-0.040881228038023153</v>
+        <v>-0.039756541076136943</v>
       </c>
     </row>
     <row r="90">
@@ -2078,16 +2078,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.07267977630132938</v>
+        <v>-0.072076835457584421</v>
       </c>
       <c r="C90">
-        <v>0.012879516198559093</v>
+        <v>0.01380427273126094</v>
       </c>
       <c r="D90">
-        <v>-0.097923366315968513</v>
+        <v>-0.09913293872910664</v>
       </c>
       <c r="E90">
-        <v>-0.047436186286690246</v>
+        <v>-0.045020732186062201</v>
       </c>
     </row>
     <row r="91">
@@ -2095,16 +2095,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.007309382374844864</v>
+        <v>0.0073385912802940113</v>
       </c>
       <c r="C91">
-        <v>0.0091165736348784582</v>
+        <v>0.010426594631722488</v>
       </c>
       <c r="D91">
-        <v>-0.01055891668462499</v>
+        <v>-0.013097329294307264</v>
       </c>
       <c r="E91">
-        <v>0.025177681434314717</v>
+        <v>0.027774511854895288</v>
       </c>
     </row>
     <row r="92">
@@ -2112,16 +2112,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.15320443932296227</v>
+        <v>-0.15300592967683441</v>
       </c>
       <c r="C92">
-        <v>0.0033648322412702506</v>
+        <v>0.0038043276369444869</v>
       </c>
       <c r="D92">
-        <v>-0.1597993969586716</v>
+        <v>-0.16046228380405417</v>
       </c>
       <c r="E92">
-        <v>-0.14660948168725293</v>
+        <v>-0.14554957554961465</v>
       </c>
     </row>
     <row r="93">
@@ -2129,16 +2129,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.055357192554991205</v>
+        <v>-0.055849501858826936</v>
       </c>
       <c r="C93">
-        <v>0.005380139810736503</v>
+        <v>0.0058567359051612177</v>
       </c>
       <c r="D93">
-        <v>-0.065902085013762282</v>
+        <v>-0.067328507114420344</v>
       </c>
       <c r="E93">
-        <v>-0.044812300096220128</v>
+        <v>-0.044370496603233521</v>
       </c>
     </row>
     <row r="94">
@@ -2146,16 +2146,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.0048658929873625521</v>
+        <v>0.0048549729703419708</v>
       </c>
       <c r="C94">
-        <v>0.0044540991080393201</v>
+        <v>0.0047746852964806082</v>
       </c>
       <c r="D94">
-        <v>-0.0038639909463698717</v>
+        <v>-0.0045032495105121993</v>
       </c>
       <c r="E94">
-        <v>0.013595776921094975</v>
+        <v>0.014213195451196141</v>
       </c>
     </row>
     <row r="95">
@@ -2163,16 +2163,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.077703811377987805</v>
+        <v>-0.077814214687755123</v>
       </c>
       <c r="C95">
-        <v>0.0029515501293826268</v>
+        <v>0.0031094003700831759</v>
       </c>
       <c r="D95">
-        <v>-0.083488749947093127</v>
+        <v>-0.083908534695047415</v>
       </c>
       <c r="E95">
-        <v>-0.071918872808882484</v>
+        <v>-0.071719894680462831</v>
       </c>
     </row>
     <row r="96">
@@ -2180,16 +2180,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.042253573512919862</v>
+        <v>-0.042177954697288494</v>
       </c>
       <c r="C96">
-        <v>0.0052864067961032064</v>
+        <v>0.0056713649324077985</v>
       </c>
       <c r="D96">
-        <v>-0.052614752292273553</v>
+        <v>-0.053293638965153989</v>
       </c>
       <c r="E96">
-        <v>-0.031892394733566171</v>
+        <v>-0.031062270429422997</v>
       </c>
     </row>
     <row r="97">
@@ -2197,16 +2197,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.037968034862302595</v>
+        <v>-0.037926824877030689</v>
       </c>
       <c r="C97">
-        <v>0.0039922216369852126</v>
+        <v>0.0039645704640127672</v>
       </c>
       <c r="D97">
-        <v>-0.045792654439081808</v>
+        <v>-0.045697249468093164</v>
       </c>
       <c r="E97">
-        <v>-0.030143415285523383</v>
+        <v>-0.030156400285968214</v>
       </c>
     </row>
     <row r="98">
@@ -2214,16 +2214,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.18184754101620818</v>
+        <v>-0.18147250970377865</v>
       </c>
       <c r="C98">
-        <v>0.0042395496130313414</v>
+        <v>0.0049767983795502126</v>
       </c>
       <c r="D98">
-        <v>-0.19015691726029674</v>
+        <v>-0.19122686958311666</v>
       </c>
       <c r="E98">
-        <v>-0.17353816477211961</v>
+        <v>-0.17171814982444064</v>
       </c>
     </row>
     <row r="99">
@@ -2231,16 +2231,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.036070009631690561</v>
+        <v>-0.036253451401127533</v>
       </c>
       <c r="C99">
-        <v>0.0063137667285114588</v>
+        <v>0.0063520160978137574</v>
       </c>
       <c r="D99">
-        <v>-0.048444782438535436</v>
+        <v>-0.048703192429821462</v>
       </c>
       <c r="E99">
-        <v>-0.023695236824845686</v>
+        <v>-0.0238037103724336</v>
       </c>
     </row>
     <row r="100">
@@ -2248,16 +2248,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.020004581559113901</v>
+        <v>0.020184266433680601</v>
       </c>
       <c r="C100">
-        <v>0.0054423428562782325</v>
+        <v>0.0061359638267963843</v>
       </c>
       <c r="D100">
-        <v>0.0093377705603368971</v>
+        <v>0.0081579806956231741</v>
       </c>
       <c r="E100">
-        <v>0.030671392557890906</v>
+        <v>0.03221055217173803</v>
       </c>
     </row>
     <row r="101">
@@ -2265,16 +2265,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.10911811044398571</v>
+        <v>-0.1092816108112563</v>
       </c>
       <c r="C101">
-        <v>0.0034436703646742546</v>
+        <v>0.0031262944802794511</v>
       </c>
       <c r="D101">
-        <v>-0.11586758935751797</v>
+        <v>-0.11540904394033878</v>
       </c>
       <c r="E101">
-        <v>-0.10236863153045346</v>
+        <v>-0.10315417768217382</v>
       </c>
     </row>
     <row r="102">
@@ -2282,16 +2282,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.030003193057257696</v>
+        <v>-0.030005825353247768</v>
       </c>
       <c r="C102">
-        <v>0.0057335278829334516</v>
+        <v>0.0060862689740451793</v>
       </c>
       <c r="D102">
-        <v>-0.041240716236880928</v>
+        <v>-0.041934709973463616</v>
       </c>
       <c r="E102">
-        <v>-0.018765669877634464</v>
+        <v>-0.01807694073303192</v>
       </c>
     </row>
     <row r="103">
@@ -2299,16 +2299,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>-0.02488401820236073</v>
+        <v>-0.024805392640958501</v>
       </c>
       <c r="C103">
-        <v>0.0044969473759848512</v>
+        <v>0.0041474160318345074</v>
       </c>
       <c r="D103">
-        <v>-0.033697884883919553</v>
+        <v>-0.03293419002516363</v>
       </c>
       <c r="E103">
-        <v>-0.016070151520801906</v>
+        <v>-0.016676595256753371</v>
       </c>
     </row>
     <row r="104">
@@ -2316,16 +2316,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>-0.10881507809529541</v>
+        <v>-0.10867074399242078</v>
       </c>
       <c r="C104">
-        <v>0.0041158004875177174</v>
+        <v>0.0042826441268853377</v>
       </c>
       <c r="D104">
-        <v>-0.11688195172640466</v>
+        <v>-0.11706462919328035</v>
       </c>
       <c r="E104">
-        <v>-0.10074820446418616</v>
+        <v>-0.10027685879156122</v>
       </c>
     </row>
     <row r="105">
@@ -2333,16 +2333,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>-0.064480938621383502</v>
+        <v>-0.064800225019031529</v>
       </c>
       <c r="C105">
-        <v>0.0096879073265899399</v>
+        <v>0.010635779092968502</v>
       </c>
       <c r="D105">
-        <v>-0.083469012603714046</v>
+        <v>-0.085646110430717085</v>
       </c>
       <c r="E105">
-        <v>-0.045492864639052957</v>
+        <v>-0.043954339607345974</v>
       </c>
     </row>
     <row r="106">
@@ -2350,16 +2350,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>0.0059024186507677136</v>
+        <v>0.0063720907689991529</v>
       </c>
       <c r="C106">
-        <v>0.0072799179657338136</v>
+        <v>0.0074562195012587776</v>
       </c>
       <c r="D106">
-        <v>-0.0083660519547729822</v>
+        <v>-0.008241930072254891</v>
       </c>
       <c r="E106">
-        <v>0.020170889256308409</v>
+        <v>0.020986111610253197</v>
       </c>
     </row>
     <row r="107">
@@ -2367,16 +2367,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>-0.057648613459493257</v>
+        <v>-0.057477453258229116</v>
       </c>
       <c r="C107">
-        <v>0.0049130086236707105</v>
+        <v>0.0049696527577561033</v>
       </c>
       <c r="D107">
-        <v>-0.067278010520867737</v>
+        <v>-0.067217874999749738</v>
       </c>
       <c r="E107">
-        <v>-0.048019216398118784</v>
+        <v>-0.047737031516708495</v>
       </c>
     </row>
     <row r="108">
@@ -2384,16 +2384,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>-0.079976878440823448</v>
+        <v>-0.081677909290811368</v>
       </c>
       <c r="C108">
-        <v>0.013029715209823446</v>
+        <v>0.011882495911420101</v>
       </c>
       <c r="D108">
-        <v>-0.10551485546523129</v>
+        <v>-0.10496736776222887</v>
       </c>
       <c r="E108">
-        <v>-0.054438901416415608</v>
+        <v>-0.058388450819393867</v>
       </c>
     </row>
     <row r="109">
@@ -2401,16 +2401,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0.03324446969826364</v>
+        <v>0.03298261967233191</v>
       </c>
       <c r="C109">
-        <v>0.0091109447833531091</v>
+        <v>0.0087201179984320292</v>
       </c>
       <c r="D109">
-        <v>0.015387203073395257</v>
+        <v>0.015891359763278698</v>
       </c>
       <c r="E109">
-        <v>0.051101736323132023</v>
+        <v>0.050073879581385122</v>
       </c>
     </row>
     <row r="110">
@@ -2418,16 +2418,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>-0.15029418270819397</v>
+        <v>-0.14989704054777048</v>
       </c>
       <c r="C110">
-        <v>0.0033323506794690101</v>
+        <v>0.0035764668172329835</v>
       </c>
       <c r="D110">
-        <v>-0.15682547757896856</v>
+        <v>-0.15690679513740358</v>
       </c>
       <c r="E110">
-        <v>-0.14376288783741939</v>
+        <v>-0.14288728595813738</v>
       </c>
     </row>
     <row r="111">
@@ -2435,16 +2435,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>-0.063548221666989257</v>
+        <v>-0.063202347573950435</v>
       </c>
       <c r="C111">
-        <v>0.0054210008382817813</v>
+        <v>0.0050134091987831799</v>
       </c>
       <c r="D111">
-        <v>-0.074173200360761138</v>
+        <v>-0.073028460868654027</v>
       </c>
       <c r="E111">
-        <v>-0.052923242973217377</v>
+        <v>-0.053376234279246849</v>
       </c>
     </row>
     <row r="112">
@@ -2452,16 +2452,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0.029534548209051648</v>
+        <v>0.030053767363435367</v>
       </c>
       <c r="C112">
-        <v>0.0043426016947590729</v>
+        <v>0.0048781681523737122</v>
       </c>
       <c r="D112">
-        <v>0.021023195442506571</v>
+        <v>0.020492721967924257</v>
       </c>
       <c r="E112">
-        <v>0.038045900975596722</v>
+        <v>0.039614812758946474</v>
       </c>
     </row>
     <row r="113">
@@ -2469,16 +2469,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>-0.084302926660764388</v>
+        <v>-0.084265965844875862</v>
       </c>
       <c r="C113">
-        <v>0.0031974491614021796</v>
+        <v>0.0034385584164916428</v>
       </c>
       <c r="D113">
-        <v>-0.090569819027731549</v>
+        <v>-0.091005424537777393</v>
       </c>
       <c r="E113">
-        <v>-0.078036034293797227</v>
+        <v>-0.07752650715197433</v>
       </c>
     </row>
     <row r="114">
@@ -2486,16 +2486,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>-0.052170087910597303</v>
+        <v>-0.052313606731192785</v>
       </c>
       <c r="C114">
-        <v>0.0057180445465015942</v>
+        <v>0.0057486494184414974</v>
       </c>
       <c r="D114">
-        <v>-0.063377262102769477</v>
+        <v>-0.063580765988905247</v>
       </c>
       <c r="E114">
-        <v>-0.040962913718425135</v>
+        <v>-0.041046447473480331</v>
       </c>
     </row>
     <row r="115">
@@ -2503,16 +2503,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>-0.015514382737899393</v>
+        <v>-0.015007192407759724</v>
       </c>
       <c r="C115">
-        <v>0.0042602435534958094</v>
+        <v>0.0042849949424812557</v>
       </c>
       <c r="D115">
-        <v>-0.023864316218973364</v>
+        <v>-0.023405638185397305</v>
       </c>
       <c r="E115">
-        <v>-0.0071644492568254236</v>
+        <v>-0.0066087466301221441</v>
       </c>
     </row>
     <row r="116">
@@ -2520,16 +2520,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>-0.1739137409231985</v>
+        <v>-0.17413414765509294</v>
       </c>
       <c r="C116">
-        <v>0.0042951677886330251</v>
+        <v>0.0041680380236705462</v>
       </c>
       <c r="D116">
-        <v>-0.18233212694173662</v>
+        <v>-0.18230336404141592</v>
       </c>
       <c r="E116">
-        <v>-0.16549535490466039</v>
+        <v>-0.16596493126876996</v>
       </c>
     </row>
     <row r="117">
@@ -2537,16 +2537,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>-0.055373740888655071</v>
+        <v>-0.056124412183857719</v>
       </c>
       <c r="C117">
-        <v>0.0065623809152315455</v>
+        <v>0.0069385226017157639</v>
       </c>
       <c r="D117">
-        <v>-0.068235789233147964</v>
+        <v>-0.069723686521785205</v>
       </c>
       <c r="E117">
-        <v>-0.042511692544162177</v>
+        <v>-0.042525137845930233</v>
       </c>
     </row>
     <row r="118">
@@ -2554,16 +2554,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>0.039155762704626777</v>
+        <v>0.040190199771283006</v>
       </c>
       <c r="C118">
-        <v>0.0054440643663098481</v>
+        <v>0.0056422939117733413</v>
       </c>
       <c r="D118">
-        <v>0.028485577603441184</v>
+        <v>0.029131490705112409</v>
       </c>
       <c r="E118">
-        <v>0.049825947805812371</v>
+        <v>0.051248908837453602</v>
       </c>
     </row>
     <row r="119">
@@ -2571,16 +2571,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>-0.1076734573267335</v>
+        <v>-0.10771107882579586</v>
       </c>
       <c r="C119">
-        <v>0.0036431946761446795</v>
+        <v>0.0041576503707464844</v>
       </c>
       <c r="D119">
-        <v>-0.11481399722764166</v>
+        <v>-0.1158599351736396</v>
       </c>
       <c r="E119">
-        <v>-0.10053291742582535</v>
+        <v>-0.099562222477952128</v>
       </c>
     </row>
     <row r="120">
@@ -2588,16 +2588,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>-0.040353807518928385</v>
+        <v>-0.040364099898196705</v>
       </c>
       <c r="C120">
-        <v>0.006109500484939424</v>
+        <v>0.0067242297056861093</v>
       </c>
       <c r="D120">
-        <v>-0.052328224442893839</v>
+        <v>-0.053543366319221325</v>
       </c>
       <c r="E120">
-        <v>-0.02837939059496293</v>
+        <v>-0.027184833477172089</v>
       </c>
     </row>
     <row r="121">
@@ -2605,16 +2605,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>-0.0096477959386759224</v>
+        <v>-0.0094422713881212161</v>
       </c>
       <c r="C121">
-        <v>0.0047109111294204101</v>
+        <v>0.0047041662082787945</v>
       </c>
       <c r="D121">
-        <v>-0.018881024431657747</v>
+        <v>-0.018662280587875564</v>
       </c>
       <c r="E121">
-        <v>-0.00041456744569409558</v>
+        <v>-0.00022226218836686809</v>
       </c>
     </row>
     <row r="122">
@@ -2622,16 +2622,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>-0.11378853808854569</v>
+        <v>-0.11310535927185747</v>
       </c>
       <c r="C122">
-        <v>0.0043213769710463675</v>
+        <v>0.0043233601748362913</v>
       </c>
       <c r="D122">
-        <v>-0.12225833686609557</v>
+        <v>-0.12157904700176386</v>
       </c>
       <c r="E122">
-        <v>-0.10531873931099582</v>
+        <v>-0.10463167154195108</v>
       </c>
     </row>
     <row r="123">
@@ -2639,16 +2639,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>-0.076735441932734322</v>
+        <v>-0.075461350455206536</v>
       </c>
       <c r="C123">
-        <v>0.010166440852420086</v>
+        <v>0.0099198776779165776</v>
       </c>
       <c r="D123">
-        <v>-0.096661430542566429</v>
+        <v>-0.094904085356357124</v>
       </c>
       <c r="E123">
-        <v>-0.056809453322902215</v>
+        <v>-0.056018615554055948</v>
       </c>
     </row>
     <row r="124">
@@ -2656,16 +2656,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0.028283582940068761</v>
+        <v>0.027111789564552884</v>
       </c>
       <c r="C124">
-        <v>0.0074468765789732563</v>
+        <v>0.0078061914541693285</v>
       </c>
       <c r="D124">
-        <v>0.013687877319441093</v>
+        <v>0.011811831645826037</v>
       </c>
       <c r="E124">
-        <v>0.042879288560696428</v>
+        <v>0.042411747483279735</v>
       </c>
     </row>
     <row r="125">
@@ -2673,16 +2673,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>-0.060830993774815018</v>
+        <v>-0.060600707654625566</v>
       </c>
       <c r="C125">
-        <v>0.0051045214167023244</v>
+        <v>0.0048282203741441066</v>
       </c>
       <c r="D125">
-        <v>-0.070835752018652956</v>
+        <v>-0.070063924703697739</v>
       </c>
       <c r="E125">
-        <v>-0.050826235530977079</v>
+        <v>-0.051137490605553393</v>
       </c>
     </row>
     <row r="126">
@@ -2690,16 +2690,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>-0.092890553017451499</v>
+        <v>-0.09293419837962355</v>
       </c>
       <c r="C126">
-        <v>0.013233237596214002</v>
+        <v>0.012079992053750861</v>
       </c>
       <c r="D126">
-        <v>-0.11882742978325017</v>
+        <v>-0.11661074540881256</v>
       </c>
       <c r="E126">
-        <v>-0.066953676251652827</v>
+        <v>-0.069257651350434546</v>
       </c>
     </row>
     <row r="127">
@@ -2707,16 +2707,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0.063866006475210596</v>
+        <v>0.0643885047846946</v>
       </c>
       <c r="C127">
-        <v>0.0091641743251634489</v>
+        <v>0.01046733710606455</v>
       </c>
       <c r="D127">
-        <v>0.045904411030112335</v>
+        <v>0.043872729761054524</v>
       </c>
       <c r="E127">
-        <v>0.081827601920308857</v>
+        <v>0.084904279808334676</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>-0.14901963881181524</v>
+        <v>-0.14759042787917928</v>
       </c>
       <c r="C128">
-        <v>0.0036140586108691043</v>
+        <v>0.0035282826334785016</v>
       </c>
       <c r="D128">
-        <v>-0.15610307172098592</v>
+        <v>-0.15450574309037521</v>
       </c>
       <c r="E128">
-        <v>-0.14193620590264455</v>
+        <v>-0.14067511266798335</v>
       </c>
     </row>
     <row r="129">
@@ -2741,16 +2741,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>-0.068112760109371673</v>
+        <v>-0.068583603120186451</v>
       </c>
       <c r="C129">
-        <v>0.0060623347424987439</v>
+        <v>0.0065057576461369669</v>
       </c>
       <c r="D129">
-        <v>-0.079994731611515546</v>
+        <v>-0.081334669144149094</v>
       </c>
       <c r="E129">
-        <v>-0.056230788607227793</v>
+        <v>-0.055832537096223808</v>
       </c>
     </row>
     <row r="130">
@@ -2758,16 +2758,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0.052828211222161719</v>
+        <v>0.052713385596388426</v>
       </c>
       <c r="C130">
-        <v>0.0046666629069386937</v>
+        <v>0.0041221514858554445</v>
       </c>
       <c r="D130">
-        <v>0.043681709416241526</v>
+        <v>0.044634107422211591</v>
       </c>
       <c r="E130">
-        <v>0.061974713028081913</v>
+        <v>0.060792663770565261</v>
       </c>
     </row>
     <row r="131">
@@ -2775,16 +2775,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>-0.08327864732441817</v>
+        <v>-0.083248246093086176</v>
       </c>
       <c r="C131">
-        <v>0.0034975075194824592</v>
+        <v>0.0036920078775299283</v>
       </c>
       <c r="D131">
-        <v>-0.090133643939170574</v>
+        <v>-0.090484457193977463</v>
       </c>
       <c r="E131">
-        <v>-0.076423650709665766</v>
+        <v>-0.076012034992194888</v>
       </c>
     </row>
     <row r="132">
@@ -2792,16 +2792,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>-0.068759599880155994</v>
+        <v>-0.067959029784790834</v>
       </c>
       <c r="C132">
-        <v>0.0061983341627334801</v>
+        <v>0.0058416152786459948</v>
       </c>
       <c r="D132">
-        <v>-0.080908125499031452</v>
+        <v>-0.079408398997609278</v>
       </c>
       <c r="E132">
-        <v>-0.056611074261280536</v>
+        <v>-0.056509660571972389</v>
       </c>
     </row>
     <row r="133">
@@ -2809,16 +2809,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0.0086407630339055651</v>
+        <v>0.0091124381896538088</v>
       </c>
       <c r="C133">
-        <v>0.0045516620693819097</v>
+        <v>0.0051233791932760011</v>
       </c>
       <c r="D133">
-        <v>-0.00028034089605166734</v>
+        <v>-0.00092921248452158649</v>
       </c>
       <c r="E133">
-        <v>0.017561866963862797</v>
+        <v>0.019154088863829202</v>
       </c>
     </row>
     <row r="134">
@@ -2826,16 +2826,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>-0.16154033028097436</v>
+        <v>-0.1609149161053757</v>
       </c>
       <c r="C134">
-        <v>0.0046019531832180664</v>
+        <v>0.004535542811712691</v>
       </c>
       <c r="D134">
-        <v>-0.17056000546993819</v>
+        <v>-0.16980442969615706</v>
       </c>
       <c r="E134">
-        <v>-0.15252065509201054</v>
+        <v>-0.15202540251459434</v>
       </c>
     </row>
     <row r="135">
@@ -2843,16 +2843,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>-0.067483951825654906</v>
+        <v>-0.066204242263282712</v>
       </c>
       <c r="C135">
-        <v>0.0072151461819840012</v>
+        <v>0.0070565643417795304</v>
       </c>
       <c r="D135">
-        <v>-0.081625398383544503</v>
+        <v>-0.080034874499512146</v>
       </c>
       <c r="E135">
-        <v>-0.053342505267765308</v>
+        <v>-0.052373610027053284</v>
       </c>
     </row>
     <row r="136">
@@ -2860,16 +2860,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0.061060592474085976</v>
+        <v>0.061245945185164047</v>
       </c>
       <c r="C136">
-        <v>0.0057546333461375616</v>
+        <v>0.005771709105728131</v>
       </c>
       <c r="D136">
-        <v>0.049781702501232178</v>
+        <v>0.049933586628012179</v>
       </c>
       <c r="E136">
-        <v>0.072339482446939773</v>
+        <v>0.072558303742315922</v>
       </c>
     </row>
     <row r="137">
@@ -2877,16 +2877,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>-0.1021287050070955</v>
+        <v>-0.10127216963694369</v>
       </c>
       <c r="C137">
-        <v>0.0041311881326783024</v>
+        <v>0.0043674815361664128</v>
       </c>
       <c r="D137">
-        <v>-0.11022569578628828</v>
+        <v>-0.10983228808521282</v>
       </c>
       <c r="E137">
-        <v>-0.094031714227902727</v>
+        <v>-0.092712051188674552</v>
       </c>
     </row>
     <row r="138">
@@ -2894,16 +2894,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>-0.058803113997123575</v>
+        <v>-0.059849278217339999</v>
       </c>
       <c r="C138">
-        <v>0.0069362471551680906</v>
+        <v>0.0066790344399189254</v>
       </c>
       <c r="D138">
-        <v>-0.072397926785566391</v>
+        <v>-0.072939963421692164</v>
       </c>
       <c r="E138">
-        <v>-0.045208301208680766</v>
+        <v>-0.046758593012987834</v>
       </c>
     </row>
     <row r="139">
@@ -2911,16 +2911,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0.006045284364052295</v>
+        <v>0.0052801015537798516</v>
       </c>
       <c r="C139">
-        <v>0.0052413065069312429</v>
+        <v>0.0051348467809479567</v>
       </c>
       <c r="D139">
-        <v>-0.0042275013563190852</v>
+        <v>-0.0047840272340912713</v>
       </c>
       <c r="E139">
-        <v>0.016318070084423673</v>
+        <v>0.015344230341650975</v>
       </c>
     </row>
     <row r="140">
@@ -2928,16 +2928,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>-0.11095722950350918</v>
+        <v>-0.11019577390534288</v>
       </c>
       <c r="C140">
-        <v>0.0048257780180325635</v>
+        <v>0.0053418604469292067</v>
       </c>
       <c r="D140">
-        <v>-0.12041564265091906</v>
+        <v>-0.12066569903151637</v>
       </c>
       <c r="E140">
-        <v>-0.10149881635609931</v>
+        <v>-0.099725848779169388</v>
       </c>
     </row>
     <row r="141">
@@ -2945,16 +2945,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>-0.075974264627295326</v>
+        <v>-0.075615040354202884</v>
       </c>
       <c r="C141">
-        <v>0.011344863322400079</v>
+        <v>0.011376432562667755</v>
       </c>
       <c r="D141">
-        <v>-0.098209933985311984</v>
+        <v>-0.097912589741245476</v>
       </c>
       <c r="E141">
-        <v>-0.053738595269278669</v>
+        <v>-0.053317490967160285</v>
       </c>
     </row>
     <row r="142">
@@ -2962,16 +2962,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>0.038439735599106482</v>
+        <v>0.038675272797920074</v>
       </c>
       <c r="C142">
-        <v>0.0080236872231295893</v>
+        <v>0.0083987639831911605</v>
       </c>
       <c r="D142">
-        <v>0.022713494475215347</v>
+        <v>0.022213886183643467</v>
       </c>
       <c r="E142">
-        <v>0.054165976722997618</v>
+        <v>0.055136659412196684</v>
       </c>
     </row>
     <row r="143">
@@ -2979,16 +2979,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>-0.064384034372267737</v>
+        <v>-0.063876743335211872</v>
       </c>
       <c r="C143">
-        <v>0.0058492894020203742</v>
+        <v>0.0056061954290365888</v>
       </c>
       <c r="D143">
-        <v>-0.075848522732327048</v>
+        <v>-0.074864776203097297</v>
       </c>
       <c r="E143">
-        <v>-0.052919546012208434</v>
+        <v>-0.052888710467326447</v>
       </c>
     </row>
     <row r="144">
@@ -2996,16 +2996,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>-0.1173928462173907</v>
+        <v>-0.11667647024968275</v>
       </c>
       <c r="C144">
-        <v>0.014243031352962916</v>
+        <v>0.014301062747698025</v>
       </c>
       <c r="D144">
-        <v>-0.14530889822562304</v>
+        <v>-0.14470627219049773</v>
       </c>
       <c r="E144">
-        <v>-0.089476794209158342</v>
+        <v>-0.088646668308867776</v>
       </c>
     </row>
     <row r="145">
@@ -3013,16 +3013,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0.069345187269563777</v>
+        <v>0.069682018401118248</v>
       </c>
       <c r="C145">
-        <v>0.0097785447241396355</v>
+        <v>0.0095946152911052397</v>
       </c>
       <c r="D145">
-        <v>0.050179438327564732</v>
+        <v>0.050876760984057842</v>
       </c>
       <c r="E145">
-        <v>0.088510936211562821</v>
+        <v>0.088487275818178654</v>
       </c>
     </row>
     <row r="146">
@@ -3030,16 +3030,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>-0.13728350980954085</v>
+        <v>-0.13629869705750158</v>
       </c>
       <c r="C146">
-        <v>0.0040760775086278889</v>
+        <v>0.0043478709590449955</v>
       </c>
       <c r="D146">
-        <v>-0.14527248416599214</v>
+        <v>-0.14482037780215276</v>
       </c>
       <c r="E146">
-        <v>-0.12929453545308955</v>
+        <v>-0.12777701631285041</v>
       </c>
     </row>
     <row r="147">
@@ -3047,16 +3047,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>-0.077209107859891962</v>
+        <v>-0.074146278670052204</v>
       </c>
       <c r="C147">
-        <v>0.0071750298975294018</v>
+        <v>0.0076662548785999202</v>
       </c>
       <c r="D147">
-        <v>-0.091271924314388048</v>
+        <v>-0.089171880211111401</v>
       </c>
       <c r="E147">
-        <v>-0.063146291405395877</v>
+        <v>-0.059120677128993007</v>
       </c>
     </row>
     <row r="148">
@@ -3064,16 +3064,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0.068000437363003513</v>
+        <v>0.067955915166725861</v>
       </c>
       <c r="C148">
-        <v>0.0052723952889582272</v>
+        <v>0.0056810275300892502</v>
       </c>
       <c r="D148">
-        <v>0.057666720530729423</v>
+        <v>0.056821292412505858</v>
       </c>
       <c r="E148">
-        <v>0.078334154195277603</v>
+        <v>0.079090537920945864</v>
       </c>
     </row>
     <row r="149">
@@ -3081,16 +3081,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>-0.079169002031286989</v>
+        <v>-0.078726524685844956</v>
       </c>
       <c r="C149">
-        <v>0.0044862197256005688</v>
+        <v>0.0041074978554200507</v>
       </c>
       <c r="D149">
-        <v>-0.087961841177656583</v>
+        <v>-0.086777082150571491</v>
       </c>
       <c r="E149">
-        <v>-0.070376162884917395</v>
+        <v>-0.070675967221118421</v>
       </c>
     </row>
     <row r="150">
@@ -3098,16 +3098,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>-0.091058470223139121</v>
+        <v>-0.091513820892528935</v>
       </c>
       <c r="C150">
-        <v>0.0077759097191383115</v>
+        <v>0.0074818249933016057</v>
       </c>
       <c r="D150">
-        <v>-0.10629899065215626</v>
+        <v>-0.10617794590725572</v>
       </c>
       <c r="E150">
-        <v>-0.075817949794121986</v>
+        <v>-0.076849695877802146</v>
       </c>
     </row>
     <row r="151">
@@ -3115,16 +3115,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0.026000355249977965</v>
+        <v>0.02632498103588576</v>
       </c>
       <c r="C151">
-        <v>0.0056256165233525704</v>
+        <v>0.0053679135563112299</v>
       </c>
       <c r="D151">
-        <v>0.014974336861550452</v>
+        <v>0.015804051245564828</v>
       </c>
       <c r="E151">
-        <v>0.037026373638405476</v>
+        <v>0.036845910826206696</v>
       </c>
     </row>
     <row r="152">
@@ -3132,16 +3132,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>-0.14350013352661423</v>
+        <v>-0.14217148030625676</v>
       </c>
       <c r="C152">
-        <v>0.0048667735507402577</v>
+        <v>0.0051288085745126669</v>
       </c>
       <c r="D152">
-        <v>-0.15303884782861873</v>
+        <v>-0.15222377512969154</v>
       </c>
       <c r="E152">
-        <v>-0.13396141922460972</v>
+        <v>-0.13211918548282198</v>
       </c>
     </row>
     <row r="153">
@@ -3149,16 +3149,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>-0.066742286713768958</v>
+        <v>-0.066554465968779314</v>
       </c>
       <c r="C153">
-        <v>0.0078314968298384101</v>
+        <v>0.007930245480534474</v>
       </c>
       <c r="D153">
-        <v>-0.082091760043079706</v>
+        <v>-0.082097484280808708</v>
       </c>
       <c r="E153">
-        <v>-0.051392813384458211</v>
+        <v>-0.051011447656749927</v>
       </c>
     </row>
     <row r="154">
@@ -3166,16 +3166,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0.083169152767630108</v>
+        <v>0.082722194738200222</v>
       </c>
       <c r="C154">
-        <v>0.0060055353760475501</v>
+        <v>0.0064316383881018726</v>
       </c>
       <c r="D154">
-        <v>0.071398503160564369</v>
+        <v>0.070116396659439972</v>
       </c>
       <c r="E154">
-        <v>0.094939802374695847</v>
+        <v>0.095327992816960472</v>
       </c>
     </row>
     <row r="155">
@@ -3183,16 +3183,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>-0.092616009657075934</v>
+        <v>-0.092129933804491637</v>
       </c>
       <c r="C155">
-        <v>0.0052260470476924916</v>
+        <v>0.0055351591455413112</v>
       </c>
       <c r="D155">
-        <v>-0.10285888734692837</v>
+        <v>-0.10297866150339413</v>
       </c>
       <c r="E155">
-        <v>-0.082373131967223498</v>
+        <v>-0.081281206105589143</v>
       </c>
     </row>
     <row r="156">
@@ -3200,16 +3200,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>-0.082998275282338704</v>
+        <v>-0.083130760235527026</v>
       </c>
       <c r="C156">
-        <v>0.0087231030825024262</v>
+        <v>0.0076376783808549207</v>
       </c>
       <c r="D156">
-        <v>-0.10009526601637708</v>
+        <v>-0.098100355657626925</v>
       </c>
       <c r="E156">
-        <v>-0.065901284548300326</v>
+        <v>-0.068161164813427128</v>
       </c>
     </row>
     <row r="157">
@@ -3217,16 +3217,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0.025134603740510277</v>
+        <v>0.025319961916896491</v>
       </c>
       <c r="C157">
-        <v>0.0064545123084110831</v>
+        <v>0.0070539886988295851</v>
       </c>
       <c r="D157">
-        <v>0.012483975164195934</v>
+        <v>0.011494378844658775</v>
       </c>
       <c r="E157">
-        <v>0.037785232316824617</v>
+        <v>0.039145544989134209</v>
       </c>
     </row>
     <row r="158">
@@ -3234,16 +3234,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>-0.1141410877850071</v>
+        <v>-0.11290558246942362</v>
       </c>
       <c r="C158">
-        <v>0.0064912920239342696</v>
+        <v>0.0068544899902028261</v>
       </c>
       <c r="D158">
-        <v>-0.12686386980967387</v>
+        <v>-0.12634022713835807</v>
       </c>
       <c r="E158">
-        <v>-0.10141830576034033</v>
+        <v>-0.09947093780048917</v>
       </c>
     </row>
     <row r="159">
@@ -3251,16 +3251,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>-0.083236520063530717</v>
+        <v>-0.084263234103784876</v>
       </c>
       <c r="C159">
-        <v>0.015140879234940475</v>
+        <v>0.013427872039414616</v>
       </c>
       <c r="D159">
-        <v>-0.112912292692105</v>
+        <v>-0.11058155826317539</v>
       </c>
       <c r="E159">
-        <v>-0.053560747434956438</v>
+        <v>-0.057944909944394357</v>
       </c>
     </row>
     <row r="160">
@@ -3268,16 +3268,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0.042196034512521872</v>
+        <v>0.041527558595518502</v>
       </c>
       <c r="C160">
-        <v>0.010561910117648335</v>
+        <v>0.0092401991573474226</v>
       </c>
       <c r="D160">
-        <v>0.021494935302149468</v>
+        <v>0.023416978154583778</v>
       </c>
       <c r="E160">
-        <v>0.06289713372289428</v>
+        <v>0.059638139036453222</v>
       </c>
     </row>
     <row r="161">
@@ -3285,16 +3285,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>-0.070007972326345744</v>
+        <v>-0.070392317571254512</v>
       </c>
       <c r="C161">
-        <v>0.007794013772830388</v>
+        <v>0.0069907142305899615</v>
       </c>
       <c r="D161">
-        <v>-0.085284080932955711</v>
+        <v>-0.084093980081602862</v>
       </c>
       <c r="E161">
-        <v>-0.054731863719735777</v>
+        <v>-0.056690655060906169</v>
       </c>
     </row>
     <row r="162">
@@ -3302,16 +3302,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>-0.13469555139155634</v>
+        <v>-0.13586974909646796</v>
       </c>
       <c r="C162">
-        <v>0.017518591453418809</v>
+        <v>0.017329559736606184</v>
       </c>
       <c r="D162">
-        <v>-0.16903163463151069</v>
+        <v>-0.16983534561948027</v>
       </c>
       <c r="E162">
-        <v>-0.10035946815160199</v>
+        <v>-0.10190415257345564</v>
       </c>
     </row>
     <row r="163">
@@ -3319,16 +3319,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>0.075680405648697602</v>
+        <v>0.0768861348424216</v>
       </c>
       <c r="C163">
-        <v>0.011933588806357582</v>
+        <v>0.011836193097710942</v>
       </c>
       <c r="D163">
-        <v>0.052290814099856683</v>
+        <v>0.05368742897593054</v>
       </c>
       <c r="E163">
-        <v>0.09906999719753852</v>
+        <v>0.10008484070891266</v>
       </c>
     </row>
   </sheetData>
